--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,25 +1076,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="str">
-        <v>34.372325</v>
+        <v>34.352344</v>
       </c>
       <c r="C13" t="str">
-        <v>133.946185</v>
+        <v>133.987044</v>
       </c>
       <c r="D13" t="str">
-        <v>高松市立下笠居西部保育所</v>
+        <v>高松市立下笠居東部保育所</v>
       </c>
       <c r="E13" t="str">
-        <v>高松市亀水町1424-2</v>
+        <v>高松市植松町44-4</v>
       </c>
       <c r="F13" t="str">
-        <v>087-881-4710</v>
+        <v>087-881-4752</v>
       </c>
       <c r="G13" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h13/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h14/</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -1109,7 +1109,7 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M13" t="str">
         <v>1歳～</v>
@@ -1132,25 +1132,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="str">
-        <v>34.352344</v>
+        <v>34.345215</v>
       </c>
       <c r="C14" t="str">
-        <v>133.987044</v>
+        <v>133.996915</v>
       </c>
       <c r="D14" t="str">
-        <v>高松市立下笠居東部保育所</v>
+        <v>高松市立香西保育所</v>
       </c>
       <c r="E14" t="str">
-        <v>高松市植松町44-4</v>
+        <v>高松市香西西町57-9</v>
       </c>
       <c r="F14" t="str">
-        <v>087-881-4752</v>
+        <v>087-881-2328</v>
       </c>
       <c r="G14" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h14/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h15/</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -1165,10 +1165,10 @@
         <v/>
       </c>
       <c r="L14" t="str">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M14" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N14" t="str">
         <v>月火水木金土</v>
@@ -1177,7 +1177,7 @@
         <v>07:30</v>
       </c>
       <c r="P14" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q14" t="str">
         <v/>
@@ -1188,25 +1188,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="str">
-        <v>34.345215</v>
+        <v>34.32833</v>
       </c>
       <c r="C15" t="str">
-        <v>133.996915</v>
+        <v>134.005514</v>
       </c>
       <c r="D15" t="str">
-        <v>高松市立香西保育所</v>
+        <v>高松市立弦打保育所</v>
       </c>
       <c r="E15" t="str">
-        <v>高松市香西西町57-9</v>
+        <v>高松市鶴市町359-1</v>
       </c>
       <c r="F15" t="str">
-        <v>087-881-2328</v>
+        <v>087-881-2552</v>
       </c>
       <c r="G15" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h15/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h16/</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -1221,7 +1221,7 @@
         <v/>
       </c>
       <c r="L15" t="str">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="M15" t="str">
         <v>3か月～</v>
@@ -1239,30 +1239,30 @@
         <v/>
       </c>
       <c r="R15" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="str">
-        <v>34.32833</v>
+        <v>34.327852</v>
       </c>
       <c r="C16" t="str">
-        <v>134.005514</v>
+        <v>133.993597</v>
       </c>
       <c r="D16" t="str">
-        <v>高松市立弦打保育所</v>
+        <v>高松市立鬼無保育所</v>
       </c>
       <c r="E16" t="str">
-        <v>高松市鶴市町359-1</v>
+        <v>高松市鬼無町佐藤41-1</v>
       </c>
       <c r="F16" t="str">
-        <v>087-881-2552</v>
+        <v>087-881-2844</v>
       </c>
       <c r="G16" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h16/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h17/</v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -1295,30 +1295,30 @@
         <v/>
       </c>
       <c r="R16" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="str">
-        <v>34.327852</v>
+        <v>34.277337</v>
       </c>
       <c r="C17" t="str">
-        <v>133.993597</v>
+        <v>134.070381</v>
       </c>
       <c r="D17" t="str">
-        <v>高松市立鬼無保育所</v>
+        <v>高松市立三谷保育所</v>
       </c>
       <c r="E17" t="str">
-        <v>高松市鬼無町佐藤41-1</v>
+        <v>高松市三谷町1193-1</v>
       </c>
       <c r="F17" t="str">
-        <v>087-881-2844</v>
+        <v>087-889-0720</v>
       </c>
       <c r="G17" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h17/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h18/</v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1333,7 +1333,7 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M17" t="str">
         <v>3か月～</v>
@@ -1345,7 +1345,7 @@
         <v>07:30</v>
       </c>
       <c r="P17" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q17" t="str">
         <v/>
@@ -1356,25 +1356,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="str">
-        <v>34.277337</v>
+        <v>34.29128</v>
       </c>
       <c r="C18" t="str">
-        <v>134.070381</v>
+        <v>134.051165</v>
       </c>
       <c r="D18" t="str">
-        <v>高松市立三谷保育所</v>
+        <v>高松市立多肥保育所</v>
       </c>
       <c r="E18" t="str">
-        <v>高松市三谷町1193-1</v>
+        <v>高松市多肥上町424</v>
       </c>
       <c r="F18" t="str">
-        <v>087-889-0720</v>
+        <v>087-889-0475</v>
       </c>
       <c r="G18" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h18/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h19/</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -1389,7 +1389,7 @@
         <v/>
       </c>
       <c r="L18" t="str">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="M18" t="str">
         <v>3か月～</v>
@@ -1401,7 +1401,7 @@
         <v>07:30</v>
       </c>
       <c r="P18" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q18" t="str">
         <v/>
@@ -1412,25 +1412,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="str">
-        <v>34.29128</v>
+        <v>34.27678</v>
       </c>
       <c r="C19" t="str">
-        <v>134.051165</v>
+        <v>134.091489</v>
       </c>
       <c r="D19" t="str">
-        <v>高松市立多肥保育所</v>
+        <v>高松市立川島保育所</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市多肥上町424</v>
+        <v>高松市川島東町253-4</v>
       </c>
       <c r="F19" t="str">
-        <v>087-889-0475</v>
+        <v>087-848-0075</v>
       </c>
       <c r="G19" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h19/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h21/</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1445,7 +1445,7 @@
         <v/>
       </c>
       <c r="L19" t="str">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="M19" t="str">
         <v>3か月～</v>
@@ -1468,25 +1468,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="str">
-        <v>34.27678</v>
+        <v>34.240061</v>
       </c>
       <c r="C20" t="str">
-        <v>134.091489</v>
+        <v>134.078063</v>
       </c>
       <c r="D20" t="str">
-        <v>高松市立川島保育所</v>
+        <v>高松市立西植田保育所</v>
       </c>
       <c r="E20" t="str">
-        <v>高松市川島東町253-4</v>
+        <v>高松市西植田町2350-1</v>
       </c>
       <c r="F20" t="str">
-        <v>087-848-0075</v>
+        <v>087-849-0102</v>
       </c>
       <c r="G20" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h21/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h22/</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1501,10 +1501,10 @@
         <v/>
       </c>
       <c r="L20" t="str">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M20" t="str">
-        <v>3か月～</v>
+        <v>1歳～</v>
       </c>
       <c r="N20" t="str">
         <v>月火水木金土</v>
@@ -1513,7 +1513,7 @@
         <v>07:30</v>
       </c>
       <c r="P20" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q20" t="str">
         <v/>
@@ -1524,25 +1524,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="str">
-        <v>34.240061</v>
+        <v>34.239913</v>
       </c>
       <c r="C21" t="str">
-        <v>134.078063</v>
+        <v>134.097878</v>
       </c>
       <c r="D21" t="str">
-        <v>高松市立西植田保育所</v>
+        <v>高松市立東植田保育所</v>
       </c>
       <c r="E21" t="str">
-        <v>高松市西植田町2350-1</v>
+        <v>高松市東植田町2023-1</v>
       </c>
       <c r="F21" t="str">
-        <v>087-849-0102</v>
+        <v>087-849-0082</v>
       </c>
       <c r="G21" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h22/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h23/</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1557,7 +1557,7 @@
         <v/>
       </c>
       <c r="L21" t="str">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M21" t="str">
         <v>1歳～</v>
@@ -1580,25 +1580,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="str">
-        <v>34.239913</v>
+        <v>34.26789</v>
       </c>
       <c r="C22" t="str">
-        <v>134.097878</v>
+        <v>134.027335</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市立東植田保育所</v>
+        <v>高松市立大野保育所</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市東植田町2023-1</v>
+        <v>高松市香川町大野1063-1</v>
       </c>
       <c r="F22" t="str">
-        <v>087-849-0082</v>
+        <v>087-886-9356</v>
       </c>
       <c r="G22" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h23/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h24/</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1613,10 +1613,10 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="M22" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N22" t="str">
         <v>月火水木金土</v>
@@ -1625,7 +1625,7 @@
         <v>07:30</v>
       </c>
       <c r="P22" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q22" t="str">
         <v/>
@@ -1636,25 +1636,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="str">
-        <v>34.26789</v>
+        <v>34.257828</v>
       </c>
       <c r="C23" t="str">
-        <v>134.027335</v>
+        <v>134.036939</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市立大野保育所</v>
+        <v>高松市立浅野保育所</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市香川町大野1063-1</v>
+        <v>高松市香川町浅野816-1</v>
       </c>
       <c r="F23" t="str">
-        <v>087-886-9356</v>
+        <v>087-889-2416</v>
       </c>
       <c r="G23" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h24/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1669,7 +1669,7 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="M23" t="str">
         <v>3か月～</v>
@@ -1692,25 +1692,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="str">
-        <v>34.257828</v>
+        <v>34.229495</v>
       </c>
       <c r="C24" t="str">
-        <v>134.036939</v>
+        <v>134.040497</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市立浅野保育所</v>
+        <v>高松市立川東南保育所</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市香川町浅野816-1</v>
+        <v>高松市香川町川内原574-56</v>
       </c>
       <c r="F24" t="str">
-        <v>087-889-2416</v>
+        <v>087-879-5784</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1725,10 +1725,10 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M24" t="str">
-        <v>3か月～</v>
+        <v>1歳～</v>
       </c>
       <c r="N24" t="str">
         <v>月火水木金土</v>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="str">
-        <v>34.229495</v>
+        <v>34.307041</v>
       </c>
       <c r="C25" t="str">
-        <v>134.040497</v>
+        <v>133.964275</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市立川東南保育所</v>
+        <v>高松市立国分寺北部保育所</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市香川町川内原574-56</v>
+        <v>高松市国分寺町新居1906-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-879-5784</v>
+        <v>087-874-1487</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1781,7 +1781,7 @@
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M25" t="str">
         <v>1歳～</v>
@@ -1793,7 +1793,7 @@
         <v>07:30</v>
       </c>
       <c r="P25" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -1804,25 +1804,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="str">
-        <v>34.307041</v>
+        <v>34.284657</v>
       </c>
       <c r="C26" t="str">
-        <v>133.964275</v>
+        <v>133.960908</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市立国分寺北部保育所</v>
+        <v>高松市立国分寺南部保育所</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市国分寺町新居1906-1</v>
+        <v>高松市国分寺町福家甲3106-1</v>
       </c>
       <c r="F26" t="str">
-        <v>087-874-1487</v>
+        <v>087-874-1120</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
       </c>
       <c r="H26" t="str">
         <v/>
@@ -1837,7 +1837,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M26" t="str">
         <v>1歳～</v>
@@ -1860,25 +1860,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="str">
-        <v>34.284657</v>
+        <v>34.345964</v>
       </c>
       <c r="C27" t="str">
-        <v>133.960908</v>
+        <v>134.126933</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市立国分寺南部保育所</v>
+        <v>高松市立牟礼保育所</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市国分寺町福家甲3106-1</v>
+        <v>高松市牟礼町牟礼1978-1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-874-1120</v>
+        <v>087-845-1647</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -1893,10 +1893,10 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M27" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N27" t="str">
         <v>月火水木金土</v>
@@ -1905,7 +1905,7 @@
         <v>07:30</v>
       </c>
       <c r="P27" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q27" t="str">
         <v/>
@@ -1916,25 +1916,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="str">
-        <v>34.345964</v>
+        <v>34.341172</v>
       </c>
       <c r="C28" t="str">
-        <v>134.126933</v>
+        <v>134.140155</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市立牟礼保育所</v>
+        <v>高松市立田井保育所</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市牟礼町牟礼1978-1</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F28" t="str">
-        <v>087-845-1647</v>
+        <v>087-845-5411</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1949,7 +1949,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M28" t="str">
         <v>3か月～</v>
@@ -1961,7 +1961,7 @@
         <v>07:30</v>
       </c>
       <c r="P28" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -1972,31 +1972,31 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="str">
-        <v>34.341172</v>
+        <v>34.358509</v>
       </c>
       <c r="C29" t="str">
-        <v>134.140155</v>
+        <v>133.967533</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市立田井保育所</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F29" t="str">
-        <v>087-845-5411</v>
+        <v>087-881-2515</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H29" t="str">
         <v/>
       </c>
       <c r="I29" t="str">
-        <v>認定公立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J29" t="str">
         <v/>
@@ -2005,10 +2005,10 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>80</v>
+        <v>1号認定 40、2・3号認定 105</v>
       </c>
       <c r="M29" t="str">
-        <v>3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N29" t="str">
         <v>月火水木金土</v>
@@ -2023,30 +2023,30 @@
         <v/>
       </c>
       <c r="R29" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="str">
-        <v>34.358509</v>
+        <v>34.328643</v>
       </c>
       <c r="C30" t="str">
-        <v>133.967533</v>
+        <v>134.156038</v>
       </c>
       <c r="D30" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F30" t="str">
-        <v>087-881-2515</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -2061,7 +2061,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>1号認定 40、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 138</v>
       </c>
       <c r="M30" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2073,7 +2073,7 @@
         <v>07:30</v>
       </c>
       <c r="P30" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="str">
-        <v>34.328643</v>
+        <v>34.385761</v>
       </c>
       <c r="C31" t="str">
-        <v>134.156038</v>
+        <v>134.131516</v>
       </c>
       <c r="D31" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F31" t="str">
-        <v>087-845-0234</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -2117,7 +2117,7 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>1号認定 90、2・3号認定 138</v>
+        <v>1号認定 45、2・3号認定 105</v>
       </c>
       <c r="M31" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2129,7 +2129,7 @@
         <v>07:30</v>
       </c>
       <c r="P31" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q31" t="str">
         <v/>
@@ -2140,25 +2140,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="str">
-        <v>34.385761</v>
+        <v>34.242096</v>
       </c>
       <c r="C32" t="str">
-        <v>134.131516</v>
+        <v>134.005834</v>
       </c>
       <c r="D32" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F32" t="str">
-        <v>087-871-2535</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G32" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -2173,7 +2173,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>1号認定 45、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 179</v>
       </c>
       <c r="M32" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2185,7 +2185,7 @@
         <v>07:30</v>
       </c>
       <c r="P32" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q32" t="str">
         <v/>
@@ -2196,25 +2196,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="str">
-        <v>34.242096</v>
+        <v>34.188524</v>
       </c>
       <c r="C33" t="str">
-        <v>134.005834</v>
+        <v>134.061382</v>
       </c>
       <c r="D33" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F33" t="str">
-        <v>087-887-7876</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G33" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -2229,7 +2229,7 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>1号認定 90、2・3号認定 179</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M33" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2252,25 +2252,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
-        <v>34.188524</v>
+        <v>34.237755</v>
       </c>
       <c r="C34" t="str">
-        <v>134.061382</v>
+        <v>134.035134</v>
       </c>
       <c r="D34" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F34" t="str">
-        <v>087-890-2022</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G34" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 153</v>
       </c>
       <c r="M34" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2308,25 +2308,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="str">
-        <v>34.237755</v>
+        <v>34.342609</v>
       </c>
       <c r="C35" t="str">
-        <v>134.035134</v>
+        <v>134.099868</v>
       </c>
       <c r="D35" t="str">
-        <v>高松市川東こども園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F35" t="str">
-        <v>087-879-4602</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G35" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -2341,7 +2341,7 @@
         <v/>
       </c>
       <c r="L35" t="str">
-        <v>1号認定 90、2・3号認定 153</v>
+        <v>1号認定 9、2・3号認定 135</v>
       </c>
       <c r="M35" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2364,25 +2364,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="str">
-        <v>34.342609</v>
+        <v>34.2959789</v>
       </c>
       <c r="C36" t="str">
-        <v>134.099868</v>
+        <v>134.0789659</v>
       </c>
       <c r="D36" t="str">
-        <v>屋島こども園</v>
+        <v>林こども園</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F36" t="str">
-        <v>087-841-9711</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G36" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -2397,7 +2397,7 @@
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>1号認定 9、2・3号認定 135</v>
+        <v>1号認定 105、2・3号認定 194</v>
       </c>
       <c r="M36" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2420,31 +2420,31 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="str">
-        <v>34.2959789</v>
+        <v>34.420292</v>
       </c>
       <c r="C37" t="str">
-        <v>134.0789659</v>
+        <v>134.057016</v>
       </c>
       <c r="D37" t="str">
-        <v>林こども園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F37" t="str">
-        <v>087-865-1676</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G37" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>小規模保育施設</v>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -2453,54 +2453,54 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>1号認定 105、2・3号認定 194</v>
+        <v>6</v>
       </c>
       <c r="M37" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N37" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O37" t="str">
-        <v>07:30</v>
+        <v>09:00</v>
       </c>
       <c r="P37" t="str">
-        <v>19:00</v>
+        <v>16:00</v>
       </c>
       <c r="Q37" t="str">
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="str">
-        <v>34.420292</v>
+        <v>34.327973</v>
       </c>
       <c r="C38" t="str">
-        <v>134.057016</v>
+        <v>134.058101</v>
       </c>
       <c r="D38" t="str">
-        <v>高松市小規模保育事業所男木保育所</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市男木町165</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F38" t="str">
-        <v>087-873-0614</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G38" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38" t="str">
-        <v>小規模保育施設</v>
+        <v>認定私立保育所</v>
       </c>
       <c r="J38" t="str">
         <v/>
@@ -2509,48 +2509,48 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="M38" t="str">
-        <v>1歳児～</v>
+        <v>2か月～</v>
       </c>
       <c r="N38" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O38" t="str">
-        <v>09:00</v>
+        <v>07:00</v>
       </c>
       <c r="P38" t="str">
-        <v>16:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q38" t="str">
         <v/>
       </c>
       <c r="R38" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="str">
-        <v>34.327973</v>
+        <v>34.333037</v>
       </c>
       <c r="C39" t="str">
-        <v>134.058101</v>
+        <v>134.051372</v>
       </c>
       <c r="D39" t="str">
-        <v>こぶし今里保育園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市今里町一丁目7-2</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F39" t="str">
-        <v>087-834-1946</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G39" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2565,10 +2565,10 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M39" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N39" t="str">
         <v>月火水木金土</v>
@@ -2583,30 +2583,30 @@
         <v/>
       </c>
       <c r="R39" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="str">
-        <v>34.333037</v>
+        <v>34.328268</v>
       </c>
       <c r="C40" t="str">
-        <v>134.051372</v>
+        <v>134.066087</v>
       </c>
       <c r="D40" t="str">
-        <v>敬愛保育園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市藤塚町三丁目18-2</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F40" t="str">
-        <v>087-831-6778</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G40" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2621,10 +2621,10 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M40" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N40" t="str">
         <v>月火水木金土</v>
@@ -2644,25 +2644,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="str">
-        <v>34.328268</v>
+        <v>34.304804</v>
       </c>
       <c r="C41" t="str">
-        <v>134.066087</v>
+        <v>134.02164</v>
       </c>
       <c r="D41" t="str">
-        <v>平安保育園</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市上福岡町894-8</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F41" t="str">
-        <v>087-833-7734</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2677,10 +2677,10 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M41" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N41" t="str">
         <v>月火水木金土</v>
@@ -2700,25 +2700,25 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="str">
-        <v>34.304804</v>
+        <v>34.316835</v>
       </c>
       <c r="C42" t="str">
-        <v>134.02164</v>
+        <v>134.024336</v>
       </c>
       <c r="D42" t="str">
-        <v>勅使百華保育園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F42" t="str">
-        <v>087-865-2998</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G42" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2733,10 +2733,10 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M42" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N42" t="str">
         <v>月火水木金土</v>
@@ -2751,30 +2751,30 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="str">
-        <v>34.316835</v>
+        <v>34.304304</v>
       </c>
       <c r="C43" t="str">
-        <v>134.024336</v>
+        <v>134.037996</v>
       </c>
       <c r="D43" t="str">
-        <v>西春日保育所</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市西春日町1407</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F43" t="str">
-        <v>087-866-4166</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G43" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2789,7 +2789,7 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M43" t="str">
         <v>2か月～</v>
@@ -2807,30 +2807,30 @@
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="str">
-        <v>34.304304</v>
+        <v>34.309654</v>
       </c>
       <c r="C44" t="str">
-        <v>134.037996</v>
+        <v>134.0631</v>
       </c>
       <c r="D44" t="str">
-        <v>太田西保育園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市太田下町2025</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F44" t="str">
-        <v>087-865-0601</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G44" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2845,7 +2845,7 @@
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M44" t="str">
         <v>2か月～</v>
@@ -2863,30 +2863,30 @@
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="str">
-        <v>34.309654</v>
+        <v>34.350107</v>
       </c>
       <c r="C45" t="str">
-        <v>134.0631</v>
+        <v>134.091559</v>
       </c>
       <c r="D45" t="str">
-        <v>こぶし中央保育園</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市木太町5089-9</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F45" t="str">
-        <v>087-866-7169</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G45" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -2901,10 +2901,10 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M45" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N45" t="str">
         <v>月火水木金土</v>
@@ -2913,36 +2913,36 @@
         <v>07:00</v>
       </c>
       <c r="P45" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q45" t="str">
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="str">
-        <v>34.350107</v>
+        <v>34.300415</v>
       </c>
       <c r="C46" t="str">
-        <v>134.091559</v>
+        <v>134.115798</v>
       </c>
       <c r="D46" t="str">
-        <v>あすなろ保育園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市屋島西町2453-6</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F46" t="str">
-        <v>087-843-3143</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2957,10 +2957,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M46" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2969,36 +2969,36 @@
         <v>07:00</v>
       </c>
       <c r="P46" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q46" t="str">
         <v/>
       </c>
       <c r="R46" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="str">
-        <v>34.300415</v>
+        <v>34.299537</v>
       </c>
       <c r="C47" t="str">
-        <v>134.115798</v>
+        <v>134.092378</v>
       </c>
       <c r="D47" t="str">
-        <v>西光寺保育所</v>
+        <v>川添保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市前田西町167-1</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F47" t="str">
-        <v>087-847-6237</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3013,10 +3013,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M47" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3031,30 +3031,30 @@
         <v/>
       </c>
       <c r="R47" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" t="str">
-        <v>34.299537</v>
+        <v>34.277465</v>
       </c>
       <c r="C48" t="str">
-        <v>134.092378</v>
+        <v>134.030037</v>
       </c>
       <c r="D48" t="str">
-        <v>川添保育園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市下田井町52</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F48" t="str">
-        <v>087-847-5078</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3069,10 +3069,10 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M48" t="str">
-        <v>3か月～</v>
+        <v>6か月～</v>
       </c>
       <c r="N48" t="str">
         <v>月火水木金土</v>
@@ -3092,25 +3092,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="str">
-        <v>34.277465</v>
+        <v>34.284927</v>
       </c>
       <c r="C49" t="str">
-        <v>134.030037</v>
+        <v>134.010137</v>
       </c>
       <c r="D49" t="str">
-        <v>高松南保育園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市寺井町453-1</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F49" t="str">
-        <v>087-886-0275</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3125,10 +3125,10 @@
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="M49" t="str">
-        <v>6か月～</v>
+        <v>7か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3148,25 +3148,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="str">
-        <v>34.284927</v>
+        <v>34.306205</v>
       </c>
       <c r="C50" t="str">
-        <v>134.010137</v>
+        <v>133.998614</v>
       </c>
       <c r="D50" t="str">
-        <v>円座百華保育園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市円座町1478-1</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F50" t="str">
-        <v>087-885-1203</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3181,10 +3181,10 @@
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="M50" t="str">
-        <v>7か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N50" t="str">
         <v>月火水木金土</v>
@@ -3204,25 +3204,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="str">
-        <v>34.306205</v>
+        <v>34.285075</v>
       </c>
       <c r="C51" t="str">
-        <v>133.998614</v>
+        <v>134.110374</v>
       </c>
       <c r="D51" t="str">
-        <v>高松西保育園</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市檀紙町1521-4</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F51" t="str">
-        <v>087-886-5006</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3240,7 +3240,7 @@
         <v>130</v>
       </c>
       <c r="M51" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N51" t="str">
         <v>月火水木金土</v>
@@ -3260,25 +3260,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="str">
-        <v>34.285075</v>
+        <v>34.311827</v>
       </c>
       <c r="C52" t="str">
-        <v>134.110374</v>
+        <v>134.08609</v>
       </c>
       <c r="D52" t="str">
-        <v>若葉保育園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F52" t="str">
-        <v>087-847-7932</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3293,7 +3293,7 @@
         <v/>
       </c>
       <c r="L52" t="str">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M52" t="str">
         <v>3か月～</v>
@@ -3316,25 +3316,25 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="str">
-        <v>34.311827</v>
+        <v>34.341315</v>
       </c>
       <c r="C53" t="str">
-        <v>134.08609</v>
+        <v>134.06296</v>
       </c>
       <c r="D53" t="str">
-        <v>白樺保育園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市元山町855-2</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F53" t="str">
-        <v>087-866-6555</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3352,7 +3352,7 @@
         <v>120</v>
       </c>
       <c r="M53" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N53" t="str">
         <v>月火水木金土</v>
@@ -3367,30 +3367,30 @@
         <v/>
       </c>
       <c r="R53" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="str">
-        <v>34.341315</v>
+        <v>34.320782</v>
       </c>
       <c r="C54" t="str">
-        <v>134.06296</v>
+        <v>134.067903</v>
       </c>
       <c r="D54" t="str">
-        <v>松福保育園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市松福町二丁目18-16</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F54" t="str">
-        <v>087-822-7605</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3405,16 +3405,16 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M54" t="str">
-        <v>2か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O54" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P54" t="str">
         <v>19:00</v>
@@ -3423,30 +3423,30 @@
         <v/>
       </c>
       <c r="R54" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="str">
-        <v>34.320782</v>
+        <v>34.263658</v>
       </c>
       <c r="C55" t="str">
-        <v>134.067903</v>
+        <v>134.108531</v>
       </c>
       <c r="D55" t="str">
-        <v>さくらんぼ保育園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市木太町1165-3</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F55" t="str">
-        <v>087-867-4151</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3461,16 +3461,16 @@
         <v/>
       </c>
       <c r="L55" t="str">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M55" t="str">
-        <v>1歳児～</v>
+        <v>3か月～</v>
       </c>
       <c r="N55" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O55" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P55" t="str">
         <v>19:00</v>
@@ -3484,25 +3484,25 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="str">
-        <v>34.263658</v>
+        <v>34.343745</v>
       </c>
       <c r="C56" t="str">
-        <v>134.108531</v>
+        <v>134.052287</v>
       </c>
       <c r="D56" t="str">
-        <v>すみれ保育園</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市十川東町556-1</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F56" t="str">
-        <v>087-848-0806</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3517,48 +3517,48 @@
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M56" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N56" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O56" t="str">
-        <v>07:00</v>
+        <v>06:40</v>
       </c>
       <c r="P56" t="str">
-        <v>19:00</v>
+        <v>25:00</v>
       </c>
       <c r="Q56" t="str">
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="str">
-        <v>34.343745</v>
+        <v>34.327799</v>
       </c>
       <c r="C57" t="str">
-        <v>134.052287</v>
+        <v>134.062199</v>
       </c>
       <c r="D57" t="str">
-        <v>高松第二保育園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市御坊町2-2</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F57" t="str">
-        <v>087-821-5241</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3573,7 +3573,7 @@
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="M57" t="str">
         <v>2か月～</v>
@@ -3582,39 +3582,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O57" t="str">
-        <v>06:40</v>
+        <v>07:00</v>
       </c>
       <c r="P57" t="str">
-        <v>25:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q57" t="str">
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="str">
-        <v>34.327799</v>
+        <v>34.25728</v>
       </c>
       <c r="C58" t="str">
-        <v>134.062199</v>
+        <v>134.035674</v>
       </c>
       <c r="D58" t="str">
-        <v>今里保育所</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市今里町二丁目1-5</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F58" t="str">
-        <v>087-834-3535</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3629,10 +3629,10 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M58" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N58" t="str">
         <v>月火水木金土</v>
@@ -3647,30 +3647,30 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="str">
-        <v>34.25728</v>
+        <v>34.289495</v>
       </c>
       <c r="C59" t="str">
-        <v>134.035674</v>
+        <v>133.952485</v>
       </c>
       <c r="D59" t="str">
-        <v>さんさん保育園</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市香川町浅野834-1</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F59" t="str">
-        <v>087-888-6333</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3685,7 +3685,7 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M59" t="str">
         <v>3か月～</v>
@@ -3703,30 +3703,30 @@
         <v/>
       </c>
       <c r="R59" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="str">
-        <v>34.289495</v>
+        <v>34.274113</v>
       </c>
       <c r="C60" t="str">
-        <v>133.952485</v>
+        <v>133.973116</v>
       </c>
       <c r="D60" t="str">
-        <v>みよし保育園</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市国分寺町柏原80</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F60" t="str">
-        <v>087-874-0622</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M60" t="str">
         <v>3か月～</v>
@@ -3759,30 +3759,30 @@
         <v/>
       </c>
       <c r="R60" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="str">
-        <v>34.274113</v>
+        <v>34.337967</v>
       </c>
       <c r="C61" t="str">
-        <v>133.973116</v>
+        <v>134.130825</v>
       </c>
       <c r="D61" t="str">
-        <v>みのり保育園</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市国分寺町福家甲1982</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F61" t="str">
-        <v>087-874-4309</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3797,19 +3797,19 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M61" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N61" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O61" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P61" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -3820,25 +3820,25 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="str">
-        <v>34.337967</v>
+        <v>34.347055</v>
       </c>
       <c r="C62" t="str">
-        <v>134.130825</v>
+        <v>134.055965</v>
       </c>
       <c r="D62" t="str">
-        <v>八栗保育所</v>
+        <v>城東保育園</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市牟礼町牟礼401</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F62" t="str">
-        <v>087-845-0033</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G62" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H62" t="str">
         <v/>
@@ -3853,7 +3853,7 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M62" t="str">
         <v>2か月～</v>
@@ -3865,7 +3865,7 @@
         <v>07:30</v>
       </c>
       <c r="P62" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q62" t="str">
         <v/>
@@ -3876,25 +3876,25 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="str">
-        <v>34.347055</v>
+        <v>34.334252</v>
       </c>
       <c r="C63" t="str">
-        <v>134.055965</v>
+        <v>134.057679</v>
       </c>
       <c r="D63" t="str">
-        <v>城東保育園</v>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E63" t="str">
-        <v>高松市城東町一丁目1-45</v>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F63" t="str">
-        <v>087-822-1340</v>
+        <v>087-831-5136</v>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H63" t="str">
         <v/>
@@ -3909,7 +3909,7 @@
         <v/>
       </c>
       <c r="L63" t="str">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="M63" t="str">
         <v>2か月～</v>
@@ -3927,36 +3927,36 @@
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="str">
-        <v>34.334252</v>
+        <v>0</v>
       </c>
       <c r="C64" t="str">
-        <v>134.057679</v>
+        <v>0</v>
       </c>
       <c r="D64" t="str">
-        <v>こぶし花園保育園</v>
+        <v/>
       </c>
       <c r="E64" t="str">
-        <v>高松市花園町一丁目9-32</v>
+        <v/>
       </c>
       <c r="F64" t="str">
-        <v>087-831-5136</v>
+        <v/>
       </c>
       <c r="G64" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
+        <v/>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J64" t="str">
         <v/>
@@ -3965,54 +3965,54 @@
         <v/>
       </c>
       <c r="L64" t="str">
-        <v>90</v>
+        <v/>
       </c>
       <c r="M64" t="str">
-        <v>2か月～</v>
+        <v/>
       </c>
       <c r="N64" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O64" t="str">
-        <v>07:30</v>
+        <v/>
       </c>
       <c r="P64" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q64" t="str">
         <v/>
       </c>
       <c r="R64" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="str">
-        <v>0</v>
+        <v>34.287693</v>
       </c>
       <c r="C65" t="str">
-        <v>0</v>
+        <v>134.05974</v>
       </c>
       <c r="D65" t="str">
-        <v/>
+        <v>れんげ保育園</v>
       </c>
       <c r="E65" t="str">
-        <v/>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F65" t="str">
-        <v/>
+        <v>087-888-8080</v>
       </c>
       <c r="G65" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H65" t="str">
         <v/>
       </c>
       <c r="I65" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J65" t="str">
         <v/>
@@ -4021,48 +4021,48 @@
         <v/>
       </c>
       <c r="L65" t="str">
-        <v/>
+        <v>90</v>
       </c>
       <c r="M65" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N65" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O65" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P65" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q65" t="str">
         <v/>
       </c>
       <c r="R65" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="str">
-        <v>34.287693</v>
+        <v>34.308543</v>
       </c>
       <c r="C66" t="str">
-        <v>134.05974</v>
+        <v>134.056433</v>
       </c>
       <c r="D66" t="str">
-        <v>れんげ保育園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市多肥上町2390-1</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F66" t="str">
-        <v>087-888-8080</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4089,7 +4089,7 @@
         <v>07:00</v>
       </c>
       <c r="P66" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q66" t="str">
         <v/>
@@ -4100,25 +4100,25 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="str">
-        <v>34.308543</v>
+        <v>34.323827</v>
       </c>
       <c r="C67" t="str">
-        <v>134.056433</v>
+        <v>134.092254</v>
       </c>
       <c r="D67" t="str">
-        <v>さくら伏石保育園</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市伏石町2135-3</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F67" t="str">
-        <v>087-867-1100</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M67" t="str">
         <v>3か月～</v>
@@ -4142,10 +4142,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O67" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P67" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q67" t="str">
         <v/>
@@ -4156,25 +4156,25 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="str">
-        <v>34.323827</v>
+        <v>34.349557</v>
       </c>
       <c r="C68" t="str">
-        <v>134.092254</v>
+        <v>134.003925</v>
       </c>
       <c r="D68" t="str">
-        <v>らく楽保育園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市春日町483-1</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F68" t="str">
-        <v>087-844-0111</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -4189,13 +4189,13 @@
         <v/>
       </c>
       <c r="L68" t="str">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M68" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N68" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="O68" t="str">
         <v>07:30</v>
@@ -4207,30 +4207,30 @@
         <v/>
       </c>
       <c r="R68" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="str">
-        <v>34.349557</v>
+        <v>34.308532</v>
       </c>
       <c r="C69" t="str">
-        <v>134.003925</v>
+        <v>134.067283</v>
       </c>
       <c r="D69" t="str">
-        <v>初音保育所</v>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E69" t="str">
-        <v>高松市香西本町17-1</v>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F69" t="str">
-        <v>087-813-3258</v>
+        <v>087-802-8080</v>
       </c>
       <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H69" t="str">
         <v/>
@@ -4245,54 +4245,54 @@
         <v/>
       </c>
       <c r="L69" t="str">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="M69" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N69" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O69" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P69" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="str">
-        <v>34.308532</v>
+        <v>0</v>
       </c>
       <c r="C70" t="str">
-        <v>134.067283</v>
+        <v>0</v>
       </c>
       <c r="D70" t="str">
-        <v>さくら木太保育園</v>
+        <v/>
       </c>
       <c r="E70" t="str">
-        <v>高松市木太町5113-15</v>
+        <v/>
       </c>
       <c r="F70" t="str">
-        <v>087-802-8080</v>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
+        <v/>
       </c>
       <c r="H70" t="str">
         <v/>
       </c>
       <c r="I70" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J70" t="str">
         <v/>
@@ -4301,54 +4301,54 @@
         <v/>
       </c>
       <c r="L70" t="str">
-        <v>99</v>
+        <v/>
       </c>
       <c r="M70" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N70" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O70" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P70" t="str">
-        <v>20:00</v>
+        <v/>
       </c>
       <c r="Q70" t="str">
         <v/>
       </c>
       <c r="R70" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="str">
-        <v>0</v>
+        <v>34.333051</v>
       </c>
       <c r="C71" t="str">
-        <v>0</v>
+        <v>134.055788</v>
       </c>
       <c r="D71" t="str">
-        <v/>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E71" t="str">
-        <v/>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F71" t="str">
-        <v/>
+        <v>087-880-7211</v>
       </c>
       <c r="G71" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H71" t="str">
         <v/>
       </c>
       <c r="I71" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J71" t="str">
         <v/>
@@ -4357,48 +4357,48 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v/>
+        <v>105</v>
       </c>
       <c r="M71" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N71" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O71" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P71" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q71" t="str">
         <v/>
       </c>
       <c r="R71" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="str">
-        <v>34.333051</v>
+        <v>34.343232</v>
       </c>
       <c r="C72" t="str">
-        <v>134.055788</v>
+        <v>134.065675</v>
       </c>
       <c r="D72" t="str">
-        <v>高松くりの木保育園</v>
+        <v>らく楽第二保育園</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市花園町三丁目4-5</v>
+        <v>高松市松福町二丁目4-4</v>
       </c>
       <c r="F72" t="str">
-        <v>087-880-7211</v>
+        <v>087-826-0111</v>
       </c>
       <c r="G72" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -4413,7 +4413,7 @@
         <v/>
       </c>
       <c r="L72" t="str">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M72" t="str">
         <v>3か月～</v>
@@ -4422,7 +4422,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O72" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P72" t="str">
         <v>19:00</v>
@@ -4436,25 +4436,25 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="str">
-        <v>34.343232</v>
+        <v>34.291607</v>
       </c>
       <c r="C73" t="str">
-        <v>134.065675</v>
+        <v>134.075471</v>
       </c>
       <c r="D73" t="str">
-        <v>らく楽第二保育園</v>
+        <v>あさがお保育園</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市松福町二丁目4-4</v>
+        <v>高松市上林町69</v>
       </c>
       <c r="F73" t="str">
-        <v>087-826-0111</v>
+        <v>087-899-5660</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -4469,10 +4469,10 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="M73" t="str">
-        <v>3か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
@@ -4487,30 +4487,30 @@
         <v/>
       </c>
       <c r="R73" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="str">
-        <v>34.291607</v>
+        <v>34.3051941</v>
       </c>
       <c r="C74" t="str">
-        <v>134.075471</v>
+        <v>134.0610552</v>
       </c>
       <c r="D74" t="str">
-        <v>あさがお保育園</v>
+        <v>保育園アルペジオ高松多肥下町園</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市上林町69</v>
+        <v>高松市多肥下町1524-15</v>
       </c>
       <c r="F74" t="str">
-        <v>087-899-5660</v>
+        <v>087-802-5583</v>
       </c>
       <c r="G74" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
       </c>
       <c r="H74" t="str">
         <v/>
@@ -4525,10 +4525,10 @@
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M74" t="str">
-        <v>３か月～</v>
+        <v>6か月</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
@@ -4537,7 +4537,7 @@
         <v>07:30</v>
       </c>
       <c r="P74" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q74" t="str">
         <v/>
@@ -4548,25 +4548,25 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="str">
-        <v>34.3051941</v>
+        <v>34.3034175</v>
       </c>
       <c r="C75" t="str">
-        <v>134.0610552</v>
+        <v>134.0533292</v>
       </c>
       <c r="D75" t="str">
-        <v>保育園アルペジオ高松多肥下町園</v>
+        <v>さくら太田保育園</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市多肥下町1524-15</v>
+        <v>高松市太田下町3032-1</v>
       </c>
       <c r="F75" t="str">
-        <v>087-802-5583</v>
+        <v>087-868-3700</v>
       </c>
       <c r="G75" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -4581,54 +4581,54 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M75" t="str">
-        <v>6か月</v>
+        <v>3か月</v>
       </c>
       <c r="N75" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O75" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P75" t="str">
-        <v>19:30</v>
+        <v>20:00</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="str">
-        <v>34.3034175</v>
+        <v>34.3064057</v>
       </c>
       <c r="C76" t="str">
-        <v>134.0533292</v>
+        <v>134.042294</v>
       </c>
       <c r="D76" t="str">
-        <v>さくら太田保育園</v>
+        <v>にこにこ保育園</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市太田下町3032-1</v>
+        <v>高松市林町294-1</v>
       </c>
       <c r="F76" t="str">
-        <v>087-868-3700</v>
+        <v>087-813-8300</v>
       </c>
       <c r="G76" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
       </c>
       <c r="H76" t="str">
         <v/>
       </c>
       <c r="I76" t="str">
-        <v>認定私立保育所</v>
+        <v>認可私立保育所</v>
       </c>
       <c r="J76" t="str">
         <v/>
@@ -4637,48 +4637,48 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M76" t="str">
-        <v>3か月</v>
+        <v>おおむね2か月～</v>
       </c>
       <c r="N76" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O76" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P76" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q76" t="str">
         <v/>
       </c>
       <c r="R76" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="str">
-        <v>34.3064057</v>
+        <v>34.3047038</v>
       </c>
       <c r="C77" t="str">
-        <v>134.042294</v>
+        <v>134.0565783</v>
       </c>
       <c r="D77" t="str">
-        <v>にこにこ保育園</v>
+        <v>あい保育園太田</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市林町294-1</v>
+        <v>高松市太田下町3027-3</v>
       </c>
       <c r="F77" t="str">
-        <v>087-813-8300</v>
+        <v>087-802-9065</v>
       </c>
       <c r="G77" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
       </c>
       <c r="H77" t="str">
         <v/>
@@ -4693,48 +4693,48 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="M77" t="str">
-        <v>おおむね2か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N77" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O77" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P77" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q77" t="str">
         <v/>
       </c>
       <c r="R77" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="str">
-        <v>34.3047038</v>
+        <v>34.3431504</v>
       </c>
       <c r="C78" t="str">
-        <v>134.0565783</v>
+        <v>134.0615252</v>
       </c>
       <c r="D78" t="str">
-        <v>あい保育園太田</v>
+        <v>さくら福々保育園</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市松福町一丁目229-55</v>
       </c>
       <c r="F78" t="str">
-        <v>087-802-9065</v>
+        <v>087-802-1860</v>
       </c>
       <c r="G78" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+        <v/>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -4749,7 +4749,7 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M78" t="str">
         <v>３か月～</v>
@@ -4772,31 +4772,31 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="str">
-        <v>34.3431504</v>
+        <v>34.292144</v>
       </c>
       <c r="C79" t="str">
-        <v>134.0615252</v>
+        <v>134.066237</v>
       </c>
       <c r="D79" t="str">
-        <v>さくら福々保育園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F79" t="str">
-        <v>087-802-1860</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G79" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H79" t="str">
         <v/>
       </c>
       <c r="I79" t="str">
-        <v>認可私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J79" t="str">
         <v/>
@@ -4805,48 +4805,48 @@
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>96</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M79" t="str">
-        <v>３か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O79" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P79" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q79" t="str">
         <v/>
       </c>
       <c r="R79" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="str">
-        <v>34.292144</v>
+        <v>34.303319</v>
       </c>
       <c r="C80" t="str">
-        <v>134.066237</v>
+        <v>133.949144</v>
       </c>
       <c r="D80" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F80" t="str">
-        <v>087-889-8181</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G80" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -4861,19 +4861,19 @@
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M80" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N80" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O80" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P80" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q80" t="str">
         <v/>
@@ -4884,25 +4884,25 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="str">
-        <v>34.303319</v>
+        <v>34.304328</v>
       </c>
       <c r="C81" t="str">
-        <v>133.949144</v>
+        <v>133.97246</v>
       </c>
       <c r="D81" t="str">
-        <v>いずみこども園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市国分寺町新居281-1</v>
       </c>
       <c r="F81" t="str">
-        <v>087-874-0882</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G81" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -4917,19 +4917,19 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>2・3号認定 20</v>
       </c>
       <c r="M81" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～</v>
       </c>
       <c r="N81" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O81" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P81" t="str">
-        <v>20:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q81" t="str">
         <v/>
@@ -4940,25 +4940,25 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="str">
-        <v>34.304328</v>
+        <v>34.327571</v>
       </c>
       <c r="C82" t="str">
-        <v>133.97246</v>
+        <v>134.087355</v>
       </c>
       <c r="D82" t="str">
-        <v>いずみこども園分園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市国分寺町新居281-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F82" t="str">
-        <v>087-875-0882</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G82" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -4973,48 +4973,48 @@
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>2・3号認定 20</v>
+        <v>1号認定 284、2・3号認定 166</v>
       </c>
       <c r="M82" t="str">
-        <v>2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N82" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O82" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P82" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q82" t="str">
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="str">
-        <v>34.327571</v>
+        <v>34.325356</v>
       </c>
       <c r="C83" t="str">
-        <v>134.087355</v>
+        <v>134.099079</v>
       </c>
       <c r="D83" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F83" t="str">
-        <v>087-841-2306</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G83" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -5029,16 +5029,16 @@
         <v/>
       </c>
       <c r="L83" t="str">
-        <v>1号認定 284、2・3号認定 166</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M83" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N83" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O83" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P83" t="str">
         <v>19:00</v>
@@ -5047,30 +5047,30 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="str">
-        <v>34.325356</v>
+        <v>34.268464</v>
       </c>
       <c r="C84" t="str">
-        <v>134.099079</v>
+        <v>134.006758</v>
       </c>
       <c r="D84" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F84" t="str">
-        <v>087-841-3686</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G84" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -5085,16 +5085,16 @@
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M84" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N84" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O84" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P84" t="str">
         <v>19:00</v>
@@ -5103,30 +5103,30 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="str">
-        <v>34.268464</v>
+        <v>34.331077</v>
       </c>
       <c r="C85" t="str">
-        <v>134.006758</v>
+        <v>134.094275</v>
       </c>
       <c r="D85" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F85" t="str">
-        <v>087-886-5879</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G85" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -5141,10 +5141,10 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M85" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N85" t="str">
         <v>月火水木金土</v>
@@ -5159,30 +5159,30 @@
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="str">
-        <v>34.331077</v>
+        <v>34.326539</v>
       </c>
       <c r="C86" t="str">
-        <v>134.094275</v>
+        <v>134.047837</v>
       </c>
       <c r="D86" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F86" t="str">
-        <v>087-843-3689</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G86" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -5197,7 +5197,7 @@
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M86" t="str">
         <v>1号認定 3歳児～、2・3号認定 2か月～</v>
@@ -5215,30 +5215,30 @@
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="str">
-        <v>34.326539</v>
+        <v>34.333461</v>
       </c>
       <c r="C87" t="str">
-        <v>134.047837</v>
+        <v>134.04506</v>
       </c>
       <c r="D87" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F87" t="str">
-        <v>087-831-6318</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G87" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5253,48 +5253,48 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M87" t="str">
-        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N87" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O87" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P87" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q87" t="str">
         <v/>
       </c>
       <c r="R87" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="str">
-        <v>34.333461</v>
+        <v>34.279891</v>
       </c>
       <c r="C88" t="str">
-        <v>134.04506</v>
+        <v>134.042395</v>
       </c>
       <c r="D88" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F88" t="str">
-        <v>087-831-8659</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G88" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -5309,7 +5309,7 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M88" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5318,39 +5318,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O88" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P88" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q88" t="str">
         <v/>
       </c>
       <c r="R88" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="str">
-        <v>34.279891</v>
+        <v>34.292691</v>
       </c>
       <c r="C89" t="str">
-        <v>134.042395</v>
+        <v>134.0352</v>
       </c>
       <c r="D89" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F89" t="str">
-        <v>087-889-1059</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G89" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -5365,16 +5365,16 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 75、2・3号認定 75</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O89" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P89" t="str">
         <v>19:00</v>
@@ -5388,25 +5388,25 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="str">
-        <v>34.292691</v>
+        <v>34.2936161</v>
       </c>
       <c r="C90" t="str">
-        <v>134.0352</v>
+        <v>134.0789214</v>
       </c>
       <c r="D90" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F90" t="str">
-        <v>087-802-3838</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G90" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -5421,16 +5421,16 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>1号認定 75、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 217</v>
       </c>
       <c r="M90" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N90" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O90" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P90" t="str">
         <v>19:00</v>
@@ -5444,25 +5444,25 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="str">
-        <v>34.2936161</v>
+        <v>34.2734776</v>
       </c>
       <c r="C91" t="str">
-        <v>134.0789214</v>
+        <v>134.1024882</v>
       </c>
       <c r="D91" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F91" t="str">
-        <v>087-813-9818</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G91" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -5477,16 +5477,16 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>1号認定 15、2・3号認定 217</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M91" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N91" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O91" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P91" t="str">
         <v>19:00</v>
@@ -5495,30 +5495,30 @@
         <v/>
       </c>
       <c r="R91" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="str">
-        <v>34.2734776</v>
+        <v>34.3064057</v>
       </c>
       <c r="C92" t="str">
-        <v>134.1024882</v>
+        <v>134.042294</v>
       </c>
       <c r="D92" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F92" t="str">
-        <v>087-848-0320</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G92" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -5533,7 +5533,7 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 165</v>
       </c>
       <c r="M92" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5542,7 +5542,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O92" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P92" t="str">
         <v>19:00</v>
@@ -5551,30 +5551,30 @@
         <v/>
       </c>
       <c r="R92" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="str">
-        <v>34.3064057</v>
+        <v>34.3264572</v>
       </c>
       <c r="C93" t="str">
-        <v>134.042294</v>
+        <v>134.0769366</v>
       </c>
       <c r="D93" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F93" t="str">
-        <v>087-814-4141</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G93" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v/>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -5589,16 +5589,16 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 15、2・3号認定 165</v>
+        <v>1号認定 15、2・3号認定 75</v>
       </c>
       <c r="M93" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N93" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O93" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P93" t="str">
         <v>19:00</v>
@@ -5612,31 +5612,31 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="str">
-        <v>34.3264572</v>
+        <v>34.353781</v>
       </c>
       <c r="C94" t="str">
-        <v>134.0769366</v>
+        <v>134.091115</v>
       </c>
       <c r="D94" t="str">
-        <v>みらい学園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E94" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F94" t="str">
-        <v>087-899-2305</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G94" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H94" t="str">
         <v/>
       </c>
       <c r="I94" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認定こども園（幼稚園型）</v>
       </c>
       <c r="J94" t="str">
         <v/>
@@ -5645,16 +5645,16 @@
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>1号認定 15、2・3号認定 75</v>
+        <v>1号認定 228、2・3号認定 72</v>
       </c>
       <c r="M94" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N94" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O94" t="str">
-        <v>07:30</v>
+        <v>07:45</v>
       </c>
       <c r="P94" t="str">
         <v>19:00</v>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="str">
-        <v>34.353781</v>
+        <v>34.338923</v>
       </c>
       <c r="C95" t="str">
-        <v>134.091115</v>
+        <v>134.031483</v>
       </c>
       <c r="D95" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E95" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F95" t="str">
-        <v>087-843-2241</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G95" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -5701,19 +5701,19 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>1号認定 228、2・3号認定 72</v>
+        <v>1号認定 135、2号認定 15</v>
       </c>
       <c r="M95" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
       </c>
       <c r="N95" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O95" t="str">
-        <v>07:45</v>
+        <v>07:30</v>
       </c>
       <c r="P95" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -5724,25 +5724,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="str">
-        <v>34.338923</v>
+        <v>34.338702</v>
       </c>
       <c r="C96" t="str">
-        <v>134.031483</v>
+        <v>134.038281</v>
       </c>
       <c r="D96" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E96" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F96" t="str">
-        <v>087-861-0425</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G96" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -5757,10 +5757,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 135、2号認定 15</v>
+        <v>1号認定 109、2・3号認定 99</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5769,7 +5769,7 @@
         <v>07:30</v>
       </c>
       <c r="P96" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q96" t="str">
         <v/>
@@ -5780,25 +5780,25 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="str">
-        <v>34.338702</v>
+        <v>34.279836</v>
       </c>
       <c r="C97" t="str">
-        <v>134.038281</v>
+        <v>134.022373</v>
       </c>
       <c r="D97" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E97" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F97" t="str">
-        <v>087-831-2557</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G97" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -5813,10 +5813,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 109、2・3号認定 99</v>
+        <v>1号認定 112、2・3号認定 128</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5836,25 +5836,25 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="str">
-        <v>34.279836</v>
+        <v>34.334019</v>
       </c>
       <c r="C98" t="str">
-        <v>134.022373</v>
+        <v>134.114815</v>
       </c>
       <c r="D98" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F98" t="str">
-        <v>087-885-2038</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -5869,10 +5869,10 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>1号認定 112、2・3号認定 128</v>
+        <v>1号認定 274、2・3号認定 48</v>
       </c>
       <c r="M98" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
@@ -5892,25 +5892,25 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="str">
-        <v>34.334019</v>
+        <v>34.304505</v>
       </c>
       <c r="C99" t="str">
-        <v>134.114815</v>
+        <v>134.021922</v>
       </c>
       <c r="D99" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F99" t="str">
-        <v>087-843-4484</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H99" t="str">
         <v/>
@@ -5925,10 +5925,10 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>1号認定 274、2・3号認定 48</v>
+        <v>1号認定 265、2・3号認定 51</v>
       </c>
       <c r="M99" t="str">
-        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
@@ -5937,7 +5937,7 @@
         <v>07:30</v>
       </c>
       <c r="P99" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q99" t="str">
         <v/>
@@ -5948,31 +5948,31 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="str">
-        <v>34.304505</v>
+        <v>34.235856</v>
       </c>
       <c r="C100" t="str">
-        <v>134.021922</v>
+        <v>133.994046</v>
       </c>
       <c r="D100" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>カナン空港こども園</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市香南町西庄1671-2</v>
       </c>
       <c r="F100" t="str">
-        <v>087-865-9419</v>
+        <v>087-815-8072</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
       </c>
       <c r="H100" t="str">
         <v/>
       </c>
       <c r="I100" t="str">
-        <v>認定こども園（幼稚園型）</v>
+        <v>地域型保育事業（小規模保育事業A型）</v>
       </c>
       <c r="J100" t="str">
         <v/>
@@ -5981,19 +5981,19 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>1号認定 265、2・3号認定 51</v>
+        <v>18</v>
       </c>
       <c r="M100" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O100" t="str">
-        <v>07:30</v>
+        <v>07:15</v>
       </c>
       <c r="P100" t="str">
-        <v>18:30</v>
+        <v>18:15</v>
       </c>
       <c r="Q100" t="str">
         <v/>
@@ -6004,25 +6004,25 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="str">
-        <v>34.235856</v>
+        <v>34.332072</v>
       </c>
       <c r="C101" t="str">
-        <v>133.994046</v>
+        <v>134.049227</v>
       </c>
       <c r="D101" t="str">
-        <v>カナン空港こども園</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市香南町西庄1671-2</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F101" t="str">
-        <v>087-815-8072</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6037,48 +6037,48 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M101" t="str">
-        <v>3か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O101" t="str">
-        <v>07:15</v>
+        <v>07:30</v>
       </c>
       <c r="P101" t="str">
-        <v>18:15</v>
+        <v>19:00</v>
       </c>
       <c r="Q101" t="str">
         <v/>
       </c>
       <c r="R101" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="str">
-        <v>34.332072</v>
+        <v>34.332365</v>
       </c>
       <c r="C102" t="str">
-        <v>134.049227</v>
+        <v>134.097201</v>
       </c>
       <c r="D102" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F102" t="str">
-        <v>087-831-1319</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6093,10 +6093,10 @@
         <v/>
       </c>
       <c r="L102" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M102" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
@@ -6105,36 +6105,36 @@
         <v>07:30</v>
       </c>
       <c r="P102" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q102" t="str">
         <v/>
       </c>
       <c r="R102" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="str">
-        <v>34.332365</v>
+        <v>34.288288</v>
       </c>
       <c r="C103" t="str">
-        <v>134.097201</v>
+        <v>134.059379</v>
       </c>
       <c r="D103" t="str">
-        <v>小規模保育所もも</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F103" t="str">
-        <v>087-843-8255</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6149,10 +6149,10 @@
         <v/>
       </c>
       <c r="L103" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M103" t="str">
-        <v>2か月～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N103" t="str">
         <v>月火水木金土</v>
@@ -6161,7 +6161,7 @@
         <v>07:30</v>
       </c>
       <c r="P103" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q103" t="str">
         <v/>
@@ -6172,25 +6172,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="str">
-        <v>34.288288</v>
+        <v>34.316351</v>
       </c>
       <c r="C104" t="str">
-        <v>134.059379</v>
+        <v>134.073388</v>
       </c>
       <c r="D104" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F104" t="str">
-        <v>087-816-8301</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6205,16 +6205,16 @@
         <v/>
       </c>
       <c r="L104" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M104" t="str">
-        <v>3か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N104" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O104" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P104" t="str">
         <v>19:00</v>
@@ -6228,25 +6228,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="str">
-        <v>34.316351</v>
+        <v>34.303424</v>
       </c>
       <c r="C105" t="str">
-        <v>134.073388</v>
+        <v>134.060713</v>
       </c>
       <c r="D105" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F105" t="str">
-        <v>087-816-5150</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6264,16 +6264,16 @@
         <v>19</v>
       </c>
       <c r="M105" t="str">
-        <v>54日～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N105" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O105" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P105" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q105" t="str">
         <v/>
@@ -6284,25 +6284,25 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="str">
-        <v>34.303424</v>
+        <v>34.298947</v>
       </c>
       <c r="C106" t="str">
-        <v>134.060713</v>
+        <v>134.055734</v>
       </c>
       <c r="D106" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F106" t="str">
-        <v>087-864-3133</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6340,25 +6340,25 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="str">
-        <v>34.298947</v>
+        <v>34.37717</v>
       </c>
       <c r="C107" t="str">
-        <v>134.055734</v>
+        <v>134.122418</v>
       </c>
       <c r="D107" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F107" t="str">
-        <v>087-815-0224</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6373,10 +6373,10 @@
         <v/>
       </c>
       <c r="L107" t="str">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M107" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N107" t="str">
         <v>月火水木金土</v>
@@ -6385,7 +6385,7 @@
         <v>07:30</v>
       </c>
       <c r="P107" t="str">
-        <v>19:30</v>
+        <v>18:30</v>
       </c>
       <c r="Q107" t="str">
         <v/>
@@ -6396,25 +6396,25 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="str">
-        <v>34.37717</v>
+        <v>34.2899</v>
       </c>
       <c r="C108" t="str">
-        <v>134.122418</v>
+        <v>134.05856</v>
       </c>
       <c r="D108" t="str">
-        <v>おるごーる</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F108" t="str">
-        <v>087-871-3503</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6429,7 +6429,7 @@
         <v/>
       </c>
       <c r="L108" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M108" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6447,30 +6447,30 @@
         <v/>
       </c>
       <c r="R108" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="str">
-        <v>34.2899</v>
+        <v>34.336075</v>
       </c>
       <c r="C109" t="str">
-        <v>134.05856</v>
+        <v>134.072522</v>
       </c>
       <c r="D109" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F109" t="str">
-        <v>087-889-3711</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6485,7 +6485,7 @@
         <v/>
       </c>
       <c r="L109" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M109" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6497,7 +6497,7 @@
         <v>07:30</v>
       </c>
       <c r="P109" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q109" t="str">
         <v/>
@@ -6508,25 +6508,25 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="str">
-        <v>34.336075</v>
+        <v>34.311371</v>
       </c>
       <c r="C110" t="str">
-        <v>134.072522</v>
+        <v>134.055948</v>
       </c>
       <c r="D110" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F110" t="str">
-        <v>087-837-5330</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6564,25 +6564,25 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="str">
-        <v>34.311371</v>
+        <v>34.316136</v>
       </c>
       <c r="C111" t="str">
-        <v>134.055948</v>
+        <v>134.061202</v>
       </c>
       <c r="D111" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F111" t="str">
-        <v>087-868-3339</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6597,10 +6597,10 @@
         <v/>
       </c>
       <c r="L111" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M111" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N111" t="str">
         <v>月火水木金土</v>
@@ -6609,36 +6609,36 @@
         <v>07:30</v>
       </c>
       <c r="P111" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q111" t="str">
         <v/>
       </c>
       <c r="R111" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="str">
-        <v>34.316136</v>
+        <v>34.3049893</v>
       </c>
       <c r="C112" t="str">
-        <v>134.061202</v>
+        <v>134.0560416</v>
       </c>
       <c r="D112" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F112" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6656,7 +6656,7 @@
         <v>19</v>
       </c>
       <c r="M112" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N112" t="str">
         <v>月火水木金土</v>
@@ -6665,36 +6665,36 @@
         <v>07:30</v>
       </c>
       <c r="P112" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q112" t="str">
         <v/>
       </c>
       <c r="R112" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" t="str">
-        <v>34.3049893</v>
+        <v>34.2989616</v>
       </c>
       <c r="C113" t="str">
-        <v>134.0560416</v>
+        <v>134.0640027</v>
       </c>
       <c r="D113" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F113" t="str">
-        <v>087-868-2355</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H113" t="str">
         <v/>
@@ -6732,25 +6732,25 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" t="str">
-        <v>34.2989616</v>
+        <v>34.2612106</v>
       </c>
       <c r="C114" t="str">
-        <v>134.0640027</v>
+        <v>134.0367875</v>
       </c>
       <c r="D114" t="str">
-        <v>林にこにこ保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F114" t="str">
-        <v>087-868-0103</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G114" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H114" t="str">
         <v/>
@@ -6765,10 +6765,10 @@
         <v/>
       </c>
       <c r="L114" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M114" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N114" t="str">
         <v>月火水木金土</v>
@@ -6777,7 +6777,7 @@
         <v>07:30</v>
       </c>
       <c r="P114" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q114" t="str">
         <v/>
@@ -6788,25 +6788,25 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" t="str">
-        <v>34.2612106</v>
+        <v>34.3389027</v>
       </c>
       <c r="C115" t="str">
-        <v>134.0367875</v>
+        <v>134.052851</v>
       </c>
       <c r="D115" t="str">
-        <v>保育の家みいろ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E115" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F115" t="str">
-        <v>087-880-3274</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G115" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H115" t="str">
         <v/>
@@ -6821,7 +6821,7 @@
         <v/>
       </c>
       <c r="L115" t="str">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M115" t="str">
         <v>３か月～2歳児</v>
@@ -6833,42 +6833,42 @@
         <v>07:30</v>
       </c>
       <c r="P115" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q115" t="str">
         <v/>
       </c>
       <c r="R115" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" t="str">
-        <v>34.3389027</v>
+        <v>34.340379</v>
       </c>
       <c r="C116" t="str">
-        <v>134.052851</v>
+        <v>134.044986</v>
       </c>
       <c r="D116" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>院内保育所てふてふ</v>
       </c>
       <c r="E116" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市天神前5-6 高松メディカルモール</v>
       </c>
       <c r="F116" t="str">
-        <v>087-802-6966</v>
+        <v>087-813-0218</v>
       </c>
       <c r="G116" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
       </c>
       <c r="H116" t="str">
         <v/>
       </c>
       <c r="I116" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="J116" t="str">
         <v/>
@@ -6877,10 +6877,10 @@
         <v/>
       </c>
       <c r="L116" t="str">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M116" t="str">
-        <v>３か月～2歳児</v>
+        <v>6か月～2歳児</v>
       </c>
       <c r="N116" t="str">
         <v>月火水木金土</v>
@@ -6889,7 +6889,7 @@
         <v>07:30</v>
       </c>
       <c r="P116" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q116" t="str">
         <v/>
@@ -6900,31 +6900,31 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" t="str">
-        <v>34.340379</v>
+        <v>34.30287</v>
       </c>
       <c r="C117" t="str">
-        <v>134.044986</v>
+        <v>134.016075</v>
       </c>
       <c r="D117" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E117" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F117" t="str">
-        <v>087-813-0218</v>
+        <v>087-886-6669</v>
       </c>
       <c r="G117" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
       <c r="H117" t="str">
         <v/>
       </c>
       <c r="I117" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>認定こども園（地方裁量型）</v>
       </c>
       <c r="J117" t="str">
         <v/>
@@ -6933,10 +6933,10 @@
         <v/>
       </c>
       <c r="L117" t="str">
-        <v>7</v>
+        <v>1号認定 20、2・3号認定 35</v>
       </c>
       <c r="M117" t="str">
-        <v>6か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
       <c r="N117" t="str">
         <v>月火水木金土</v>
@@ -6945,74 +6945,18 @@
         <v>07:30</v>
       </c>
       <c r="P117" t="str">
-        <v>18:30</v>
+        <v>18:00</v>
       </c>
       <c r="Q117" t="str">
         <v/>
       </c>
       <c r="R117" t="str">
-        <v>無</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>121</v>
-      </c>
-      <c r="B118" t="str">
-        <v>34.30287</v>
-      </c>
-      <c r="C118" t="str">
-        <v>134.016075</v>
-      </c>
-      <c r="D118" t="str">
-        <v>メリーＧＯランド高松園</v>
-      </c>
-      <c r="E118" t="str">
-        <v>高松市成合町796-1</v>
-      </c>
-      <c r="F118" t="str">
-        <v>087-886-6669</v>
-      </c>
-      <c r="G118" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H118" t="str">
-        <v/>
-      </c>
-      <c r="I118" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J118" t="str">
-        <v/>
-      </c>
-      <c r="K118" t="str">
-        <v/>
-      </c>
-      <c r="L118" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
-      </c>
-      <c r="M118" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
-      </c>
-      <c r="N118" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O118" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P118" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q118" t="str">
-        <v/>
-      </c>
-      <c r="R118" t="str">
         <v>無</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1412,25 +1412,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="str">
-        <v>34.27678</v>
+        <v>34.240061</v>
       </c>
       <c r="C19" t="str">
-        <v>134.091489</v>
+        <v>134.078063</v>
       </c>
       <c r="D19" t="str">
-        <v>高松市立川島保育所</v>
+        <v>高松市立西植田保育所</v>
       </c>
       <c r="E19" t="str">
-        <v>高松市川島東町253-4</v>
+        <v>高松市西植田町2350-1</v>
       </c>
       <c r="F19" t="str">
-        <v>087-848-0075</v>
+        <v>087-849-0102</v>
       </c>
       <c r="G19" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h21/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h22/</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1445,10 +1445,10 @@
         <v/>
       </c>
       <c r="L19" t="str">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M19" t="str">
-        <v>3か月～</v>
+        <v>1歳～</v>
       </c>
       <c r="N19" t="str">
         <v>月火水木金土</v>
@@ -1457,7 +1457,7 @@
         <v>07:30</v>
       </c>
       <c r="P19" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q19" t="str">
         <v/>
@@ -1468,25 +1468,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="str">
-        <v>34.240061</v>
+        <v>34.239913</v>
       </c>
       <c r="C20" t="str">
-        <v>134.078063</v>
+        <v>134.097878</v>
       </c>
       <c r="D20" t="str">
-        <v>高松市立西植田保育所</v>
+        <v>高松市立東植田保育所</v>
       </c>
       <c r="E20" t="str">
-        <v>高松市西植田町2350-1</v>
+        <v>高松市東植田町2023-1</v>
       </c>
       <c r="F20" t="str">
-        <v>087-849-0102</v>
+        <v>087-849-0082</v>
       </c>
       <c r="G20" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h22/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h23/</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1501,7 +1501,7 @@
         <v/>
       </c>
       <c r="L20" t="str">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M20" t="str">
         <v>1歳～</v>
@@ -1524,25 +1524,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="str">
-        <v>34.239913</v>
+        <v>34.26789</v>
       </c>
       <c r="C21" t="str">
-        <v>134.097878</v>
+        <v>134.027335</v>
       </c>
       <c r="D21" t="str">
-        <v>高松市立東植田保育所</v>
+        <v>高松市立大野保育所</v>
       </c>
       <c r="E21" t="str">
-        <v>高松市東植田町2023-1</v>
+        <v>高松市香川町大野1063-1</v>
       </c>
       <c r="F21" t="str">
-        <v>087-849-0082</v>
+        <v>087-886-9356</v>
       </c>
       <c r="G21" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h23/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h24/</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1557,10 +1557,10 @@
         <v/>
       </c>
       <c r="L21" t="str">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="M21" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N21" t="str">
         <v>月火水木金土</v>
@@ -1569,7 +1569,7 @@
         <v>07:30</v>
       </c>
       <c r="P21" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q21" t="str">
         <v/>
@@ -1580,25 +1580,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
-        <v>34.26789</v>
+        <v>34.257828</v>
       </c>
       <c r="C22" t="str">
-        <v>134.027335</v>
+        <v>134.036939</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市立大野保育所</v>
+        <v>高松市立浅野保育所</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市香川町大野1063-1</v>
+        <v>高松市香川町浅野816-1</v>
       </c>
       <c r="F22" t="str">
-        <v>087-886-9356</v>
+        <v>087-889-2416</v>
       </c>
       <c r="G22" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h24/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1613,7 +1613,7 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="M22" t="str">
         <v>3か月～</v>
@@ -1636,25 +1636,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="str">
-        <v>34.257828</v>
+        <v>34.229495</v>
       </c>
       <c r="C23" t="str">
-        <v>134.036939</v>
+        <v>134.040497</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市立浅野保育所</v>
+        <v>高松市立川東南保育所</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市香川町浅野816-1</v>
+        <v>高松市香川町川内原574-56</v>
       </c>
       <c r="F23" t="str">
-        <v>087-889-2416</v>
+        <v>087-879-5784</v>
       </c>
       <c r="G23" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1669,10 +1669,10 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M23" t="str">
-        <v>3か月～</v>
+        <v>1歳～</v>
       </c>
       <c r="N23" t="str">
         <v>月火水木金土</v>
@@ -1692,25 +1692,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
-        <v>34.229495</v>
+        <v>34.307041</v>
       </c>
       <c r="C24" t="str">
-        <v>134.040497</v>
+        <v>133.964275</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市立川東南保育所</v>
+        <v>高松市立国分寺北部保育所</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市香川町川内原574-56</v>
+        <v>高松市国分寺町新居1906-1</v>
       </c>
       <c r="F24" t="str">
-        <v>087-879-5784</v>
+        <v>087-874-1487</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1725,7 +1725,7 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M24" t="str">
         <v>1歳～</v>
@@ -1737,7 +1737,7 @@
         <v>07:30</v>
       </c>
       <c r="P24" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q24" t="str">
         <v/>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>34.307041</v>
+        <v>34.284657</v>
       </c>
       <c r="C25" t="str">
-        <v>133.964275</v>
+        <v>133.960908</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市立国分寺北部保育所</v>
+        <v>高松市立国分寺南部保育所</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市国分寺町新居1906-1</v>
+        <v>高松市国分寺町福家甲3106-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-874-1487</v>
+        <v>087-874-1120</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1781,7 +1781,7 @@
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M25" t="str">
         <v>1歳～</v>
@@ -1804,25 +1804,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
-        <v>34.284657</v>
+        <v>34.345964</v>
       </c>
       <c r="C26" t="str">
-        <v>133.960908</v>
+        <v>134.126933</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市立国分寺南部保育所</v>
+        <v>高松市立牟礼保育所</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市国分寺町福家甲3106-1</v>
+        <v>高松市牟礼町牟礼1978-1</v>
       </c>
       <c r="F26" t="str">
-        <v>087-874-1120</v>
+        <v>087-845-1647</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
       </c>
       <c r="H26" t="str">
         <v/>
@@ -1837,10 +1837,10 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M26" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N26" t="str">
         <v>月火水木金土</v>
@@ -1849,7 +1849,7 @@
         <v>07:30</v>
       </c>
       <c r="P26" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -1860,25 +1860,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
-        <v>34.345964</v>
+        <v>34.341172</v>
       </c>
       <c r="C27" t="str">
-        <v>134.126933</v>
+        <v>134.140155</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市立牟礼保育所</v>
+        <v>高松市立田井保育所</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市牟礼町牟礼1978-1</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-845-1647</v>
+        <v>087-845-5411</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -1893,7 +1893,7 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M27" t="str">
         <v>3か月～</v>
@@ -1905,7 +1905,7 @@
         <v>07:30</v>
       </c>
       <c r="P27" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q27" t="str">
         <v/>
@@ -1916,31 +1916,31 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>34.341172</v>
+        <v>34.358509</v>
       </c>
       <c r="C28" t="str">
-        <v>134.140155</v>
+        <v>133.967533</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市立田井保育所</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F28" t="str">
-        <v>087-845-5411</v>
+        <v>087-881-2515</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H28" t="str">
         <v/>
       </c>
       <c r="I28" t="str">
-        <v>認定公立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -1949,10 +1949,10 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>80</v>
+        <v>1号認定 40、2・3号認定 105</v>
       </c>
       <c r="M28" t="str">
-        <v>3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N28" t="str">
         <v>月火水木金土</v>
@@ -1967,30 +1967,30 @@
         <v/>
       </c>
       <c r="R28" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v>34.358509</v>
+        <v>34.328643</v>
       </c>
       <c r="C29" t="str">
-        <v>133.967533</v>
+        <v>134.156038</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F29" t="str">
-        <v>087-881-2515</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>1号認定 40、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 138</v>
       </c>
       <c r="M29" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2017,7 +2017,7 @@
         <v>07:30</v>
       </c>
       <c r="P29" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2028,25 +2028,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>34.328643</v>
+        <v>34.385761</v>
       </c>
       <c r="C30" t="str">
-        <v>134.156038</v>
+        <v>134.131516</v>
       </c>
       <c r="D30" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F30" t="str">
-        <v>087-845-0234</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -2061,7 +2061,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>1号認定 90、2・3号認定 138</v>
+        <v>1号認定 45、2・3号認定 105</v>
       </c>
       <c r="M30" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2073,7 +2073,7 @@
         <v>07:30</v>
       </c>
       <c r="P30" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v>34.385761</v>
+        <v>34.242096</v>
       </c>
       <c r="C31" t="str">
-        <v>134.131516</v>
+        <v>134.005834</v>
       </c>
       <c r="D31" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F31" t="str">
-        <v>087-871-2535</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -2117,7 +2117,7 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>1号認定 45、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 179</v>
       </c>
       <c r="M31" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2129,7 +2129,7 @@
         <v>07:30</v>
       </c>
       <c r="P31" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q31" t="str">
         <v/>
@@ -2140,25 +2140,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v>34.242096</v>
+        <v>34.188524</v>
       </c>
       <c r="C32" t="str">
-        <v>134.005834</v>
+        <v>134.061382</v>
       </c>
       <c r="D32" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F32" t="str">
-        <v>087-887-7876</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G32" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -2173,7 +2173,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>1号認定 90、2・3号認定 179</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M32" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2196,25 +2196,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>34.188524</v>
+        <v>34.237755</v>
       </c>
       <c r="C33" t="str">
-        <v>134.061382</v>
+        <v>134.035134</v>
       </c>
       <c r="D33" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F33" t="str">
-        <v>087-890-2022</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G33" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -2229,7 +2229,7 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 153</v>
       </c>
       <c r="M33" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2252,25 +2252,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>34.237755</v>
+        <v>34.342609</v>
       </c>
       <c r="C34" t="str">
-        <v>134.035134</v>
+        <v>134.099868</v>
       </c>
       <c r="D34" t="str">
-        <v>高松市川東こども園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F34" t="str">
-        <v>087-879-4602</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G34" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>1号認定 90、2・3号認定 153</v>
+        <v>1号認定 9、2・3号認定 135</v>
       </c>
       <c r="M34" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2308,25 +2308,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>34.342609</v>
+        <v>34.2959789</v>
       </c>
       <c r="C35" t="str">
-        <v>134.099868</v>
+        <v>134.0789659</v>
       </c>
       <c r="D35" t="str">
-        <v>屋島こども園</v>
+        <v>林こども園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F35" t="str">
-        <v>087-841-9711</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G35" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -2341,7 +2341,7 @@
         <v/>
       </c>
       <c r="L35" t="str">
-        <v>1号認定 9、2・3号認定 135</v>
+        <v>1号認定 105、2・3号認定 194</v>
       </c>
       <c r="M35" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2364,31 +2364,31 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>34.2959789</v>
+        <v>34.420292</v>
       </c>
       <c r="C36" t="str">
-        <v>134.0789659</v>
+        <v>134.057016</v>
       </c>
       <c r="D36" t="str">
-        <v>林こども園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F36" t="str">
-        <v>087-865-1676</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G36" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>小規模保育施設</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -2397,54 +2397,54 @@
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>1号認定 105、2・3号認定 194</v>
+        <v>6</v>
       </c>
       <c r="M36" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N36" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O36" t="str">
-        <v>07:30</v>
+        <v>09:00</v>
       </c>
       <c r="P36" t="str">
-        <v>19:00</v>
+        <v>16:00</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
-        <v>34.420292</v>
+        <v>34.327973</v>
       </c>
       <c r="C37" t="str">
-        <v>134.057016</v>
+        <v>134.058101</v>
       </c>
       <c r="D37" t="str">
-        <v>高松市小規模保育事業所男木保育所</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市男木町165</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F37" t="str">
-        <v>087-873-0614</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G37" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37" t="str">
-        <v>小規模保育施設</v>
+        <v>認定私立保育所</v>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -2453,48 +2453,48 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="M37" t="str">
-        <v>1歳児～</v>
+        <v>2か月～</v>
       </c>
       <c r="N37" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O37" t="str">
-        <v>09:00</v>
+        <v>07:00</v>
       </c>
       <c r="P37" t="str">
-        <v>16:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q37" t="str">
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
-        <v>34.327973</v>
+        <v>34.333037</v>
       </c>
       <c r="C38" t="str">
-        <v>134.058101</v>
+        <v>134.051372</v>
       </c>
       <c r="D38" t="str">
-        <v>こぶし今里保育園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市今里町一丁目7-2</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F38" t="str">
-        <v>087-834-1946</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G38" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -2509,10 +2509,10 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M38" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N38" t="str">
         <v>月火水木金土</v>
@@ -2527,30 +2527,30 @@
         <v/>
       </c>
       <c r="R38" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>34.333037</v>
+        <v>34.328268</v>
       </c>
       <c r="C39" t="str">
-        <v>134.051372</v>
+        <v>134.066087</v>
       </c>
       <c r="D39" t="str">
-        <v>敬愛保育園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市藤塚町三丁目18-2</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F39" t="str">
-        <v>087-831-6778</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G39" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2565,10 +2565,10 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M39" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N39" t="str">
         <v>月火水木金土</v>
@@ -2588,25 +2588,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>34.328268</v>
+        <v>34.304804</v>
       </c>
       <c r="C40" t="str">
-        <v>134.066087</v>
+        <v>134.02164</v>
       </c>
       <c r="D40" t="str">
-        <v>平安保育園</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市上福岡町894-8</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F40" t="str">
-        <v>087-833-7734</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G40" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2621,10 +2621,10 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M40" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N40" t="str">
         <v>月火水木金土</v>
@@ -2644,25 +2644,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="str">
-        <v>34.304804</v>
+        <v>34.316835</v>
       </c>
       <c r="C41" t="str">
-        <v>134.02164</v>
+        <v>134.024336</v>
       </c>
       <c r="D41" t="str">
-        <v>勅使百華保育園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F41" t="str">
-        <v>087-865-2998</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2677,10 +2677,10 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M41" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N41" t="str">
         <v>月火水木金土</v>
@@ -2695,30 +2695,30 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="str">
-        <v>34.316835</v>
+        <v>34.304304</v>
       </c>
       <c r="C42" t="str">
-        <v>134.024336</v>
+        <v>134.037996</v>
       </c>
       <c r="D42" t="str">
-        <v>西春日保育所</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市西春日町1407</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F42" t="str">
-        <v>087-866-4166</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G42" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2733,7 +2733,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M42" t="str">
         <v>2か月～</v>
@@ -2751,30 +2751,30 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="str">
-        <v>34.304304</v>
+        <v>34.309654</v>
       </c>
       <c r="C43" t="str">
-        <v>134.037996</v>
+        <v>134.0631</v>
       </c>
       <c r="D43" t="str">
-        <v>太田西保育園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市太田下町2025</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F43" t="str">
-        <v>087-865-0601</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G43" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2789,7 +2789,7 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M43" t="str">
         <v>2か月～</v>
@@ -2807,30 +2807,30 @@
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="str">
-        <v>34.309654</v>
+        <v>34.350107</v>
       </c>
       <c r="C44" t="str">
-        <v>134.0631</v>
+        <v>134.091559</v>
       </c>
       <c r="D44" t="str">
-        <v>こぶし中央保育園</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市木太町5089-9</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F44" t="str">
-        <v>087-866-7169</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G44" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2845,10 +2845,10 @@
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M44" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N44" t="str">
         <v>月火水木金土</v>
@@ -2857,36 +2857,36 @@
         <v>07:00</v>
       </c>
       <c r="P44" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>34.350107</v>
+        <v>34.300415</v>
       </c>
       <c r="C45" t="str">
-        <v>134.091559</v>
+        <v>134.115798</v>
       </c>
       <c r="D45" t="str">
-        <v>あすなろ保育園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市屋島西町2453-6</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F45" t="str">
-        <v>087-843-3143</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G45" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -2901,10 +2901,10 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M45" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N45" t="str">
         <v>月火水木金土</v>
@@ -2913,36 +2913,36 @@
         <v>07:00</v>
       </c>
       <c r="P45" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q45" t="str">
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>34.300415</v>
+        <v>34.299537</v>
       </c>
       <c r="C46" t="str">
-        <v>134.115798</v>
+        <v>134.092378</v>
       </c>
       <c r="D46" t="str">
-        <v>西光寺保育所</v>
+        <v>川添保育園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市前田西町167-1</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F46" t="str">
-        <v>087-847-6237</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2957,10 +2957,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M46" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2975,30 +2975,30 @@
         <v/>
       </c>
       <c r="R46" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="str">
-        <v>34.299537</v>
+        <v>34.277465</v>
       </c>
       <c r="C47" t="str">
-        <v>134.092378</v>
+        <v>134.030037</v>
       </c>
       <c r="D47" t="str">
-        <v>川添保育園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市下田井町52</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F47" t="str">
-        <v>087-847-5078</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3013,10 +3013,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M47" t="str">
-        <v>3か月～</v>
+        <v>6か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3036,25 +3036,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="str">
-        <v>34.277465</v>
+        <v>34.284927</v>
       </c>
       <c r="C48" t="str">
-        <v>134.030037</v>
+        <v>134.010137</v>
       </c>
       <c r="D48" t="str">
-        <v>高松南保育園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市寺井町453-1</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F48" t="str">
-        <v>087-886-0275</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3069,10 +3069,10 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="M48" t="str">
-        <v>6か月～</v>
+        <v>7か月～</v>
       </c>
       <c r="N48" t="str">
         <v>月火水木金土</v>
@@ -3092,25 +3092,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="str">
-        <v>34.284927</v>
+        <v>34.306205</v>
       </c>
       <c r="C49" t="str">
-        <v>134.010137</v>
+        <v>133.998614</v>
       </c>
       <c r="D49" t="str">
-        <v>円座百華保育園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市円座町1478-1</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F49" t="str">
-        <v>087-885-1203</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3125,10 +3125,10 @@
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="M49" t="str">
-        <v>7か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3148,25 +3148,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="str">
-        <v>34.306205</v>
+        <v>34.285075</v>
       </c>
       <c r="C50" t="str">
-        <v>133.998614</v>
+        <v>134.110374</v>
       </c>
       <c r="D50" t="str">
-        <v>高松西保育園</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市檀紙町1521-4</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F50" t="str">
-        <v>087-886-5006</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3184,7 +3184,7 @@
         <v>130</v>
       </c>
       <c r="M50" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N50" t="str">
         <v>月火水木金土</v>
@@ -3204,25 +3204,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="str">
-        <v>34.285075</v>
+        <v>34.311827</v>
       </c>
       <c r="C51" t="str">
-        <v>134.110374</v>
+        <v>134.08609</v>
       </c>
       <c r="D51" t="str">
-        <v>若葉保育園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F51" t="str">
-        <v>087-847-7932</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3237,7 +3237,7 @@
         <v/>
       </c>
       <c r="L51" t="str">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M51" t="str">
         <v>3か月～</v>
@@ -3260,25 +3260,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>34.311827</v>
+        <v>34.341315</v>
       </c>
       <c r="C52" t="str">
-        <v>134.08609</v>
+        <v>134.06296</v>
       </c>
       <c r="D52" t="str">
-        <v>白樺保育園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市元山町855-2</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F52" t="str">
-        <v>087-866-6555</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3296,7 +3296,7 @@
         <v>120</v>
       </c>
       <c r="M52" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N52" t="str">
         <v>月火水木金土</v>
@@ -3311,30 +3311,30 @@
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>34.341315</v>
+        <v>34.320782</v>
       </c>
       <c r="C53" t="str">
-        <v>134.06296</v>
+        <v>134.067903</v>
       </c>
       <c r="D53" t="str">
-        <v>松福保育園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市松福町二丁目18-16</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F53" t="str">
-        <v>087-822-7605</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3349,16 +3349,16 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M53" t="str">
-        <v>2か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N53" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O53" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P53" t="str">
         <v>19:00</v>
@@ -3367,30 +3367,30 @@
         <v/>
       </c>
       <c r="R53" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>34.320782</v>
+        <v>34.263658</v>
       </c>
       <c r="C54" t="str">
-        <v>134.067903</v>
+        <v>134.108531</v>
       </c>
       <c r="D54" t="str">
-        <v>さくらんぼ保育園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市木太町1165-3</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F54" t="str">
-        <v>087-867-4151</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3405,16 +3405,16 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M54" t="str">
-        <v>1歳児～</v>
+        <v>3か月～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O54" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P54" t="str">
         <v>19:00</v>
@@ -3428,25 +3428,25 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>34.263658</v>
+        <v>34.343745</v>
       </c>
       <c r="C55" t="str">
-        <v>134.108531</v>
+        <v>134.052287</v>
       </c>
       <c r="D55" t="str">
-        <v>すみれ保育園</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市十川東町556-1</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F55" t="str">
-        <v>087-848-0806</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3461,48 +3461,48 @@
         <v/>
       </c>
       <c r="L55" t="str">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M55" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N55" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O55" t="str">
-        <v>07:00</v>
+        <v>06:40</v>
       </c>
       <c r="P55" t="str">
-        <v>19:00</v>
+        <v>25:00</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="str">
-        <v>34.343745</v>
+        <v>34.327799</v>
       </c>
       <c r="C56" t="str">
-        <v>134.052287</v>
+        <v>134.062199</v>
       </c>
       <c r="D56" t="str">
-        <v>高松第二保育園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市御坊町2-2</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F56" t="str">
-        <v>087-821-5241</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3517,7 +3517,7 @@
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="M56" t="str">
         <v>2か月～</v>
@@ -3526,39 +3526,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O56" t="str">
-        <v>06:40</v>
+        <v>07:00</v>
       </c>
       <c r="P56" t="str">
-        <v>25:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q56" t="str">
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>34.327799</v>
+        <v>34.25728</v>
       </c>
       <c r="C57" t="str">
-        <v>134.062199</v>
+        <v>134.035674</v>
       </c>
       <c r="D57" t="str">
-        <v>今里保育所</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市今里町二丁目1-5</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F57" t="str">
-        <v>087-834-3535</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3573,10 +3573,10 @@
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M57" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N57" t="str">
         <v>月火水木金土</v>
@@ -3591,30 +3591,30 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="str">
-        <v>34.25728</v>
+        <v>34.289495</v>
       </c>
       <c r="C58" t="str">
-        <v>134.035674</v>
+        <v>133.952485</v>
       </c>
       <c r="D58" t="str">
-        <v>さんさん保育園</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市香川町浅野834-1</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F58" t="str">
-        <v>087-888-6333</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3629,7 +3629,7 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M58" t="str">
         <v>3か月～</v>
@@ -3647,30 +3647,30 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>34.289495</v>
+        <v>34.274113</v>
       </c>
       <c r="C59" t="str">
-        <v>133.952485</v>
+        <v>133.973116</v>
       </c>
       <c r="D59" t="str">
-        <v>みよし保育園</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市国分寺町柏原80</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F59" t="str">
-        <v>087-874-0622</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3685,7 +3685,7 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M59" t="str">
         <v>3か月～</v>
@@ -3703,30 +3703,30 @@
         <v/>
       </c>
       <c r="R59" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="str">
-        <v>34.274113</v>
+        <v>34.337967</v>
       </c>
       <c r="C60" t="str">
-        <v>133.973116</v>
+        <v>134.130825</v>
       </c>
       <c r="D60" t="str">
-        <v>みのり保育園</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市国分寺町福家甲1982</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F60" t="str">
-        <v>087-874-4309</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3741,19 +3741,19 @@
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M60" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N60" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O60" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P60" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -3764,25 +3764,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="str">
-        <v>34.337967</v>
+        <v>34.347055</v>
       </c>
       <c r="C61" t="str">
-        <v>134.130825</v>
+        <v>134.055965</v>
       </c>
       <c r="D61" t="str">
-        <v>八栗保育所</v>
+        <v>城東保育園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市牟礼町牟礼401</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F61" t="str">
-        <v>087-845-0033</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M61" t="str">
         <v>2か月～</v>
@@ -3809,7 +3809,7 @@
         <v>07:30</v>
       </c>
       <c r="P61" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -3820,25 +3820,25 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="str">
-        <v>34.347055</v>
+        <v>34.334252</v>
       </c>
       <c r="C62" t="str">
-        <v>134.055965</v>
+        <v>134.057679</v>
       </c>
       <c r="D62" t="str">
-        <v>城東保育園</v>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市城東町一丁目1-45</v>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F62" t="str">
-        <v>087-822-1340</v>
+        <v>087-831-5136</v>
       </c>
       <c r="G62" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H62" t="str">
         <v/>
@@ -3853,7 +3853,7 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="M62" t="str">
         <v>2か月～</v>
@@ -3871,36 +3871,36 @@
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
-        <v>34.334252</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
-        <v>134.057679</v>
+        <v>0</v>
       </c>
       <c r="D63" t="str">
-        <v>こぶし花園保育園</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>高松市花園町一丁目9-32</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v>087-831-5136</v>
+        <v/>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
+        <v/>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -3909,54 +3909,54 @@
         <v/>
       </c>
       <c r="L63" t="str">
-        <v>90</v>
+        <v/>
       </c>
       <c r="M63" t="str">
-        <v>2か月～</v>
+        <v/>
       </c>
       <c r="N63" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O63" t="str">
-        <v>07:30</v>
+        <v/>
       </c>
       <c r="P63" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" t="str">
-        <v>0</v>
+        <v>34.287693</v>
       </c>
       <c r="C64" t="str">
-        <v>0</v>
+        <v>134.05974</v>
       </c>
       <c r="D64" t="str">
-        <v/>
+        <v>れんげ保育園</v>
       </c>
       <c r="E64" t="str">
-        <v/>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F64" t="str">
-        <v/>
+        <v>087-888-8080</v>
       </c>
       <c r="G64" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J64" t="str">
         <v/>
@@ -3965,48 +3965,48 @@
         <v/>
       </c>
       <c r="L64" t="str">
-        <v/>
+        <v>90</v>
       </c>
       <c r="M64" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N64" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O64" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P64" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q64" t="str">
         <v/>
       </c>
       <c r="R64" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
-        <v>34.287693</v>
+        <v>34.308543</v>
       </c>
       <c r="C65" t="str">
-        <v>134.05974</v>
+        <v>134.056433</v>
       </c>
       <c r="D65" t="str">
-        <v>れんげ保育園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市多肥上町2390-1</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F65" t="str">
-        <v>087-888-8080</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4033,7 +4033,7 @@
         <v>07:00</v>
       </c>
       <c r="P65" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q65" t="str">
         <v/>
@@ -4044,25 +4044,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="str">
-        <v>34.308543</v>
+        <v>34.323827</v>
       </c>
       <c r="C66" t="str">
-        <v>134.056433</v>
+        <v>134.092254</v>
       </c>
       <c r="D66" t="str">
-        <v>さくら伏石保育園</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市伏石町2135-3</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F66" t="str">
-        <v>087-867-1100</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4077,7 +4077,7 @@
         <v/>
       </c>
       <c r="L66" t="str">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M66" t="str">
         <v>3か月～</v>
@@ -4086,10 +4086,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O66" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P66" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q66" t="str">
         <v/>
@@ -4100,25 +4100,25 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" t="str">
-        <v>34.323827</v>
+        <v>34.349557</v>
       </c>
       <c r="C67" t="str">
-        <v>134.092254</v>
+        <v>134.003925</v>
       </c>
       <c r="D67" t="str">
-        <v>らく楽保育園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市春日町483-1</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F67" t="str">
-        <v>087-844-0111</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -4133,13 +4133,13 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M67" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N67" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="O67" t="str">
         <v>07:30</v>
@@ -4151,30 +4151,30 @@
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
-        <v>34.349557</v>
+        <v>34.308532</v>
       </c>
       <c r="C68" t="str">
-        <v>134.003925</v>
+        <v>134.067283</v>
       </c>
       <c r="D68" t="str">
-        <v>初音保育所</v>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市香西本町17-1</v>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F68" t="str">
-        <v>087-813-3258</v>
+        <v>087-802-8080</v>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -4189,54 +4189,54 @@
         <v/>
       </c>
       <c r="L68" t="str">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="M68" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N68" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O68" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P68" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="str">
-        <v>34.308532</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
-        <v>134.067283</v>
+        <v>0</v>
       </c>
       <c r="D69" t="str">
-        <v>さくら木太保育園</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>高松市木太町5113-15</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>087-802-8080</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
+        <v/>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J69" t="str">
         <v/>
@@ -4245,54 +4245,54 @@
         <v/>
       </c>
       <c r="L69" t="str">
-        <v>99</v>
+        <v/>
       </c>
       <c r="M69" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N69" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O69" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P69" t="str">
-        <v>20:00</v>
+        <v/>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="str">
-        <v>0</v>
+        <v>34.333051</v>
       </c>
       <c r="C70" t="str">
-        <v>0</v>
+        <v>134.055788</v>
       </c>
       <c r="D70" t="str">
-        <v/>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E70" t="str">
-        <v/>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F70" t="str">
-        <v/>
+        <v>087-880-7211</v>
       </c>
       <c r="G70" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H70" t="str">
         <v/>
       </c>
       <c r="I70" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J70" t="str">
         <v/>
@@ -4301,48 +4301,48 @@
         <v/>
       </c>
       <c r="L70" t="str">
-        <v/>
+        <v>105</v>
       </c>
       <c r="M70" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N70" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O70" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P70" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q70" t="str">
         <v/>
       </c>
       <c r="R70" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="str">
-        <v>34.333051</v>
+        <v>34.343232</v>
       </c>
       <c r="C71" t="str">
-        <v>134.055788</v>
+        <v>134.065675</v>
       </c>
       <c r="D71" t="str">
-        <v>高松くりの木保育園</v>
+        <v>らく楽第二保育園</v>
       </c>
       <c r="E71" t="str">
-        <v>高松市花園町三丁目4-5</v>
+        <v>高松市松福町二丁目4-4</v>
       </c>
       <c r="F71" t="str">
-        <v>087-880-7211</v>
+        <v>087-826-0111</v>
       </c>
       <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -4357,7 +4357,7 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M71" t="str">
         <v>3か月～</v>
@@ -4366,7 +4366,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O71" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P71" t="str">
         <v>19:00</v>
@@ -4380,25 +4380,25 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="str">
-        <v>34.343232</v>
+        <v>34.291607</v>
       </c>
       <c r="C72" t="str">
-        <v>134.065675</v>
+        <v>134.075471</v>
       </c>
       <c r="D72" t="str">
-        <v>らく楽第二保育園</v>
+        <v>あさがお保育園</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市松福町二丁目4-4</v>
+        <v>高松市上林町69</v>
       </c>
       <c r="F72" t="str">
-        <v>087-826-0111</v>
+        <v>087-899-5660</v>
       </c>
       <c r="G72" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -4413,10 +4413,10 @@
         <v/>
       </c>
       <c r="L72" t="str">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="M72" t="str">
-        <v>3か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N72" t="str">
         <v>月火水木金土</v>
@@ -4431,30 +4431,30 @@
         <v/>
       </c>
       <c r="R72" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="str">
-        <v>34.291607</v>
+        <v>34.3051941</v>
       </c>
       <c r="C73" t="str">
-        <v>134.075471</v>
+        <v>134.0610552</v>
       </c>
       <c r="D73" t="str">
-        <v>あさがお保育園</v>
+        <v>保育園アルペジオ高松多肥下町園</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市上林町69</v>
+        <v>高松市多肥下町1524-15</v>
       </c>
       <c r="F73" t="str">
-        <v>087-899-5660</v>
+        <v>087-802-5583</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -4469,10 +4469,10 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M73" t="str">
-        <v>３か月～</v>
+        <v>6か月</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
@@ -4481,7 +4481,7 @@
         <v>07:30</v>
       </c>
       <c r="P73" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q73" t="str">
         <v/>
@@ -4492,25 +4492,25 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" t="str">
-        <v>34.3051941</v>
+        <v>34.3034175</v>
       </c>
       <c r="C74" t="str">
-        <v>134.0610552</v>
+        <v>134.0533292</v>
       </c>
       <c r="D74" t="str">
-        <v>保育園アルペジオ高松多肥下町園</v>
+        <v>さくら太田保育園</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市多肥下町1524-15</v>
+        <v>高松市太田下町3032-1</v>
       </c>
       <c r="F74" t="str">
-        <v>087-802-5583</v>
+        <v>087-868-3700</v>
       </c>
       <c r="G74" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
       </c>
       <c r="H74" t="str">
         <v/>
@@ -4525,54 +4525,54 @@
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M74" t="str">
-        <v>6か月</v>
+        <v>3か月</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O74" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P74" t="str">
-        <v>19:30</v>
+        <v>20:00</v>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" t="str">
-        <v>34.3034175</v>
+        <v>34.3064057</v>
       </c>
       <c r="C75" t="str">
-        <v>134.0533292</v>
+        <v>134.042294</v>
       </c>
       <c r="D75" t="str">
-        <v>さくら太田保育園</v>
+        <v>にこにこ保育園</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市太田下町3032-1</v>
+        <v>高松市林町294-1</v>
       </c>
       <c r="F75" t="str">
-        <v>087-868-3700</v>
+        <v>087-813-8300</v>
       </c>
       <c r="G75" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
       </c>
       <c r="H75" t="str">
         <v/>
       </c>
       <c r="I75" t="str">
-        <v>認定私立保育所</v>
+        <v>認可私立保育所</v>
       </c>
       <c r="J75" t="str">
         <v/>
@@ -4581,48 +4581,48 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M75" t="str">
-        <v>3か月</v>
+        <v>おおむね2か月～</v>
       </c>
       <c r="N75" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O75" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P75" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" t="str">
-        <v>34.3064057</v>
+        <v>34.3047038</v>
       </c>
       <c r="C76" t="str">
-        <v>134.042294</v>
+        <v>134.0565783</v>
       </c>
       <c r="D76" t="str">
-        <v>にこにこ保育園</v>
+        <v>あい保育園太田</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市林町294-1</v>
+        <v>高松市太田下町3027-3</v>
       </c>
       <c r="F76" t="str">
-        <v>087-813-8300</v>
+        <v>087-802-9065</v>
       </c>
       <c r="G76" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -4637,48 +4637,48 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="M76" t="str">
-        <v>おおむね2か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N76" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O76" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P76" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q76" t="str">
         <v/>
       </c>
       <c r="R76" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" t="str">
-        <v>34.3047038</v>
+        <v>34.3431504</v>
       </c>
       <c r="C77" t="str">
-        <v>134.0565783</v>
+        <v>134.0615252</v>
       </c>
       <c r="D77" t="str">
-        <v>あい保育園太田</v>
+        <v>さくら福々保育園</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市松福町一丁目229-55</v>
       </c>
       <c r="F77" t="str">
-        <v>087-802-9065</v>
+        <v>087-802-1860</v>
       </c>
       <c r="G77" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+        <v/>
       </c>
       <c r="H77" t="str">
         <v/>
@@ -4693,7 +4693,7 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M77" t="str">
         <v>３か月～</v>
@@ -4716,31 +4716,31 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="str">
-        <v>34.3431504</v>
+        <v>34.292144</v>
       </c>
       <c r="C78" t="str">
-        <v>134.0615252</v>
+        <v>134.066237</v>
       </c>
       <c r="D78" t="str">
-        <v>さくら福々保育園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F78" t="str">
-        <v>087-802-1860</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G78" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H78" t="str">
         <v/>
       </c>
       <c r="I78" t="str">
-        <v>認可私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J78" t="str">
         <v/>
@@ -4749,48 +4749,48 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>96</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M78" t="str">
-        <v>３か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N78" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O78" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P78" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q78" t="str">
         <v/>
       </c>
       <c r="R78" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="str">
-        <v>34.292144</v>
+        <v>34.303319</v>
       </c>
       <c r="C79" t="str">
-        <v>134.066237</v>
+        <v>133.949144</v>
       </c>
       <c r="D79" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F79" t="str">
-        <v>087-889-8181</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G79" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -4805,19 +4805,19 @@
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M79" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O79" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P79" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q79" t="str">
         <v/>
@@ -4828,25 +4828,25 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" t="str">
-        <v>34.303319</v>
+        <v>34.304328</v>
       </c>
       <c r="C80" t="str">
-        <v>133.949144</v>
+        <v>133.97246</v>
       </c>
       <c r="D80" t="str">
-        <v>いずみこども園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市国分寺町新居281-1</v>
       </c>
       <c r="F80" t="str">
-        <v>087-874-0882</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G80" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -4861,19 +4861,19 @@
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>2・3号認定 20</v>
       </c>
       <c r="M80" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～</v>
       </c>
       <c r="N80" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O80" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P80" t="str">
-        <v>20:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q80" t="str">
         <v/>
@@ -4884,25 +4884,25 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" t="str">
-        <v>34.304328</v>
+        <v>34.327571</v>
       </c>
       <c r="C81" t="str">
-        <v>133.97246</v>
+        <v>134.087355</v>
       </c>
       <c r="D81" t="str">
-        <v>いずみこども園分園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市国分寺町新居281-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F81" t="str">
-        <v>087-875-0882</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G81" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -4917,48 +4917,48 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>2・3号認定 20</v>
+        <v>1号認定 284、2・3号認定 166</v>
       </c>
       <c r="M81" t="str">
-        <v>2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N81" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O81" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P81" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q81" t="str">
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" t="str">
-        <v>34.327571</v>
+        <v>34.325356</v>
       </c>
       <c r="C82" t="str">
-        <v>134.087355</v>
+        <v>134.099079</v>
       </c>
       <c r="D82" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F82" t="str">
-        <v>087-841-2306</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G82" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -4973,16 +4973,16 @@
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>1号認定 284、2・3号認定 166</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M82" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N82" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O82" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P82" t="str">
         <v>19:00</v>
@@ -4991,30 +4991,30 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" t="str">
-        <v>34.325356</v>
+        <v>34.268464</v>
       </c>
       <c r="C83" t="str">
-        <v>134.099079</v>
+        <v>134.006758</v>
       </c>
       <c r="D83" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F83" t="str">
-        <v>087-841-3686</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G83" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -5029,16 +5029,16 @@
         <v/>
       </c>
       <c r="L83" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M83" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N83" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O83" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P83" t="str">
         <v>19:00</v>
@@ -5047,30 +5047,30 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" t="str">
-        <v>34.268464</v>
+        <v>34.331077</v>
       </c>
       <c r="C84" t="str">
-        <v>134.006758</v>
+        <v>134.094275</v>
       </c>
       <c r="D84" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F84" t="str">
-        <v>087-886-5879</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G84" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -5085,10 +5085,10 @@
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M84" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N84" t="str">
         <v>月火水木金土</v>
@@ -5103,30 +5103,30 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" t="str">
-        <v>34.331077</v>
+        <v>34.326539</v>
       </c>
       <c r="C85" t="str">
-        <v>134.094275</v>
+        <v>134.047837</v>
       </c>
       <c r="D85" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F85" t="str">
-        <v>087-843-3689</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G85" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -5141,7 +5141,7 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M85" t="str">
         <v>1号認定 3歳児～、2・3号認定 2か月～</v>
@@ -5159,30 +5159,30 @@
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" t="str">
-        <v>34.326539</v>
+        <v>34.333461</v>
       </c>
       <c r="C86" t="str">
-        <v>134.047837</v>
+        <v>134.04506</v>
       </c>
       <c r="D86" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F86" t="str">
-        <v>087-831-6318</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G86" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -5197,48 +5197,48 @@
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M86" t="str">
-        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N86" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O86" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P86" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q86" t="str">
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" t="str">
-        <v>34.333461</v>
+        <v>34.279891</v>
       </c>
       <c r="C87" t="str">
-        <v>134.04506</v>
+        <v>134.042395</v>
       </c>
       <c r="D87" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F87" t="str">
-        <v>087-831-8659</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G87" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5253,7 +5253,7 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M87" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5262,39 +5262,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O87" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P87" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q87" t="str">
         <v/>
       </c>
       <c r="R87" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" t="str">
-        <v>34.279891</v>
+        <v>34.292691</v>
       </c>
       <c r="C88" t="str">
-        <v>134.042395</v>
+        <v>134.0352</v>
       </c>
       <c r="D88" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F88" t="str">
-        <v>087-889-1059</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G88" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -5309,16 +5309,16 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 75、2・3号認定 75</v>
       </c>
       <c r="M88" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N88" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O88" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P88" t="str">
         <v>19:00</v>
@@ -5332,25 +5332,25 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" t="str">
-        <v>34.292691</v>
+        <v>34.2936161</v>
       </c>
       <c r="C89" t="str">
-        <v>134.0352</v>
+        <v>134.0789214</v>
       </c>
       <c r="D89" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F89" t="str">
-        <v>087-802-3838</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G89" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -5365,16 +5365,16 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v>1号認定 75、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 217</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O89" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P89" t="str">
         <v>19:00</v>
@@ -5388,25 +5388,25 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" t="str">
-        <v>34.2936161</v>
+        <v>34.2734776</v>
       </c>
       <c r="C90" t="str">
-        <v>134.0789214</v>
+        <v>134.1024882</v>
       </c>
       <c r="D90" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F90" t="str">
-        <v>087-813-9818</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G90" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -5421,16 +5421,16 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>1号認定 15、2・3号認定 217</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M90" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N90" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O90" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P90" t="str">
         <v>19:00</v>
@@ -5439,30 +5439,30 @@
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" t="str">
-        <v>34.2734776</v>
+        <v>34.3064057</v>
       </c>
       <c r="C91" t="str">
-        <v>134.1024882</v>
+        <v>134.042294</v>
       </c>
       <c r="D91" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F91" t="str">
-        <v>087-848-0320</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G91" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -5477,7 +5477,7 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 165</v>
       </c>
       <c r="M91" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5486,7 +5486,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O91" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P91" t="str">
         <v>19:00</v>
@@ -5495,30 +5495,30 @@
         <v/>
       </c>
       <c r="R91" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" t="str">
-        <v>34.3064057</v>
+        <v>34.3264572</v>
       </c>
       <c r="C92" t="str">
-        <v>134.042294</v>
+        <v>134.0769366</v>
       </c>
       <c r="D92" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F92" t="str">
-        <v>087-814-4141</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G92" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v/>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -5533,16 +5533,16 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 15、2・3号認定 165</v>
+        <v>1号認定 15、2・3号認定 75</v>
       </c>
       <c r="M92" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N92" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O92" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P92" t="str">
         <v>19:00</v>
@@ -5556,31 +5556,31 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" t="str">
-        <v>34.3264572</v>
+        <v>34.353781</v>
       </c>
       <c r="C93" t="str">
-        <v>134.0769366</v>
+        <v>134.091115</v>
       </c>
       <c r="D93" t="str">
-        <v>みらい学園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F93" t="str">
-        <v>087-899-2305</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G93" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H93" t="str">
         <v/>
       </c>
       <c r="I93" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認定こども園（幼稚園型）</v>
       </c>
       <c r="J93" t="str">
         <v/>
@@ -5589,16 +5589,16 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 15、2・3号認定 75</v>
+        <v>1号認定 228、2・3号認定 72</v>
       </c>
       <c r="M93" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N93" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O93" t="str">
-        <v>07:30</v>
+        <v>07:45</v>
       </c>
       <c r="P93" t="str">
         <v>19:00</v>
@@ -5612,25 +5612,25 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" t="str">
-        <v>34.353781</v>
+        <v>34.338923</v>
       </c>
       <c r="C94" t="str">
-        <v>134.091115</v>
+        <v>134.031483</v>
       </c>
       <c r="D94" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E94" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F94" t="str">
-        <v>087-843-2241</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G94" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -5645,19 +5645,19 @@
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>1号認定 228、2・3号認定 72</v>
+        <v>1号認定 135、2号認定 15</v>
       </c>
       <c r="M94" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
       </c>
       <c r="N94" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O94" t="str">
-        <v>07:45</v>
+        <v>07:30</v>
       </c>
       <c r="P94" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" t="str">
-        <v>34.338923</v>
+        <v>34.338702</v>
       </c>
       <c r="C95" t="str">
-        <v>134.031483</v>
+        <v>134.038281</v>
       </c>
       <c r="D95" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E95" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F95" t="str">
-        <v>087-861-0425</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G95" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -5701,10 +5701,10 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>1号認定 135、2号認定 15</v>
+        <v>1号認定 109、2・3号認定 99</v>
       </c>
       <c r="M95" t="str">
-        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
       </c>
       <c r="N95" t="str">
         <v>月火水木金土</v>
@@ -5713,7 +5713,7 @@
         <v>07:30</v>
       </c>
       <c r="P95" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -5724,25 +5724,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" t="str">
-        <v>34.338702</v>
+        <v>34.279836</v>
       </c>
       <c r="C96" t="str">
-        <v>134.038281</v>
+        <v>134.022373</v>
       </c>
       <c r="D96" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E96" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F96" t="str">
-        <v>087-831-2557</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G96" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -5757,10 +5757,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 109、2・3号認定 99</v>
+        <v>1号認定 112、2・3号認定 128</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5780,25 +5780,25 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" t="str">
-        <v>34.279836</v>
+        <v>34.334019</v>
       </c>
       <c r="C97" t="str">
-        <v>134.022373</v>
+        <v>134.114815</v>
       </c>
       <c r="D97" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E97" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F97" t="str">
-        <v>087-885-2038</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G97" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -5813,10 +5813,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 112、2・3号認定 128</v>
+        <v>1号認定 274、2・3号認定 48</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5836,25 +5836,25 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" t="str">
-        <v>34.334019</v>
+        <v>34.304505</v>
       </c>
       <c r="C98" t="str">
-        <v>134.114815</v>
+        <v>134.021922</v>
       </c>
       <c r="D98" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F98" t="str">
-        <v>087-843-4484</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -5869,10 +5869,10 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>1号認定 274、2・3号認定 48</v>
+        <v>1号認定 265、2・3号認定 51</v>
       </c>
       <c r="M98" t="str">
-        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
@@ -5881,7 +5881,7 @@
         <v>07:30</v>
       </c>
       <c r="P98" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q98" t="str">
         <v/>
@@ -5892,31 +5892,31 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" t="str">
-        <v>34.304505</v>
+        <v>34.235856</v>
       </c>
       <c r="C99" t="str">
-        <v>134.021922</v>
+        <v>133.994046</v>
       </c>
       <c r="D99" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>カナン空港こども園</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市香南町西庄1671-2</v>
       </c>
       <c r="F99" t="str">
-        <v>087-865-9419</v>
+        <v>087-815-8072</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
       </c>
       <c r="H99" t="str">
         <v/>
       </c>
       <c r="I99" t="str">
-        <v>認定こども園（幼稚園型）</v>
+        <v>地域型保育事業（小規模保育事業A型）</v>
       </c>
       <c r="J99" t="str">
         <v/>
@@ -5925,19 +5925,19 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>1号認定 265、2・3号認定 51</v>
+        <v>18</v>
       </c>
       <c r="M99" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O99" t="str">
-        <v>07:30</v>
+        <v>07:15</v>
       </c>
       <c r="P99" t="str">
-        <v>18:30</v>
+        <v>18:15</v>
       </c>
       <c r="Q99" t="str">
         <v/>
@@ -5948,25 +5948,25 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" t="str">
-        <v>34.235856</v>
+        <v>34.332072</v>
       </c>
       <c r="C100" t="str">
-        <v>133.994046</v>
+        <v>134.049227</v>
       </c>
       <c r="D100" t="str">
-        <v>カナン空港こども園</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市香南町西庄1671-2</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F100" t="str">
-        <v>087-815-8072</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -5981,48 +5981,48 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M100" t="str">
-        <v>3か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O100" t="str">
-        <v>07:15</v>
+        <v>07:30</v>
       </c>
       <c r="P100" t="str">
-        <v>18:15</v>
+        <v>19:00</v>
       </c>
       <c r="Q100" t="str">
         <v/>
       </c>
       <c r="R100" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" t="str">
-        <v>34.332072</v>
+        <v>34.332365</v>
       </c>
       <c r="C101" t="str">
-        <v>134.049227</v>
+        <v>134.097201</v>
       </c>
       <c r="D101" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F101" t="str">
-        <v>087-831-1319</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6037,10 +6037,10 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M101" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
@@ -6049,36 +6049,36 @@
         <v>07:30</v>
       </c>
       <c r="P101" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q101" t="str">
         <v/>
       </c>
       <c r="R101" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" t="str">
-        <v>34.332365</v>
+        <v>34.288288</v>
       </c>
       <c r="C102" t="str">
-        <v>134.097201</v>
+        <v>134.059379</v>
       </c>
       <c r="D102" t="str">
-        <v>小規模保育所もも</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F102" t="str">
-        <v>087-843-8255</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6093,10 +6093,10 @@
         <v/>
       </c>
       <c r="L102" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M102" t="str">
-        <v>2か月～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
@@ -6105,7 +6105,7 @@
         <v>07:30</v>
       </c>
       <c r="P102" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q102" t="str">
         <v/>
@@ -6116,25 +6116,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" t="str">
-        <v>34.288288</v>
+        <v>34.316351</v>
       </c>
       <c r="C103" t="str">
-        <v>134.059379</v>
+        <v>134.073388</v>
       </c>
       <c r="D103" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F103" t="str">
-        <v>087-816-8301</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6149,16 +6149,16 @@
         <v/>
       </c>
       <c r="L103" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M103" t="str">
-        <v>3か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N103" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O103" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P103" t="str">
         <v>19:00</v>
@@ -6172,25 +6172,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" t="str">
-        <v>34.316351</v>
+        <v>34.303424</v>
       </c>
       <c r="C104" t="str">
-        <v>134.073388</v>
+        <v>134.060713</v>
       </c>
       <c r="D104" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F104" t="str">
-        <v>087-816-5150</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6208,16 +6208,16 @@
         <v>19</v>
       </c>
       <c r="M104" t="str">
-        <v>54日～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N104" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O104" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P104" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q104" t="str">
         <v/>
@@ -6228,25 +6228,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" t="str">
-        <v>34.303424</v>
+        <v>34.298947</v>
       </c>
       <c r="C105" t="str">
-        <v>134.060713</v>
+        <v>134.055734</v>
       </c>
       <c r="D105" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F105" t="str">
-        <v>087-864-3133</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6284,25 +6284,25 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" t="str">
-        <v>34.298947</v>
+        <v>34.37717</v>
       </c>
       <c r="C106" t="str">
-        <v>134.055734</v>
+        <v>134.122418</v>
       </c>
       <c r="D106" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F106" t="str">
-        <v>087-815-0224</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6317,10 +6317,10 @@
         <v/>
       </c>
       <c r="L106" t="str">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M106" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N106" t="str">
         <v>月火水木金土</v>
@@ -6329,7 +6329,7 @@
         <v>07:30</v>
       </c>
       <c r="P106" t="str">
-        <v>19:30</v>
+        <v>18:30</v>
       </c>
       <c r="Q106" t="str">
         <v/>
@@ -6340,25 +6340,25 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" t="str">
-        <v>34.37717</v>
+        <v>34.2899</v>
       </c>
       <c r="C107" t="str">
-        <v>134.122418</v>
+        <v>134.05856</v>
       </c>
       <c r="D107" t="str">
-        <v>おるごーる</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F107" t="str">
-        <v>087-871-3503</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6373,7 +6373,7 @@
         <v/>
       </c>
       <c r="L107" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M107" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6391,30 +6391,30 @@
         <v/>
       </c>
       <c r="R107" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" t="str">
-        <v>34.2899</v>
+        <v>34.336075</v>
       </c>
       <c r="C108" t="str">
-        <v>134.05856</v>
+        <v>134.072522</v>
       </c>
       <c r="D108" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F108" t="str">
-        <v>087-889-3711</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6429,7 +6429,7 @@
         <v/>
       </c>
       <c r="L108" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M108" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6441,7 +6441,7 @@
         <v>07:30</v>
       </c>
       <c r="P108" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q108" t="str">
         <v/>
@@ -6452,25 +6452,25 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" t="str">
-        <v>34.336075</v>
+        <v>34.311371</v>
       </c>
       <c r="C109" t="str">
-        <v>134.072522</v>
+        <v>134.055948</v>
       </c>
       <c r="D109" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F109" t="str">
-        <v>087-837-5330</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6508,25 +6508,25 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" t="str">
-        <v>34.311371</v>
+        <v>34.316136</v>
       </c>
       <c r="C110" t="str">
-        <v>134.055948</v>
+        <v>134.061202</v>
       </c>
       <c r="D110" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F110" t="str">
-        <v>087-868-3339</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6541,10 +6541,10 @@
         <v/>
       </c>
       <c r="L110" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M110" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N110" t="str">
         <v>月火水木金土</v>
@@ -6553,36 +6553,36 @@
         <v>07:30</v>
       </c>
       <c r="P110" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q110" t="str">
         <v/>
       </c>
       <c r="R110" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" t="str">
-        <v>34.316136</v>
+        <v>34.3049893</v>
       </c>
       <c r="C111" t="str">
-        <v>134.061202</v>
+        <v>134.0560416</v>
       </c>
       <c r="D111" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F111" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6600,7 +6600,7 @@
         <v>19</v>
       </c>
       <c r="M111" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N111" t="str">
         <v>月火水木金土</v>
@@ -6609,36 +6609,36 @@
         <v>07:30</v>
       </c>
       <c r="P111" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q111" t="str">
         <v/>
       </c>
       <c r="R111" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" t="str">
-        <v>34.3049893</v>
+        <v>34.2989616</v>
       </c>
       <c r="C112" t="str">
-        <v>134.0560416</v>
+        <v>134.0640027</v>
       </c>
       <c r="D112" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F112" t="str">
-        <v>087-868-2355</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6676,25 +6676,25 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" t="str">
-        <v>34.2989616</v>
+        <v>34.2612106</v>
       </c>
       <c r="C113" t="str">
-        <v>134.0640027</v>
+        <v>134.0367875</v>
       </c>
       <c r="D113" t="str">
-        <v>林にこにこ保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F113" t="str">
-        <v>087-868-0103</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H113" t="str">
         <v/>
@@ -6709,10 +6709,10 @@
         <v/>
       </c>
       <c r="L113" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M113" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N113" t="str">
         <v>月火水木金土</v>
@@ -6721,7 +6721,7 @@
         <v>07:30</v>
       </c>
       <c r="P113" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q113" t="str">
         <v/>
@@ -6732,25 +6732,25 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" t="str">
-        <v>34.2612106</v>
+        <v>34.3389027</v>
       </c>
       <c r="C114" t="str">
-        <v>134.0367875</v>
+        <v>134.052851</v>
       </c>
       <c r="D114" t="str">
-        <v>保育の家みいろ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F114" t="str">
-        <v>087-880-3274</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G114" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H114" t="str">
         <v/>
@@ -6765,7 +6765,7 @@
         <v/>
       </c>
       <c r="L114" t="str">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M114" t="str">
         <v>３か月～2歳児</v>
@@ -6777,42 +6777,42 @@
         <v>07:30</v>
       </c>
       <c r="P114" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q114" t="str">
         <v/>
       </c>
       <c r="R114" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" t="str">
-        <v>34.3389027</v>
+        <v>34.340379</v>
       </c>
       <c r="C115" t="str">
-        <v>134.052851</v>
+        <v>134.044986</v>
       </c>
       <c r="D115" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>院内保育所てふてふ</v>
       </c>
       <c r="E115" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市天神前5-6 高松メディカルモール</v>
       </c>
       <c r="F115" t="str">
-        <v>087-802-6966</v>
+        <v>087-813-0218</v>
       </c>
       <c r="G115" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
       </c>
       <c r="H115" t="str">
         <v/>
       </c>
       <c r="I115" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="J115" t="str">
         <v/>
@@ -6821,10 +6821,10 @@
         <v/>
       </c>
       <c r="L115" t="str">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M115" t="str">
-        <v>３か月～2歳児</v>
+        <v>6か月～2歳児</v>
       </c>
       <c r="N115" t="str">
         <v>月火水木金土</v>
@@ -6833,7 +6833,7 @@
         <v>07:30</v>
       </c>
       <c r="P115" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q115" t="str">
         <v/>
@@ -6844,31 +6844,31 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" t="str">
-        <v>34.340379</v>
+        <v>34.30287</v>
       </c>
       <c r="C116" t="str">
-        <v>134.044986</v>
+        <v>134.016075</v>
       </c>
       <c r="D116" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E116" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F116" t="str">
-        <v>087-813-0218</v>
+        <v>087-886-6669</v>
       </c>
       <c r="G116" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
       <c r="H116" t="str">
         <v/>
       </c>
       <c r="I116" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>認定こども園（地方裁量型）</v>
       </c>
       <c r="J116" t="str">
         <v/>
@@ -6877,10 +6877,10 @@
         <v/>
       </c>
       <c r="L116" t="str">
-        <v>7</v>
+        <v>1号認定 20、2・3号認定 35</v>
       </c>
       <c r="M116" t="str">
-        <v>6か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
       <c r="N116" t="str">
         <v>月火水木金土</v>
@@ -6889,74 +6889,18 @@
         <v>07:30</v>
       </c>
       <c r="P116" t="str">
-        <v>18:30</v>
+        <v>18:00</v>
       </c>
       <c r="Q116" t="str">
         <v/>
       </c>
       <c r="R116" t="str">
-        <v>無</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>121</v>
-      </c>
-      <c r="B117" t="str">
-        <v>34.30287</v>
-      </c>
-      <c r="C117" t="str">
-        <v>134.016075</v>
-      </c>
-      <c r="D117" t="str">
-        <v>メリーＧＯランド高松園</v>
-      </c>
-      <c r="E117" t="str">
-        <v>高松市成合町796-1</v>
-      </c>
-      <c r="F117" t="str">
-        <v>087-886-6669</v>
-      </c>
-      <c r="G117" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H117" t="str">
-        <v/>
-      </c>
-      <c r="I117" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J117" t="str">
-        <v/>
-      </c>
-      <c r="K117" t="str">
-        <v/>
-      </c>
-      <c r="L117" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
-      </c>
-      <c r="M117" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
-      </c>
-      <c r="N117" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O117" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P117" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q117" t="str">
-        <v/>
-      </c>
-      <c r="R117" t="str">
         <v>無</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1580,25 +1580,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="str">
-        <v>34.257828</v>
+        <v>34.229495</v>
       </c>
       <c r="C22" t="str">
-        <v>134.036939</v>
+        <v>134.040497</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市立浅野保育所</v>
+        <v>高松市立川東南保育所</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市香川町浅野816-1</v>
+        <v>高松市香川町川内原574-56</v>
       </c>
       <c r="F22" t="str">
-        <v>087-889-2416</v>
+        <v>087-879-5784</v>
       </c>
       <c r="G22" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1613,10 +1613,10 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M22" t="str">
-        <v>3か月～</v>
+        <v>1歳～</v>
       </c>
       <c r="N22" t="str">
         <v>月火水木金土</v>
@@ -1636,25 +1636,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="str">
-        <v>34.229495</v>
+        <v>34.307041</v>
       </c>
       <c r="C23" t="str">
-        <v>134.040497</v>
+        <v>133.964275</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市立川東南保育所</v>
+        <v>高松市立国分寺北部保育所</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市香川町川内原574-56</v>
+        <v>高松市国分寺町新居1906-1</v>
       </c>
       <c r="F23" t="str">
-        <v>087-879-5784</v>
+        <v>087-874-1487</v>
       </c>
       <c r="G23" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1669,7 +1669,7 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M23" t="str">
         <v>1歳～</v>
@@ -1681,7 +1681,7 @@
         <v>07:30</v>
       </c>
       <c r="P23" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q23" t="str">
         <v/>
@@ -1692,25 +1692,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="str">
-        <v>34.307041</v>
+        <v>34.284657</v>
       </c>
       <c r="C24" t="str">
-        <v>133.964275</v>
+        <v>133.960908</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市立国分寺北部保育所</v>
+        <v>高松市立国分寺南部保育所</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市国分寺町新居1906-1</v>
+        <v>高松市国分寺町福家甲3106-1</v>
       </c>
       <c r="F24" t="str">
-        <v>087-874-1487</v>
+        <v>087-874-1120</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1725,7 +1725,7 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M24" t="str">
         <v>1歳～</v>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="str">
-        <v>34.284657</v>
+        <v>34.345964</v>
       </c>
       <c r="C25" t="str">
-        <v>133.960908</v>
+        <v>134.126933</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市立国分寺南部保育所</v>
+        <v>高松市立牟礼保育所</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市国分寺町福家甲3106-1</v>
+        <v>高松市牟礼町牟礼1978-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-874-1120</v>
+        <v>087-845-1647</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1781,10 +1781,10 @@
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M25" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N25" t="str">
         <v>月火水木金土</v>
@@ -1793,7 +1793,7 @@
         <v>07:30</v>
       </c>
       <c r="P25" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -1804,25 +1804,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="str">
-        <v>34.345964</v>
+        <v>34.341172</v>
       </c>
       <c r="C26" t="str">
-        <v>134.126933</v>
+        <v>134.140155</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市立牟礼保育所</v>
+        <v>高松市立田井保育所</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市牟礼町牟礼1978-1</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F26" t="str">
-        <v>087-845-1647</v>
+        <v>087-845-5411</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
       </c>
       <c r="H26" t="str">
         <v/>
@@ -1837,7 +1837,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M26" t="str">
         <v>3か月～</v>
@@ -1849,7 +1849,7 @@
         <v>07:30</v>
       </c>
       <c r="P26" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -1860,31 +1860,31 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="str">
-        <v>34.341172</v>
+        <v>34.358509</v>
       </c>
       <c r="C27" t="str">
-        <v>134.140155</v>
+        <v>133.967533</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市立田井保育所</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F27" t="str">
-        <v>087-845-5411</v>
+        <v>087-881-2515</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H27" t="str">
         <v/>
       </c>
       <c r="I27" t="str">
-        <v>認定公立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -1893,10 +1893,10 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v>80</v>
+        <v>1号認定 40、2・3号認定 105</v>
       </c>
       <c r="M27" t="str">
-        <v>3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N27" t="str">
         <v>月火水木金土</v>
@@ -1911,30 +1911,30 @@
         <v/>
       </c>
       <c r="R27" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="str">
-        <v>34.358509</v>
+        <v>34.328643</v>
       </c>
       <c r="C28" t="str">
-        <v>133.967533</v>
+        <v>134.156038</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F28" t="str">
-        <v>087-881-2515</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1949,7 +1949,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>1号認定 40、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 138</v>
       </c>
       <c r="M28" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -1961,7 +1961,7 @@
         <v>07:30</v>
       </c>
       <c r="P28" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -1972,25 +1972,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="str">
-        <v>34.328643</v>
+        <v>34.385761</v>
       </c>
       <c r="C29" t="str">
-        <v>134.156038</v>
+        <v>134.131516</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F29" t="str">
-        <v>087-845-0234</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>1号認定 90、2・3号認定 138</v>
+        <v>1号認定 45、2・3号認定 105</v>
       </c>
       <c r="M29" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2017,7 +2017,7 @@
         <v>07:30</v>
       </c>
       <c r="P29" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2028,25 +2028,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="str">
-        <v>34.385761</v>
+        <v>34.242096</v>
       </c>
       <c r="C30" t="str">
-        <v>134.131516</v>
+        <v>134.005834</v>
       </c>
       <c r="D30" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F30" t="str">
-        <v>087-871-2535</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -2061,7 +2061,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>1号認定 45、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 179</v>
       </c>
       <c r="M30" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2073,7 +2073,7 @@
         <v>07:30</v>
       </c>
       <c r="P30" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="str">
-        <v>34.242096</v>
+        <v>34.188524</v>
       </c>
       <c r="C31" t="str">
-        <v>134.005834</v>
+        <v>134.061382</v>
       </c>
       <c r="D31" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F31" t="str">
-        <v>087-887-7876</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -2117,7 +2117,7 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>1号認定 90、2・3号認定 179</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M31" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2140,25 +2140,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="str">
-        <v>34.188524</v>
+        <v>34.237755</v>
       </c>
       <c r="C32" t="str">
-        <v>134.061382</v>
+        <v>134.035134</v>
       </c>
       <c r="D32" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F32" t="str">
-        <v>087-890-2022</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G32" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -2173,7 +2173,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 153</v>
       </c>
       <c r="M32" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2196,25 +2196,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="str">
-        <v>34.237755</v>
+        <v>34.342609</v>
       </c>
       <c r="C33" t="str">
-        <v>134.035134</v>
+        <v>134.099868</v>
       </c>
       <c r="D33" t="str">
-        <v>高松市川東こども園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F33" t="str">
-        <v>087-879-4602</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G33" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -2229,7 +2229,7 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>1号認定 90、2・3号認定 153</v>
+        <v>1号認定 9、2・3号認定 135</v>
       </c>
       <c r="M33" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2252,25 +2252,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="str">
-        <v>34.342609</v>
+        <v>34.2959789</v>
       </c>
       <c r="C34" t="str">
-        <v>134.099868</v>
+        <v>134.0789659</v>
       </c>
       <c r="D34" t="str">
-        <v>屋島こども園</v>
+        <v>林こども園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F34" t="str">
-        <v>087-841-9711</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G34" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>1号認定 9、2・3号認定 135</v>
+        <v>1号認定 105、2・3号認定 194</v>
       </c>
       <c r="M34" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2308,31 +2308,31 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="str">
-        <v>34.2959789</v>
+        <v>34.420292</v>
       </c>
       <c r="C35" t="str">
-        <v>134.0789659</v>
+        <v>134.057016</v>
       </c>
       <c r="D35" t="str">
-        <v>林こども園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F35" t="str">
-        <v>087-865-1676</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G35" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>小規模保育施設</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -2341,54 +2341,54 @@
         <v/>
       </c>
       <c r="L35" t="str">
-        <v>1号認定 105、2・3号認定 194</v>
+        <v>6</v>
       </c>
       <c r="M35" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N35" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O35" t="str">
-        <v>07:30</v>
+        <v>09:00</v>
       </c>
       <c r="P35" t="str">
-        <v>19:00</v>
+        <v>16:00</v>
       </c>
       <c r="Q35" t="str">
         <v/>
       </c>
       <c r="R35" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="str">
-        <v>34.420292</v>
+        <v>34.327973</v>
       </c>
       <c r="C36" t="str">
-        <v>134.057016</v>
+        <v>134.058101</v>
       </c>
       <c r="D36" t="str">
-        <v>高松市小規模保育事業所男木保育所</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市男木町165</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F36" t="str">
-        <v>087-873-0614</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G36" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>小規模保育施設</v>
+        <v>認定私立保育所</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -2397,48 +2397,48 @@
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="M36" t="str">
-        <v>1歳児～</v>
+        <v>2か月～</v>
       </c>
       <c r="N36" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O36" t="str">
-        <v>09:00</v>
+        <v>07:00</v>
       </c>
       <c r="P36" t="str">
-        <v>16:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="str">
-        <v>34.327973</v>
+        <v>34.333037</v>
       </c>
       <c r="C37" t="str">
-        <v>134.058101</v>
+        <v>134.051372</v>
       </c>
       <c r="D37" t="str">
-        <v>こぶし今里保育園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市今里町一丁目7-2</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F37" t="str">
-        <v>087-834-1946</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G37" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H37" t="str">
         <v/>
@@ -2453,10 +2453,10 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M37" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N37" t="str">
         <v>月火水木金土</v>
@@ -2471,30 +2471,30 @@
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="str">
-        <v>34.333037</v>
+        <v>34.328268</v>
       </c>
       <c r="C38" t="str">
-        <v>134.051372</v>
+        <v>134.066087</v>
       </c>
       <c r="D38" t="str">
-        <v>敬愛保育園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市藤塚町三丁目18-2</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F38" t="str">
-        <v>087-831-6778</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G38" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -2509,10 +2509,10 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M38" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N38" t="str">
         <v>月火水木金土</v>
@@ -2532,25 +2532,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="str">
-        <v>34.328268</v>
+        <v>34.304804</v>
       </c>
       <c r="C39" t="str">
-        <v>134.066087</v>
+        <v>134.02164</v>
       </c>
       <c r="D39" t="str">
-        <v>平安保育園</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市上福岡町894-8</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F39" t="str">
-        <v>087-833-7734</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G39" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2565,10 +2565,10 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M39" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N39" t="str">
         <v>月火水木金土</v>
@@ -2588,25 +2588,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="str">
-        <v>34.304804</v>
+        <v>34.316835</v>
       </c>
       <c r="C40" t="str">
-        <v>134.02164</v>
+        <v>134.024336</v>
       </c>
       <c r="D40" t="str">
-        <v>勅使百華保育園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F40" t="str">
-        <v>087-865-2998</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G40" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2621,10 +2621,10 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M40" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N40" t="str">
         <v>月火水木金土</v>
@@ -2639,30 +2639,30 @@
         <v/>
       </c>
       <c r="R40" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="str">
-        <v>34.316835</v>
+        <v>34.304304</v>
       </c>
       <c r="C41" t="str">
-        <v>134.024336</v>
+        <v>134.037996</v>
       </c>
       <c r="D41" t="str">
-        <v>西春日保育所</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市西春日町1407</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F41" t="str">
-        <v>087-866-4166</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2677,7 +2677,7 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M41" t="str">
         <v>2か月～</v>
@@ -2695,30 +2695,30 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="str">
-        <v>34.304304</v>
+        <v>34.309654</v>
       </c>
       <c r="C42" t="str">
-        <v>134.037996</v>
+        <v>134.0631</v>
       </c>
       <c r="D42" t="str">
-        <v>太田西保育園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市太田下町2025</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F42" t="str">
-        <v>087-865-0601</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G42" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2733,7 +2733,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M42" t="str">
         <v>2か月～</v>
@@ -2751,30 +2751,30 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="str">
-        <v>34.309654</v>
+        <v>34.350107</v>
       </c>
       <c r="C43" t="str">
-        <v>134.0631</v>
+        <v>134.091559</v>
       </c>
       <c r="D43" t="str">
-        <v>こぶし中央保育園</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市木太町5089-9</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F43" t="str">
-        <v>087-866-7169</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G43" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2789,10 +2789,10 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M43" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N43" t="str">
         <v>月火水木金土</v>
@@ -2801,36 +2801,36 @@
         <v>07:00</v>
       </c>
       <c r="P43" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q43" t="str">
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="str">
-        <v>34.350107</v>
+        <v>34.300415</v>
       </c>
       <c r="C44" t="str">
-        <v>134.091559</v>
+        <v>134.115798</v>
       </c>
       <c r="D44" t="str">
-        <v>あすなろ保育園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市屋島西町2453-6</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F44" t="str">
-        <v>087-843-3143</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G44" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2845,10 +2845,10 @@
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M44" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N44" t="str">
         <v>月火水木金土</v>
@@ -2857,36 +2857,36 @@
         <v>07:00</v>
       </c>
       <c r="P44" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="str">
-        <v>34.300415</v>
+        <v>34.299537</v>
       </c>
       <c r="C45" t="str">
-        <v>134.115798</v>
+        <v>134.092378</v>
       </c>
       <c r="D45" t="str">
-        <v>西光寺保育所</v>
+        <v>川添保育園</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市前田西町167-1</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F45" t="str">
-        <v>087-847-6237</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G45" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -2901,10 +2901,10 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M45" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N45" t="str">
         <v>月火水木金土</v>
@@ -2919,30 +2919,30 @@
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" t="str">
-        <v>34.299537</v>
+        <v>34.277465</v>
       </c>
       <c r="C46" t="str">
-        <v>134.092378</v>
+        <v>134.030037</v>
       </c>
       <c r="D46" t="str">
-        <v>川添保育園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市下田井町52</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F46" t="str">
-        <v>087-847-5078</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2957,10 +2957,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="M46" t="str">
-        <v>3か月～</v>
+        <v>6か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2980,25 +2980,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="str">
-        <v>34.277465</v>
+        <v>34.284927</v>
       </c>
       <c r="C47" t="str">
-        <v>134.030037</v>
+        <v>134.010137</v>
       </c>
       <c r="D47" t="str">
-        <v>高松南保育園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市寺井町453-1</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F47" t="str">
-        <v>087-886-0275</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3013,10 +3013,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="M47" t="str">
-        <v>6か月～</v>
+        <v>7か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3036,25 +3036,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="str">
-        <v>34.284927</v>
+        <v>34.306205</v>
       </c>
       <c r="C48" t="str">
-        <v>134.010137</v>
+        <v>133.998614</v>
       </c>
       <c r="D48" t="str">
-        <v>円座百華保育園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市円座町1478-1</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F48" t="str">
-        <v>087-885-1203</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3069,10 +3069,10 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="M48" t="str">
-        <v>7か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N48" t="str">
         <v>月火水木金土</v>
@@ -3092,25 +3092,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="str">
-        <v>34.306205</v>
+        <v>34.285075</v>
       </c>
       <c r="C49" t="str">
-        <v>133.998614</v>
+        <v>134.110374</v>
       </c>
       <c r="D49" t="str">
-        <v>高松西保育園</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市檀紙町1521-4</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F49" t="str">
-        <v>087-886-5006</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3128,7 +3128,7 @@
         <v>130</v>
       </c>
       <c r="M49" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3148,25 +3148,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="str">
-        <v>34.285075</v>
+        <v>34.311827</v>
       </c>
       <c r="C50" t="str">
-        <v>134.110374</v>
+        <v>134.08609</v>
       </c>
       <c r="D50" t="str">
-        <v>若葉保育園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F50" t="str">
-        <v>087-847-7932</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3181,7 +3181,7 @@
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M50" t="str">
         <v>3か月～</v>
@@ -3204,25 +3204,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="str">
-        <v>34.311827</v>
+        <v>34.341315</v>
       </c>
       <c r="C51" t="str">
-        <v>134.08609</v>
+        <v>134.06296</v>
       </c>
       <c r="D51" t="str">
-        <v>白樺保育園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市元山町855-2</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F51" t="str">
-        <v>087-866-6555</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3240,7 +3240,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N51" t="str">
         <v>月火水木金土</v>
@@ -3255,30 +3255,30 @@
         <v/>
       </c>
       <c r="R51" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="str">
-        <v>34.341315</v>
+        <v>34.320782</v>
       </c>
       <c r="C52" t="str">
-        <v>134.06296</v>
+        <v>134.067903</v>
       </c>
       <c r="D52" t="str">
-        <v>松福保育園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市松福町二丁目18-16</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F52" t="str">
-        <v>087-822-7605</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3293,16 +3293,16 @@
         <v/>
       </c>
       <c r="L52" t="str">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M52" t="str">
-        <v>2か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N52" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O52" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P52" t="str">
         <v>19:00</v>
@@ -3311,30 +3311,30 @@
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="str">
-        <v>34.320782</v>
+        <v>34.263658</v>
       </c>
       <c r="C53" t="str">
-        <v>134.067903</v>
+        <v>134.108531</v>
       </c>
       <c r="D53" t="str">
-        <v>さくらんぼ保育園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市木太町1165-3</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F53" t="str">
-        <v>087-867-4151</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3349,16 +3349,16 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M53" t="str">
-        <v>1歳児～</v>
+        <v>3か月～</v>
       </c>
       <c r="N53" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O53" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P53" t="str">
         <v>19:00</v>
@@ -3372,25 +3372,25 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="str">
-        <v>34.263658</v>
+        <v>34.343745</v>
       </c>
       <c r="C54" t="str">
-        <v>134.108531</v>
+        <v>134.052287</v>
       </c>
       <c r="D54" t="str">
-        <v>すみれ保育園</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市十川東町556-1</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F54" t="str">
-        <v>087-848-0806</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3405,48 +3405,48 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M54" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O54" t="str">
-        <v>07:00</v>
+        <v>06:40</v>
       </c>
       <c r="P54" t="str">
-        <v>19:00</v>
+        <v>25:00</v>
       </c>
       <c r="Q54" t="str">
         <v/>
       </c>
       <c r="R54" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="str">
-        <v>34.343745</v>
+        <v>34.327799</v>
       </c>
       <c r="C55" t="str">
-        <v>134.052287</v>
+        <v>134.062199</v>
       </c>
       <c r="D55" t="str">
-        <v>高松第二保育園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市御坊町2-2</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F55" t="str">
-        <v>087-821-5241</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3461,7 +3461,7 @@
         <v/>
       </c>
       <c r="L55" t="str">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="M55" t="str">
         <v>2か月～</v>
@@ -3470,39 +3470,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O55" t="str">
-        <v>06:40</v>
+        <v>07:00</v>
       </c>
       <c r="P55" t="str">
-        <v>25:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="str">
-        <v>34.327799</v>
+        <v>34.25728</v>
       </c>
       <c r="C56" t="str">
-        <v>134.062199</v>
+        <v>134.035674</v>
       </c>
       <c r="D56" t="str">
-        <v>今里保育所</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市今里町二丁目1-5</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F56" t="str">
-        <v>087-834-3535</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3517,10 +3517,10 @@
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M56" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N56" t="str">
         <v>月火水木金土</v>
@@ -3535,30 +3535,30 @@
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="str">
-        <v>34.25728</v>
+        <v>34.289495</v>
       </c>
       <c r="C57" t="str">
-        <v>134.035674</v>
+        <v>133.952485</v>
       </c>
       <c r="D57" t="str">
-        <v>さんさん保育園</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市香川町浅野834-1</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F57" t="str">
-        <v>087-888-6333</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3573,7 +3573,7 @@
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M57" t="str">
         <v>3か月～</v>
@@ -3591,30 +3591,30 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="str">
-        <v>34.289495</v>
+        <v>34.274113</v>
       </c>
       <c r="C58" t="str">
-        <v>133.952485</v>
+        <v>133.973116</v>
       </c>
       <c r="D58" t="str">
-        <v>みよし保育園</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市国分寺町柏原80</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F58" t="str">
-        <v>087-874-0622</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3629,7 +3629,7 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M58" t="str">
         <v>3か月～</v>
@@ -3647,30 +3647,30 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="str">
-        <v>34.274113</v>
+        <v>34.337967</v>
       </c>
       <c r="C59" t="str">
-        <v>133.973116</v>
+        <v>134.130825</v>
       </c>
       <c r="D59" t="str">
-        <v>みのり保育園</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市国分寺町福家甲1982</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F59" t="str">
-        <v>087-874-4309</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3685,19 +3685,19 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M59" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N59" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O59" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P59" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -3708,25 +3708,25 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="str">
-        <v>34.337967</v>
+        <v>34.347055</v>
       </c>
       <c r="C60" t="str">
-        <v>134.130825</v>
+        <v>134.055965</v>
       </c>
       <c r="D60" t="str">
-        <v>八栗保育所</v>
+        <v>城東保育園</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市牟礼町牟礼401</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F60" t="str">
-        <v>087-845-0033</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M60" t="str">
         <v>2か月～</v>
@@ -3753,7 +3753,7 @@
         <v>07:30</v>
       </c>
       <c r="P60" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -3764,25 +3764,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="str">
-        <v>34.347055</v>
+        <v>34.334252</v>
       </c>
       <c r="C61" t="str">
-        <v>134.055965</v>
+        <v>134.057679</v>
       </c>
       <c r="D61" t="str">
-        <v>城東保育園</v>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市城東町一丁目1-45</v>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F61" t="str">
-        <v>087-822-1340</v>
+        <v>087-831-5136</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="M61" t="str">
         <v>2か月～</v>
@@ -3815,36 +3815,36 @@
         <v/>
       </c>
       <c r="R61" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="str">
-        <v>34.334252</v>
+        <v>0</v>
       </c>
       <c r="C62" t="str">
-        <v>134.057679</v>
+        <v>0</v>
       </c>
       <c r="D62" t="str">
-        <v>こぶし花園保育園</v>
+        <v/>
       </c>
       <c r="E62" t="str">
-        <v>高松市花園町一丁目9-32</v>
+        <v/>
       </c>
       <c r="F62" t="str">
-        <v>087-831-5136</v>
+        <v/>
       </c>
       <c r="G62" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
+        <v/>
       </c>
       <c r="H62" t="str">
         <v/>
       </c>
       <c r="I62" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -3853,54 +3853,54 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>90</v>
+        <v/>
       </c>
       <c r="M62" t="str">
-        <v>2か月～</v>
+        <v/>
       </c>
       <c r="N62" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O62" t="str">
-        <v>07:30</v>
+        <v/>
       </c>
       <c r="P62" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="str">
-        <v>0</v>
+        <v>34.287693</v>
       </c>
       <c r="C63" t="str">
-        <v>0</v>
+        <v>134.05974</v>
       </c>
       <c r="D63" t="str">
-        <v/>
+        <v>れんげ保育園</v>
       </c>
       <c r="E63" t="str">
-        <v/>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>087-888-8080</v>
       </c>
       <c r="G63" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -3909,48 +3909,48 @@
         <v/>
       </c>
       <c r="L63" t="str">
-        <v/>
+        <v>90</v>
       </c>
       <c r="M63" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N63" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O63" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P63" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="str">
-        <v>34.287693</v>
+        <v>34.308543</v>
       </c>
       <c r="C64" t="str">
-        <v>134.05974</v>
+        <v>134.056433</v>
       </c>
       <c r="D64" t="str">
-        <v>れんげ保育園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市多肥上町2390-1</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F64" t="str">
-        <v>087-888-8080</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G64" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H64" t="str">
         <v/>
@@ -3977,7 +3977,7 @@
         <v>07:00</v>
       </c>
       <c r="P64" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q64" t="str">
         <v/>
@@ -3988,25 +3988,25 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="str">
-        <v>34.308543</v>
+        <v>34.323827</v>
       </c>
       <c r="C65" t="str">
-        <v>134.056433</v>
+        <v>134.092254</v>
       </c>
       <c r="D65" t="str">
-        <v>さくら伏石保育園</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市伏石町2135-3</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F65" t="str">
-        <v>087-867-1100</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4021,7 +4021,7 @@
         <v/>
       </c>
       <c r="L65" t="str">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M65" t="str">
         <v>3か月～</v>
@@ -4030,10 +4030,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O65" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P65" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q65" t="str">
         <v/>
@@ -4044,25 +4044,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="str">
-        <v>34.323827</v>
+        <v>34.349557</v>
       </c>
       <c r="C66" t="str">
-        <v>134.092254</v>
+        <v>134.003925</v>
       </c>
       <c r="D66" t="str">
-        <v>らく楽保育園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市春日町483-1</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F66" t="str">
-        <v>087-844-0111</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4077,13 +4077,13 @@
         <v/>
       </c>
       <c r="L66" t="str">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M66" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N66" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="O66" t="str">
         <v>07:30</v>
@@ -4095,30 +4095,30 @@
         <v/>
       </c>
       <c r="R66" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="str">
-        <v>34.349557</v>
+        <v>34.308532</v>
       </c>
       <c r="C67" t="str">
-        <v>134.003925</v>
+        <v>134.067283</v>
       </c>
       <c r="D67" t="str">
-        <v>初音保育所</v>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市香西本町17-1</v>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F67" t="str">
-        <v>087-813-3258</v>
+        <v>087-802-8080</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -4133,54 +4133,54 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="M67" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N67" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O67" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P67" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q67" t="str">
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="str">
-        <v>34.308532</v>
+        <v>0</v>
       </c>
       <c r="C68" t="str">
-        <v>134.067283</v>
+        <v>0</v>
       </c>
       <c r="D68" t="str">
-        <v>さくら木太保育園</v>
+        <v/>
       </c>
       <c r="E68" t="str">
-        <v>高松市木太町5113-15</v>
+        <v/>
       </c>
       <c r="F68" t="str">
-        <v>087-802-8080</v>
+        <v/>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
+        <v/>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J68" t="str">
         <v/>
@@ -4189,54 +4189,54 @@
         <v/>
       </c>
       <c r="L68" t="str">
-        <v>99</v>
+        <v/>
       </c>
       <c r="M68" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N68" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O68" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P68" t="str">
-        <v>20:00</v>
+        <v/>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" t="str">
-        <v>0</v>
+        <v>34.333051</v>
       </c>
       <c r="C69" t="str">
-        <v>0</v>
+        <v>134.055788</v>
       </c>
       <c r="D69" t="str">
-        <v/>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E69" t="str">
-        <v/>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F69" t="str">
-        <v/>
+        <v>087-880-7211</v>
       </c>
       <c r="G69" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J69" t="str">
         <v/>
@@ -4245,48 +4245,48 @@
         <v/>
       </c>
       <c r="L69" t="str">
-        <v/>
+        <v>105</v>
       </c>
       <c r="M69" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N69" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O69" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P69" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="str">
-        <v>34.333051</v>
+        <v>34.343232</v>
       </c>
       <c r="C70" t="str">
-        <v>134.055788</v>
+        <v>134.065675</v>
       </c>
       <c r="D70" t="str">
-        <v>高松くりの木保育園</v>
+        <v>らく楽第二保育園</v>
       </c>
       <c r="E70" t="str">
-        <v>高松市花園町三丁目4-5</v>
+        <v>高松市松福町二丁目4-4</v>
       </c>
       <c r="F70" t="str">
-        <v>087-880-7211</v>
+        <v>087-826-0111</v>
       </c>
       <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
       </c>
       <c r="H70" t="str">
         <v/>
@@ -4301,7 +4301,7 @@
         <v/>
       </c>
       <c r="L70" t="str">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M70" t="str">
         <v>3か月～</v>
@@ -4310,7 +4310,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O70" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P70" t="str">
         <v>19:00</v>
@@ -4324,25 +4324,25 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="str">
-        <v>34.343232</v>
+        <v>34.291607</v>
       </c>
       <c r="C71" t="str">
-        <v>134.065675</v>
+        <v>134.075471</v>
       </c>
       <c r="D71" t="str">
-        <v>らく楽第二保育園</v>
+        <v>あさがお保育園</v>
       </c>
       <c r="E71" t="str">
-        <v>高松市松福町二丁目4-4</v>
+        <v>高松市上林町69</v>
       </c>
       <c r="F71" t="str">
-        <v>087-826-0111</v>
+        <v>087-899-5660</v>
       </c>
       <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -4357,10 +4357,10 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="M71" t="str">
-        <v>3か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N71" t="str">
         <v>月火水木金土</v>
@@ -4375,30 +4375,30 @@
         <v/>
       </c>
       <c r="R71" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="str">
-        <v>34.291607</v>
+        <v>34.3051941</v>
       </c>
       <c r="C72" t="str">
-        <v>134.075471</v>
+        <v>134.0610552</v>
       </c>
       <c r="D72" t="str">
-        <v>あさがお保育園</v>
+        <v>保育園アルペジオ高松多肥下町園</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市上林町69</v>
+        <v>高松市多肥下町1524-15</v>
       </c>
       <c r="F72" t="str">
-        <v>087-899-5660</v>
+        <v>087-802-5583</v>
       </c>
       <c r="G72" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -4413,10 +4413,10 @@
         <v/>
       </c>
       <c r="L72" t="str">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M72" t="str">
-        <v>３か月～</v>
+        <v>6か月</v>
       </c>
       <c r="N72" t="str">
         <v>月火水木金土</v>
@@ -4425,7 +4425,7 @@
         <v>07:30</v>
       </c>
       <c r="P72" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q72" t="str">
         <v/>
@@ -4436,25 +4436,25 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="str">
-        <v>34.3051941</v>
+        <v>34.3034175</v>
       </c>
       <c r="C73" t="str">
-        <v>134.0610552</v>
+        <v>134.0533292</v>
       </c>
       <c r="D73" t="str">
-        <v>保育園アルペジオ高松多肥下町園</v>
+        <v>さくら太田保育園</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市多肥下町1524-15</v>
+        <v>高松市太田下町3032-1</v>
       </c>
       <c r="F73" t="str">
-        <v>087-802-5583</v>
+        <v>087-868-3700</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -4469,54 +4469,54 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M73" t="str">
-        <v>6か月</v>
+        <v>3か月</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O73" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P73" t="str">
-        <v>19:30</v>
+        <v>20:00</v>
       </c>
       <c r="Q73" t="str">
         <v/>
       </c>
       <c r="R73" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="str">
-        <v>34.3034175</v>
+        <v>34.3064057</v>
       </c>
       <c r="C74" t="str">
-        <v>134.0533292</v>
+        <v>134.042294</v>
       </c>
       <c r="D74" t="str">
-        <v>さくら太田保育園</v>
+        <v>にこにこ保育園</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市太田下町3032-1</v>
+        <v>高松市林町294-1</v>
       </c>
       <c r="F74" t="str">
-        <v>087-868-3700</v>
+        <v>087-813-8300</v>
       </c>
       <c r="G74" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
       </c>
       <c r="H74" t="str">
         <v/>
       </c>
       <c r="I74" t="str">
-        <v>認定私立保育所</v>
+        <v>認可私立保育所</v>
       </c>
       <c r="J74" t="str">
         <v/>
@@ -4525,48 +4525,48 @@
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M74" t="str">
-        <v>3か月</v>
+        <v>おおむね2か月～</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O74" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P74" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="str">
-        <v>34.3064057</v>
+        <v>34.3047038</v>
       </c>
       <c r="C75" t="str">
-        <v>134.042294</v>
+        <v>134.0565783</v>
       </c>
       <c r="D75" t="str">
-        <v>にこにこ保育園</v>
+        <v>あい保育園太田</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市林町294-1</v>
+        <v>高松市太田下町3027-3</v>
       </c>
       <c r="F75" t="str">
-        <v>087-813-8300</v>
+        <v>087-802-9065</v>
       </c>
       <c r="G75" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -4581,48 +4581,48 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="M75" t="str">
-        <v>おおむね2か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N75" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O75" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P75" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="str">
-        <v>34.3047038</v>
+        <v>34.3431504</v>
       </c>
       <c r="C76" t="str">
-        <v>134.0565783</v>
+        <v>134.0615252</v>
       </c>
       <c r="D76" t="str">
-        <v>あい保育園太田</v>
+        <v>さくら福々保育園</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市松福町一丁目229-55</v>
       </c>
       <c r="F76" t="str">
-        <v>087-802-9065</v>
+        <v>087-802-1860</v>
       </c>
       <c r="G76" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+        <v/>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -4637,7 +4637,7 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M76" t="str">
         <v>３か月～</v>
@@ -4660,31 +4660,31 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="str">
-        <v>34.3431504</v>
+        <v>34.292144</v>
       </c>
       <c r="C77" t="str">
-        <v>134.0615252</v>
+        <v>134.066237</v>
       </c>
       <c r="D77" t="str">
-        <v>さくら福々保育園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F77" t="str">
-        <v>087-802-1860</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G77" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H77" t="str">
         <v/>
       </c>
       <c r="I77" t="str">
-        <v>認可私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J77" t="str">
         <v/>
@@ -4693,48 +4693,48 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>96</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M77" t="str">
-        <v>３か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N77" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O77" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P77" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q77" t="str">
         <v/>
       </c>
       <c r="R77" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="str">
-        <v>34.292144</v>
+        <v>34.303319</v>
       </c>
       <c r="C78" t="str">
-        <v>134.066237</v>
+        <v>133.949144</v>
       </c>
       <c r="D78" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F78" t="str">
-        <v>087-889-8181</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G78" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -4749,19 +4749,19 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M78" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N78" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O78" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P78" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q78" t="str">
         <v/>
@@ -4772,25 +4772,25 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="str">
-        <v>34.303319</v>
+        <v>34.304328</v>
       </c>
       <c r="C79" t="str">
-        <v>133.949144</v>
+        <v>133.97246</v>
       </c>
       <c r="D79" t="str">
-        <v>いずみこども園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市国分寺町新居281-1</v>
       </c>
       <c r="F79" t="str">
-        <v>087-874-0882</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G79" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -4805,19 +4805,19 @@
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>2・3号認定 20</v>
       </c>
       <c r="M79" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O79" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P79" t="str">
-        <v>20:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q79" t="str">
         <v/>
@@ -4828,25 +4828,25 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="str">
-        <v>34.304328</v>
+        <v>34.327571</v>
       </c>
       <c r="C80" t="str">
-        <v>133.97246</v>
+        <v>134.087355</v>
       </c>
       <c r="D80" t="str">
-        <v>いずみこども園分園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市国分寺町新居281-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F80" t="str">
-        <v>087-875-0882</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G80" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -4861,48 +4861,48 @@
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>2・3号認定 20</v>
+        <v>1号認定 284、2・3号認定 166</v>
       </c>
       <c r="M80" t="str">
-        <v>2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N80" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O80" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P80" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q80" t="str">
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="str">
-        <v>34.327571</v>
+        <v>34.325356</v>
       </c>
       <c r="C81" t="str">
-        <v>134.087355</v>
+        <v>134.099079</v>
       </c>
       <c r="D81" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F81" t="str">
-        <v>087-841-2306</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G81" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -4917,16 +4917,16 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 284、2・3号認定 166</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M81" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N81" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O81" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P81" t="str">
         <v>19:00</v>
@@ -4935,30 +4935,30 @@
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="str">
-        <v>34.325356</v>
+        <v>34.268464</v>
       </c>
       <c r="C82" t="str">
-        <v>134.099079</v>
+        <v>134.006758</v>
       </c>
       <c r="D82" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F82" t="str">
-        <v>087-841-3686</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G82" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -4973,16 +4973,16 @@
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M82" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N82" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O82" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P82" t="str">
         <v>19:00</v>
@@ -4991,30 +4991,30 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" t="str">
-        <v>34.268464</v>
+        <v>34.331077</v>
       </c>
       <c r="C83" t="str">
-        <v>134.006758</v>
+        <v>134.094275</v>
       </c>
       <c r="D83" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F83" t="str">
-        <v>087-886-5879</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G83" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -5029,10 +5029,10 @@
         <v/>
       </c>
       <c r="L83" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M83" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N83" t="str">
         <v>月火水木金土</v>
@@ -5047,30 +5047,30 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" t="str">
-        <v>34.331077</v>
+        <v>34.326539</v>
       </c>
       <c r="C84" t="str">
-        <v>134.094275</v>
+        <v>134.047837</v>
       </c>
       <c r="D84" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F84" t="str">
-        <v>087-843-3689</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G84" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -5085,7 +5085,7 @@
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M84" t="str">
         <v>1号認定 3歳児～、2・3号認定 2か月～</v>
@@ -5103,30 +5103,30 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" t="str">
-        <v>34.326539</v>
+        <v>34.333461</v>
       </c>
       <c r="C85" t="str">
-        <v>134.047837</v>
+        <v>134.04506</v>
       </c>
       <c r="D85" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F85" t="str">
-        <v>087-831-6318</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G85" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -5141,48 +5141,48 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M85" t="str">
-        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N85" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O85" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P85" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q85" t="str">
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" t="str">
-        <v>34.333461</v>
+        <v>34.279891</v>
       </c>
       <c r="C86" t="str">
-        <v>134.04506</v>
+        <v>134.042395</v>
       </c>
       <c r="D86" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F86" t="str">
-        <v>087-831-8659</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G86" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -5197,7 +5197,7 @@
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M86" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5206,39 +5206,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O86" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P86" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q86" t="str">
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" t="str">
-        <v>34.279891</v>
+        <v>34.292691</v>
       </c>
       <c r="C87" t="str">
-        <v>134.042395</v>
+        <v>134.0352</v>
       </c>
       <c r="D87" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F87" t="str">
-        <v>087-889-1059</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G87" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5253,16 +5253,16 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 75、2・3号認定 75</v>
       </c>
       <c r="M87" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N87" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O87" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P87" t="str">
         <v>19:00</v>
@@ -5276,25 +5276,25 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" t="str">
-        <v>34.292691</v>
+        <v>34.2936161</v>
       </c>
       <c r="C88" t="str">
-        <v>134.0352</v>
+        <v>134.0789214</v>
       </c>
       <c r="D88" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F88" t="str">
-        <v>087-802-3838</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G88" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -5309,16 +5309,16 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 75、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 217</v>
       </c>
       <c r="M88" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N88" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O88" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P88" t="str">
         <v>19:00</v>
@@ -5332,25 +5332,25 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" t="str">
-        <v>34.2936161</v>
+        <v>34.2734776</v>
       </c>
       <c r="C89" t="str">
-        <v>134.0789214</v>
+        <v>134.1024882</v>
       </c>
       <c r="D89" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F89" t="str">
-        <v>087-813-9818</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G89" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -5365,16 +5365,16 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v>1号認定 15、2・3号認定 217</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O89" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P89" t="str">
         <v>19:00</v>
@@ -5383,30 +5383,30 @@
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" t="str">
-        <v>34.2734776</v>
+        <v>34.3064057</v>
       </c>
       <c r="C90" t="str">
-        <v>134.1024882</v>
+        <v>134.042294</v>
       </c>
       <c r="D90" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F90" t="str">
-        <v>087-848-0320</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G90" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -5421,7 +5421,7 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 165</v>
       </c>
       <c r="M90" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5430,7 +5430,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O90" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P90" t="str">
         <v>19:00</v>
@@ -5439,30 +5439,30 @@
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" t="str">
-        <v>34.3064057</v>
+        <v>34.3264572</v>
       </c>
       <c r="C91" t="str">
-        <v>134.042294</v>
+        <v>134.0769366</v>
       </c>
       <c r="D91" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F91" t="str">
-        <v>087-814-4141</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G91" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v/>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -5477,16 +5477,16 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>1号認定 15、2・3号認定 165</v>
+        <v>1号認定 15、2・3号認定 75</v>
       </c>
       <c r="M91" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N91" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O91" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P91" t="str">
         <v>19:00</v>
@@ -5500,31 +5500,31 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" t="str">
-        <v>34.3264572</v>
+        <v>34.353781</v>
       </c>
       <c r="C92" t="str">
-        <v>134.0769366</v>
+        <v>134.091115</v>
       </c>
       <c r="D92" t="str">
-        <v>みらい学園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F92" t="str">
-        <v>087-899-2305</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G92" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H92" t="str">
         <v/>
       </c>
       <c r="I92" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認定こども園（幼稚園型）</v>
       </c>
       <c r="J92" t="str">
         <v/>
@@ -5533,16 +5533,16 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 15、2・3号認定 75</v>
+        <v>1号認定 228、2・3号認定 72</v>
       </c>
       <c r="M92" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N92" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O92" t="str">
-        <v>07:30</v>
+        <v>07:45</v>
       </c>
       <c r="P92" t="str">
         <v>19:00</v>
@@ -5556,25 +5556,25 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" t="str">
-        <v>34.353781</v>
+        <v>34.338923</v>
       </c>
       <c r="C93" t="str">
-        <v>134.091115</v>
+        <v>134.031483</v>
       </c>
       <c r="D93" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F93" t="str">
-        <v>087-843-2241</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G93" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -5589,19 +5589,19 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 228、2・3号認定 72</v>
+        <v>1号認定 135、2号認定 15</v>
       </c>
       <c r="M93" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
       </c>
       <c r="N93" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O93" t="str">
-        <v>07:45</v>
+        <v>07:30</v>
       </c>
       <c r="P93" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q93" t="str">
         <v/>
@@ -5612,25 +5612,25 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" t="str">
-        <v>34.338923</v>
+        <v>34.338702</v>
       </c>
       <c r="C94" t="str">
-        <v>134.031483</v>
+        <v>134.038281</v>
       </c>
       <c r="D94" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E94" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F94" t="str">
-        <v>087-861-0425</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G94" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -5645,10 +5645,10 @@
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>1号認定 135、2号認定 15</v>
+        <v>1号認定 109、2・3号認定 99</v>
       </c>
       <c r="M94" t="str">
-        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
       </c>
       <c r="N94" t="str">
         <v>月火水木金土</v>
@@ -5657,7 +5657,7 @@
         <v>07:30</v>
       </c>
       <c r="P94" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" t="str">
-        <v>34.338702</v>
+        <v>34.279836</v>
       </c>
       <c r="C95" t="str">
-        <v>134.038281</v>
+        <v>134.022373</v>
       </c>
       <c r="D95" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E95" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F95" t="str">
-        <v>087-831-2557</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G95" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -5701,10 +5701,10 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>1号認定 109、2・3号認定 99</v>
+        <v>1号認定 112、2・3号認定 128</v>
       </c>
       <c r="M95" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N95" t="str">
         <v>月火水木金土</v>
@@ -5724,25 +5724,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" t="str">
-        <v>34.279836</v>
+        <v>34.334019</v>
       </c>
       <c r="C96" t="str">
-        <v>134.022373</v>
+        <v>134.114815</v>
       </c>
       <c r="D96" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E96" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F96" t="str">
-        <v>087-885-2038</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G96" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -5757,10 +5757,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 112、2・3号認定 128</v>
+        <v>1号認定 274、2・3号認定 48</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5780,25 +5780,25 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" t="str">
-        <v>34.334019</v>
+        <v>34.304505</v>
       </c>
       <c r="C97" t="str">
-        <v>134.114815</v>
+        <v>134.021922</v>
       </c>
       <c r="D97" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E97" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F97" t="str">
-        <v>087-843-4484</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G97" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -5813,10 +5813,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 274、2・3号認定 48</v>
+        <v>1号認定 265、2・3号認定 51</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5825,7 +5825,7 @@
         <v>07:30</v>
       </c>
       <c r="P97" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q97" t="str">
         <v/>
@@ -5836,31 +5836,31 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" t="str">
-        <v>34.304505</v>
+        <v>34.235856</v>
       </c>
       <c r="C98" t="str">
-        <v>134.021922</v>
+        <v>133.994046</v>
       </c>
       <c r="D98" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>カナン空港こども園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市香南町西庄1671-2</v>
       </c>
       <c r="F98" t="str">
-        <v>087-865-9419</v>
+        <v>087-815-8072</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
       </c>
       <c r="H98" t="str">
         <v/>
       </c>
       <c r="I98" t="str">
-        <v>認定こども園（幼稚園型）</v>
+        <v>地域型保育事業（小規模保育事業A型）</v>
       </c>
       <c r="J98" t="str">
         <v/>
@@ -5869,19 +5869,19 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>1号認定 265、2・3号認定 51</v>
+        <v>18</v>
       </c>
       <c r="M98" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O98" t="str">
-        <v>07:30</v>
+        <v>07:15</v>
       </c>
       <c r="P98" t="str">
-        <v>18:30</v>
+        <v>18:15</v>
       </c>
       <c r="Q98" t="str">
         <v/>
@@ -5892,25 +5892,25 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" t="str">
-        <v>34.235856</v>
+        <v>34.332072</v>
       </c>
       <c r="C99" t="str">
-        <v>133.994046</v>
+        <v>134.049227</v>
       </c>
       <c r="D99" t="str">
-        <v>カナン空港こども園</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市香南町西庄1671-2</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F99" t="str">
-        <v>087-815-8072</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H99" t="str">
         <v/>
@@ -5925,48 +5925,48 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M99" t="str">
-        <v>3か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O99" t="str">
-        <v>07:15</v>
+        <v>07:30</v>
       </c>
       <c r="P99" t="str">
-        <v>18:15</v>
+        <v>19:00</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" t="str">
-        <v>34.332072</v>
+        <v>34.332365</v>
       </c>
       <c r="C100" t="str">
-        <v>134.049227</v>
+        <v>134.097201</v>
       </c>
       <c r="D100" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F100" t="str">
-        <v>087-831-1319</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -5981,10 +5981,10 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M100" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
@@ -5993,36 +5993,36 @@
         <v>07:30</v>
       </c>
       <c r="P100" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q100" t="str">
         <v/>
       </c>
       <c r="R100" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" t="str">
-        <v>34.332365</v>
+        <v>34.288288</v>
       </c>
       <c r="C101" t="str">
-        <v>134.097201</v>
+        <v>134.059379</v>
       </c>
       <c r="D101" t="str">
-        <v>小規模保育所もも</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F101" t="str">
-        <v>087-843-8255</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6037,10 +6037,10 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M101" t="str">
-        <v>2か月～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
@@ -6049,7 +6049,7 @@
         <v>07:30</v>
       </c>
       <c r="P101" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q101" t="str">
         <v/>
@@ -6060,25 +6060,25 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" t="str">
-        <v>34.288288</v>
+        <v>34.316351</v>
       </c>
       <c r="C102" t="str">
-        <v>134.059379</v>
+        <v>134.073388</v>
       </c>
       <c r="D102" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F102" t="str">
-        <v>087-816-8301</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6093,16 +6093,16 @@
         <v/>
       </c>
       <c r="L102" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M102" t="str">
-        <v>3か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O102" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P102" t="str">
         <v>19:00</v>
@@ -6116,25 +6116,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" t="str">
-        <v>34.316351</v>
+        <v>34.303424</v>
       </c>
       <c r="C103" t="str">
-        <v>134.073388</v>
+        <v>134.060713</v>
       </c>
       <c r="D103" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F103" t="str">
-        <v>087-816-5150</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6152,16 +6152,16 @@
         <v>19</v>
       </c>
       <c r="M103" t="str">
-        <v>54日～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N103" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O103" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P103" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q103" t="str">
         <v/>
@@ -6172,25 +6172,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" t="str">
-        <v>34.303424</v>
+        <v>34.298947</v>
       </c>
       <c r="C104" t="str">
-        <v>134.060713</v>
+        <v>134.055734</v>
       </c>
       <c r="D104" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F104" t="str">
-        <v>087-864-3133</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6228,25 +6228,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" t="str">
-        <v>34.298947</v>
+        <v>34.37717</v>
       </c>
       <c r="C105" t="str">
-        <v>134.055734</v>
+        <v>134.122418</v>
       </c>
       <c r="D105" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F105" t="str">
-        <v>087-815-0224</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6261,10 +6261,10 @@
         <v/>
       </c>
       <c r="L105" t="str">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M105" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N105" t="str">
         <v>月火水木金土</v>
@@ -6273,7 +6273,7 @@
         <v>07:30</v>
       </c>
       <c r="P105" t="str">
-        <v>19:30</v>
+        <v>18:30</v>
       </c>
       <c r="Q105" t="str">
         <v/>
@@ -6284,25 +6284,25 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" t="str">
-        <v>34.37717</v>
+        <v>34.2899</v>
       </c>
       <c r="C106" t="str">
-        <v>134.122418</v>
+        <v>134.05856</v>
       </c>
       <c r="D106" t="str">
-        <v>おるごーる</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F106" t="str">
-        <v>087-871-3503</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6317,7 +6317,7 @@
         <v/>
       </c>
       <c r="L106" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M106" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6335,30 +6335,30 @@
         <v/>
       </c>
       <c r="R106" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" t="str">
-        <v>34.2899</v>
+        <v>34.336075</v>
       </c>
       <c r="C107" t="str">
-        <v>134.05856</v>
+        <v>134.072522</v>
       </c>
       <c r="D107" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F107" t="str">
-        <v>087-889-3711</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6373,7 +6373,7 @@
         <v/>
       </c>
       <c r="L107" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M107" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6385,7 +6385,7 @@
         <v>07:30</v>
       </c>
       <c r="P107" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q107" t="str">
         <v/>
@@ -6396,25 +6396,25 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" t="str">
-        <v>34.336075</v>
+        <v>34.311371</v>
       </c>
       <c r="C108" t="str">
-        <v>134.072522</v>
+        <v>134.055948</v>
       </c>
       <c r="D108" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F108" t="str">
-        <v>087-837-5330</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6452,25 +6452,25 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" t="str">
-        <v>34.311371</v>
+        <v>34.316136</v>
       </c>
       <c r="C109" t="str">
-        <v>134.055948</v>
+        <v>134.061202</v>
       </c>
       <c r="D109" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F109" t="str">
-        <v>087-868-3339</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6485,10 +6485,10 @@
         <v/>
       </c>
       <c r="L109" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M109" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N109" t="str">
         <v>月火水木金土</v>
@@ -6497,36 +6497,36 @@
         <v>07:30</v>
       </c>
       <c r="P109" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q109" t="str">
         <v/>
       </c>
       <c r="R109" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" t="str">
-        <v>34.316136</v>
+        <v>34.3049893</v>
       </c>
       <c r="C110" t="str">
-        <v>134.061202</v>
+        <v>134.0560416</v>
       </c>
       <c r="D110" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F110" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6544,7 +6544,7 @@
         <v>19</v>
       </c>
       <c r="M110" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N110" t="str">
         <v>月火水木金土</v>
@@ -6553,36 +6553,36 @@
         <v>07:30</v>
       </c>
       <c r="P110" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q110" t="str">
         <v/>
       </c>
       <c r="R110" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" t="str">
-        <v>34.3049893</v>
+        <v>34.2989616</v>
       </c>
       <c r="C111" t="str">
-        <v>134.0560416</v>
+        <v>134.0640027</v>
       </c>
       <c r="D111" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F111" t="str">
-        <v>087-868-2355</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6620,25 +6620,25 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" t="str">
-        <v>34.2989616</v>
+        <v>34.2612106</v>
       </c>
       <c r="C112" t="str">
-        <v>134.0640027</v>
+        <v>134.0367875</v>
       </c>
       <c r="D112" t="str">
-        <v>林にこにこ保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F112" t="str">
-        <v>087-868-0103</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6653,10 +6653,10 @@
         <v/>
       </c>
       <c r="L112" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M112" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N112" t="str">
         <v>月火水木金土</v>
@@ -6665,7 +6665,7 @@
         <v>07:30</v>
       </c>
       <c r="P112" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q112" t="str">
         <v/>
@@ -6676,25 +6676,25 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" t="str">
-        <v>34.2612106</v>
+        <v>34.3389027</v>
       </c>
       <c r="C113" t="str">
-        <v>134.0367875</v>
+        <v>134.052851</v>
       </c>
       <c r="D113" t="str">
-        <v>保育の家みいろ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F113" t="str">
-        <v>087-880-3274</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H113" t="str">
         <v/>
@@ -6709,7 +6709,7 @@
         <v/>
       </c>
       <c r="L113" t="str">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M113" t="str">
         <v>３か月～2歳児</v>
@@ -6721,42 +6721,42 @@
         <v>07:30</v>
       </c>
       <c r="P113" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q113" t="str">
         <v/>
       </c>
       <c r="R113" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" t="str">
-        <v>34.3389027</v>
+        <v>34.340379</v>
       </c>
       <c r="C114" t="str">
-        <v>134.052851</v>
+        <v>134.044986</v>
       </c>
       <c r="D114" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>院内保育所てふてふ</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市天神前5-6 高松メディカルモール</v>
       </c>
       <c r="F114" t="str">
-        <v>087-802-6966</v>
+        <v>087-813-0218</v>
       </c>
       <c r="G114" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
       </c>
       <c r="H114" t="str">
         <v/>
       </c>
       <c r="I114" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="J114" t="str">
         <v/>
@@ -6765,10 +6765,10 @@
         <v/>
       </c>
       <c r="L114" t="str">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M114" t="str">
-        <v>３か月～2歳児</v>
+        <v>6か月～2歳児</v>
       </c>
       <c r="N114" t="str">
         <v>月火水木金土</v>
@@ -6777,7 +6777,7 @@
         <v>07:30</v>
       </c>
       <c r="P114" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q114" t="str">
         <v/>
@@ -6788,31 +6788,31 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" t="str">
-        <v>34.340379</v>
+        <v>34.30287</v>
       </c>
       <c r="C115" t="str">
-        <v>134.044986</v>
+        <v>134.016075</v>
       </c>
       <c r="D115" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E115" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F115" t="str">
-        <v>087-813-0218</v>
+        <v>087-886-6669</v>
       </c>
       <c r="G115" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
       <c r="H115" t="str">
         <v/>
       </c>
       <c r="I115" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>認定こども園（地方裁量型）</v>
       </c>
       <c r="J115" t="str">
         <v/>
@@ -6821,10 +6821,10 @@
         <v/>
       </c>
       <c r="L115" t="str">
-        <v>7</v>
+        <v>1号認定 20、2・3号認定 35</v>
       </c>
       <c r="M115" t="str">
-        <v>6か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
       <c r="N115" t="str">
         <v>月火水木金土</v>
@@ -6833,74 +6833,18 @@
         <v>07:30</v>
       </c>
       <c r="P115" t="str">
-        <v>18:30</v>
+        <v>18:00</v>
       </c>
       <c r="Q115" t="str">
         <v/>
       </c>
       <c r="R115" t="str">
-        <v>無</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>121</v>
-      </c>
-      <c r="B116" t="str">
-        <v>34.30287</v>
-      </c>
-      <c r="C116" t="str">
-        <v>134.016075</v>
-      </c>
-      <c r="D116" t="str">
-        <v>メリーＧＯランド高松園</v>
-      </c>
-      <c r="E116" t="str">
-        <v>高松市成合町796-1</v>
-      </c>
-      <c r="F116" t="str">
-        <v>087-886-6669</v>
-      </c>
-      <c r="G116" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H116" t="str">
-        <v/>
-      </c>
-      <c r="I116" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J116" t="str">
-        <v/>
-      </c>
-      <c r="K116" t="str">
-        <v/>
-      </c>
-      <c r="L116" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
-      </c>
-      <c r="M116" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
-      </c>
-      <c r="N116" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O116" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P116" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q116" t="str">
-        <v/>
-      </c>
-      <c r="R116" t="str">
         <v>無</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R115"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1333,7 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M17" t="str">
         <v>3か月～</v>
@@ -1580,25 +1580,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
-        <v>34.229495</v>
+        <v>34.257828</v>
       </c>
       <c r="C22" t="str">
-        <v>134.040497</v>
+        <v>134.036939</v>
       </c>
       <c r="D22" t="str">
-        <v>高松市立川東南保育所</v>
+        <v>高松市立浅野保育所</v>
       </c>
       <c r="E22" t="str">
-        <v>高松市香川町川内原574-56</v>
+        <v>高松市香川町浅野816-1</v>
       </c>
       <c r="F22" t="str">
-        <v>087-879-5784</v>
+        <v>087-889-2416</v>
       </c>
       <c r="G22" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h26/</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1613,10 +1613,10 @@
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="M22" t="str">
-        <v>1歳～</v>
+        <v>3か月～</v>
       </c>
       <c r="N22" t="str">
         <v>月火水木金土</v>
@@ -1636,25 +1636,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="str">
-        <v>34.307041</v>
+        <v>34.229495</v>
       </c>
       <c r="C23" t="str">
-        <v>133.964275</v>
+        <v>134.040497</v>
       </c>
       <c r="D23" t="str">
-        <v>高松市立国分寺北部保育所</v>
+        <v>高松市立川東南保育所</v>
       </c>
       <c r="E23" t="str">
-        <v>高松市国分寺町新居1906-1</v>
+        <v>高松市香川町川内原574-56</v>
       </c>
       <c r="F23" t="str">
-        <v>087-874-1487</v>
+        <v>087-879-5784</v>
       </c>
       <c r="G23" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h28/</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1669,7 +1669,7 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M23" t="str">
         <v>1歳～</v>
@@ -1681,7 +1681,7 @@
         <v>07:30</v>
       </c>
       <c r="P23" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q23" t="str">
         <v/>
@@ -1692,25 +1692,25 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
-        <v>34.284657</v>
+        <v>34.307041</v>
       </c>
       <c r="C24" t="str">
-        <v>133.960908</v>
+        <v>133.964275</v>
       </c>
       <c r="D24" t="str">
-        <v>高松市立国分寺南部保育所</v>
+        <v>高松市立国分寺北部保育所</v>
       </c>
       <c r="E24" t="str">
-        <v>高松市国分寺町福家甲3106-1</v>
+        <v>高松市国分寺町新居1906-1</v>
       </c>
       <c r="F24" t="str">
-        <v>087-874-1120</v>
+        <v>087-874-1487</v>
       </c>
       <c r="G24" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h29/</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1725,7 +1725,7 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="M24" t="str">
         <v>1歳～</v>
@@ -1748,25 +1748,25 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>34.345964</v>
+        <v>34.284657</v>
       </c>
       <c r="C25" t="str">
-        <v>134.126933</v>
+        <v>133.960908</v>
       </c>
       <c r="D25" t="str">
-        <v>高松市立牟礼保育所</v>
+        <v>高松市立国分寺南部保育所</v>
       </c>
       <c r="E25" t="str">
-        <v>高松市牟礼町牟礼1978-1</v>
+        <v>高松市国分寺町福家甲3106-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-845-1647</v>
+        <v>087-874-1120</v>
       </c>
       <c r="G25" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h30/</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1781,10 +1781,10 @@
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M25" t="str">
-        <v>3か月～</v>
+        <v>1歳～</v>
       </c>
       <c r="N25" t="str">
         <v>月火水木金土</v>
@@ -1793,7 +1793,7 @@
         <v>07:30</v>
       </c>
       <c r="P25" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q25" t="str">
         <v/>
@@ -1804,25 +1804,25 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
-        <v>34.341172</v>
+        <v>34.345964</v>
       </c>
       <c r="C26" t="str">
-        <v>134.140155</v>
+        <v>134.126933</v>
       </c>
       <c r="D26" t="str">
-        <v>高松市立田井保育所</v>
+        <v>高松市立牟礼保育所</v>
       </c>
       <c r="E26" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
+        <v>高松市牟礼町牟礼1978-1</v>
       </c>
       <c r="F26" t="str">
-        <v>087-845-5411</v>
+        <v>087-845-1647</v>
       </c>
       <c r="G26" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h31/</v>
       </c>
       <c r="H26" t="str">
         <v/>
@@ -1837,7 +1837,7 @@
         <v/>
       </c>
       <c r="L26" t="str">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M26" t="str">
         <v>3か月～</v>
@@ -1849,7 +1849,7 @@
         <v>07:30</v>
       </c>
       <c r="P26" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -1860,31 +1860,31 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
-        <v>34.358509</v>
+        <v>34.341172</v>
       </c>
       <c r="C27" t="str">
-        <v>133.967533</v>
+        <v>134.140155</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市立田井保育所</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-881-2515</v>
+        <v>087-845-5411</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h32/</v>
       </c>
       <c r="H27" t="str">
         <v/>
       </c>
       <c r="I27" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認定公立保育所</v>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -1893,10 +1893,10 @@
         <v/>
       </c>
       <c r="L27" t="str">
-        <v>1号認定 40、2・3号認定 105</v>
+        <v>80</v>
       </c>
       <c r="M27" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N27" t="str">
         <v>月火水木金土</v>
@@ -1911,30 +1911,30 @@
         <v/>
       </c>
       <c r="R27" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>34.328643</v>
+        <v>34.358509</v>
       </c>
       <c r="C28" t="str">
-        <v>134.156038</v>
+        <v>133.967533</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F28" t="str">
-        <v>087-845-0234</v>
+        <v>087-881-2515</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1949,7 +1949,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>1号認定 90、2・3号認定 138</v>
+        <v>1号認定 40、2・3号認定 105</v>
       </c>
       <c r="M28" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -1961,7 +1961,7 @@
         <v>07:30</v>
       </c>
       <c r="P28" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -1972,25 +1972,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v>34.385761</v>
+        <v>34.328643</v>
       </c>
       <c r="C29" t="str">
-        <v>134.131516</v>
+        <v>134.156038</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F29" t="str">
-        <v>087-871-2535</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -2005,7 +2005,7 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>1号認定 45、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 138</v>
       </c>
       <c r="M29" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2017,7 +2017,7 @@
         <v>07:30</v>
       </c>
       <c r="P29" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2028,25 +2028,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>34.242096</v>
+        <v>34.385761</v>
       </c>
       <c r="C30" t="str">
-        <v>134.005834</v>
+        <v>134.131516</v>
       </c>
       <c r="D30" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F30" t="str">
-        <v>087-887-7876</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -2061,7 +2061,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>1号認定 90、2・3号認定 179</v>
+        <v>1号認定 45、2・3号認定 105</v>
       </c>
       <c r="M30" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2073,7 +2073,7 @@
         <v>07:30</v>
       </c>
       <c r="P30" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -2084,25 +2084,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v>34.188524</v>
+        <v>34.242096</v>
       </c>
       <c r="C31" t="str">
-        <v>134.061382</v>
+        <v>134.005834</v>
       </c>
       <c r="D31" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F31" t="str">
-        <v>087-890-2022</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -2117,7 +2117,7 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 90、2・3号認定 179</v>
       </c>
       <c r="M31" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2140,25 +2140,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v>34.237755</v>
+        <v>34.188524</v>
       </c>
       <c r="C32" t="str">
-        <v>134.035134</v>
+        <v>134.061382</v>
       </c>
       <c r="D32" t="str">
-        <v>高松市川東こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F32" t="str">
-        <v>087-879-4602</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G32" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -2173,7 +2173,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>1号認定 90、2・3号認定 153</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M32" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2196,25 +2196,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>34.342609</v>
+        <v>34.237755</v>
       </c>
       <c r="C33" t="str">
-        <v>134.099868</v>
+        <v>134.035134</v>
       </c>
       <c r="D33" t="str">
-        <v>屋島こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F33" t="str">
-        <v>087-841-9711</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G33" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -2229,7 +2229,7 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>1号認定 9、2・3号認定 135</v>
+        <v>1号認定 90、2・3号認定 153</v>
       </c>
       <c r="M33" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2252,25 +2252,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>34.2959789</v>
+        <v>34.342609</v>
       </c>
       <c r="C34" t="str">
-        <v>134.0789659</v>
+        <v>134.099868</v>
       </c>
       <c r="D34" t="str">
-        <v>林こども園</v>
+        <v>屋島こども園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F34" t="str">
-        <v>087-865-1676</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G34" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>1号認定 105、2・3号認定 194</v>
+        <v>1号認定 9、2・3号認定 135</v>
       </c>
       <c r="M34" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2308,31 +2308,31 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>34.420292</v>
+        <v>34.2959789</v>
       </c>
       <c r="C35" t="str">
-        <v>134.057016</v>
+        <v>134.0789659</v>
       </c>
       <c r="D35" t="str">
-        <v>高松市小規模保育事業所男木保育所</v>
+        <v>林こども園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市男木町165</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F35" t="str">
-        <v>087-873-0614</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G35" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35" t="str">
-        <v>小規模保育施設</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -2341,54 +2341,54 @@
         <v/>
       </c>
       <c r="L35" t="str">
-        <v>6</v>
+        <v>1号認定 105、2・3号認定 194</v>
       </c>
       <c r="M35" t="str">
-        <v>1歳児～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N35" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O35" t="str">
-        <v>09:00</v>
+        <v>07:30</v>
       </c>
       <c r="P35" t="str">
-        <v>16:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q35" t="str">
         <v/>
       </c>
       <c r="R35" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>34.327973</v>
+        <v>34.420292</v>
       </c>
       <c r="C36" t="str">
-        <v>134.058101</v>
+        <v>134.057016</v>
       </c>
       <c r="D36" t="str">
-        <v>こぶし今里保育園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市今里町一丁目7-2</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F36" t="str">
-        <v>087-834-1946</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G36" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>認定私立保育所</v>
+        <v>小規模保育施設</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -2397,48 +2397,48 @@
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="M36" t="str">
-        <v>2か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N36" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O36" t="str">
-        <v>07:00</v>
+        <v>09:00</v>
       </c>
       <c r="P36" t="str">
-        <v>19:00</v>
+        <v>16:00</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
-        <v>34.333037</v>
+        <v>34.327973</v>
       </c>
       <c r="C37" t="str">
-        <v>134.051372</v>
+        <v>134.058101</v>
       </c>
       <c r="D37" t="str">
-        <v>敬愛保育園</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市藤塚町三丁目18-2</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F37" t="str">
-        <v>087-831-6778</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G37" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H37" t="str">
         <v/>
@@ -2453,10 +2453,10 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="M37" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N37" t="str">
         <v>月火水木金土</v>
@@ -2471,30 +2471,30 @@
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
-        <v>34.328268</v>
+        <v>34.333037</v>
       </c>
       <c r="C38" t="str">
-        <v>134.066087</v>
+        <v>134.051372</v>
       </c>
       <c r="D38" t="str">
-        <v>平安保育園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市上福岡町894-8</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F38" t="str">
-        <v>087-833-7734</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G38" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -2509,10 +2509,10 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M38" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N38" t="str">
         <v>月火水木金土</v>
@@ -2532,25 +2532,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>34.304804</v>
+        <v>34.328268</v>
       </c>
       <c r="C39" t="str">
-        <v>134.02164</v>
+        <v>134.066087</v>
       </c>
       <c r="D39" t="str">
-        <v>勅使百華保育園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F39" t="str">
-        <v>087-865-2998</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G39" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2565,10 +2565,10 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M39" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N39" t="str">
         <v>月火水木金土</v>
@@ -2588,25 +2588,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>34.316835</v>
+        <v>34.304804</v>
       </c>
       <c r="C40" t="str">
-        <v>134.024336</v>
+        <v>134.02164</v>
       </c>
       <c r="D40" t="str">
-        <v>西春日保育所</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市西春日町1407</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F40" t="str">
-        <v>087-866-4166</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G40" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2621,10 +2621,10 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M40" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N40" t="str">
         <v>月火水木金土</v>
@@ -2639,30 +2639,30 @@
         <v/>
       </c>
       <c r="R40" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="str">
-        <v>34.304304</v>
+        <v>34.316835</v>
       </c>
       <c r="C41" t="str">
-        <v>134.037996</v>
+        <v>134.024336</v>
       </c>
       <c r="D41" t="str">
-        <v>太田西保育園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市太田下町2025</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F41" t="str">
-        <v>087-865-0601</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2677,7 +2677,7 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M41" t="str">
         <v>2か月～</v>
@@ -2695,30 +2695,30 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" t="str">
-        <v>34.309654</v>
+        <v>34.304304</v>
       </c>
       <c r="C42" t="str">
-        <v>134.0631</v>
+        <v>134.037996</v>
       </c>
       <c r="D42" t="str">
-        <v>こぶし中央保育園</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市木太町5089-9</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F42" t="str">
-        <v>087-866-7169</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G42" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2733,7 +2733,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M42" t="str">
         <v>2か月～</v>
@@ -2751,30 +2751,30 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" t="str">
-        <v>34.350107</v>
+        <v>34.309654</v>
       </c>
       <c r="C43" t="str">
-        <v>134.091559</v>
+        <v>134.0631</v>
       </c>
       <c r="D43" t="str">
-        <v>あすなろ保育園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市屋島西町2453-6</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F43" t="str">
-        <v>087-843-3143</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G43" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2789,10 +2789,10 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M43" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N43" t="str">
         <v>月火水木金土</v>
@@ -2801,36 +2801,36 @@
         <v>07:00</v>
       </c>
       <c r="P43" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q43" t="str">
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="str">
-        <v>34.300415</v>
+        <v>34.350107</v>
       </c>
       <c r="C44" t="str">
-        <v>134.115798</v>
+        <v>134.091559</v>
       </c>
       <c r="D44" t="str">
-        <v>西光寺保育所</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市前田西町167-1</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F44" t="str">
-        <v>087-847-6237</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G44" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2845,10 +2845,10 @@
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M44" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N44" t="str">
         <v>月火水木金土</v>
@@ -2857,36 +2857,36 @@
         <v>07:00</v>
       </c>
       <c r="P44" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>34.299537</v>
+        <v>34.300415</v>
       </c>
       <c r="C45" t="str">
-        <v>134.092378</v>
+        <v>134.115798</v>
       </c>
       <c r="D45" t="str">
-        <v>川添保育園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市下田井町52</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F45" t="str">
-        <v>087-847-5078</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G45" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -2901,10 +2901,10 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M45" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N45" t="str">
         <v>月火水木金土</v>
@@ -2919,30 +2919,30 @@
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>34.277465</v>
+        <v>34.299537</v>
       </c>
       <c r="C46" t="str">
-        <v>134.030037</v>
+        <v>134.092378</v>
       </c>
       <c r="D46" t="str">
-        <v>高松南保育園</v>
+        <v>川添保育園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市寺井町453-1</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F46" t="str">
-        <v>087-886-0275</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2957,10 +2957,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M46" t="str">
-        <v>6か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2980,25 +2980,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" t="str">
-        <v>34.284927</v>
+        <v>34.277465</v>
       </c>
       <c r="C47" t="str">
-        <v>134.010137</v>
+        <v>134.030037</v>
       </c>
       <c r="D47" t="str">
-        <v>円座百華保育園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市円座町1478-1</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F47" t="str">
-        <v>087-885-1203</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3013,10 +3013,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="M47" t="str">
-        <v>7か月～</v>
+        <v>6か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3036,25 +3036,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" t="str">
-        <v>34.306205</v>
+        <v>34.284927</v>
       </c>
       <c r="C48" t="str">
-        <v>133.998614</v>
+        <v>134.010137</v>
       </c>
       <c r="D48" t="str">
-        <v>高松西保育園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市檀紙町1521-4</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F48" t="str">
-        <v>087-886-5006</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3069,10 +3069,10 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="M48" t="str">
-        <v>2か月～</v>
+        <v>7か月～</v>
       </c>
       <c r="N48" t="str">
         <v>月火水木金土</v>
@@ -3092,25 +3092,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="str">
-        <v>34.285075</v>
+        <v>34.306205</v>
       </c>
       <c r="C49" t="str">
-        <v>134.110374</v>
+        <v>133.998614</v>
       </c>
       <c r="D49" t="str">
-        <v>若葉保育園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F49" t="str">
-        <v>087-847-7932</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3128,7 +3128,7 @@
         <v>130</v>
       </c>
       <c r="M49" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3148,25 +3148,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="str">
-        <v>34.311827</v>
+        <v>34.285075</v>
       </c>
       <c r="C50" t="str">
-        <v>134.08609</v>
+        <v>134.110374</v>
       </c>
       <c r="D50" t="str">
-        <v>白樺保育園</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市元山町855-2</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F50" t="str">
-        <v>087-866-6555</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3181,7 +3181,7 @@
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M50" t="str">
         <v>3か月～</v>
@@ -3204,25 +3204,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="str">
-        <v>34.341315</v>
+        <v>34.311827</v>
       </c>
       <c r="C51" t="str">
-        <v>134.06296</v>
+        <v>134.08609</v>
       </c>
       <c r="D51" t="str">
-        <v>松福保育園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市松福町二丁目18-16</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F51" t="str">
-        <v>087-822-7605</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3240,7 +3240,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N51" t="str">
         <v>月火水木金土</v>
@@ -3255,30 +3255,30 @@
         <v/>
       </c>
       <c r="R51" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>34.320782</v>
+        <v>34.341315</v>
       </c>
       <c r="C52" t="str">
-        <v>134.067903</v>
+        <v>134.06296</v>
       </c>
       <c r="D52" t="str">
-        <v>さくらんぼ保育園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市木太町1165-3</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F52" t="str">
-        <v>087-867-4151</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3293,16 +3293,16 @@
         <v/>
       </c>
       <c r="L52" t="str">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M52" t="str">
-        <v>1歳児～</v>
+        <v>2か月～</v>
       </c>
       <c r="N52" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O52" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P52" t="str">
         <v>19:00</v>
@@ -3311,30 +3311,30 @@
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>34.263658</v>
+        <v>34.320782</v>
       </c>
       <c r="C53" t="str">
-        <v>134.108531</v>
+        <v>134.067903</v>
       </c>
       <c r="D53" t="str">
-        <v>すみれ保育園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市十川東町556-1</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F53" t="str">
-        <v>087-848-0806</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3349,16 +3349,16 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M53" t="str">
-        <v>3か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N53" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O53" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P53" t="str">
         <v>19:00</v>
@@ -3372,25 +3372,25 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>34.343745</v>
+        <v>34.263658</v>
       </c>
       <c r="C54" t="str">
-        <v>134.052287</v>
+        <v>134.108531</v>
       </c>
       <c r="D54" t="str">
-        <v>高松第二保育園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市御坊町2-2</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F54" t="str">
-        <v>087-821-5241</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3405,48 +3405,48 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M54" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O54" t="str">
-        <v>06:40</v>
+        <v>07:00</v>
       </c>
       <c r="P54" t="str">
-        <v>25:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q54" t="str">
         <v/>
       </c>
       <c r="R54" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>34.327799</v>
+        <v>34.343745</v>
       </c>
       <c r="C55" t="str">
-        <v>134.062199</v>
+        <v>134.052287</v>
       </c>
       <c r="D55" t="str">
-        <v>今里保育所</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市今里町二丁目1-5</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F55" t="str">
-        <v>087-834-3535</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3461,7 +3461,7 @@
         <v/>
       </c>
       <c r="L55" t="str">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="M55" t="str">
         <v>2か月～</v>
@@ -3470,39 +3470,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O55" t="str">
-        <v>07:00</v>
+        <v>06:40</v>
       </c>
       <c r="P55" t="str">
-        <v>19:00</v>
+        <v>25:00</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="str">
-        <v>34.25728</v>
+        <v>34.327799</v>
       </c>
       <c r="C56" t="str">
-        <v>134.035674</v>
+        <v>134.062199</v>
       </c>
       <c r="D56" t="str">
-        <v>さんさん保育園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市香川町浅野834-1</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F56" t="str">
-        <v>087-888-6333</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3517,10 +3517,10 @@
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M56" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N56" t="str">
         <v>月火水木金土</v>
@@ -3535,30 +3535,30 @@
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>34.289495</v>
+        <v>34.25728</v>
       </c>
       <c r="C57" t="str">
-        <v>133.952485</v>
+        <v>134.035674</v>
       </c>
       <c r="D57" t="str">
-        <v>みよし保育園</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市国分寺町柏原80</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F57" t="str">
-        <v>087-874-0622</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3573,7 +3573,7 @@
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M57" t="str">
         <v>3か月～</v>
@@ -3591,30 +3591,30 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="str">
-        <v>34.274113</v>
+        <v>34.289495</v>
       </c>
       <c r="C58" t="str">
-        <v>133.973116</v>
+        <v>133.952485</v>
       </c>
       <c r="D58" t="str">
-        <v>みのり保育園</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市国分寺町福家甲1982</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F58" t="str">
-        <v>087-874-4309</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3629,7 +3629,7 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M58" t="str">
         <v>3か月～</v>
@@ -3647,30 +3647,30 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>34.337967</v>
+        <v>34.274113</v>
       </c>
       <c r="C59" t="str">
-        <v>134.130825</v>
+        <v>133.973116</v>
       </c>
       <c r="D59" t="str">
-        <v>八栗保育所</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市牟礼町牟礼401</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F59" t="str">
-        <v>087-845-0033</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3685,19 +3685,19 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M59" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N59" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O59" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P59" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -3708,25 +3708,25 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="str">
-        <v>34.347055</v>
+        <v>34.337967</v>
       </c>
       <c r="C60" t="str">
-        <v>134.055965</v>
+        <v>134.130825</v>
       </c>
       <c r="D60" t="str">
-        <v>城東保育園</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市城東町一丁目1-45</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F60" t="str">
-        <v>087-822-1340</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M60" t="str">
         <v>2か月～</v>
@@ -3753,7 +3753,7 @@
         <v>07:30</v>
       </c>
       <c r="P60" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -3764,25 +3764,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="str">
-        <v>34.334252</v>
+        <v>34.347055</v>
       </c>
       <c r="C61" t="str">
-        <v>134.057679</v>
+        <v>134.055965</v>
       </c>
       <c r="D61" t="str">
-        <v>こぶし花園保育園</v>
+        <v>城東保育園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市花園町一丁目9-32</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F61" t="str">
-        <v>087-831-5136</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M61" t="str">
         <v>2か月～</v>
@@ -3815,36 +3815,36 @@
         <v/>
       </c>
       <c r="R61" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="str">
-        <v>0</v>
+        <v>34.334252</v>
       </c>
       <c r="C62" t="str">
-        <v>0</v>
+        <v>134.057679</v>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E62" t="str">
-        <v/>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F62" t="str">
-        <v/>
+        <v>087-831-5136</v>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H62" t="str">
         <v/>
       </c>
       <c r="I62" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -3853,54 +3853,54 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v/>
+        <v>90</v>
       </c>
       <c r="M62" t="str">
-        <v/>
+        <v>2か月～</v>
       </c>
       <c r="N62" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O62" t="str">
-        <v/>
+        <v>07:30</v>
       </c>
       <c r="P62" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
-        <v>34.287693</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
-        <v>134.05974</v>
+        <v>0</v>
       </c>
       <c r="D63" t="str">
-        <v>れんげ保育園</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>高松市多肥上町2390-1</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v>087-888-8080</v>
+        <v/>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
+        <v/>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -3909,48 +3909,48 @@
         <v/>
       </c>
       <c r="L63" t="str">
-        <v>90</v>
+        <v/>
       </c>
       <c r="M63" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N63" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O63" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P63" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="str">
-        <v>34.308543</v>
+        <v>34.287693</v>
       </c>
       <c r="C64" t="str">
-        <v>134.056433</v>
+        <v>134.05974</v>
       </c>
       <c r="D64" t="str">
-        <v>さくら伏石保育園</v>
+        <v>れんげ保育園</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市伏石町2135-3</v>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F64" t="str">
-        <v>087-867-1100</v>
+        <v>087-888-8080</v>
       </c>
       <c r="G64" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H64" t="str">
         <v/>
@@ -3977,7 +3977,7 @@
         <v>07:00</v>
       </c>
       <c r="P64" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q64" t="str">
         <v/>
@@ -3988,25 +3988,25 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
-        <v>34.323827</v>
+        <v>34.308543</v>
       </c>
       <c r="C65" t="str">
-        <v>134.092254</v>
+        <v>134.056433</v>
       </c>
       <c r="D65" t="str">
-        <v>らく楽保育園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市春日町483-1</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F65" t="str">
-        <v>087-844-0111</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4021,7 +4021,7 @@
         <v/>
       </c>
       <c r="L65" t="str">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M65" t="str">
         <v>3か月～</v>
@@ -4030,10 +4030,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O65" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P65" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q65" t="str">
         <v/>
@@ -4044,25 +4044,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="str">
-        <v>34.349557</v>
+        <v>34.323827</v>
       </c>
       <c r="C66" t="str">
-        <v>134.003925</v>
+        <v>134.092254</v>
       </c>
       <c r="D66" t="str">
-        <v>初音保育所</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市香西本町17-1</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F66" t="str">
-        <v>087-813-3258</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4077,13 +4077,13 @@
         <v/>
       </c>
       <c r="L66" t="str">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M66" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N66" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O66" t="str">
         <v>07:30</v>
@@ -4095,30 +4095,30 @@
         <v/>
       </c>
       <c r="R66" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="str">
-        <v>34.308532</v>
+        <v>34.349557</v>
       </c>
       <c r="C67" t="str">
-        <v>134.067283</v>
+        <v>134.003925</v>
       </c>
       <c r="D67" t="str">
-        <v>さくら木太保育園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市木太町5113-15</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F67" t="str">
-        <v>087-802-8080</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -4133,54 +4133,54 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="M67" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N67" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="O67" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P67" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q67" t="str">
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
-        <v>0</v>
+        <v>34.308532</v>
       </c>
       <c r="C68" t="str">
-        <v>0</v>
+        <v>134.067283</v>
       </c>
       <c r="D68" t="str">
-        <v/>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E68" t="str">
-        <v/>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F68" t="str">
-        <v/>
+        <v>087-802-8080</v>
       </c>
       <c r="G68" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J68" t="str">
         <v/>
@@ -4189,54 +4189,54 @@
         <v/>
       </c>
       <c r="L68" t="str">
-        <v/>
+        <v>99</v>
       </c>
       <c r="M68" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N68" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O68" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P68" t="str">
-        <v/>
+        <v>20:00</v>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="str">
-        <v>34.333051</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
-        <v>134.055788</v>
+        <v>0</v>
       </c>
       <c r="D69" t="str">
-        <v>高松くりの木保育園</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>高松市花園町三丁目4-5</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>087-880-7211</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v/>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J69" t="str">
         <v/>
@@ -4245,48 +4245,48 @@
         <v/>
       </c>
       <c r="L69" t="str">
-        <v>105</v>
+        <v/>
       </c>
       <c r="M69" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N69" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O69" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P69" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="str">
-        <v>34.343232</v>
+        <v>34.333051</v>
       </c>
       <c r="C70" t="str">
-        <v>134.065675</v>
+        <v>134.055788</v>
       </c>
       <c r="D70" t="str">
-        <v>らく楽第二保育園</v>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E70" t="str">
-        <v>高松市松福町二丁目4-4</v>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F70" t="str">
-        <v>087-826-0111</v>
+        <v>087-880-7211</v>
       </c>
       <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H70" t="str">
         <v/>
@@ -4301,7 +4301,7 @@
         <v/>
       </c>
       <c r="L70" t="str">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="M70" t="str">
         <v>3か月～</v>
@@ -4310,7 +4310,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O70" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P70" t="str">
         <v>19:00</v>
@@ -4324,25 +4324,25 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="str">
-        <v>34.291607</v>
+        <v>34.343232</v>
       </c>
       <c r="C71" t="str">
-        <v>134.075471</v>
+        <v>134.065675</v>
       </c>
       <c r="D71" t="str">
-        <v>あさがお保育園</v>
+        <v>らく楽第二保育園</v>
       </c>
       <c r="E71" t="str">
-        <v>高松市上林町69</v>
+        <v>高松市松福町二丁目4-4</v>
       </c>
       <c r="F71" t="str">
-        <v>087-899-5660</v>
+        <v>087-826-0111</v>
       </c>
       <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -4357,10 +4357,10 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="M71" t="str">
-        <v>３か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N71" t="str">
         <v>月火水木金土</v>
@@ -4375,30 +4375,30 @@
         <v/>
       </c>
       <c r="R71" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" t="str">
-        <v>34.3051941</v>
+        <v>34.291607</v>
       </c>
       <c r="C72" t="str">
-        <v>134.0610552</v>
+        <v>134.075471</v>
       </c>
       <c r="D72" t="str">
-        <v>保育園アルペジオ高松多肥下町園</v>
+        <v>あさがお保育園</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市多肥下町1524-15</v>
+        <v>高松市上林町69</v>
       </c>
       <c r="F72" t="str">
-        <v>087-802-5583</v>
+        <v>087-899-5660</v>
       </c>
       <c r="G72" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -4413,10 +4413,10 @@
         <v/>
       </c>
       <c r="L72" t="str">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M72" t="str">
-        <v>6か月</v>
+        <v>３か月～</v>
       </c>
       <c r="N72" t="str">
         <v>月火水木金土</v>
@@ -4425,7 +4425,7 @@
         <v>07:30</v>
       </c>
       <c r="P72" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q72" t="str">
         <v/>
@@ -4436,25 +4436,25 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="str">
-        <v>34.3034175</v>
+        <v>34.3051941</v>
       </c>
       <c r="C73" t="str">
-        <v>134.0533292</v>
+        <v>134.0610552</v>
       </c>
       <c r="D73" t="str">
-        <v>さくら太田保育園</v>
+        <v>保育園アルペジオ高松多肥下町園</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市太田下町3032-1</v>
+        <v>高松市多肥下町1524-15</v>
       </c>
       <c r="F73" t="str">
-        <v>087-868-3700</v>
+        <v>087-802-5583</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -4469,54 +4469,54 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M73" t="str">
-        <v>3か月</v>
+        <v>6か月</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O73" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P73" t="str">
-        <v>20:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q73" t="str">
         <v/>
       </c>
       <c r="R73" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" t="str">
-        <v>34.3064057</v>
+        <v>34.3034175</v>
       </c>
       <c r="C74" t="str">
-        <v>134.042294</v>
+        <v>134.0533292</v>
       </c>
       <c r="D74" t="str">
-        <v>にこにこ保育園</v>
+        <v>さくら太田保育園</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市林町294-1</v>
+        <v>高松市太田下町3032-1</v>
       </c>
       <c r="F74" t="str">
-        <v>087-813-8300</v>
+        <v>087-868-3700</v>
       </c>
       <c r="G74" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
       </c>
       <c r="H74" t="str">
         <v/>
       </c>
       <c r="I74" t="str">
-        <v>認可私立保育所</v>
+        <v>認定私立保育所</v>
       </c>
       <c r="J74" t="str">
         <v/>
@@ -4525,48 +4525,48 @@
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M74" t="str">
-        <v>おおむね2か月～</v>
+        <v>3か月</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O74" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P74" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" t="str">
-        <v>34.3047038</v>
+        <v>34.3064057</v>
       </c>
       <c r="C75" t="str">
-        <v>134.0565783</v>
+        <v>134.042294</v>
       </c>
       <c r="D75" t="str">
-        <v>あい保育園太田</v>
+        <v>にこにこ保育園</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市林町294-1</v>
       </c>
       <c r="F75" t="str">
-        <v>087-802-9065</v>
+        <v>087-813-8300</v>
       </c>
       <c r="G75" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -4581,48 +4581,48 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="M75" t="str">
-        <v>３か月～</v>
+        <v>おおむね2か月～</v>
       </c>
       <c r="N75" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O75" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P75" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="str">
-        <v>34.3431504</v>
+        <v>34.3047038</v>
       </c>
       <c r="C76" t="str">
-        <v>134.0615252</v>
+        <v>134.0565783</v>
       </c>
       <c r="D76" t="str">
-        <v>さくら福々保育園</v>
+        <v>あい保育園太田</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市太田下町3027-3</v>
       </c>
       <c r="F76" t="str">
-        <v>087-802-1860</v>
+        <v>087-802-9065</v>
       </c>
       <c r="G76" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -4637,7 +4637,7 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M76" t="str">
         <v>３か月～</v>
@@ -4660,31 +4660,31 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" t="str">
-        <v>34.292144</v>
+        <v>34.3431504</v>
       </c>
       <c r="C77" t="str">
-        <v>134.066237</v>
+        <v>134.0615252</v>
       </c>
       <c r="D77" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>さくら福々保育園</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市松福町一丁目229-55</v>
       </c>
       <c r="F77" t="str">
-        <v>087-889-8181</v>
+        <v>087-802-1860</v>
       </c>
       <c r="G77" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v/>
       </c>
       <c r="H77" t="str">
         <v/>
       </c>
       <c r="I77" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認可私立保育所</v>
       </c>
       <c r="J77" t="str">
         <v/>
@@ -4693,48 +4693,48 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>96</v>
       </c>
       <c r="M77" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N77" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O77" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P77" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q77" t="str">
         <v/>
       </c>
       <c r="R77" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" t="str">
-        <v>34.303319</v>
+        <v>34.292144</v>
       </c>
       <c r="C78" t="str">
-        <v>133.949144</v>
+        <v>134.066237</v>
       </c>
       <c r="D78" t="str">
-        <v>いずみこども園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F78" t="str">
-        <v>087-874-0882</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G78" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -4749,19 +4749,19 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M78" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N78" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O78" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P78" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q78" t="str">
         <v/>
@@ -4772,25 +4772,25 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="str">
-        <v>34.304328</v>
+        <v>34.303319</v>
       </c>
       <c r="C79" t="str">
-        <v>133.97246</v>
+        <v>133.949144</v>
       </c>
       <c r="D79" t="str">
-        <v>いずみこども園分園</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市国分寺町新居281-1</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F79" t="str">
-        <v>087-875-0882</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G79" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -4805,19 +4805,19 @@
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>2・3号認定 20</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M79" t="str">
-        <v>2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O79" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P79" t="str">
-        <v>18:30</v>
+        <v>20:00</v>
       </c>
       <c r="Q79" t="str">
         <v/>
@@ -4828,25 +4828,25 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" t="str">
-        <v>34.327571</v>
+        <v>34.304328</v>
       </c>
       <c r="C80" t="str">
-        <v>134.087355</v>
+        <v>133.97246</v>
       </c>
       <c r="D80" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市国分寺町新居281-1</v>
       </c>
       <c r="F80" t="str">
-        <v>087-841-2306</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G80" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -4861,48 +4861,48 @@
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>1号認定 284、2・3号認定 166</v>
+        <v>2・3号認定 20</v>
       </c>
       <c r="M80" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～</v>
       </c>
       <c r="N80" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O80" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P80" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q80" t="str">
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" t="str">
-        <v>34.325356</v>
+        <v>34.327571</v>
       </c>
       <c r="C81" t="str">
-        <v>134.099079</v>
+        <v>134.087355</v>
       </c>
       <c r="D81" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F81" t="str">
-        <v>087-841-3686</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G81" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -4917,16 +4917,16 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 284、2・3号認定 166</v>
       </c>
       <c r="M81" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N81" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O81" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P81" t="str">
         <v>19:00</v>
@@ -4935,30 +4935,30 @@
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="str">
-        <v>34.268464</v>
+        <v>34.325356</v>
       </c>
       <c r="C82" t="str">
-        <v>134.006758</v>
+        <v>134.099079</v>
       </c>
       <c r="D82" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F82" t="str">
-        <v>087-886-5879</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G82" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -4973,16 +4973,16 @@
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M82" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N82" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O82" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P82" t="str">
         <v>19:00</v>
@@ -4991,30 +4991,30 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" t="str">
-        <v>34.331077</v>
+        <v>34.268464</v>
       </c>
       <c r="C83" t="str">
-        <v>134.094275</v>
+        <v>134.006758</v>
       </c>
       <c r="D83" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F83" t="str">
-        <v>087-843-3689</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G83" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -5029,10 +5029,10 @@
         <v/>
       </c>
       <c r="L83" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M83" t="str">
-        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N83" t="str">
         <v>月火水木金土</v>
@@ -5047,30 +5047,30 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" t="str">
-        <v>34.326539</v>
+        <v>34.331077</v>
       </c>
       <c r="C84" t="str">
-        <v>134.047837</v>
+        <v>134.094275</v>
       </c>
       <c r="D84" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F84" t="str">
-        <v>087-831-6318</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G84" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -5085,7 +5085,7 @@
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M84" t="str">
         <v>1号認定 3歳児～、2・3号認定 2か月～</v>
@@ -5103,30 +5103,30 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" t="str">
-        <v>34.333461</v>
+        <v>34.326539</v>
       </c>
       <c r="C85" t="str">
-        <v>134.04506</v>
+        <v>134.047837</v>
       </c>
       <c r="D85" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F85" t="str">
-        <v>087-831-8659</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G85" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -5141,48 +5141,48 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M85" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N85" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O85" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P85" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q85" t="str">
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" t="str">
-        <v>34.279891</v>
+        <v>34.333461</v>
       </c>
       <c r="C86" t="str">
-        <v>134.042395</v>
+        <v>134.04506</v>
       </c>
       <c r="D86" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F86" t="str">
-        <v>087-889-1059</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G86" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -5197,7 +5197,7 @@
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M86" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5206,39 +5206,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O86" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P86" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q86" t="str">
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" t="str">
-        <v>34.292691</v>
+        <v>34.279891</v>
       </c>
       <c r="C87" t="str">
-        <v>134.0352</v>
+        <v>134.042395</v>
       </c>
       <c r="D87" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F87" t="str">
-        <v>087-802-3838</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G87" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5253,16 +5253,16 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 75、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M87" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N87" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O87" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P87" t="str">
         <v>19:00</v>
@@ -5276,25 +5276,25 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" t="str">
-        <v>34.2936161</v>
+        <v>34.292691</v>
       </c>
       <c r="C88" t="str">
-        <v>134.0789214</v>
+        <v>134.0352</v>
       </c>
       <c r="D88" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F88" t="str">
-        <v>087-813-9818</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G88" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -5309,16 +5309,16 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 15、2・3号認定 217</v>
+        <v>1号認定 75、2・3号認定 75</v>
       </c>
       <c r="M88" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N88" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O88" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P88" t="str">
         <v>19:00</v>
@@ -5332,25 +5332,25 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" t="str">
-        <v>34.2734776</v>
+        <v>34.2936161</v>
       </c>
       <c r="C89" t="str">
-        <v>134.1024882</v>
+        <v>134.0789214</v>
       </c>
       <c r="D89" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F89" t="str">
-        <v>087-848-0320</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G89" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -5365,16 +5365,16 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 217</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O89" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P89" t="str">
         <v>19:00</v>
@@ -5383,30 +5383,30 @@
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" t="str">
-        <v>34.3064057</v>
+        <v>34.2734776</v>
       </c>
       <c r="C90" t="str">
-        <v>134.042294</v>
+        <v>134.1024882</v>
       </c>
       <c r="D90" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F90" t="str">
-        <v>087-814-4141</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G90" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -5421,7 +5421,7 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>1号認定 15、2・3号認定 165</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M90" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5430,7 +5430,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O90" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P90" t="str">
         <v>19:00</v>
@@ -5439,30 +5439,30 @@
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" t="str">
-        <v>34.3264572</v>
+        <v>34.3064057</v>
       </c>
       <c r="C91" t="str">
-        <v>134.0769366</v>
+        <v>134.042294</v>
       </c>
       <c r="D91" t="str">
-        <v>みらい学園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F91" t="str">
-        <v>087-899-2305</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G91" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -5477,16 +5477,16 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>1号認定 15、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 165</v>
       </c>
       <c r="M91" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N91" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O91" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P91" t="str">
         <v>19:00</v>
@@ -5500,31 +5500,31 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" t="str">
-        <v>34.353781</v>
+        <v>34.3264572</v>
       </c>
       <c r="C92" t="str">
-        <v>134.091115</v>
+        <v>134.0769366</v>
       </c>
       <c r="D92" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F92" t="str">
-        <v>087-843-2241</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G92" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v/>
       </c>
       <c r="H92" t="str">
         <v/>
       </c>
       <c r="I92" t="str">
-        <v>認定こども園（幼稚園型）</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J92" t="str">
         <v/>
@@ -5533,16 +5533,16 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 228、2・3号認定 72</v>
+        <v>1号認定 15、2・3号認定 75</v>
       </c>
       <c r="M92" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N92" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O92" t="str">
-        <v>07:45</v>
+        <v>07:30</v>
       </c>
       <c r="P92" t="str">
         <v>19:00</v>
@@ -5556,25 +5556,25 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" t="str">
-        <v>34.338923</v>
+        <v>34.353781</v>
       </c>
       <c r="C93" t="str">
-        <v>134.031483</v>
+        <v>134.091115</v>
       </c>
       <c r="D93" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F93" t="str">
-        <v>087-861-0425</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G93" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -5589,19 +5589,19 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 135、2号認定 15</v>
+        <v>1号認定 228、2・3号認定 72</v>
       </c>
       <c r="M93" t="str">
-        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N93" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O93" t="str">
-        <v>07:30</v>
+        <v>07:45</v>
       </c>
       <c r="P93" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q93" t="str">
         <v/>
@@ -5612,25 +5612,25 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" t="str">
-        <v>34.338702</v>
+        <v>34.338923</v>
       </c>
       <c r="C94" t="str">
-        <v>134.038281</v>
+        <v>134.031483</v>
       </c>
       <c r="D94" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E94" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F94" t="str">
-        <v>087-831-2557</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G94" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -5645,10 +5645,10 @@
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>1号認定 109、2・3号認定 99</v>
+        <v>1号認定 135、2号認定 15</v>
       </c>
       <c r="M94" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
       </c>
       <c r="N94" t="str">
         <v>月火水木金土</v>
@@ -5657,7 +5657,7 @@
         <v>07:30</v>
       </c>
       <c r="P94" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" t="str">
-        <v>34.279836</v>
+        <v>34.338702</v>
       </c>
       <c r="C95" t="str">
-        <v>134.022373</v>
+        <v>134.038281</v>
       </c>
       <c r="D95" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E95" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F95" t="str">
-        <v>087-885-2038</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G95" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -5701,10 +5701,10 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>1号認定 112、2・3号認定 128</v>
+        <v>1号認定 109、2・3号認定 99</v>
       </c>
       <c r="M95" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
       </c>
       <c r="N95" t="str">
         <v>月火水木金土</v>
@@ -5724,25 +5724,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" t="str">
-        <v>34.334019</v>
+        <v>34.279836</v>
       </c>
       <c r="C96" t="str">
-        <v>134.114815</v>
+        <v>134.022373</v>
       </c>
       <c r="D96" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E96" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F96" t="str">
-        <v>087-843-4484</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G96" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -5757,10 +5757,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 274、2・3号認定 48</v>
+        <v>1号認定 112、2・3号認定 128</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5780,25 +5780,25 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" t="str">
-        <v>34.304505</v>
+        <v>34.334019</v>
       </c>
       <c r="C97" t="str">
-        <v>134.021922</v>
+        <v>134.114815</v>
       </c>
       <c r="D97" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E97" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F97" t="str">
-        <v>087-865-9419</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G97" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -5813,10 +5813,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 265、2・3号認定 51</v>
+        <v>1号認定 274、2・3号認定 48</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5825,7 +5825,7 @@
         <v>07:30</v>
       </c>
       <c r="P97" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q97" t="str">
         <v/>
@@ -5836,31 +5836,31 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" t="str">
-        <v>34.235856</v>
+        <v>34.304505</v>
       </c>
       <c r="C98" t="str">
-        <v>133.994046</v>
+        <v>134.021922</v>
       </c>
       <c r="D98" t="str">
-        <v>カナン空港こども園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市香南町西庄1671-2</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F98" t="str">
-        <v>087-815-8072</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H98" t="str">
         <v/>
       </c>
       <c r="I98" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>認定こども園（幼稚園型）</v>
       </c>
       <c r="J98" t="str">
         <v/>
@@ -5869,19 +5869,19 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>18</v>
+        <v>1号認定 265、2・3号認定 51</v>
       </c>
       <c r="M98" t="str">
-        <v>3か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O98" t="str">
-        <v>07:15</v>
+        <v>07:30</v>
       </c>
       <c r="P98" t="str">
-        <v>18:15</v>
+        <v>18:30</v>
       </c>
       <c r="Q98" t="str">
         <v/>
@@ -5892,25 +5892,25 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" t="str">
-        <v>34.332072</v>
+        <v>34.235856</v>
       </c>
       <c r="C99" t="str">
-        <v>134.049227</v>
+        <v>133.994046</v>
       </c>
       <c r="D99" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>カナン空港こども園</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市香南町西庄1671-2</v>
       </c>
       <c r="F99" t="str">
-        <v>087-831-1319</v>
+        <v>087-815-8072</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
       </c>
       <c r="H99" t="str">
         <v/>
@@ -5925,48 +5925,48 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M99" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O99" t="str">
-        <v>07:30</v>
+        <v>07:15</v>
       </c>
       <c r="P99" t="str">
-        <v>19:00</v>
+        <v>18:15</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" t="str">
-        <v>34.332365</v>
+        <v>34.332072</v>
       </c>
       <c r="C100" t="str">
-        <v>134.097201</v>
+        <v>134.049227</v>
       </c>
       <c r="D100" t="str">
-        <v>小規模保育所もも</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F100" t="str">
-        <v>087-843-8255</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -5981,10 +5981,10 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M100" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
@@ -5993,36 +5993,36 @@
         <v>07:30</v>
       </c>
       <c r="P100" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q100" t="str">
         <v/>
       </c>
       <c r="R100" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" t="str">
-        <v>34.288288</v>
+        <v>34.332365</v>
       </c>
       <c r="C101" t="str">
-        <v>134.059379</v>
+        <v>134.097201</v>
       </c>
       <c r="D101" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F101" t="str">
-        <v>087-816-8301</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6037,10 +6037,10 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M101" t="str">
-        <v>3か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
@@ -6049,7 +6049,7 @@
         <v>07:30</v>
       </c>
       <c r="P101" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q101" t="str">
         <v/>
@@ -6060,25 +6060,25 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" t="str">
-        <v>34.316351</v>
+        <v>34.288288</v>
       </c>
       <c r="C102" t="str">
-        <v>134.073388</v>
+        <v>134.059379</v>
       </c>
       <c r="D102" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F102" t="str">
-        <v>087-816-5150</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6093,16 +6093,16 @@
         <v/>
       </c>
       <c r="L102" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M102" t="str">
-        <v>54日～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O102" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P102" t="str">
         <v>19:00</v>
@@ -6116,25 +6116,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" t="str">
-        <v>34.303424</v>
+        <v>34.316351</v>
       </c>
       <c r="C103" t="str">
-        <v>134.060713</v>
+        <v>134.073388</v>
       </c>
       <c r="D103" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F103" t="str">
-        <v>087-864-3133</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6152,16 +6152,16 @@
         <v>19</v>
       </c>
       <c r="M103" t="str">
-        <v>2か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N103" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O103" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P103" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q103" t="str">
         <v/>
@@ -6172,25 +6172,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" t="str">
-        <v>34.298947</v>
+        <v>34.303424</v>
       </c>
       <c r="C104" t="str">
-        <v>134.055734</v>
+        <v>134.060713</v>
       </c>
       <c r="D104" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F104" t="str">
-        <v>087-815-0224</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6228,25 +6228,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" t="str">
-        <v>34.37717</v>
+        <v>34.298947</v>
       </c>
       <c r="C105" t="str">
-        <v>134.122418</v>
+        <v>134.055734</v>
       </c>
       <c r="D105" t="str">
-        <v>おるごーる</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F105" t="str">
-        <v>087-871-3503</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6261,10 +6261,10 @@
         <v/>
       </c>
       <c r="L105" t="str">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M105" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N105" t="str">
         <v>月火水木金土</v>
@@ -6273,7 +6273,7 @@
         <v>07:30</v>
       </c>
       <c r="P105" t="str">
-        <v>18:30</v>
+        <v>19:30</v>
       </c>
       <c r="Q105" t="str">
         <v/>
@@ -6284,25 +6284,25 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" t="str">
-        <v>34.2899</v>
+        <v>34.37717</v>
       </c>
       <c r="C106" t="str">
-        <v>134.05856</v>
+        <v>134.122418</v>
       </c>
       <c r="D106" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F106" t="str">
-        <v>087-889-3711</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6317,7 +6317,7 @@
         <v/>
       </c>
       <c r="L106" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M106" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6335,30 +6335,30 @@
         <v/>
       </c>
       <c r="R106" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" t="str">
-        <v>34.336075</v>
+        <v>34.2899</v>
       </c>
       <c r="C107" t="str">
-        <v>134.072522</v>
+        <v>134.05856</v>
       </c>
       <c r="D107" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F107" t="str">
-        <v>087-837-5330</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6373,7 +6373,7 @@
         <v/>
       </c>
       <c r="L107" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M107" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6385,7 +6385,7 @@
         <v>07:30</v>
       </c>
       <c r="P107" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q107" t="str">
         <v/>
@@ -6396,25 +6396,25 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="str">
-        <v>34.311371</v>
+        <v>34.336075</v>
       </c>
       <c r="C108" t="str">
-        <v>134.055948</v>
+        <v>134.072522</v>
       </c>
       <c r="D108" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F108" t="str">
-        <v>087-868-3339</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6452,25 +6452,25 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" t="str">
-        <v>34.316136</v>
+        <v>34.311371</v>
       </c>
       <c r="C109" t="str">
-        <v>134.061202</v>
+        <v>134.055948</v>
       </c>
       <c r="D109" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F109" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6485,10 +6485,10 @@
         <v/>
       </c>
       <c r="L109" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M109" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N109" t="str">
         <v>月火水木金土</v>
@@ -6497,36 +6497,36 @@
         <v>07:30</v>
       </c>
       <c r="P109" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q109" t="str">
         <v/>
       </c>
       <c r="R109" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" t="str">
-        <v>34.3049893</v>
+        <v>34.316136</v>
       </c>
       <c r="C110" t="str">
-        <v>134.0560416</v>
+        <v>134.061202</v>
       </c>
       <c r="D110" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F110" t="str">
-        <v>087-868-2355</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6544,7 +6544,7 @@
         <v>19</v>
       </c>
       <c r="M110" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N110" t="str">
         <v>月火水木金土</v>
@@ -6553,36 +6553,36 @@
         <v>07:30</v>
       </c>
       <c r="P110" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q110" t="str">
         <v/>
       </c>
       <c r="R110" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" t="str">
-        <v>34.2989616</v>
+        <v>34.3049893</v>
       </c>
       <c r="C111" t="str">
-        <v>134.0640027</v>
+        <v>134.0560416</v>
       </c>
       <c r="D111" t="str">
-        <v>林にこにこ保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F111" t="str">
-        <v>087-868-0103</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6620,25 +6620,25 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" t="str">
-        <v>34.2612106</v>
+        <v>34.2989616</v>
       </c>
       <c r="C112" t="str">
-        <v>134.0367875</v>
+        <v>134.0640027</v>
       </c>
       <c r="D112" t="str">
-        <v>保育の家みいろ</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F112" t="str">
-        <v>087-880-3274</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6653,10 +6653,10 @@
         <v/>
       </c>
       <c r="L112" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M112" t="str">
-        <v>３か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N112" t="str">
         <v>月火水木金土</v>
@@ -6665,7 +6665,7 @@
         <v>07:30</v>
       </c>
       <c r="P112" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q112" t="str">
         <v/>
@@ -6676,25 +6676,25 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="str">
-        <v>34.3389027</v>
+        <v>34.2612106</v>
       </c>
       <c r="C113" t="str">
-        <v>134.052851</v>
+        <v>134.0367875</v>
       </c>
       <c r="D113" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F113" t="str">
-        <v>087-802-6966</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H113" t="str">
         <v/>
@@ -6709,7 +6709,7 @@
         <v/>
       </c>
       <c r="L113" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M113" t="str">
         <v>３か月～2歳児</v>
@@ -6721,42 +6721,42 @@
         <v>07:30</v>
       </c>
       <c r="P113" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q113" t="str">
         <v/>
       </c>
       <c r="R113" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="str">
-        <v>34.340379</v>
+        <v>34.3389027</v>
       </c>
       <c r="C114" t="str">
-        <v>134.044986</v>
+        <v>134.052851</v>
       </c>
       <c r="D114" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F114" t="str">
-        <v>087-813-0218</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G114" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H114" t="str">
         <v/>
       </c>
       <c r="I114" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>地域型保育事業（小規模保育事業A型）</v>
       </c>
       <c r="J114" t="str">
         <v/>
@@ -6765,10 +6765,10 @@
         <v/>
       </c>
       <c r="L114" t="str">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M114" t="str">
-        <v>6か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N114" t="str">
         <v>月火水木金土</v>
@@ -6777,7 +6777,7 @@
         <v>07:30</v>
       </c>
       <c r="P114" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q114" t="str">
         <v/>
@@ -6788,63 +6788,119 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
+        <v>120</v>
+      </c>
+      <c r="B115" t="str">
+        <v>34.340379</v>
+      </c>
+      <c r="C115" t="str">
+        <v>134.044986</v>
+      </c>
+      <c r="D115" t="str">
+        <v>院内保育所てふてふ</v>
+      </c>
+      <c r="E115" t="str">
+        <v>高松市天神前5-6 高松メディカルモール</v>
+      </c>
+      <c r="F115" t="str">
+        <v>087-813-0218</v>
+      </c>
+      <c r="G115" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+      </c>
+      <c r="H115" t="str">
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <v>地域型保育事業（事業所内保育事業）</v>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
+        <v>7</v>
+      </c>
+      <c r="M115" t="str">
+        <v>6か月～2歳児</v>
+      </c>
+      <c r="N115" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O115" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P115" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q115" t="str">
+        <v/>
+      </c>
+      <c r="R115" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
         <v>121</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B116" t="str">
         <v>34.30287</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C116" t="str">
         <v>134.016075</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D116" t="str">
         <v>メリーＧＯランド高松園</v>
       </c>
-      <c r="E115" t="str">
+      <c r="E116" t="str">
         <v>高松市成合町796-1</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F116" t="str">
         <v>087-886-6669</v>
       </c>
-      <c r="G115" t="str">
+      <c r="G116" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
-      <c r="H115" t="str">
-        <v/>
-      </c>
-      <c r="I115" t="str">
+      <c r="H116" t="str">
+        <v/>
+      </c>
+      <c r="I116" t="str">
         <v>認定こども園（地方裁量型）</v>
       </c>
-      <c r="J115" t="str">
-        <v/>
-      </c>
-      <c r="K115" t="str">
-        <v/>
-      </c>
-      <c r="L115" t="str">
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
+      <c r="L116" t="str">
         <v>1号認定 20、2・3号認定 35</v>
       </c>
-      <c r="M115" t="str">
+      <c r="M116" t="str">
         <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
-      <c r="N115" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O115" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P115" t="str">
+      <c r="N116" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O116" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P116" t="str">
         <v>18:00</v>
       </c>
-      <c r="Q115" t="str">
-        <v/>
-      </c>
-      <c r="R115" t="str">
+      <c r="Q116" t="str">
+        <v/>
+      </c>
+      <c r="R116" t="str">
         <v>無</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -1333,7 +1333,7 @@
         <v/>
       </c>
       <c r="L17" t="str">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M17" t="str">
         <v>3か月～</v>
@@ -1669,7 +1669,7 @@
         <v/>
       </c>
       <c r="L23" t="str">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M23" t="str">
         <v>1歳～</v>
@@ -1725,7 +1725,7 @@
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M24" t="str">
         <v>1歳～</v>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -4893,7 +4893,7 @@
         <v>134.099079</v>
       </c>
       <c r="D81" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>幼保連携型認定こども園新田幼稚園</v>
       </c>
       <c r="E81" t="str">
         <v>高松市新田町甲2630-1</v>
@@ -4917,7 +4917,7 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 45、2・3号認定 87</v>
       </c>
       <c r="M81" t="str">
         <v>1号認定 3歳児～、2・3号認定 6か月～</v>
@@ -5462,7 +5462,7 @@
         <v>087-899-2305</v>
       </c>
       <c r="G91" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h321/</v>
       </c>
       <c r="H91" t="str">
         <v/>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -4749,7 +4749,7 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 15、2・3号認定 85</v>
       </c>
       <c r="M78" t="str">
         <v>1号認定 満3歳～、2・3号認定 3か月～</v>
@@ -4761,7 +4761,7 @@
         <v>07:00</v>
       </c>
       <c r="P78" t="str">
-        <v>20:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q78" t="str">
         <v/>
@@ -4808,7 +4808,7 @@
         <v>2・3号認定 20</v>
       </c>
       <c r="M79" t="str">
-        <v>2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～２歳児</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
@@ -4893,7 +4893,7 @@
         <v>134.099079</v>
       </c>
       <c r="D81" t="str">
-        <v>幼保連携型認定こども園新田幼稚園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E81" t="str">
         <v>高松市新田町甲2630-1</v>
@@ -4917,7 +4917,7 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 45、2・3号認定 87</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M81" t="str">
         <v>1号認定 3歳児～、2・3号認定 6か月～</v>
@@ -5309,10 +5309,10 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 15、2・3号認定 217</v>
+        <v>1号認定 15、2・3号認定 131</v>
       </c>
       <c r="M88" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N88" t="str">
         <v>月火水木金土</v>
@@ -5462,7 +5462,7 @@
         <v>087-899-2305</v>
       </c>
       <c r="G91" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h321/</v>
+        <v/>
       </c>
       <c r="H91" t="str">
         <v/>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -1949,7 +1949,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>1号認定 90、2・3号認定 138</v>
+        <v>1号認定 63、2・3号認定 165</v>
       </c>
       <c r="M28" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2061,7 +2061,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>1号認定 90、2・3号認定 179</v>
+        <v>1号認定 75、2・3号認定 194</v>
       </c>
       <c r="M30" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2173,7 +2173,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>1号認定 90、2・3号認定 153</v>
+        <v>1号認定 75、2・3号認定 168</v>
       </c>
       <c r="M32" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5533,10 +5533,10 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 228、2・3号認定 72</v>
+        <v>1号認定 120、2・3号認定 120</v>
       </c>
       <c r="M92" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 14か月～</v>
       </c>
       <c r="N92" t="str">
         <v>月火水木金土</v>
@@ -5545,7 +5545,7 @@
         <v>07:45</v>
       </c>
       <c r="P92" t="str">
-        <v>19:00</v>
+        <v>18:45</v>
       </c>
       <c r="Q92" t="str">
         <v/>
@@ -5589,7 +5589,7 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 135、2号認定 15</v>
+        <v>1号認定 130、2号認定 20</v>
       </c>
       <c r="M93" t="str">
         <v>1号認定 満3歳～、2号認定 3歳児～</v>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2205,7 +2205,7 @@
         <v>134.099868</v>
       </c>
       <c r="D33" t="str">
-        <v>屋島こども園</v>
+        <v>高松市屋島こども園</v>
       </c>
       <c r="E33" t="str">
         <v>高松市屋島西町1744-1</v>
@@ -2261,7 +2261,7 @@
         <v>134.0789659</v>
       </c>
       <c r="D34" t="str">
-        <v>林こども園</v>
+        <v>高松市林こども園</v>
       </c>
       <c r="E34" t="str">
         <v>高松市林町1405-4</v>
@@ -2285,7 +2285,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>1号認定 105、2・3号認定 194</v>
+        <v>1号認定 90、2・3号認定 209</v>
       </c>
       <c r="M34" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -5144,7 +5144,7 @@
         <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M85" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N85" t="str">
         <v>月火水木金土</v>
@@ -5200,7 +5200,7 @@
         <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M86" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N86" t="str">
         <v>月火水木金土</v>
@@ -5215,7 +5215,7 @@
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="87">
@@ -5253,7 +5253,7 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 75、2・3号認定 75</v>
+        <v>1号認定 60、2・3号認定 130</v>
       </c>
       <c r="M87" t="str">
         <v>1号認定 3歳児～、2・3号認定 6か月～</v>
@@ -5271,7 +5271,7 @@
         <v/>
       </c>
       <c r="R87" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="88">
@@ -5368,7 +5368,7 @@
         <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね3か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
@@ -5757,10 +5757,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 274、2・3号認定 48</v>
+        <v>1号認定 150、2・3号認定 110</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2・3号認定 2歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 15か月～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5775,7 +5775,7 @@
         <v/>
       </c>
       <c r="R96" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="97">
@@ -5813,10 +5813,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 265、2・3号認定 51</v>
+        <v>1号認定 217、2・3号認定 99</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 18か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 16か月～（4.1時点1歳児）</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5836,25 +5836,25 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" t="str">
-        <v>34.235856</v>
+        <v>34.332072</v>
       </c>
       <c r="C98" t="str">
-        <v>133.994046</v>
+        <v>134.049227</v>
       </c>
       <c r="D98" t="str">
-        <v>カナン空港こども園</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市香南町西庄1671-2</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F98" t="str">
-        <v>087-815-8072</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/%253Fpage_id%253D3202</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -5869,48 +5869,48 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M98" t="str">
-        <v>3か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O98" t="str">
-        <v>07:15</v>
+        <v>07:30</v>
       </c>
       <c r="P98" t="str">
-        <v>18:15</v>
+        <v>19:00</v>
       </c>
       <c r="Q98" t="str">
         <v/>
       </c>
       <c r="R98" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" t="str">
-        <v>34.332072</v>
+        <v>34.332365</v>
       </c>
       <c r="C99" t="str">
-        <v>134.049227</v>
+        <v>134.097201</v>
       </c>
       <c r="D99" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F99" t="str">
-        <v>087-831-1319</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H99" t="str">
         <v/>
@@ -5925,10 +5925,10 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M99" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
@@ -5937,36 +5937,36 @@
         <v>07:30</v>
       </c>
       <c r="P99" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" t="str">
-        <v>34.332365</v>
+        <v>34.288288</v>
       </c>
       <c r="C100" t="str">
-        <v>134.097201</v>
+        <v>134.059379</v>
       </c>
       <c r="D100" t="str">
-        <v>小規模保育所もも</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F100" t="str">
-        <v>087-843-8255</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -5981,10 +5981,10 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M100" t="str">
-        <v>2か月～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
@@ -5993,7 +5993,7 @@
         <v>07:30</v>
       </c>
       <c r="P100" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q100" t="str">
         <v/>
@@ -6004,25 +6004,25 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" t="str">
-        <v>34.288288</v>
+        <v>34.316351</v>
       </c>
       <c r="C101" t="str">
-        <v>134.059379</v>
+        <v>134.073388</v>
       </c>
       <c r="D101" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F101" t="str">
-        <v>087-816-8301</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6037,16 +6037,16 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M101" t="str">
-        <v>3か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O101" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P101" t="str">
         <v>19:00</v>
@@ -6060,25 +6060,25 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B102" t="str">
-        <v>34.316351</v>
+        <v>34.303424</v>
       </c>
       <c r="C102" t="str">
-        <v>134.073388</v>
+        <v>134.060713</v>
       </c>
       <c r="D102" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F102" t="str">
-        <v>087-816-5150</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6096,16 +6096,16 @@
         <v>19</v>
       </c>
       <c r="M102" t="str">
-        <v>54日～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O102" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P102" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q102" t="str">
         <v/>
@@ -6116,25 +6116,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" t="str">
-        <v>34.303424</v>
+        <v>34.298947</v>
       </c>
       <c r="C103" t="str">
-        <v>134.060713</v>
+        <v>134.055734</v>
       </c>
       <c r="D103" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F103" t="str">
-        <v>087-864-3133</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6172,25 +6172,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" t="str">
-        <v>34.298947</v>
+        <v>34.37717</v>
       </c>
       <c r="C104" t="str">
-        <v>134.055734</v>
+        <v>134.122418</v>
       </c>
       <c r="D104" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F104" t="str">
-        <v>087-815-0224</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6205,10 +6205,10 @@
         <v/>
       </c>
       <c r="L104" t="str">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M104" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N104" t="str">
         <v>月火水木金土</v>
@@ -6217,7 +6217,7 @@
         <v>07:30</v>
       </c>
       <c r="P104" t="str">
-        <v>19:30</v>
+        <v>18:30</v>
       </c>
       <c r="Q104" t="str">
         <v/>
@@ -6228,25 +6228,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" t="str">
-        <v>34.37717</v>
+        <v>34.2899</v>
       </c>
       <c r="C105" t="str">
-        <v>134.122418</v>
+        <v>134.05856</v>
       </c>
       <c r="D105" t="str">
-        <v>おるごーる</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F105" t="str">
-        <v>087-871-3503</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6261,7 +6261,7 @@
         <v/>
       </c>
       <c r="L105" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M105" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6279,30 +6279,30 @@
         <v/>
       </c>
       <c r="R105" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" t="str">
-        <v>34.2899</v>
+        <v>34.336075</v>
       </c>
       <c r="C106" t="str">
-        <v>134.05856</v>
+        <v>134.072522</v>
       </c>
       <c r="D106" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F106" t="str">
-        <v>087-889-3711</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6317,7 +6317,7 @@
         <v/>
       </c>
       <c r="L106" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M106" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6329,7 +6329,7 @@
         <v>07:30</v>
       </c>
       <c r="P106" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q106" t="str">
         <v/>
@@ -6340,25 +6340,25 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" t="str">
-        <v>34.336075</v>
+        <v>34.311371</v>
       </c>
       <c r="C107" t="str">
-        <v>134.072522</v>
+        <v>134.055948</v>
       </c>
       <c r="D107" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F107" t="str">
-        <v>087-837-5330</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6396,25 +6396,25 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" t="str">
-        <v>34.311371</v>
+        <v>34.316136</v>
       </c>
       <c r="C108" t="str">
-        <v>134.055948</v>
+        <v>134.061202</v>
       </c>
       <c r="D108" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F108" t="str">
-        <v>087-868-3339</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6429,10 +6429,10 @@
         <v/>
       </c>
       <c r="L108" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M108" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N108" t="str">
         <v>月火水木金土</v>
@@ -6441,36 +6441,36 @@
         <v>07:30</v>
       </c>
       <c r="P108" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q108" t="str">
         <v/>
       </c>
       <c r="R108" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" t="str">
-        <v>34.316136</v>
+        <v>34.3049893</v>
       </c>
       <c r="C109" t="str">
-        <v>134.061202</v>
+        <v>134.0560416</v>
       </c>
       <c r="D109" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F109" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6488,7 +6488,7 @@
         <v>19</v>
       </c>
       <c r="M109" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N109" t="str">
         <v>月火水木金土</v>
@@ -6497,36 +6497,36 @@
         <v>07:30</v>
       </c>
       <c r="P109" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q109" t="str">
         <v/>
       </c>
       <c r="R109" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" t="str">
-        <v>34.3049893</v>
+        <v>34.2989616</v>
       </c>
       <c r="C110" t="str">
-        <v>134.0560416</v>
+        <v>134.0640027</v>
       </c>
       <c r="D110" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F110" t="str">
-        <v>087-868-2355</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6564,25 +6564,25 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" t="str">
-        <v>34.2989616</v>
+        <v>34.2612106</v>
       </c>
       <c r="C111" t="str">
-        <v>134.0640027</v>
+        <v>134.0367875</v>
       </c>
       <c r="D111" t="str">
-        <v>林にこにこ保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F111" t="str">
-        <v>087-868-0103</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6597,10 +6597,10 @@
         <v/>
       </c>
       <c r="L111" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M111" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N111" t="str">
         <v>月火水木金土</v>
@@ -6609,7 +6609,7 @@
         <v>07:30</v>
       </c>
       <c r="P111" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q111" t="str">
         <v/>
@@ -6620,25 +6620,25 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" t="str">
-        <v>34.2612106</v>
+        <v>34.3389027</v>
       </c>
       <c r="C112" t="str">
-        <v>134.0367875</v>
+        <v>134.052851</v>
       </c>
       <c r="D112" t="str">
-        <v>保育の家みいろ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F112" t="str">
-        <v>087-880-3274</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6653,7 +6653,7 @@
         <v/>
       </c>
       <c r="L112" t="str">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M112" t="str">
         <v>３か月～2歳児</v>
@@ -6665,42 +6665,42 @@
         <v>07:30</v>
       </c>
       <c r="P112" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q112" t="str">
         <v/>
       </c>
       <c r="R112" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" t="str">
-        <v>34.3389027</v>
+        <v>34.340379</v>
       </c>
       <c r="C113" t="str">
-        <v>134.052851</v>
+        <v>134.044986</v>
       </c>
       <c r="D113" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>院内保育所てふてふ</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市天神前5-6 高松メディカルモール</v>
       </c>
       <c r="F113" t="str">
-        <v>087-802-6966</v>
+        <v>087-813-0218</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
       </c>
       <c r="H113" t="str">
         <v/>
       </c>
       <c r="I113" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="J113" t="str">
         <v/>
@@ -6709,10 +6709,10 @@
         <v/>
       </c>
       <c r="L113" t="str">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M113" t="str">
-        <v>３か月～2歳児</v>
+        <v>6か月～2歳児</v>
       </c>
       <c r="N113" t="str">
         <v>月火水木金土</v>
@@ -6721,7 +6721,7 @@
         <v>07:30</v>
       </c>
       <c r="P113" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q113" t="str">
         <v/>
@@ -6732,31 +6732,31 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" t="str">
-        <v>34.340379</v>
+        <v>34.30287</v>
       </c>
       <c r="C114" t="str">
-        <v>134.044986</v>
+        <v>134.016075</v>
       </c>
       <c r="D114" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F114" t="str">
-        <v>087-813-0218</v>
+        <v>087-886-6669</v>
       </c>
       <c r="G114" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
       <c r="H114" t="str">
         <v/>
       </c>
       <c r="I114" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>認定こども園（地方裁量型）</v>
       </c>
       <c r="J114" t="str">
         <v/>
@@ -6765,10 +6765,10 @@
         <v/>
       </c>
       <c r="L114" t="str">
-        <v>7</v>
+        <v>1号認定 20、2・3号認定 35</v>
       </c>
       <c r="M114" t="str">
-        <v>6か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
       <c r="N114" t="str">
         <v>月火水木金土</v>
@@ -6777,74 +6777,18 @@
         <v>07:30</v>
       </c>
       <c r="P114" t="str">
-        <v>18:30</v>
+        <v>18:00</v>
       </c>
       <c r="Q114" t="str">
         <v/>
       </c>
       <c r="R114" t="str">
-        <v>無</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>121</v>
-      </c>
-      <c r="B115" t="str">
-        <v>34.30287</v>
-      </c>
-      <c r="C115" t="str">
-        <v>134.016075</v>
-      </c>
-      <c r="D115" t="str">
-        <v>メリーＧＯランド高松園</v>
-      </c>
-      <c r="E115" t="str">
-        <v>高松市成合町796-1</v>
-      </c>
-      <c r="F115" t="str">
-        <v>087-886-6669</v>
-      </c>
-      <c r="G115" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H115" t="str">
-        <v/>
-      </c>
-      <c r="I115" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J115" t="str">
-        <v/>
-      </c>
-      <c r="K115" t="str">
-        <v/>
-      </c>
-      <c r="L115" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
-      </c>
-      <c r="M115" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
-      </c>
-      <c r="N115" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O115" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P115" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q115" t="str">
-        <v/>
-      </c>
-      <c r="R115" t="str">
         <v>無</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R114"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -6783,7 +6783,7 @@
         <v/>
       </c>
       <c r="R114" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
   </sheetData>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2311,84 +2311,69 @@
         <v>39</v>
       </c>
       <c r="B35" t="str">
-        <v>34.420292</v>
+        <v>34.2768847651024</v>
       </c>
       <c r="C35" t="str">
-        <v>134.057016</v>
+        <v>134.091508945175</v>
       </c>
       <c r="D35" t="str">
-        <v>高松市小規模保育事業所男木保育所</v>
+        <v>高松市川島こども園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市男木町165</v>
+        <v>高松市川島東町253-4</v>
       </c>
       <c r="F35" t="str">
-        <v>087-873-0614</v>
+        <v>087-848-1978</v>
       </c>
       <c r="G35" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
-      </c>
-      <c r="H35" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h328/</v>
       </c>
       <c r="I35" t="str">
-        <v>小規模保育施設</v>
-      </c>
-      <c r="J35" t="str">
-        <v/>
-      </c>
-      <c r="K35" t="str">
-        <v/>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="L35" t="str">
-        <v>6</v>
+        <v>1号認定 60、2・3号認定 169</v>
       </c>
       <c r="M35" t="str">
-        <v>1歳児～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N35" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O35" t="str">
-        <v>09:00</v>
+        <v>07:30</v>
       </c>
       <c r="P35" t="str">
-        <v>16:00</v>
-      </c>
-      <c r="Q35" t="str">
-        <v/>
-      </c>
-      <c r="R35" t="str">
-        <v>無</v>
+        <v>19:00</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="str">
-        <v>34.327973</v>
+        <v>34.420292</v>
       </c>
       <c r="C36" t="str">
-        <v>134.058101</v>
+        <v>134.057016</v>
       </c>
       <c r="D36" t="str">
-        <v>こぶし今里保育園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市今里町一丁目7-2</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F36" t="str">
-        <v>087-834-1946</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G36" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>認定私立保育所</v>
+        <v>小規模保育施設</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -2397,48 +2382,48 @@
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="M36" t="str">
-        <v>2か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N36" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O36" t="str">
-        <v>07:00</v>
+        <v>09:00</v>
       </c>
       <c r="P36" t="str">
-        <v>19:00</v>
+        <v>16:00</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
-        <v>34.333037</v>
+        <v>34.327973</v>
       </c>
       <c r="C37" t="str">
-        <v>134.051372</v>
+        <v>134.058101</v>
       </c>
       <c r="D37" t="str">
-        <v>敬愛保育園</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市藤塚町三丁目18-2</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F37" t="str">
-        <v>087-831-6778</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G37" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H37" t="str">
         <v/>
@@ -2453,10 +2438,10 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="M37" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N37" t="str">
         <v>月火水木金土</v>
@@ -2471,30 +2456,30 @@
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="str">
-        <v>34.328268</v>
+        <v>34.333037</v>
       </c>
       <c r="C38" t="str">
-        <v>134.066087</v>
+        <v>134.051372</v>
       </c>
       <c r="D38" t="str">
-        <v>平安保育園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市上福岡町894-8</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F38" t="str">
-        <v>087-833-7734</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G38" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -2509,10 +2494,10 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M38" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N38" t="str">
         <v>月火水木金土</v>
@@ -2532,25 +2517,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="str">
-        <v>34.304804</v>
+        <v>34.328268</v>
       </c>
       <c r="C39" t="str">
-        <v>134.02164</v>
+        <v>134.066087</v>
       </c>
       <c r="D39" t="str">
-        <v>勅使百華保育園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F39" t="str">
-        <v>087-865-2998</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G39" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2565,10 +2550,10 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M39" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N39" t="str">
         <v>月火水木金土</v>
@@ -2588,25 +2573,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="str">
-        <v>34.316835</v>
+        <v>34.304804</v>
       </c>
       <c r="C40" t="str">
-        <v>134.024336</v>
+        <v>134.02164</v>
       </c>
       <c r="D40" t="str">
-        <v>西春日保育所</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市西春日町1407</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F40" t="str">
-        <v>087-866-4166</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G40" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2621,10 +2606,10 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M40" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N40" t="str">
         <v>月火水木金土</v>
@@ -2639,30 +2624,30 @@
         <v/>
       </c>
       <c r="R40" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="str">
-        <v>34.304304</v>
+        <v>34.316835</v>
       </c>
       <c r="C41" t="str">
-        <v>134.037996</v>
+        <v>134.024336</v>
       </c>
       <c r="D41" t="str">
-        <v>太田西保育園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市太田下町2025</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F41" t="str">
-        <v>087-865-0601</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2677,7 +2662,7 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M41" t="str">
         <v>2か月～</v>
@@ -2695,30 +2680,30 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" t="str">
-        <v>34.309654</v>
+        <v>34.304304</v>
       </c>
       <c r="C42" t="str">
-        <v>134.0631</v>
+        <v>134.037996</v>
       </c>
       <c r="D42" t="str">
-        <v>こぶし中央保育園</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市木太町5089-9</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F42" t="str">
-        <v>087-866-7169</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G42" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2733,7 +2718,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M42" t="str">
         <v>2か月～</v>
@@ -2751,30 +2736,30 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" t="str">
-        <v>34.350107</v>
+        <v>34.309654</v>
       </c>
       <c r="C43" t="str">
-        <v>134.091559</v>
+        <v>134.0631</v>
       </c>
       <c r="D43" t="str">
-        <v>あすなろ保育園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市屋島西町2453-6</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F43" t="str">
-        <v>087-843-3143</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G43" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2789,10 +2774,10 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M43" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N43" t="str">
         <v>月火水木金土</v>
@@ -2801,36 +2786,36 @@
         <v>07:00</v>
       </c>
       <c r="P43" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q43" t="str">
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="str">
-        <v>34.300415</v>
+        <v>34.350107</v>
       </c>
       <c r="C44" t="str">
-        <v>134.115798</v>
+        <v>134.091559</v>
       </c>
       <c r="D44" t="str">
-        <v>西光寺保育所</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市前田西町167-1</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F44" t="str">
-        <v>087-847-6237</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G44" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2845,10 +2830,10 @@
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M44" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N44" t="str">
         <v>月火水木金土</v>
@@ -2857,36 +2842,36 @@
         <v>07:00</v>
       </c>
       <c r="P44" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="str">
-        <v>34.299537</v>
+        <v>34.300415</v>
       </c>
       <c r="C45" t="str">
-        <v>134.092378</v>
+        <v>134.115798</v>
       </c>
       <c r="D45" t="str">
-        <v>川添保育園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市下田井町52</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F45" t="str">
-        <v>087-847-5078</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G45" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -2901,10 +2886,10 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M45" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N45" t="str">
         <v>月火水木金土</v>
@@ -2919,30 +2904,30 @@
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" t="str">
-        <v>34.277465</v>
+        <v>34.299537</v>
       </c>
       <c r="C46" t="str">
-        <v>134.030037</v>
+        <v>134.092378</v>
       </c>
       <c r="D46" t="str">
-        <v>高松南保育園</v>
+        <v>川添保育園</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市寺井町453-1</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F46" t="str">
-        <v>087-886-0275</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2957,10 +2942,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M46" t="str">
-        <v>6か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2980,25 +2965,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" t="str">
-        <v>34.284927</v>
+        <v>34.277465</v>
       </c>
       <c r="C47" t="str">
-        <v>134.010137</v>
+        <v>134.030037</v>
       </c>
       <c r="D47" t="str">
-        <v>円座百華保育園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市円座町1478-1</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F47" t="str">
-        <v>087-885-1203</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3013,10 +2998,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="M47" t="str">
-        <v>7か月～</v>
+        <v>6か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3036,25 +3021,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" t="str">
-        <v>34.306205</v>
+        <v>34.284927</v>
       </c>
       <c r="C48" t="str">
-        <v>133.998614</v>
+        <v>134.010137</v>
       </c>
       <c r="D48" t="str">
-        <v>高松西保育園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市檀紙町1521-4</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F48" t="str">
-        <v>087-886-5006</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3069,10 +3054,10 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="M48" t="str">
-        <v>2か月～</v>
+        <v>7か月～</v>
       </c>
       <c r="N48" t="str">
         <v>月火水木金土</v>
@@ -3092,25 +3077,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="str">
-        <v>34.285075</v>
+        <v>34.306205</v>
       </c>
       <c r="C49" t="str">
-        <v>134.110374</v>
+        <v>133.998614</v>
       </c>
       <c r="D49" t="str">
-        <v>若葉保育園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F49" t="str">
-        <v>087-847-7932</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3128,7 +3113,7 @@
         <v>130</v>
       </c>
       <c r="M49" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3148,25 +3133,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="str">
-        <v>34.311827</v>
+        <v>34.285075</v>
       </c>
       <c r="C50" t="str">
-        <v>134.08609</v>
+        <v>134.110374</v>
       </c>
       <c r="D50" t="str">
-        <v>白樺保育園</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市元山町855-2</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F50" t="str">
-        <v>087-866-6555</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3181,7 +3166,7 @@
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M50" t="str">
         <v>3か月～</v>
@@ -3204,25 +3189,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="str">
-        <v>34.341315</v>
+        <v>34.311827</v>
       </c>
       <c r="C51" t="str">
-        <v>134.06296</v>
+        <v>134.08609</v>
       </c>
       <c r="D51" t="str">
-        <v>松福保育園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市松福町二丁目18-16</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F51" t="str">
-        <v>087-822-7605</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3240,7 +3225,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N51" t="str">
         <v>月火水木金土</v>
@@ -3255,30 +3240,30 @@
         <v/>
       </c>
       <c r="R51" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>34.320782</v>
+        <v>34.341315</v>
       </c>
       <c r="C52" t="str">
-        <v>134.067903</v>
+        <v>134.06296</v>
       </c>
       <c r="D52" t="str">
-        <v>さくらんぼ保育園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市木太町1165-3</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F52" t="str">
-        <v>087-867-4151</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3293,16 +3278,16 @@
         <v/>
       </c>
       <c r="L52" t="str">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M52" t="str">
-        <v>1歳児～</v>
+        <v>2か月～</v>
       </c>
       <c r="N52" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O52" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P52" t="str">
         <v>19:00</v>
@@ -3311,30 +3296,30 @@
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>34.263658</v>
+        <v>34.320782</v>
       </c>
       <c r="C53" t="str">
-        <v>134.108531</v>
+        <v>134.067903</v>
       </c>
       <c r="D53" t="str">
-        <v>すみれ保育園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市十川東町556-1</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F53" t="str">
-        <v>087-848-0806</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3349,16 +3334,16 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M53" t="str">
-        <v>3か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N53" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O53" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P53" t="str">
         <v>19:00</v>
@@ -3372,25 +3357,25 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>34.343745</v>
+        <v>34.263658</v>
       </c>
       <c r="C54" t="str">
-        <v>134.052287</v>
+        <v>134.108531</v>
       </c>
       <c r="D54" t="str">
-        <v>高松第二保育園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市御坊町2-2</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F54" t="str">
-        <v>087-821-5241</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3405,48 +3390,48 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M54" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O54" t="str">
-        <v>06:40</v>
+        <v>07:00</v>
       </c>
       <c r="P54" t="str">
-        <v>25:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q54" t="str">
         <v/>
       </c>
       <c r="R54" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>34.327799</v>
+        <v>34.343745</v>
       </c>
       <c r="C55" t="str">
-        <v>134.062199</v>
+        <v>134.052287</v>
       </c>
       <c r="D55" t="str">
-        <v>今里保育所</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市今里町二丁目1-5</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F55" t="str">
-        <v>087-834-3535</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3461,7 +3446,7 @@
         <v/>
       </c>
       <c r="L55" t="str">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="M55" t="str">
         <v>2か月～</v>
@@ -3470,39 +3455,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O55" t="str">
-        <v>07:00</v>
+        <v>06:40</v>
       </c>
       <c r="P55" t="str">
-        <v>19:00</v>
+        <v>25:00</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="str">
-        <v>34.25728</v>
+        <v>34.327799</v>
       </c>
       <c r="C56" t="str">
-        <v>134.035674</v>
+        <v>134.062199</v>
       </c>
       <c r="D56" t="str">
-        <v>さんさん保育園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市香川町浅野834-1</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F56" t="str">
-        <v>087-888-6333</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3517,10 +3502,10 @@
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M56" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N56" t="str">
         <v>月火水木金土</v>
@@ -3535,30 +3520,30 @@
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>34.289495</v>
+        <v>34.25728</v>
       </c>
       <c r="C57" t="str">
-        <v>133.952485</v>
+        <v>134.035674</v>
       </c>
       <c r="D57" t="str">
-        <v>みよし保育園</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市国分寺町柏原80</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F57" t="str">
-        <v>087-874-0622</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3573,7 +3558,7 @@
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M57" t="str">
         <v>3か月～</v>
@@ -3591,30 +3576,30 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="str">
-        <v>34.274113</v>
+        <v>34.289495</v>
       </c>
       <c r="C58" t="str">
-        <v>133.973116</v>
+        <v>133.952485</v>
       </c>
       <c r="D58" t="str">
-        <v>みのり保育園</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市国分寺町福家甲1982</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F58" t="str">
-        <v>087-874-4309</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3629,7 +3614,7 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M58" t="str">
         <v>3か月～</v>
@@ -3647,30 +3632,30 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>34.337967</v>
+        <v>34.274113</v>
       </c>
       <c r="C59" t="str">
-        <v>134.130825</v>
+        <v>133.973116</v>
       </c>
       <c r="D59" t="str">
-        <v>八栗保育所</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市牟礼町牟礼401</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F59" t="str">
-        <v>087-845-0033</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3685,19 +3670,19 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M59" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N59" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O59" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P59" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q59" t="str">
         <v/>
@@ -3708,25 +3693,25 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="str">
-        <v>34.347055</v>
+        <v>34.337967</v>
       </c>
       <c r="C60" t="str">
-        <v>134.055965</v>
+        <v>134.130825</v>
       </c>
       <c r="D60" t="str">
-        <v>城東保育園</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市城東町一丁目1-45</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F60" t="str">
-        <v>087-822-1340</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3741,7 +3726,7 @@
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M60" t="str">
         <v>2か月～</v>
@@ -3753,7 +3738,7 @@
         <v>07:30</v>
       </c>
       <c r="P60" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -3764,25 +3749,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="str">
-        <v>34.334252</v>
+        <v>34.347055</v>
       </c>
       <c r="C61" t="str">
-        <v>134.057679</v>
+        <v>134.055965</v>
       </c>
       <c r="D61" t="str">
-        <v>こぶし花園保育園</v>
+        <v>城東保育園</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市花園町一丁目9-32</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F61" t="str">
-        <v>087-831-5136</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3797,7 +3782,7 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M61" t="str">
         <v>2か月～</v>
@@ -3815,36 +3800,36 @@
         <v/>
       </c>
       <c r="R61" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="str">
-        <v>0</v>
+        <v>34.334252</v>
       </c>
       <c r="C62" t="str">
-        <v>0</v>
+        <v>134.057679</v>
       </c>
       <c r="D62" t="str">
-        <v/>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E62" t="str">
-        <v/>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F62" t="str">
-        <v/>
+        <v>087-831-5136</v>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H62" t="str">
         <v/>
       </c>
       <c r="I62" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -3853,54 +3838,54 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v/>
+        <v>90</v>
       </c>
       <c r="M62" t="str">
-        <v/>
+        <v>2か月～</v>
       </c>
       <c r="N62" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O62" t="str">
-        <v/>
+        <v>07:30</v>
       </c>
       <c r="P62" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q62" t="str">
         <v/>
       </c>
       <c r="R62" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
-        <v>34.287693</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
-        <v>134.05974</v>
+        <v>0</v>
       </c>
       <c r="D63" t="str">
-        <v>れんげ保育園</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>高松市多肥上町2390-1</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v>087-888-8080</v>
+        <v/>
       </c>
       <c r="G63" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
+        <v/>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -3909,48 +3894,48 @@
         <v/>
       </c>
       <c r="L63" t="str">
-        <v>90</v>
+        <v/>
       </c>
       <c r="M63" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N63" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O63" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P63" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="str">
-        <v>34.308543</v>
+        <v>34.287693</v>
       </c>
       <c r="C64" t="str">
-        <v>134.056433</v>
+        <v>134.05974</v>
       </c>
       <c r="D64" t="str">
-        <v>さくら伏石保育園</v>
+        <v>れんげ保育園</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市伏石町2135-3</v>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F64" t="str">
-        <v>087-867-1100</v>
+        <v>087-888-8080</v>
       </c>
       <c r="G64" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H64" t="str">
         <v/>
@@ -3977,7 +3962,7 @@
         <v>07:00</v>
       </c>
       <c r="P64" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q64" t="str">
         <v/>
@@ -3988,25 +3973,25 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
-        <v>34.323827</v>
+        <v>34.308543</v>
       </c>
       <c r="C65" t="str">
-        <v>134.092254</v>
+        <v>134.056433</v>
       </c>
       <c r="D65" t="str">
-        <v>らく楽保育園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市春日町483-1</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F65" t="str">
-        <v>087-844-0111</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4021,7 +4006,7 @@
         <v/>
       </c>
       <c r="L65" t="str">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M65" t="str">
         <v>3か月～</v>
@@ -4030,10 +4015,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O65" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P65" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q65" t="str">
         <v/>
@@ -4044,25 +4029,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="str">
-        <v>34.349557</v>
+        <v>34.323827</v>
       </c>
       <c r="C66" t="str">
-        <v>134.003925</v>
+        <v>134.092254</v>
       </c>
       <c r="D66" t="str">
-        <v>初音保育所</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市香西本町17-1</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F66" t="str">
-        <v>087-813-3258</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4077,13 +4062,13 @@
         <v/>
       </c>
       <c r="L66" t="str">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M66" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N66" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O66" t="str">
         <v>07:30</v>
@@ -4095,30 +4080,30 @@
         <v/>
       </c>
       <c r="R66" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="str">
-        <v>34.308532</v>
+        <v>34.349557</v>
       </c>
       <c r="C67" t="str">
-        <v>134.067283</v>
+        <v>134.003925</v>
       </c>
       <c r="D67" t="str">
-        <v>さくら木太保育園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市木太町5113-15</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F67" t="str">
-        <v>087-802-8080</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -4133,54 +4118,54 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="M67" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N67" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="O67" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P67" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q67" t="str">
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
-        <v>0</v>
+        <v>34.308532</v>
       </c>
       <c r="C68" t="str">
-        <v>0</v>
+        <v>134.067283</v>
       </c>
       <c r="D68" t="str">
-        <v/>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E68" t="str">
-        <v/>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F68" t="str">
-        <v/>
+        <v>087-802-8080</v>
       </c>
       <c r="G68" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J68" t="str">
         <v/>
@@ -4189,54 +4174,54 @@
         <v/>
       </c>
       <c r="L68" t="str">
-        <v/>
+        <v>99</v>
       </c>
       <c r="M68" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N68" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O68" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P68" t="str">
-        <v/>
+        <v>20:00</v>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="str">
-        <v>34.333051</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
-        <v>134.055788</v>
+        <v>0</v>
       </c>
       <c r="D69" t="str">
-        <v>高松くりの木保育園</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>高松市花園町三丁目4-5</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>087-880-7211</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v/>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J69" t="str">
         <v/>
@@ -4245,48 +4230,48 @@
         <v/>
       </c>
       <c r="L69" t="str">
-        <v>105</v>
+        <v/>
       </c>
       <c r="M69" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N69" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O69" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P69" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="str">
-        <v>34.343232</v>
+        <v>34.333051</v>
       </c>
       <c r="C70" t="str">
-        <v>134.065675</v>
+        <v>134.055788</v>
       </c>
       <c r="D70" t="str">
-        <v>らく楽第二保育園</v>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E70" t="str">
-        <v>高松市松福町二丁目4-4</v>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F70" t="str">
-        <v>087-826-0111</v>
+        <v>087-880-7211</v>
       </c>
       <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H70" t="str">
         <v/>
@@ -4301,7 +4286,7 @@
         <v/>
       </c>
       <c r="L70" t="str">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="M70" t="str">
         <v>3か月～</v>
@@ -4310,7 +4295,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O70" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P70" t="str">
         <v>19:00</v>
@@ -4324,25 +4309,25 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="str">
-        <v>34.291607</v>
+        <v>34.343232</v>
       </c>
       <c r="C71" t="str">
-        <v>134.075471</v>
+        <v>134.065675</v>
       </c>
       <c r="D71" t="str">
-        <v>あさがお保育園</v>
+        <v>らく楽第二保育園</v>
       </c>
       <c r="E71" t="str">
-        <v>高松市上林町69</v>
+        <v>高松市松福町二丁目4-4</v>
       </c>
       <c r="F71" t="str">
-        <v>087-899-5660</v>
+        <v>087-826-0111</v>
       </c>
       <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -4357,10 +4342,10 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="M71" t="str">
-        <v>３か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N71" t="str">
         <v>月火水木金土</v>
@@ -4375,30 +4360,30 @@
         <v/>
       </c>
       <c r="R71" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" t="str">
-        <v>34.3051941</v>
+        <v>34.291607</v>
       </c>
       <c r="C72" t="str">
-        <v>134.0610552</v>
+        <v>134.075471</v>
       </c>
       <c r="D72" t="str">
-        <v>保育園アルペジオ高松多肥下町園</v>
+        <v>あさがお保育園</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市多肥下町1524-15</v>
+        <v>高松市上林町69</v>
       </c>
       <c r="F72" t="str">
-        <v>087-802-5583</v>
+        <v>087-899-5660</v>
       </c>
       <c r="G72" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -4413,10 +4398,10 @@
         <v/>
       </c>
       <c r="L72" t="str">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M72" t="str">
-        <v>6か月</v>
+        <v>３か月～</v>
       </c>
       <c r="N72" t="str">
         <v>月火水木金土</v>
@@ -4425,7 +4410,7 @@
         <v>07:30</v>
       </c>
       <c r="P72" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q72" t="str">
         <v/>
@@ -4436,25 +4421,25 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="str">
-        <v>34.3034175</v>
+        <v>34.3051941</v>
       </c>
       <c r="C73" t="str">
-        <v>134.0533292</v>
+        <v>134.0610552</v>
       </c>
       <c r="D73" t="str">
-        <v>さくら太田保育園</v>
+        <v>保育園アルペジオ高松多肥下町園</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市太田下町3032-1</v>
+        <v>高松市多肥下町1524-15</v>
       </c>
       <c r="F73" t="str">
-        <v>087-868-3700</v>
+        <v>087-802-5583</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -4469,54 +4454,54 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M73" t="str">
-        <v>3か月</v>
+        <v>6か月</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O73" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P73" t="str">
-        <v>20:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q73" t="str">
         <v/>
       </c>
       <c r="R73" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" t="str">
-        <v>34.3064057</v>
+        <v>34.3034175</v>
       </c>
       <c r="C74" t="str">
-        <v>134.042294</v>
+        <v>134.0533292</v>
       </c>
       <c r="D74" t="str">
-        <v>にこにこ保育園</v>
+        <v>さくら太田保育園</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市林町294-1</v>
+        <v>高松市太田下町3032-1</v>
       </c>
       <c r="F74" t="str">
-        <v>087-813-8300</v>
+        <v>087-868-3700</v>
       </c>
       <c r="G74" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
       </c>
       <c r="H74" t="str">
         <v/>
       </c>
       <c r="I74" t="str">
-        <v>認可私立保育所</v>
+        <v>認定私立保育所</v>
       </c>
       <c r="J74" t="str">
         <v/>
@@ -4525,48 +4510,48 @@
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M74" t="str">
-        <v>おおむね2か月～</v>
+        <v>3か月</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O74" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P74" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" t="str">
-        <v>34.3047038</v>
+        <v>34.3064057</v>
       </c>
       <c r="C75" t="str">
-        <v>134.0565783</v>
+        <v>134.042294</v>
       </c>
       <c r="D75" t="str">
-        <v>あい保育園太田</v>
+        <v>にこにこ保育園</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市林町294-1</v>
       </c>
       <c r="F75" t="str">
-        <v>087-802-9065</v>
+        <v>087-813-8300</v>
       </c>
       <c r="G75" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -4581,48 +4566,48 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="M75" t="str">
-        <v>３か月～</v>
+        <v>おおむね2か月～</v>
       </c>
       <c r="N75" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O75" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P75" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="str">
-        <v>34.3431504</v>
+        <v>34.3047038</v>
       </c>
       <c r="C76" t="str">
-        <v>134.0615252</v>
+        <v>134.0565783</v>
       </c>
       <c r="D76" t="str">
-        <v>さくら福々保育園</v>
+        <v>あい保育園太田</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市太田下町3027-3</v>
       </c>
       <c r="F76" t="str">
-        <v>087-802-1860</v>
+        <v>087-802-9065</v>
       </c>
       <c r="G76" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -4637,7 +4622,7 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M76" t="str">
         <v>３か月～</v>
@@ -4660,31 +4645,31 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" t="str">
-        <v>34.292144</v>
+        <v>34.3431504</v>
       </c>
       <c r="C77" t="str">
-        <v>134.066237</v>
+        <v>134.0615252</v>
       </c>
       <c r="D77" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>さくら福々保育園</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市松福町一丁目229-55</v>
       </c>
       <c r="F77" t="str">
-        <v>087-889-8181</v>
+        <v>087-802-1860</v>
       </c>
       <c r="G77" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v/>
       </c>
       <c r="H77" t="str">
         <v/>
       </c>
       <c r="I77" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認可私立保育所</v>
       </c>
       <c r="J77" t="str">
         <v/>
@@ -4693,48 +4678,48 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>96</v>
       </c>
       <c r="M77" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N77" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O77" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P77" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q77" t="str">
         <v/>
       </c>
       <c r="R77" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" t="str">
-        <v>34.303319</v>
+        <v>34.292144</v>
       </c>
       <c r="C78" t="str">
-        <v>133.949144</v>
+        <v>134.066237</v>
       </c>
       <c r="D78" t="str">
-        <v>いずみこども園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F78" t="str">
-        <v>087-874-0882</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G78" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -4749,19 +4734,19 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>1号認定 15、2・3号認定 85</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M78" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N78" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O78" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P78" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q78" t="str">
         <v/>
@@ -4772,25 +4757,25 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="str">
-        <v>34.304328</v>
+        <v>34.303319</v>
       </c>
       <c r="C79" t="str">
-        <v>133.97246</v>
+        <v>133.949144</v>
       </c>
       <c r="D79" t="str">
-        <v>いずみこども園分園</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市国分寺町新居281-1</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F79" t="str">
-        <v>087-875-0882</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G79" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -4805,19 +4790,19 @@
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>2・3号認定 20</v>
+        <v>1号認定 15、2・3号認定 85</v>
       </c>
       <c r="M79" t="str">
-        <v>2・3号認定 3か月～２歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O79" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P79" t="str">
-        <v>18:30</v>
+        <v>19:30</v>
       </c>
       <c r="Q79" t="str">
         <v/>
@@ -4828,25 +4813,25 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" t="str">
-        <v>34.327571</v>
+        <v>34.304328</v>
       </c>
       <c r="C80" t="str">
-        <v>134.087355</v>
+        <v>133.97246</v>
       </c>
       <c r="D80" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市国分寺町新居281-1</v>
       </c>
       <c r="F80" t="str">
-        <v>087-841-2306</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G80" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -4861,48 +4846,48 @@
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>1号認定 284、2・3号認定 166</v>
+        <v>2・3号認定 20</v>
       </c>
       <c r="M80" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～２歳児</v>
       </c>
       <c r="N80" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O80" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P80" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q80" t="str">
         <v/>
       </c>
       <c r="R80" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" t="str">
-        <v>34.325356</v>
+        <v>34.327571</v>
       </c>
       <c r="C81" t="str">
-        <v>134.099079</v>
+        <v>134.087355</v>
       </c>
       <c r="D81" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F81" t="str">
-        <v>087-841-3686</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G81" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -4917,16 +4902,16 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 284、2・3号認定 166</v>
       </c>
       <c r="M81" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N81" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O81" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P81" t="str">
         <v>19:00</v>
@@ -4935,30 +4920,30 @@
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="str">
-        <v>34.268464</v>
+        <v>34.325356</v>
       </c>
       <c r="C82" t="str">
-        <v>134.006758</v>
+        <v>134.099079</v>
       </c>
       <c r="D82" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F82" t="str">
-        <v>087-886-5879</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G82" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -4973,16 +4958,16 @@
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M82" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N82" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O82" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P82" t="str">
         <v>19:00</v>
@@ -4991,30 +4976,30 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" t="str">
-        <v>34.331077</v>
+        <v>34.268464</v>
       </c>
       <c r="C83" t="str">
-        <v>134.094275</v>
+        <v>134.006758</v>
       </c>
       <c r="D83" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F83" t="str">
-        <v>087-843-3689</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G83" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -5029,10 +5014,10 @@
         <v/>
       </c>
       <c r="L83" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M83" t="str">
-        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N83" t="str">
         <v>月火水木金土</v>
@@ -5047,30 +5032,30 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" t="str">
-        <v>34.326539</v>
+        <v>34.331077</v>
       </c>
       <c r="C84" t="str">
-        <v>134.047837</v>
+        <v>134.094275</v>
       </c>
       <c r="D84" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F84" t="str">
-        <v>087-831-6318</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G84" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -5085,7 +5070,7 @@
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M84" t="str">
         <v>1号認定 3歳児～、2・3号認定 2か月～</v>
@@ -5103,30 +5088,30 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" t="str">
-        <v>34.333461</v>
+        <v>34.326539</v>
       </c>
       <c r="C85" t="str">
-        <v>134.04506</v>
+        <v>134.047837</v>
       </c>
       <c r="D85" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F85" t="str">
-        <v>087-831-8659</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G85" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -5141,48 +5126,48 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M85" t="str">
-        <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N85" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O85" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P85" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q85" t="str">
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" t="str">
-        <v>34.279891</v>
+        <v>34.333461</v>
       </c>
       <c r="C86" t="str">
-        <v>134.042395</v>
+        <v>134.04506</v>
       </c>
       <c r="D86" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F86" t="str">
-        <v>087-889-1059</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G86" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -5197,7 +5182,7 @@
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M86" t="str">
         <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
@@ -5206,10 +5191,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O86" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P86" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q86" t="str">
         <v/>
@@ -5220,25 +5205,25 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" t="str">
-        <v>34.292691</v>
+        <v>34.279891</v>
       </c>
       <c r="C87" t="str">
-        <v>134.0352</v>
+        <v>134.042395</v>
       </c>
       <c r="D87" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F87" t="str">
-        <v>087-802-3838</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G87" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5253,16 +5238,16 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 60、2・3号認定 130</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M87" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N87" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O87" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P87" t="str">
         <v>19:00</v>
@@ -5276,25 +5261,25 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" t="str">
-        <v>34.2936161</v>
+        <v>34.292691</v>
       </c>
       <c r="C88" t="str">
-        <v>134.0789214</v>
+        <v>134.0352</v>
       </c>
       <c r="D88" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F88" t="str">
-        <v>087-813-9818</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G88" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -5309,16 +5294,16 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 15、2・3号認定 131</v>
+        <v>1号認定 60、2・3号認定 130</v>
       </c>
       <c r="M88" t="str">
-        <v>1号認定 満3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N88" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O88" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P88" t="str">
         <v>19:00</v>
@@ -5327,30 +5312,30 @@
         <v/>
       </c>
       <c r="R88" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" t="str">
-        <v>34.2734776</v>
+        <v>34.2936161</v>
       </c>
       <c r="C89" t="str">
-        <v>134.1024882</v>
+        <v>134.0789214</v>
       </c>
       <c r="D89" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F89" t="str">
-        <v>087-848-0320</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G89" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -5365,16 +5350,16 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 131</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね3か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O89" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P89" t="str">
         <v>19:00</v>
@@ -5383,30 +5368,30 @@
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" t="str">
-        <v>34.3064057</v>
+        <v>34.2734776</v>
       </c>
       <c r="C90" t="str">
-        <v>134.042294</v>
+        <v>134.1024882</v>
       </c>
       <c r="D90" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F90" t="str">
-        <v>087-814-4141</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G90" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -5421,16 +5406,16 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>1号認定 15、2・3号認定 165</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M90" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね3か月～</v>
       </c>
       <c r="N90" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O90" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P90" t="str">
         <v>19:00</v>
@@ -5439,30 +5424,30 @@
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" t="str">
-        <v>34.3264572</v>
+        <v>34.3064057</v>
       </c>
       <c r="C91" t="str">
-        <v>134.0769366</v>
+        <v>134.042294</v>
       </c>
       <c r="D91" t="str">
-        <v>みらい学園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F91" t="str">
-        <v>087-899-2305</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G91" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -5477,16 +5462,16 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>1号認定 15、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 165</v>
       </c>
       <c r="M91" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N91" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O91" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P91" t="str">
         <v>19:00</v>
@@ -5500,31 +5485,31 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" t="str">
-        <v>34.353781</v>
+        <v>34.3264572</v>
       </c>
       <c r="C92" t="str">
-        <v>134.091115</v>
+        <v>134.0769366</v>
       </c>
       <c r="D92" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F92" t="str">
-        <v>087-843-2241</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G92" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v/>
       </c>
       <c r="H92" t="str">
         <v/>
       </c>
       <c r="I92" t="str">
-        <v>認定こども園（幼稚園型）</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J92" t="str">
         <v/>
@@ -5533,19 +5518,19 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 120、2・3号認定 120</v>
+        <v>1号認定 15、2・3号認定 75</v>
       </c>
       <c r="M92" t="str">
-        <v>1号認定 満3歳～、2・3号認定 14か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N92" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O92" t="str">
-        <v>07:45</v>
+        <v>07:30</v>
       </c>
       <c r="P92" t="str">
-        <v>18:45</v>
+        <v>19:00</v>
       </c>
       <c r="Q92" t="str">
         <v/>
@@ -5556,25 +5541,25 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" t="str">
-        <v>34.338923</v>
+        <v>34.353781</v>
       </c>
       <c r="C93" t="str">
-        <v>134.031483</v>
+        <v>134.091115</v>
       </c>
       <c r="D93" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F93" t="str">
-        <v>087-861-0425</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G93" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -5589,19 +5574,19 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 130、2号認定 20</v>
+        <v>1号認定 120、2・3号認定 120</v>
       </c>
       <c r="M93" t="str">
-        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 14か月～</v>
       </c>
       <c r="N93" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O93" t="str">
-        <v>07:30</v>
+        <v>07:45</v>
       </c>
       <c r="P93" t="str">
-        <v>18:30</v>
+        <v>18:45</v>
       </c>
       <c r="Q93" t="str">
         <v/>
@@ -5612,25 +5597,25 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" t="str">
-        <v>34.338702</v>
+        <v>34.338923</v>
       </c>
       <c r="C94" t="str">
-        <v>134.038281</v>
+        <v>134.031483</v>
       </c>
       <c r="D94" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E94" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F94" t="str">
-        <v>087-831-2557</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G94" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -5645,10 +5630,10 @@
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>1号認定 109、2・3号認定 99</v>
+        <v>1号認定 130、2号認定 20</v>
       </c>
       <c r="M94" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
       </c>
       <c r="N94" t="str">
         <v>月火水木金土</v>
@@ -5657,7 +5642,7 @@
         <v>07:30</v>
       </c>
       <c r="P94" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -5668,25 +5653,25 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" t="str">
-        <v>34.279836</v>
+        <v>34.338702</v>
       </c>
       <c r="C95" t="str">
-        <v>134.022373</v>
+        <v>134.038281</v>
       </c>
       <c r="D95" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E95" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F95" t="str">
-        <v>087-885-2038</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G95" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -5701,10 +5686,10 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>1号認定 112、2・3号認定 128</v>
+        <v>1号認定 109、2・3号認定 99</v>
       </c>
       <c r="M95" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
       </c>
       <c r="N95" t="str">
         <v>月火水木金土</v>
@@ -5724,25 +5709,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" t="str">
-        <v>34.334019</v>
+        <v>34.279836</v>
       </c>
       <c r="C96" t="str">
-        <v>134.114815</v>
+        <v>134.022373</v>
       </c>
       <c r="D96" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E96" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F96" t="str">
-        <v>087-843-4484</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G96" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -5757,10 +5742,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 150、2・3号認定 110</v>
+        <v>1号認定 112、2・3号認定 128</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2・3号認定 15か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5775,30 +5760,30 @@
         <v/>
       </c>
       <c r="R96" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" t="str">
-        <v>34.304505</v>
+        <v>34.334019</v>
       </c>
       <c r="C97" t="str">
-        <v>134.021922</v>
+        <v>134.114815</v>
       </c>
       <c r="D97" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E97" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F97" t="str">
-        <v>087-865-9419</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G97" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -5813,10 +5798,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 217、2・3号認定 99</v>
+        <v>1号認定 150、2・3号認定 110</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 16か月～（4.1時点1歳児）</v>
+        <v>1号認定 満3歳～、2・3号認定 15か月～</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5825,42 +5810,42 @@
         <v>07:30</v>
       </c>
       <c r="P97" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q97" t="str">
         <v/>
       </c>
       <c r="R97" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98" t="str">
-        <v>34.332072</v>
+        <v>34.304505</v>
       </c>
       <c r="C98" t="str">
-        <v>134.049227</v>
+        <v>134.021922</v>
       </c>
       <c r="D98" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F98" t="str">
-        <v>087-831-1319</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H98" t="str">
         <v/>
       </c>
       <c r="I98" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>認定こども園（幼稚園型）</v>
       </c>
       <c r="J98" t="str">
         <v/>
@@ -5869,10 +5854,10 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>12</v>
+        <v>1号認定 217、2・3号認定 99</v>
       </c>
       <c r="M98" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 16か月～（4.1時点1歳児）</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
@@ -5881,36 +5866,36 @@
         <v>07:30</v>
       </c>
       <c r="P98" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q98" t="str">
         <v/>
       </c>
       <c r="R98" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" t="str">
-        <v>34.332365</v>
+        <v>34.332072</v>
       </c>
       <c r="C99" t="str">
-        <v>134.097201</v>
+        <v>134.049227</v>
       </c>
       <c r="D99" t="str">
-        <v>小規模保育所もも</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F99" t="str">
-        <v>087-843-8255</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H99" t="str">
         <v/>
@@ -5925,10 +5910,10 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M99" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
@@ -5937,36 +5922,36 @@
         <v>07:30</v>
       </c>
       <c r="P99" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" t="str">
-        <v>34.288288</v>
+        <v>34.332365</v>
       </c>
       <c r="C100" t="str">
-        <v>134.059379</v>
+        <v>134.097201</v>
       </c>
       <c r="D100" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F100" t="str">
-        <v>087-816-8301</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -5981,10 +5966,10 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M100" t="str">
-        <v>3か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
@@ -5993,7 +5978,7 @@
         <v>07:30</v>
       </c>
       <c r="P100" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q100" t="str">
         <v/>
@@ -6004,25 +5989,25 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" t="str">
-        <v>34.316351</v>
+        <v>34.288288</v>
       </c>
       <c r="C101" t="str">
-        <v>134.073388</v>
+        <v>134.059379</v>
       </c>
       <c r="D101" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F101" t="str">
-        <v>087-816-5150</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6037,16 +6022,16 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M101" t="str">
-        <v>54日～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O101" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P101" t="str">
         <v>19:00</v>
@@ -6060,25 +6045,25 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" t="str">
-        <v>34.303424</v>
+        <v>34.316351</v>
       </c>
       <c r="C102" t="str">
-        <v>134.060713</v>
+        <v>134.073388</v>
       </c>
       <c r="D102" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F102" t="str">
-        <v>087-864-3133</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6096,16 +6081,16 @@
         <v>19</v>
       </c>
       <c r="M102" t="str">
-        <v>2か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O102" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P102" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q102" t="str">
         <v/>
@@ -6116,25 +6101,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" t="str">
-        <v>34.298947</v>
+        <v>34.303424</v>
       </c>
       <c r="C103" t="str">
-        <v>134.055734</v>
+        <v>134.060713</v>
       </c>
       <c r="D103" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F103" t="str">
-        <v>087-815-0224</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6172,25 +6157,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" t="str">
-        <v>34.37717</v>
+        <v>34.298947</v>
       </c>
       <c r="C104" t="str">
-        <v>134.122418</v>
+        <v>134.055734</v>
       </c>
       <c r="D104" t="str">
-        <v>おるごーる</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F104" t="str">
-        <v>087-871-3503</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6205,10 +6190,10 @@
         <v/>
       </c>
       <c r="L104" t="str">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M104" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N104" t="str">
         <v>月火水木金土</v>
@@ -6217,7 +6202,7 @@
         <v>07:30</v>
       </c>
       <c r="P104" t="str">
-        <v>18:30</v>
+        <v>19:30</v>
       </c>
       <c r="Q104" t="str">
         <v/>
@@ -6228,25 +6213,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" t="str">
-        <v>34.2899</v>
+        <v>34.37717</v>
       </c>
       <c r="C105" t="str">
-        <v>134.05856</v>
+        <v>134.122418</v>
       </c>
       <c r="D105" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F105" t="str">
-        <v>087-889-3711</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6261,7 +6246,7 @@
         <v/>
       </c>
       <c r="L105" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M105" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6279,30 +6264,30 @@
         <v/>
       </c>
       <c r="R105" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" t="str">
-        <v>34.336075</v>
+        <v>34.2899</v>
       </c>
       <c r="C106" t="str">
-        <v>134.072522</v>
+        <v>134.05856</v>
       </c>
       <c r="D106" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F106" t="str">
-        <v>087-837-5330</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6317,7 +6302,7 @@
         <v/>
       </c>
       <c r="L106" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M106" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6329,7 +6314,7 @@
         <v>07:30</v>
       </c>
       <c r="P106" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q106" t="str">
         <v/>
@@ -6340,25 +6325,25 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" t="str">
-        <v>34.311371</v>
+        <v>34.336075</v>
       </c>
       <c r="C107" t="str">
-        <v>134.055948</v>
+        <v>134.072522</v>
       </c>
       <c r="D107" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F107" t="str">
-        <v>087-868-3339</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6396,25 +6381,25 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" t="str">
-        <v>34.316136</v>
+        <v>34.311371</v>
       </c>
       <c r="C108" t="str">
-        <v>134.061202</v>
+        <v>134.055948</v>
       </c>
       <c r="D108" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F108" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6429,10 +6414,10 @@
         <v/>
       </c>
       <c r="L108" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M108" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N108" t="str">
         <v>月火水木金土</v>
@@ -6441,36 +6426,36 @@
         <v>07:30</v>
       </c>
       <c r="P108" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q108" t="str">
         <v/>
       </c>
       <c r="R108" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" t="str">
-        <v>34.3049893</v>
+        <v>34.316136</v>
       </c>
       <c r="C109" t="str">
-        <v>134.0560416</v>
+        <v>134.061202</v>
       </c>
       <c r="D109" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F109" t="str">
-        <v>087-868-2355</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6488,7 +6473,7 @@
         <v>19</v>
       </c>
       <c r="M109" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N109" t="str">
         <v>月火水木金土</v>
@@ -6497,36 +6482,36 @@
         <v>07:30</v>
       </c>
       <c r="P109" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q109" t="str">
         <v/>
       </c>
       <c r="R109" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" t="str">
-        <v>34.2989616</v>
+        <v>34.3049893</v>
       </c>
       <c r="C110" t="str">
-        <v>134.0640027</v>
+        <v>134.0560416</v>
       </c>
       <c r="D110" t="str">
-        <v>林にこにこ保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F110" t="str">
-        <v>087-868-0103</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6564,25 +6549,25 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" t="str">
-        <v>34.2612106</v>
+        <v>34.2989616</v>
       </c>
       <c r="C111" t="str">
-        <v>134.0367875</v>
+        <v>134.0640027</v>
       </c>
       <c r="D111" t="str">
-        <v>保育の家みいろ</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F111" t="str">
-        <v>087-880-3274</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6597,10 +6582,10 @@
         <v/>
       </c>
       <c r="L111" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M111" t="str">
-        <v>３か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N111" t="str">
         <v>月火水木金土</v>
@@ -6609,7 +6594,7 @@
         <v>07:30</v>
       </c>
       <c r="P111" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q111" t="str">
         <v/>
@@ -6620,25 +6605,25 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" t="str">
-        <v>34.3389027</v>
+        <v>34.2612106</v>
       </c>
       <c r="C112" t="str">
-        <v>134.052851</v>
+        <v>134.0367875</v>
       </c>
       <c r="D112" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F112" t="str">
-        <v>087-802-6966</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6653,7 +6638,7 @@
         <v/>
       </c>
       <c r="L112" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M112" t="str">
         <v>３か月～2歳児</v>
@@ -6665,42 +6650,42 @@
         <v>07:30</v>
       </c>
       <c r="P112" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q112" t="str">
         <v/>
       </c>
       <c r="R112" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="str">
-        <v>34.340379</v>
+        <v>34.3389027</v>
       </c>
       <c r="C113" t="str">
-        <v>134.044986</v>
+        <v>134.052851</v>
       </c>
       <c r="D113" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F113" t="str">
-        <v>087-813-0218</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H113" t="str">
         <v/>
       </c>
       <c r="I113" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>地域型保育事業（小規模保育事業A型）</v>
       </c>
       <c r="J113" t="str">
         <v/>
@@ -6709,10 +6694,10 @@
         <v/>
       </c>
       <c r="L113" t="str">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M113" t="str">
-        <v>6か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N113" t="str">
         <v>月火水木金土</v>
@@ -6721,7 +6706,7 @@
         <v>07:30</v>
       </c>
       <c r="P113" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q113" t="str">
         <v/>
@@ -6732,63 +6717,119 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
+        <v>120</v>
+      </c>
+      <c r="B114" t="str">
+        <v>34.340379</v>
+      </c>
+      <c r="C114" t="str">
+        <v>134.044986</v>
+      </c>
+      <c r="D114" t="str">
+        <v>院内保育所てふてふ</v>
+      </c>
+      <c r="E114" t="str">
+        <v>高松市天神前5-6 高松メディカルモール</v>
+      </c>
+      <c r="F114" t="str">
+        <v>087-813-0218</v>
+      </c>
+      <c r="G114" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+      </c>
+      <c r="H114" t="str">
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <v>地域型保育事業（事業所内保育事業）</v>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+      <c r="K114" t="str">
+        <v/>
+      </c>
+      <c r="L114" t="str">
+        <v>7</v>
+      </c>
+      <c r="M114" t="str">
+        <v>6か月～2歳児</v>
+      </c>
+      <c r="N114" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O114" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P114" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q114" t="str">
+        <v/>
+      </c>
+      <c r="R114" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
         <v>121</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B115" t="str">
         <v>34.30287</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C115" t="str">
         <v>134.016075</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D115" t="str">
         <v>メリーＧＯランド高松園</v>
       </c>
-      <c r="E114" t="str">
+      <c r="E115" t="str">
         <v>高松市成合町796-1</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F115" t="str">
         <v>087-886-6669</v>
       </c>
-      <c r="G114" t="str">
+      <c r="G115" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
-      <c r="H114" t="str">
-        <v/>
-      </c>
-      <c r="I114" t="str">
+      <c r="H115" t="str">
+        <v/>
+      </c>
+      <c r="I115" t="str">
         <v>認定こども園（地方裁量型）</v>
       </c>
-      <c r="J114" t="str">
-        <v/>
-      </c>
-      <c r="K114" t="str">
-        <v/>
-      </c>
-      <c r="L114" t="str">
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
         <v>1号認定 20、2・3号認定 35</v>
       </c>
-      <c r="M114" t="str">
+      <c r="M115" t="str">
         <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
-      <c r="N114" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O114" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P114" t="str">
+      <c r="N115" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O115" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P115" t="str">
         <v>18:00</v>
       </c>
-      <c r="Q114" t="str">
-        <v/>
-      </c>
-      <c r="R114" t="str">
+      <c r="Q115" t="str">
+        <v/>
+      </c>
+      <c r="R115" t="str">
         <v>有</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R114"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R115"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
         <v>34.229495</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="str">
         <v>34.307041</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
         <v>34.284657</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
         <v>34.345964</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
         <v>34.341172</v>
@@ -1860,40 +1860,31 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="str">
-        <v>34.358509</v>
+        <v>34.2577048673876</v>
       </c>
       <c r="C27" t="str">
-        <v>133.967533</v>
+        <v>134.037076028654</v>
       </c>
       <c r="D27" t="str">
-        <v>高松市下笠居こども園</v>
+        <v>高松市浅野こども園</v>
       </c>
       <c r="E27" t="str">
-        <v>高松市生島町335</v>
+        <v>高松市浅野816-2</v>
       </c>
       <c r="F27" t="str">
-        <v>087-881-2515</v>
+        <v>087-889-2416</v>
       </c>
       <c r="G27" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
-      </c>
-      <c r="H27" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h329/</v>
       </c>
       <c r="I27" t="str">
         <v>認定こども園（幼保連携型）</v>
       </c>
-      <c r="J27" t="str">
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <v/>
-      </c>
       <c r="L27" t="str">
-        <v>1号認定 40、2・3号認定 105</v>
+        <v>1号認定 30、2・3号認定 144</v>
       </c>
       <c r="M27" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -1905,36 +1896,30 @@
         <v>07:30</v>
       </c>
       <c r="P27" t="str">
-        <v>18:30</v>
-      </c>
-      <c r="Q27" t="str">
-        <v/>
-      </c>
-      <c r="R27" t="str">
-        <v>有</v>
+        <v>19:00</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
-        <v>34.328643</v>
+        <v>34.358509</v>
       </c>
       <c r="C28" t="str">
-        <v>134.156038</v>
+        <v>133.967533</v>
       </c>
       <c r="D28" t="str">
-        <v>高松市はらこども園</v>
+        <v>高松市下笠居こども園</v>
       </c>
       <c r="E28" t="str">
-        <v>高松市牟礼町原570-1</v>
+        <v>高松市生島町335</v>
       </c>
       <c r="F28" t="str">
-        <v>087-845-0234</v>
+        <v>087-881-2515</v>
       </c>
       <c r="G28" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h142</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1949,7 +1934,7 @@
         <v/>
       </c>
       <c r="L28" t="str">
-        <v>1号認定 63、2・3号認定 165</v>
+        <v>1号認定 40、2・3号認定 105</v>
       </c>
       <c r="M28" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -1961,7 +1946,7 @@
         <v>07:30</v>
       </c>
       <c r="P28" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -1972,25 +1957,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="str">
-        <v>34.385761</v>
+        <v>34.328643</v>
       </c>
       <c r="C29" t="str">
-        <v>134.131516</v>
+        <v>134.156038</v>
       </c>
       <c r="D29" t="str">
-        <v>高松市庵治こども園</v>
+        <v>高松市はらこども園</v>
       </c>
       <c r="E29" t="str">
-        <v>高松市庵治町853-1</v>
+        <v>高松市牟礼町原570-1</v>
       </c>
       <c r="F29" t="str">
-        <v>087-871-2535</v>
+        <v>087-845-0234</v>
       </c>
       <c r="G29" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h143</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -2005,7 +1990,7 @@
         <v/>
       </c>
       <c r="L29" t="str">
-        <v>1号認定 45、2・3号認定 105</v>
+        <v>1号認定 63、2・3号認定 165</v>
       </c>
       <c r="M29" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2017,7 +2002,7 @@
         <v>07:30</v>
       </c>
       <c r="P29" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q29" t="str">
         <v/>
@@ -2028,25 +2013,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="str">
-        <v>34.242096</v>
+        <v>34.385761</v>
       </c>
       <c r="C30" t="str">
-        <v>134.005834</v>
+        <v>134.131516</v>
       </c>
       <c r="D30" t="str">
-        <v>高松市香南こども園</v>
+        <v>高松市庵治こども園</v>
       </c>
       <c r="E30" t="str">
-        <v>高松市香南町横井865-1</v>
+        <v>高松市庵治町853-1</v>
       </c>
       <c r="F30" t="str">
-        <v>087-887-7876</v>
+        <v>087-871-2535</v>
       </c>
       <c r="G30" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h144</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -2061,7 +2046,7 @@
         <v/>
       </c>
       <c r="L30" t="str">
-        <v>1号認定 75、2・3号認定 194</v>
+        <v>1号認定 45、2・3号認定 105</v>
       </c>
       <c r="M30" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2073,7 +2058,7 @@
         <v>07:30</v>
       </c>
       <c r="P30" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q30" t="str">
         <v/>
@@ -2084,25 +2069,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="str">
-        <v>34.188524</v>
+        <v>34.242096</v>
       </c>
       <c r="C31" t="str">
-        <v>134.061382</v>
+        <v>134.005834</v>
       </c>
       <c r="D31" t="str">
-        <v>高松市塩江こども園</v>
+        <v>高松市香南こども園</v>
       </c>
       <c r="E31" t="str">
-        <v>高松市塩江町安原下第1号887</v>
+        <v>高松市香南町横井865-1</v>
       </c>
       <c r="F31" t="str">
-        <v>087-890-2022</v>
+        <v>087-887-7876</v>
       </c>
       <c r="G31" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h145</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -2117,7 +2102,7 @@
         <v/>
       </c>
       <c r="L31" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 75、2・3号認定 194</v>
       </c>
       <c r="M31" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2140,25 +2125,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="str">
-        <v>34.237755</v>
+        <v>34.188524</v>
       </c>
       <c r="C32" t="str">
-        <v>134.035134</v>
+        <v>134.061382</v>
       </c>
       <c r="D32" t="str">
-        <v>高松市川東こども園</v>
+        <v>高松市塩江こども園</v>
       </c>
       <c r="E32" t="str">
-        <v>高松市香川町川東上1987-4</v>
+        <v>高松市塩江町安原下第1号887</v>
       </c>
       <c r="F32" t="str">
-        <v>087-879-4602</v>
+        <v>087-890-2022</v>
       </c>
       <c r="G32" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h146</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -2173,7 +2158,7 @@
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>1号認定 75、2・3号認定 168</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M32" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2196,25 +2181,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="str">
-        <v>34.342609</v>
+        <v>34.237755</v>
       </c>
       <c r="C33" t="str">
-        <v>134.099868</v>
+        <v>134.035134</v>
       </c>
       <c r="D33" t="str">
-        <v>高松市屋島こども園</v>
+        <v>高松市川東こども園</v>
       </c>
       <c r="E33" t="str">
-        <v>高松市屋島西町1744-1</v>
+        <v>高松市香川町川東上1987-4</v>
       </c>
       <c r="F33" t="str">
-        <v>087-841-9711</v>
+        <v>087-879-4602</v>
       </c>
       <c r="G33" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h27</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -2229,7 +2214,7 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>1号認定 9、2・3号認定 135</v>
+        <v>1号認定 75、2・3号認定 168</v>
       </c>
       <c r="M33" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2252,25 +2237,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="str">
-        <v>34.2959789</v>
+        <v>34.342609</v>
       </c>
       <c r="C34" t="str">
-        <v>134.0789659</v>
+        <v>134.099868</v>
       </c>
       <c r="D34" t="str">
-        <v>高松市林こども園</v>
+        <v>高松市屋島こども園</v>
       </c>
       <c r="E34" t="str">
-        <v>高松市林町1405-4</v>
+        <v>高松市屋島西町1744-1</v>
       </c>
       <c r="F34" t="str">
-        <v>087-865-1676</v>
+        <v>087-841-9711</v>
       </c>
       <c r="G34" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h307/</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -2285,7 +2270,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>1号認定 90、2・3号認定 209</v>
+        <v>1号認定 9、2・3号認定 135</v>
       </c>
       <c r="M34" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2308,31 +2293,40 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
-        <v>34.2768847651024</v>
+        <v>34.2959789</v>
       </c>
       <c r="C35" t="str">
-        <v>134.091508945175</v>
+        <v>134.0789659</v>
       </c>
       <c r="D35" t="str">
-        <v>高松市川島こども園</v>
+        <v>高松市林こども園</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市川島東町253-4</v>
+        <v>高松市林町1405-4</v>
       </c>
       <c r="F35" t="str">
-        <v>087-848-1978</v>
+        <v>087-865-1676</v>
       </c>
       <c r="G35" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h328/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h306/</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
       </c>
       <c r="I35" t="str">
         <v>認定こども園（幼保連携型）</v>
       </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
       <c r="L35" t="str">
-        <v>1号認定 60、2・3号認定 169</v>
+        <v>1号認定 90、2・3号認定 209</v>
       </c>
       <c r="M35" t="str">
         <v>1号認定 3歳児～、2・3号認定 3か月～</v>
@@ -2346,34 +2340,40 @@
       <c r="P35" t="str">
         <v>19:00</v>
       </c>
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <v>有</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
-        <v>34.420292</v>
+        <v>34.2768847651024</v>
       </c>
       <c r="C36" t="str">
-        <v>134.057016</v>
+        <v>134.091508945175</v>
       </c>
       <c r="D36" t="str">
-        <v>高松市小規模保育事業所男木保育所</v>
+        <v>高松市川島こども園</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市男木町165</v>
+        <v>高松市川島東町253-4</v>
       </c>
       <c r="F36" t="str">
-        <v>087-873-0614</v>
+        <v>087-848-1978</v>
       </c>
       <c r="G36" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h328/</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v>小規模保育施設</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -2382,54 +2382,54 @@
         <v/>
       </c>
       <c r="L36" t="str">
-        <v>6</v>
+        <v>1号認定 60、2・3号認定 169</v>
       </c>
       <c r="M36" t="str">
-        <v>1歳児～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N36" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O36" t="str">
-        <v>09:00</v>
+        <v>07:30</v>
       </c>
       <c r="P36" t="str">
-        <v>16:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q36" t="str">
         <v/>
       </c>
       <c r="R36" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="str">
-        <v>34.327973</v>
+        <v>34.420292</v>
       </c>
       <c r="C37" t="str">
-        <v>134.058101</v>
+        <v>134.057016</v>
       </c>
       <c r="D37" t="str">
-        <v>こぶし今里保育園</v>
+        <v>高松市小規模保育事業所男木保育所</v>
       </c>
       <c r="E37" t="str">
-        <v>高松市今里町一丁目7-2</v>
+        <v>高松市男木町165</v>
       </c>
       <c r="F37" t="str">
-        <v>087-834-1946</v>
+        <v>087-873-0614</v>
       </c>
       <c r="G37" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%25AB%2598%25E6%259D%25BE%25E5%25B8%2582%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E4%25BA%258B%25E6%25A5%25AD%25E6%2589%2580%25E3%2580%2580%25E7%2594%25B7%25E6%259C%25A8%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25EF%25BC%2592/</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37" t="str">
-        <v>認定私立保育所</v>
+        <v>小規模保育施設</v>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -2438,48 +2438,48 @@
         <v/>
       </c>
       <c r="L37" t="str">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="M37" t="str">
-        <v>2か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N37" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O37" t="str">
-        <v>07:00</v>
+        <v>09:00</v>
       </c>
       <c r="P37" t="str">
-        <v>19:00</v>
+        <v>16:00</v>
       </c>
       <c r="Q37" t="str">
         <v/>
       </c>
       <c r="R37" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="str">
-        <v>34.333037</v>
+        <v>34.327973</v>
       </c>
       <c r="C38" t="str">
-        <v>134.051372</v>
+        <v>134.058101</v>
       </c>
       <c r="D38" t="str">
-        <v>敬愛保育園</v>
+        <v>こぶし今里保育園</v>
       </c>
       <c r="E38" t="str">
-        <v>高松市藤塚町三丁目18-2</v>
+        <v>高松市今里町一丁目7-2</v>
       </c>
       <c r="F38" t="str">
-        <v>087-831-6778</v>
+        <v>087-834-1946</v>
       </c>
       <c r="G38" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h159/</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -2494,10 +2494,10 @@
         <v/>
       </c>
       <c r="L38" t="str">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="M38" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N38" t="str">
         <v>月火水木金土</v>
@@ -2512,30 +2512,30 @@
         <v/>
       </c>
       <c r="R38" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="str">
-        <v>34.328268</v>
+        <v>34.333037</v>
       </c>
       <c r="C39" t="str">
-        <v>134.066087</v>
+        <v>134.051372</v>
       </c>
       <c r="D39" t="str">
-        <v>平安保育園</v>
+        <v>敬愛保育園</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市上福岡町894-8</v>
+        <v>高松市藤塚町三丁目18-2</v>
       </c>
       <c r="F39" t="str">
-        <v>087-833-7734</v>
+        <v>087-831-6778</v>
       </c>
       <c r="G39" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h33/</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2550,10 +2550,10 @@
         <v/>
       </c>
       <c r="L39" t="str">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M39" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N39" t="str">
         <v>月火水木金土</v>
@@ -2573,25 +2573,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="str">
-        <v>34.304804</v>
+        <v>34.328268</v>
       </c>
       <c r="C40" t="str">
-        <v>134.02164</v>
+        <v>134.066087</v>
       </c>
       <c r="D40" t="str">
-        <v>勅使百華保育園</v>
+        <v>平安保育園</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市上福岡町894-8</v>
       </c>
       <c r="F40" t="str">
-        <v>087-865-2998</v>
+        <v>087-833-7734</v>
       </c>
       <c r="G40" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h160/</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2606,10 +2606,10 @@
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="M40" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N40" t="str">
         <v>月火水木金土</v>
@@ -2629,25 +2629,25 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="str">
-        <v>34.316835</v>
+        <v>34.304804</v>
       </c>
       <c r="C41" t="str">
-        <v>134.024336</v>
+        <v>134.02164</v>
       </c>
       <c r="D41" t="str">
-        <v>西春日保育所</v>
+        <v>勅使百華保育園</v>
       </c>
       <c r="E41" t="str">
-        <v>高松市西春日町1407</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F41" t="str">
-        <v>087-866-4166</v>
+        <v>087-865-2998</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2662,10 +2662,10 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M41" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N41" t="str">
         <v>月火水木金土</v>
@@ -2680,30 +2680,30 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="str">
-        <v>34.304304</v>
+        <v>34.316835</v>
       </c>
       <c r="C42" t="str">
-        <v>134.037996</v>
+        <v>134.024336</v>
       </c>
       <c r="D42" t="str">
-        <v>太田西保育園</v>
+        <v>西春日保育所</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市太田下町2025</v>
+        <v>高松市西春日町1407</v>
       </c>
       <c r="F42" t="str">
-        <v>087-865-0601</v>
+        <v>087-866-4166</v>
       </c>
       <c r="G42" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h161/</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2718,7 +2718,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M42" t="str">
         <v>2か月～</v>
@@ -2736,30 +2736,30 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="str">
-        <v>34.309654</v>
+        <v>34.304304</v>
       </c>
       <c r="C43" t="str">
-        <v>134.0631</v>
+        <v>134.037996</v>
       </c>
       <c r="D43" t="str">
-        <v>こぶし中央保育園</v>
+        <v>太田西保育園</v>
       </c>
       <c r="E43" t="str">
-        <v>高松市木太町5089-9</v>
+        <v>高松市太田下町2025</v>
       </c>
       <c r="F43" t="str">
-        <v>087-866-7169</v>
+        <v>087-865-0601</v>
       </c>
       <c r="G43" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h162/</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2774,7 +2774,7 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M43" t="str">
         <v>2か月～</v>
@@ -2792,30 +2792,30 @@
         <v/>
       </c>
       <c r="R43" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="str">
-        <v>34.350107</v>
+        <v>34.309654</v>
       </c>
       <c r="C44" t="str">
-        <v>134.091559</v>
+        <v>134.0631</v>
       </c>
       <c r="D44" t="str">
-        <v>あすなろ保育園</v>
+        <v>こぶし中央保育園</v>
       </c>
       <c r="E44" t="str">
-        <v>高松市屋島西町2453-6</v>
+        <v>高松市木太町5089-9</v>
       </c>
       <c r="F44" t="str">
-        <v>087-843-3143</v>
+        <v>087-866-7169</v>
       </c>
       <c r="G44" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h35/</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2830,10 +2830,10 @@
         <v/>
       </c>
       <c r="L44" t="str">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M44" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N44" t="str">
         <v>月火水木金土</v>
@@ -2842,36 +2842,36 @@
         <v>07:00</v>
       </c>
       <c r="P44" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q44" t="str">
         <v/>
       </c>
       <c r="R44" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="str">
-        <v>34.300415</v>
+        <v>34.350107</v>
       </c>
       <c r="C45" t="str">
-        <v>134.115798</v>
+        <v>134.091559</v>
       </c>
       <c r="D45" t="str">
-        <v>西光寺保育所</v>
+        <v>あすなろ保育園</v>
       </c>
       <c r="E45" t="str">
-        <v>高松市前田西町167-1</v>
+        <v>高松市屋島西町2453-6</v>
       </c>
       <c r="F45" t="str">
-        <v>087-847-6237</v>
+        <v>087-843-3143</v>
       </c>
       <c r="G45" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h36/</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -2886,10 +2886,10 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M45" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N45" t="str">
         <v>月火水木金土</v>
@@ -2898,36 +2898,36 @@
         <v>07:00</v>
       </c>
       <c r="P45" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q45" t="str">
         <v/>
       </c>
       <c r="R45" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="str">
-        <v>34.299537</v>
+        <v>34.300415</v>
       </c>
       <c r="C46" t="str">
-        <v>134.092378</v>
+        <v>134.115798</v>
       </c>
       <c r="D46" t="str">
-        <v>川添保育園</v>
+        <v>西光寺保育所</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市下田井町52</v>
+        <v>高松市前田西町167-1</v>
       </c>
       <c r="F46" t="str">
-        <v>087-847-5078</v>
+        <v>087-847-6237</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2942,10 +2942,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M46" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2960,30 +2960,30 @@
         <v/>
       </c>
       <c r="R46" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" t="str">
-        <v>34.277465</v>
+        <v>34.299537</v>
       </c>
       <c r="C47" t="str">
-        <v>134.030037</v>
+        <v>134.092378</v>
       </c>
       <c r="D47" t="str">
-        <v>高松南保育園</v>
+        <v>川添保育園</v>
       </c>
       <c r="E47" t="str">
-        <v>高松市寺井町453-1</v>
+        <v>高松市下田井町52</v>
       </c>
       <c r="F47" t="str">
-        <v>087-886-0275</v>
+        <v>087-847-5078</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -2998,10 +2998,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M47" t="str">
-        <v>6か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3021,25 +3021,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" t="str">
-        <v>34.284927</v>
+        <v>34.277465</v>
       </c>
       <c r="C48" t="str">
-        <v>134.010137</v>
+        <v>134.030037</v>
       </c>
       <c r="D48" t="str">
-        <v>円座百華保育園</v>
+        <v>高松南保育園</v>
       </c>
       <c r="E48" t="str">
-        <v>高松市円座町1478-1</v>
+        <v>高松市寺井町453-1</v>
       </c>
       <c r="F48" t="str">
-        <v>087-885-1203</v>
+        <v>087-886-0275</v>
       </c>
       <c r="G48" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h38/</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3054,10 +3054,10 @@
         <v/>
       </c>
       <c r="L48" t="str">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="M48" t="str">
-        <v>7か月～</v>
+        <v>6か月～</v>
       </c>
       <c r="N48" t="str">
         <v>月火水木金土</v>
@@ -3077,25 +3077,25 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" t="str">
-        <v>34.306205</v>
+        <v>34.284927</v>
       </c>
       <c r="C49" t="str">
-        <v>133.998614</v>
+        <v>134.010137</v>
       </c>
       <c r="D49" t="str">
-        <v>高松西保育園</v>
+        <v>円座百華保育園</v>
       </c>
       <c r="E49" t="str">
-        <v>高松市檀紙町1521-4</v>
+        <v>高松市円座町1478-1</v>
       </c>
       <c r="F49" t="str">
-        <v>087-886-5006</v>
+        <v>087-885-1203</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3110,10 +3110,10 @@
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="M49" t="str">
-        <v>2か月～</v>
+        <v>7か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3133,25 +3133,25 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="str">
-        <v>34.285075</v>
+        <v>34.306205</v>
       </c>
       <c r="C50" t="str">
-        <v>134.110374</v>
+        <v>133.998614</v>
       </c>
       <c r="D50" t="str">
-        <v>若葉保育園</v>
+        <v>高松西保育園</v>
       </c>
       <c r="E50" t="str">
-        <v>高松市亀田南町108-2</v>
+        <v>高松市檀紙町1521-4</v>
       </c>
       <c r="F50" t="str">
-        <v>087-847-7932</v>
+        <v>087-886-5006</v>
       </c>
       <c r="G50" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h40/</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3169,7 +3169,7 @@
         <v>130</v>
       </c>
       <c r="M50" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N50" t="str">
         <v>月火水木金土</v>
@@ -3189,25 +3189,25 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="str">
-        <v>34.311827</v>
+        <v>34.285075</v>
       </c>
       <c r="C51" t="str">
-        <v>134.08609</v>
+        <v>134.110374</v>
       </c>
       <c r="D51" t="str">
-        <v>白樺保育園</v>
+        <v>若葉保育園</v>
       </c>
       <c r="E51" t="str">
-        <v>高松市元山町855-2</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F51" t="str">
-        <v>087-866-6555</v>
+        <v>087-847-7932</v>
       </c>
       <c r="G51" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h168/</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3222,7 +3222,7 @@
         <v/>
       </c>
       <c r="L51" t="str">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M51" t="str">
         <v>3か月～</v>
@@ -3245,25 +3245,25 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="str">
-        <v>34.341315</v>
+        <v>34.311827</v>
       </c>
       <c r="C52" t="str">
-        <v>134.06296</v>
+        <v>134.08609</v>
       </c>
       <c r="D52" t="str">
-        <v>松福保育園</v>
+        <v>白樺保育園</v>
       </c>
       <c r="E52" t="str">
-        <v>高松市松福町二丁目18-16</v>
+        <v>高松市元山町855-2</v>
       </c>
       <c r="F52" t="str">
-        <v>087-822-7605</v>
+        <v>087-866-6555</v>
       </c>
       <c r="G52" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h41/</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3281,7 +3281,7 @@
         <v>120</v>
       </c>
       <c r="M52" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N52" t="str">
         <v>月火水木金土</v>
@@ -3296,30 +3296,30 @@
         <v/>
       </c>
       <c r="R52" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="str">
-        <v>34.320782</v>
+        <v>34.341315</v>
       </c>
       <c r="C53" t="str">
-        <v>134.067903</v>
+        <v>134.06296</v>
       </c>
       <c r="D53" t="str">
-        <v>さくらんぼ保育園</v>
+        <v>松福保育園</v>
       </c>
       <c r="E53" t="str">
-        <v>高松市木太町1165-3</v>
+        <v>高松市松福町二丁目18-16</v>
       </c>
       <c r="F53" t="str">
-        <v>087-867-4151</v>
+        <v>087-822-7605</v>
       </c>
       <c r="G53" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h42/</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3334,16 +3334,16 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M53" t="str">
-        <v>1歳児～</v>
+        <v>2か月～</v>
       </c>
       <c r="N53" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O53" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P53" t="str">
         <v>19:00</v>
@@ -3352,30 +3352,30 @@
         <v/>
       </c>
       <c r="R53" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="str">
-        <v>34.263658</v>
+        <v>34.320782</v>
       </c>
       <c r="C54" t="str">
-        <v>134.108531</v>
+        <v>134.067903</v>
       </c>
       <c r="D54" t="str">
-        <v>すみれ保育園</v>
+        <v>さくらんぼ保育園</v>
       </c>
       <c r="E54" t="str">
-        <v>高松市十川東町556-1</v>
+        <v>高松市木太町1165-3</v>
       </c>
       <c r="F54" t="str">
-        <v>087-848-0806</v>
+        <v>087-867-4151</v>
       </c>
       <c r="G54" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h43/</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3390,16 +3390,16 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M54" t="str">
-        <v>3か月～</v>
+        <v>1歳児～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O54" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P54" t="str">
         <v>19:00</v>
@@ -3413,25 +3413,25 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="str">
-        <v>34.343745</v>
+        <v>34.263658</v>
       </c>
       <c r="C55" t="str">
-        <v>134.052287</v>
+        <v>134.108531</v>
       </c>
       <c r="D55" t="str">
-        <v>高松第二保育園</v>
+        <v>すみれ保育園</v>
       </c>
       <c r="E55" t="str">
-        <v>高松市御坊町2-2</v>
+        <v>高松市十川東町556-1</v>
       </c>
       <c r="F55" t="str">
-        <v>087-821-5241</v>
+        <v>087-848-0806</v>
       </c>
       <c r="G55" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h169/</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3446,48 +3446,48 @@
         <v/>
       </c>
       <c r="L55" t="str">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M55" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N55" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O55" t="str">
-        <v>06:40</v>
+        <v>07:00</v>
       </c>
       <c r="P55" t="str">
-        <v>25:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q55" t="str">
         <v/>
       </c>
       <c r="R55" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="str">
-        <v>34.327799</v>
+        <v>34.343745</v>
       </c>
       <c r="C56" t="str">
-        <v>134.062199</v>
+        <v>134.052287</v>
       </c>
       <c r="D56" t="str">
-        <v>今里保育所</v>
+        <v>高松第二保育園</v>
       </c>
       <c r="E56" t="str">
-        <v>高松市今里町二丁目1-5</v>
+        <v>高松市御坊町2-2</v>
       </c>
       <c r="F56" t="str">
-        <v>087-834-3535</v>
+        <v>087-821-5241</v>
       </c>
       <c r="G56" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h44/</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3502,7 +3502,7 @@
         <v/>
       </c>
       <c r="L56" t="str">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="M56" t="str">
         <v>2か月～</v>
@@ -3511,39 +3511,39 @@
         <v>月火水木金土</v>
       </c>
       <c r="O56" t="str">
-        <v>07:00</v>
+        <v>06:40</v>
       </c>
       <c r="P56" t="str">
-        <v>19:00</v>
+        <v>25:00</v>
       </c>
       <c r="Q56" t="str">
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="str">
-        <v>34.25728</v>
+        <v>34.327799</v>
       </c>
       <c r="C57" t="str">
-        <v>134.035674</v>
+        <v>134.062199</v>
       </c>
       <c r="D57" t="str">
-        <v>さんさん保育園</v>
+        <v>今里保育所</v>
       </c>
       <c r="E57" t="str">
-        <v>高松市香川町浅野834-1</v>
+        <v>高松市今里町二丁目1-5</v>
       </c>
       <c r="F57" t="str">
-        <v>087-888-6333</v>
+        <v>087-834-3535</v>
       </c>
       <c r="G57" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h45/</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3558,10 +3558,10 @@
         <v/>
       </c>
       <c r="L57" t="str">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="M57" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N57" t="str">
         <v>月火水木金土</v>
@@ -3576,30 +3576,30 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="str">
-        <v>34.289495</v>
+        <v>34.25728</v>
       </c>
       <c r="C58" t="str">
-        <v>133.952485</v>
+        <v>134.035674</v>
       </c>
       <c r="D58" t="str">
-        <v>みよし保育園</v>
+        <v>さんさん保育園</v>
       </c>
       <c r="E58" t="str">
-        <v>高松市国分寺町柏原80</v>
+        <v>高松市香川町浅野834-1</v>
       </c>
       <c r="F58" t="str">
-        <v>087-874-0622</v>
+        <v>087-888-6333</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3614,7 +3614,7 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M58" t="str">
         <v>3か月～</v>
@@ -3632,30 +3632,30 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="str">
-        <v>34.274113</v>
+        <v>34.289495</v>
       </c>
       <c r="C59" t="str">
-        <v>133.973116</v>
+        <v>133.952485</v>
       </c>
       <c r="D59" t="str">
-        <v>みのり保育園</v>
+        <v>みよし保育園</v>
       </c>
       <c r="E59" t="str">
-        <v>高松市国分寺町福家甲1982</v>
+        <v>高松市国分寺町柏原80</v>
       </c>
       <c r="F59" t="str">
-        <v>087-874-4309</v>
+        <v>087-874-0622</v>
       </c>
       <c r="G59" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h171/</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3670,7 +3670,7 @@
         <v/>
       </c>
       <c r="L59" t="str">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M59" t="str">
         <v>3か月～</v>
@@ -3688,30 +3688,30 @@
         <v/>
       </c>
       <c r="R59" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="str">
-        <v>34.337967</v>
+        <v>34.274113</v>
       </c>
       <c r="C60" t="str">
-        <v>134.130825</v>
+        <v>133.973116</v>
       </c>
       <c r="D60" t="str">
-        <v>八栗保育所</v>
+        <v>みのり保育園</v>
       </c>
       <c r="E60" t="str">
-        <v>高松市牟礼町牟礼401</v>
+        <v>高松市国分寺町福家甲1982</v>
       </c>
       <c r="F60" t="str">
-        <v>087-845-0033</v>
+        <v>087-874-4309</v>
       </c>
       <c r="G60" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h172/</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3726,19 +3726,19 @@
         <v/>
       </c>
       <c r="L60" t="str">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M60" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N60" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O60" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P60" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q60" t="str">
         <v/>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="str">
-        <v>34.347055</v>
+        <v>34.337967</v>
       </c>
       <c r="C61" t="str">
-        <v>134.055965</v>
+        <v>134.130825</v>
       </c>
       <c r="D61" t="str">
-        <v>城東保育園</v>
+        <v>八栗保育所</v>
       </c>
       <c r="E61" t="str">
-        <v>高松市城東町一丁目1-45</v>
+        <v>高松市牟礼町牟礼401</v>
       </c>
       <c r="F61" t="str">
-        <v>087-822-1340</v>
+        <v>087-845-0033</v>
       </c>
       <c r="G61" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h173/</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3782,7 +3782,7 @@
         <v/>
       </c>
       <c r="L61" t="str">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M61" t="str">
         <v>2か月～</v>
@@ -3794,7 +3794,7 @@
         <v>07:30</v>
       </c>
       <c r="P61" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q61" t="str">
         <v/>
@@ -3805,25 +3805,25 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="str">
-        <v>34.334252</v>
+        <v>34.347055</v>
       </c>
       <c r="C62" t="str">
-        <v>134.057679</v>
+        <v>134.055965</v>
       </c>
       <c r="D62" t="str">
-        <v>こぶし花園保育園</v>
+        <v>城東保育園</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市花園町一丁目9-32</v>
+        <v>高松市城東町一丁目1-45</v>
       </c>
       <c r="F62" t="str">
-        <v>087-831-5136</v>
+        <v>087-822-1340</v>
       </c>
       <c r="G62" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h46/</v>
       </c>
       <c r="H62" t="str">
         <v/>
@@ -3838,7 +3838,7 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M62" t="str">
         <v>2か月～</v>
@@ -3856,36 +3856,36 @@
         <v/>
       </c>
       <c r="R62" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" t="str">
-        <v>0</v>
+        <v>34.334252</v>
       </c>
       <c r="C63" t="str">
-        <v>0</v>
+        <v>134.057679</v>
       </c>
       <c r="D63" t="str">
-        <v/>
+        <v>こぶし花園保育園</v>
       </c>
       <c r="E63" t="str">
-        <v/>
+        <v>高松市花園町一丁目9-32</v>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>087-831-5136</v>
       </c>
       <c r="G63" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h47/</v>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -3894,54 +3894,54 @@
         <v/>
       </c>
       <c r="L63" t="str">
-        <v/>
+        <v>90</v>
       </c>
       <c r="M63" t="str">
-        <v/>
+        <v>2か月～</v>
       </c>
       <c r="N63" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O63" t="str">
-        <v/>
+        <v>07:30</v>
       </c>
       <c r="P63" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="Q63" t="str">
         <v/>
       </c>
       <c r="R63" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" t="str">
-        <v>34.287693</v>
+        <v>0</v>
       </c>
       <c r="C64" t="str">
-        <v>134.05974</v>
+        <v>0</v>
       </c>
       <c r="D64" t="str">
-        <v>れんげ保育園</v>
+        <v/>
       </c>
       <c r="E64" t="str">
-        <v>高松市多肥上町2390-1</v>
+        <v/>
       </c>
       <c r="F64" t="str">
-        <v>087-888-8080</v>
+        <v/>
       </c>
       <c r="G64" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
+        <v/>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J64" t="str">
         <v/>
@@ -3950,48 +3950,48 @@
         <v/>
       </c>
       <c r="L64" t="str">
-        <v>90</v>
+        <v/>
       </c>
       <c r="M64" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N64" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O64" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P64" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q64" t="str">
         <v/>
       </c>
       <c r="R64" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="str">
-        <v>34.308543</v>
+        <v>34.287693</v>
       </c>
       <c r="C65" t="str">
-        <v>134.056433</v>
+        <v>134.05974</v>
       </c>
       <c r="D65" t="str">
-        <v>さくら伏石保育園</v>
+        <v>れんげ保育園</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市伏石町2135-3</v>
+        <v>高松市多肥上町2390-1</v>
       </c>
       <c r="F65" t="str">
-        <v>087-867-1100</v>
+        <v>087-888-8080</v>
       </c>
       <c r="G65" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h49/</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4018,7 +4018,7 @@
         <v>07:00</v>
       </c>
       <c r="P65" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q65" t="str">
         <v/>
@@ -4029,25 +4029,25 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" t="str">
-        <v>34.323827</v>
+        <v>34.308543</v>
       </c>
       <c r="C66" t="str">
-        <v>134.092254</v>
+        <v>134.056433</v>
       </c>
       <c r="D66" t="str">
-        <v>らく楽保育園</v>
+        <v>さくら伏石保育園</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市春日町483-1</v>
+        <v>高松市伏石町2135-3</v>
       </c>
       <c r="F66" t="str">
-        <v>087-844-0111</v>
+        <v>087-867-1100</v>
       </c>
       <c r="G66" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h50/</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4062,7 +4062,7 @@
         <v/>
       </c>
       <c r="L66" t="str">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M66" t="str">
         <v>3か月～</v>
@@ -4071,10 +4071,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O66" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P66" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q66" t="str">
         <v/>
@@ -4085,25 +4085,25 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="str">
-        <v>34.349557</v>
+        <v>34.323827</v>
       </c>
       <c r="C67" t="str">
-        <v>134.003925</v>
+        <v>134.092254</v>
       </c>
       <c r="D67" t="str">
-        <v>初音保育所</v>
+        <v>らく楽保育園</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市香西本町17-1</v>
+        <v>高松市春日町483-1</v>
       </c>
       <c r="F67" t="str">
-        <v>087-813-3258</v>
+        <v>087-844-0111</v>
       </c>
       <c r="G67" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h51/</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -4118,13 +4118,13 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M67" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N67" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O67" t="str">
         <v>07:30</v>
@@ -4136,30 +4136,30 @@
         <v/>
       </c>
       <c r="R67" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="str">
-        <v>34.308532</v>
+        <v>34.349557</v>
       </c>
       <c r="C68" t="str">
-        <v>134.067283</v>
+        <v>134.003925</v>
       </c>
       <c r="D68" t="str">
-        <v>さくら木太保育園</v>
+        <v>初音保育所</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市木太町5113-15</v>
+        <v>高松市香西本町17-1</v>
       </c>
       <c r="F68" t="str">
-        <v>087-802-8080</v>
+        <v>087-813-3258</v>
       </c>
       <c r="G68" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h52/</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -4174,54 +4174,54 @@
         <v/>
       </c>
       <c r="L68" t="str">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="M68" t="str">
-        <v>3か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N68" t="str">
-        <v>月火水木金土</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="O68" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P68" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q68" t="str">
         <v/>
       </c>
       <c r="R68" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="str">
-        <v>0</v>
+        <v>34.308532</v>
       </c>
       <c r="C69" t="str">
-        <v>0</v>
+        <v>134.067283</v>
       </c>
       <c r="D69" t="str">
-        <v/>
+        <v>さくら木太保育園</v>
       </c>
       <c r="E69" t="str">
-        <v/>
+        <v>高松市木太町5113-15</v>
       </c>
       <c r="F69" t="str">
-        <v/>
+        <v>087-802-8080</v>
       </c>
       <c r="G69" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h260/</v>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69" t="str">
-        <v/>
+        <v>認定私立保育所</v>
       </c>
       <c r="J69" t="str">
         <v/>
@@ -4230,54 +4230,54 @@
         <v/>
       </c>
       <c r="L69" t="str">
-        <v/>
+        <v>99</v>
       </c>
       <c r="M69" t="str">
-        <v/>
+        <v>3か月～</v>
       </c>
       <c r="N69" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="O69" t="str">
-        <v/>
+        <v>07:00</v>
       </c>
       <c r="P69" t="str">
-        <v/>
+        <v>20:00</v>
       </c>
       <c r="Q69" t="str">
         <v/>
       </c>
       <c r="R69" t="str">
-        <v/>
+        <v>無</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" t="str">
-        <v>34.333051</v>
+        <v>0</v>
       </c>
       <c r="C70" t="str">
-        <v>134.055788</v>
+        <v>0</v>
       </c>
       <c r="D70" t="str">
-        <v>高松くりの木保育園</v>
+        <v/>
       </c>
       <c r="E70" t="str">
-        <v>高松市花園町三丁目4-5</v>
+        <v/>
       </c>
       <c r="F70" t="str">
-        <v>087-880-7211</v>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v/>
       </c>
       <c r="H70" t="str">
         <v/>
       </c>
       <c r="I70" t="str">
-        <v>認定私立保育所</v>
+        <v/>
       </c>
       <c r="J70" t="str">
         <v/>
@@ -4286,48 +4286,48 @@
         <v/>
       </c>
       <c r="L70" t="str">
-        <v>105</v>
+        <v/>
       </c>
       <c r="M70" t="str">
-        <v>3か月～</v>
+        <v/>
       </c>
       <c r="N70" t="str">
-        <v>月火水木金土</v>
+        <v/>
       </c>
       <c r="O70" t="str">
-        <v>07:00</v>
+        <v/>
       </c>
       <c r="P70" t="str">
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="Q70" t="str">
         <v/>
       </c>
       <c r="R70" t="str">
-        <v>無</v>
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="str">
-        <v>34.343232</v>
+        <v>34.333051</v>
       </c>
       <c r="C71" t="str">
-        <v>134.065675</v>
+        <v>134.055788</v>
       </c>
       <c r="D71" t="str">
-        <v>らく楽第二保育園</v>
+        <v>高松くりの木保育園</v>
       </c>
       <c r="E71" t="str">
-        <v>高松市松福町二丁目4-4</v>
+        <v>高松市花園町三丁目4-5</v>
       </c>
       <c r="F71" t="str">
-        <v>087-826-0111</v>
+        <v>087-880-7211</v>
       </c>
       <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -4342,7 +4342,7 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="M71" t="str">
         <v>3か月～</v>
@@ -4351,7 +4351,7 @@
         <v>月火水木金土</v>
       </c>
       <c r="O71" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P71" t="str">
         <v>19:00</v>
@@ -4365,25 +4365,25 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="str">
-        <v>34.291607</v>
+        <v>34.343232</v>
       </c>
       <c r="C72" t="str">
-        <v>134.075471</v>
+        <v>134.065675</v>
       </c>
       <c r="D72" t="str">
-        <v>あさがお保育園</v>
+        <v>らく楽第二保育園</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市上林町69</v>
+        <v>高松市松福町二丁目4-4</v>
       </c>
       <c r="F72" t="str">
-        <v>087-899-5660</v>
+        <v>087-826-0111</v>
       </c>
       <c r="G72" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h269/</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -4398,10 +4398,10 @@
         <v/>
       </c>
       <c r="L72" t="str">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="M72" t="str">
-        <v>３か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N72" t="str">
         <v>月火水木金土</v>
@@ -4416,30 +4416,30 @@
         <v/>
       </c>
       <c r="R72" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="str">
-        <v>34.3051941</v>
+        <v>34.291607</v>
       </c>
       <c r="C73" t="str">
-        <v>134.0610552</v>
+        <v>134.075471</v>
       </c>
       <c r="D73" t="str">
-        <v>保育園アルペジオ高松多肥下町園</v>
+        <v>あさがお保育園</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市多肥下町1524-15</v>
+        <v>高松市上林町69</v>
       </c>
       <c r="F73" t="str">
-        <v>087-802-5583</v>
+        <v>087-899-5660</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -4454,10 +4454,10 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M73" t="str">
-        <v>6か月</v>
+        <v>３か月～</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
@@ -4466,7 +4466,7 @@
         <v>07:30</v>
       </c>
       <c r="P73" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q73" t="str">
         <v/>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="str">
-        <v>34.3034175</v>
+        <v>34.3051941</v>
       </c>
       <c r="C74" t="str">
-        <v>134.0533292</v>
+        <v>134.0610552</v>
       </c>
       <c r="D74" t="str">
-        <v>さくら太田保育園</v>
+        <v>保育園アルペジオ高松多肥下町園</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市太田下町3032-1</v>
+        <v>高松市多肥下町1524-15</v>
       </c>
       <c r="F74" t="str">
-        <v>087-868-3700</v>
+        <v>087-802-5583</v>
       </c>
       <c r="G74" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h288/</v>
       </c>
       <c r="H74" t="str">
         <v/>
@@ -4510,54 +4510,54 @@
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M74" t="str">
-        <v>3か月</v>
+        <v>6か月</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O74" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P74" t="str">
-        <v>20:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q74" t="str">
         <v/>
       </c>
       <c r="R74" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="str">
-        <v>34.3064057</v>
+        <v>34.3034175</v>
       </c>
       <c r="C75" t="str">
-        <v>134.042294</v>
+        <v>134.0533292</v>
       </c>
       <c r="D75" t="str">
-        <v>にこにこ保育園</v>
+        <v>さくら太田保育園</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市林町294-1</v>
+        <v>高松市太田下町3032-1</v>
       </c>
       <c r="F75" t="str">
-        <v>087-813-8300</v>
+        <v>087-868-3700</v>
       </c>
       <c r="G75" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h289/</v>
       </c>
       <c r="H75" t="str">
         <v/>
       </c>
       <c r="I75" t="str">
-        <v>認可私立保育所</v>
+        <v>認定私立保育所</v>
       </c>
       <c r="J75" t="str">
         <v/>
@@ -4566,48 +4566,48 @@
         <v/>
       </c>
       <c r="L75" t="str">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M75" t="str">
-        <v>おおむね2か月～</v>
+        <v>3か月</v>
       </c>
       <c r="N75" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O75" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P75" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q75" t="str">
         <v/>
       </c>
       <c r="R75" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" t="str">
-        <v>34.3047038</v>
+        <v>34.3064057</v>
       </c>
       <c r="C76" t="str">
-        <v>134.0565783</v>
+        <v>134.042294</v>
       </c>
       <c r="D76" t="str">
-        <v>あい保育園太田</v>
+        <v>にこにこ保育園</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市林町294-1</v>
       </c>
       <c r="F76" t="str">
-        <v>087-802-9065</v>
+        <v>087-813-8300</v>
       </c>
       <c r="G76" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h308/</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -4622,48 +4622,48 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="M76" t="str">
-        <v>３か月～</v>
+        <v>おおむね2か月～</v>
       </c>
       <c r="N76" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O76" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P76" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q76" t="str">
         <v/>
       </c>
       <c r="R76" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="str">
-        <v>34.3431504</v>
+        <v>34.3047038</v>
       </c>
       <c r="C77" t="str">
-        <v>134.0615252</v>
+        <v>134.0565783</v>
       </c>
       <c r="D77" t="str">
-        <v>さくら福々保育園</v>
+        <v>あい保育園太田</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市太田下町3027-3</v>
       </c>
       <c r="F77" t="str">
-        <v>087-802-1860</v>
+        <v>087-802-9065</v>
       </c>
       <c r="G77" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h312/</v>
       </c>
       <c r="H77" t="str">
         <v/>
@@ -4678,7 +4678,7 @@
         <v/>
       </c>
       <c r="L77" t="str">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M77" t="str">
         <v>３か月～</v>
@@ -4701,31 +4701,31 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" t="str">
-        <v>34.292144</v>
+        <v>34.3431504</v>
       </c>
       <c r="C78" t="str">
-        <v>134.066237</v>
+        <v>134.0615252</v>
       </c>
       <c r="D78" t="str">
-        <v>サンシャインこどもの森</v>
+        <v>さくら福々保育園</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市上林町502-2</v>
+        <v>高松市松福町一丁目229-55</v>
       </c>
       <c r="F78" t="str">
-        <v>087-889-8181</v>
+        <v>087-802-1860</v>
       </c>
       <c r="G78" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
+        <v/>
       </c>
       <c r="H78" t="str">
         <v/>
       </c>
       <c r="I78" t="str">
-        <v>認定こども園（幼保連携型）</v>
+        <v>認可私立保育所</v>
       </c>
       <c r="J78" t="str">
         <v/>
@@ -4734,48 +4734,48 @@
         <v/>
       </c>
       <c r="L78" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>96</v>
       </c>
       <c r="M78" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>３か月～</v>
       </c>
       <c r="N78" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O78" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P78" t="str">
-        <v>19:00</v>
+        <v>20:00</v>
       </c>
       <c r="Q78" t="str">
         <v/>
       </c>
       <c r="R78" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" t="str">
-        <v>34.303319</v>
+        <v>34.292144</v>
       </c>
       <c r="C79" t="str">
-        <v>133.949144</v>
+        <v>134.066237</v>
       </c>
       <c r="D79" t="str">
-        <v>いずみこども園</v>
+        <v>サンシャインこどもの森</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市国分寺町国分2408</v>
+        <v>高松市上林町502-2</v>
       </c>
       <c r="F79" t="str">
-        <v>087-874-0882</v>
+        <v>087-889-8181</v>
       </c>
       <c r="G79" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h147/</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -4790,19 +4790,19 @@
         <v/>
       </c>
       <c r="L79" t="str">
-        <v>1号認定 15、2・3号認定 85</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M79" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N79" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O79" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P79" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q79" t="str">
         <v/>
@@ -4813,25 +4813,25 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" t="str">
-        <v>34.304328</v>
+        <v>34.303319</v>
       </c>
       <c r="C80" t="str">
-        <v>133.97246</v>
+        <v>133.949144</v>
       </c>
       <c r="D80" t="str">
-        <v>いずみこども園分園</v>
+        <v>いずみこども園</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市国分寺町新居281-1</v>
+        <v>高松市国分寺町国分2408</v>
       </c>
       <c r="F80" t="str">
-        <v>087-875-0882</v>
+        <v>087-874-0882</v>
       </c>
       <c r="G80" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h148</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -4846,19 +4846,19 @@
         <v/>
       </c>
       <c r="L80" t="str">
-        <v>2・3号認定 20</v>
+        <v>1号認定 15、2・3号認定 85</v>
       </c>
       <c r="M80" t="str">
-        <v>2・3号認定 3か月～２歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N80" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O80" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P80" t="str">
-        <v>18:30</v>
+        <v>19:30</v>
       </c>
       <c r="Q80" t="str">
         <v/>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" t="str">
-        <v>34.327571</v>
+        <v>34.304328</v>
       </c>
       <c r="C81" t="str">
-        <v>134.087355</v>
+        <v>133.97246</v>
       </c>
       <c r="D81" t="str">
-        <v>認定こども園高松東幼稚園</v>
+        <v>いずみこども園分園</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市春日町688</v>
+        <v>高松市国分寺町新居281-1</v>
       </c>
       <c r="F81" t="str">
-        <v>087-841-2306</v>
+        <v>087-875-0882</v>
       </c>
       <c r="G81" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h211</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -4902,48 +4902,48 @@
         <v/>
       </c>
       <c r="L81" t="str">
-        <v>1号認定 284、2・3号認定 166</v>
+        <v>2・3号認定 20</v>
       </c>
       <c r="M81" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>2・3号認定 3か月～２歳児</v>
       </c>
       <c r="N81" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O81" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P81" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q81" t="str">
         <v/>
       </c>
       <c r="R81" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" t="str">
-        <v>34.325356</v>
+        <v>34.327571</v>
       </c>
       <c r="C82" t="str">
-        <v>134.099079</v>
+        <v>134.087355</v>
       </c>
       <c r="D82" t="str">
-        <v>認定こども園新田幼稚園</v>
+        <v>認定こども園高松東幼稚園</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市新田町甲2630-1</v>
+        <v>高松市春日町688</v>
       </c>
       <c r="F82" t="str">
-        <v>087-841-3686</v>
+        <v>087-841-2306</v>
       </c>
       <c r="G82" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h262</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -4958,16 +4958,16 @@
         <v/>
       </c>
       <c r="L82" t="str">
-        <v>1号認定 75、2・3号認定 57</v>
+        <v>1号認定 284、2・3号認定 166</v>
       </c>
       <c r="M82" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N82" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O82" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P82" t="str">
         <v>19:00</v>
@@ -4976,30 +4976,30 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="str">
-        <v>34.268464</v>
+        <v>34.325356</v>
       </c>
       <c r="C83" t="str">
-        <v>134.006758</v>
+        <v>134.099079</v>
       </c>
       <c r="D83" t="str">
-        <v>認定こども園和光こども園</v>
+        <v>認定こども園新田幼稚園</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市川部町1561-1</v>
+        <v>高松市新田町甲2630-1</v>
       </c>
       <c r="F83" t="str">
-        <v>087-886-5879</v>
+        <v>087-841-3686</v>
       </c>
       <c r="G83" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h263</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -5014,16 +5014,16 @@
         <v/>
       </c>
       <c r="L83" t="str">
-        <v>1号認定 15、2・3号認定 100</v>
+        <v>1号認定 75、2・3号認定 57</v>
       </c>
       <c r="M83" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N83" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O83" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P83" t="str">
         <v>19:00</v>
@@ -5032,30 +5032,30 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" t="str">
-        <v>34.331077</v>
+        <v>34.268464</v>
       </c>
       <c r="C84" t="str">
-        <v>134.094275</v>
+        <v>134.006758</v>
       </c>
       <c r="D84" t="str">
-        <v>認定こども園春日こども園</v>
+        <v>認定こども園和光こども園</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市春日町1287-1</v>
+        <v>高松市川部町1561-1</v>
       </c>
       <c r="F84" t="str">
-        <v>087-843-3689</v>
+        <v>087-886-5879</v>
       </c>
       <c r="G84" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h39/</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -5070,10 +5070,10 @@
         <v/>
       </c>
       <c r="L84" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 100</v>
       </c>
       <c r="M84" t="str">
-        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N84" t="str">
         <v>月火水木金土</v>
@@ -5088,30 +5088,30 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" t="str">
-        <v>34.326539</v>
+        <v>34.331077</v>
       </c>
       <c r="C85" t="str">
-        <v>134.047837</v>
+        <v>134.094275</v>
       </c>
       <c r="D85" t="str">
-        <v>認定こども園花ノ宮こども園</v>
+        <v>認定こども園春日こども園</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市花ノ宮町一丁目10-22</v>
+        <v>高松市春日町1287-1</v>
       </c>
       <c r="F85" t="str">
-        <v>087-831-6318</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G85" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h163/</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -5126,7 +5126,7 @@
         <v/>
       </c>
       <c r="L85" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M85" t="str">
         <v>1号認定 3歳児～、2・3号認定 2か月～</v>
@@ -5144,30 +5144,30 @@
         <v/>
       </c>
       <c r="R85" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" t="str">
-        <v>34.333461</v>
+        <v>34.326539</v>
       </c>
       <c r="C86" t="str">
-        <v>134.04506</v>
+        <v>134.047837</v>
       </c>
       <c r="D86" t="str">
-        <v>認定こども園中野保育所</v>
+        <v>認定こども園花ノ宮こども園</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市中野町27-5</v>
+        <v>高松市花ノ宮町一丁目10-22</v>
       </c>
       <c r="F86" t="str">
-        <v>087-831-8659</v>
+        <v>087-831-6318</v>
       </c>
       <c r="G86" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h175/</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -5182,48 +5182,48 @@
         <v/>
       </c>
       <c r="L86" t="str">
-        <v>1号認定 15、2・3号認定 160</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M86" t="str">
-        <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N86" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O86" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P86" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q86" t="str">
         <v/>
       </c>
       <c r="R86" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" t="str">
-        <v>34.279891</v>
+        <v>34.333461</v>
       </c>
       <c r="C87" t="str">
-        <v>134.042395</v>
+        <v>134.04506</v>
       </c>
       <c r="D87" t="str">
-        <v>幼保連携型認定こども園カナン保育園</v>
+        <v>認定こども園中野保育所</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市仏生山町甲745-2</v>
+        <v>高松市中野町27-5</v>
       </c>
       <c r="F87" t="str">
-        <v>087-889-1059</v>
+        <v>087-831-8659</v>
       </c>
       <c r="G87" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h174/</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5238,7 +5238,7 @@
         <v/>
       </c>
       <c r="L87" t="str">
-        <v>1号認定 15、2・3号認定 105</v>
+        <v>1号認定 15、2・3号認定 160</v>
       </c>
       <c r="M87" t="str">
         <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
@@ -5247,10 +5247,10 @@
         <v>月火水木金土</v>
       </c>
       <c r="O87" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P87" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q87" t="str">
         <v/>
@@ -5261,25 +5261,25 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" t="str">
-        <v>34.292691</v>
+        <v>34.279891</v>
       </c>
       <c r="C88" t="str">
-        <v>134.0352</v>
+        <v>134.042395</v>
       </c>
       <c r="D88" t="str">
-        <v>幼保連携型認定こども園すまいる</v>
+        <v>幼保連携型認定こども園カナン保育園</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市三名町591-1</v>
+        <v>高松市仏生山町甲745-2</v>
       </c>
       <c r="F88" t="str">
-        <v>087-802-3838</v>
+        <v>087-889-1059</v>
       </c>
       <c r="G88" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h166/</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -5294,16 +5294,16 @@
         <v/>
       </c>
       <c r="L88" t="str">
-        <v>1号認定 60、2・3号認定 130</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M88" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N88" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O88" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P88" t="str">
         <v>19:00</v>
@@ -5317,25 +5317,25 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" t="str">
-        <v>34.2936161</v>
+        <v>34.292691</v>
       </c>
       <c r="C89" t="str">
-        <v>134.0789214</v>
+        <v>134.0352</v>
       </c>
       <c r="D89" t="str">
-        <v>げんき・結愛・げんきこども園</v>
+        <v>幼保連携型認定こども園すまいる</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市六条町604番地7</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F89" t="str">
-        <v>087-813-9818</v>
+        <v>087-802-3838</v>
       </c>
       <c r="G89" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h275/</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -5350,16 +5350,16 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v>1号認定 15、2・3号認定 131</v>
+        <v>1号認定 60、2・3号認定 130</v>
       </c>
       <c r="M89" t="str">
-        <v>1号認定 満3歳児～、2・3号認定 おおむね2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N89" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O89" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P89" t="str">
         <v>19:00</v>
@@ -5368,30 +5368,30 @@
         <v/>
       </c>
       <c r="R89" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" t="str">
-        <v>34.2734776</v>
+        <v>34.2936161</v>
       </c>
       <c r="C90" t="str">
-        <v>134.1024882</v>
+        <v>134.0789214</v>
       </c>
       <c r="D90" t="str">
-        <v>幼保連携型カナン十河こども園</v>
+        <v>げんき・結愛・げんきこども園</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市十川西町546-1</v>
+        <v>高松市六条町604番地7</v>
       </c>
       <c r="F90" t="str">
-        <v>087-848-0320</v>
+        <v>087-813-9818</v>
       </c>
       <c r="G90" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h37/</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -5406,16 +5406,16 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v>1号認定 15、2・3号認定 110</v>
+        <v>1号認定 15、2・3号認定 131</v>
       </c>
       <c r="M90" t="str">
-        <v>1号認定 3歳児～、2・3号認定 おおむね3か月～</v>
+        <v>1号認定 満3歳児～、2・3号認定 おおむね2か月～</v>
       </c>
       <c r="N90" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O90" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P90" t="str">
         <v>19:00</v>
@@ -5424,30 +5424,30 @@
         <v/>
       </c>
       <c r="R90" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" t="str">
-        <v>34.3064057</v>
+        <v>34.2734776</v>
       </c>
       <c r="C91" t="str">
-        <v>134.042294</v>
+        <v>134.1024882</v>
       </c>
       <c r="D91" t="str">
-        <v>幼保連携型認定こども園高松和貴こども園</v>
+        <v>幼保連携型カナン十河こども園</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市林町2197-1</v>
+        <v>高松市十川西町546-1</v>
       </c>
       <c r="F91" t="str">
-        <v>087-814-4141</v>
+        <v>087-848-0320</v>
       </c>
       <c r="G91" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h48/</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -5462,16 +5462,16 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v>1号認定 15、2・3号認定 165</v>
+        <v>1号認定 15、2・3号認定 110</v>
       </c>
       <c r="M91" t="str">
-        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 おおむね3か月～</v>
       </c>
       <c r="N91" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O91" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P91" t="str">
         <v>19:00</v>
@@ -5480,30 +5480,30 @@
         <v/>
       </c>
       <c r="R91" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" t="str">
-        <v>34.3264572</v>
+        <v>34.3064057</v>
       </c>
       <c r="C92" t="str">
-        <v>134.0769366</v>
+        <v>134.042294</v>
       </c>
       <c r="D92" t="str">
-        <v>みらい学園</v>
+        <v>幼保連携型認定こども園高松和貴こども園</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市木太町3429-3</v>
+        <v>高松市林町2197-1</v>
       </c>
       <c r="F92" t="str">
-        <v>087-899-2305</v>
+        <v>087-814-4141</v>
       </c>
       <c r="G92" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h313/</v>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -5518,16 +5518,16 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>1号認定 15、2・3号認定 75</v>
+        <v>1号認定 15、2・3号認定 165</v>
       </c>
       <c r="M92" t="str">
-        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N92" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O92" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P92" t="str">
         <v>19:00</v>
@@ -5541,31 +5541,31 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" t="str">
-        <v>34.353781</v>
+        <v>34.3264572</v>
       </c>
       <c r="C93" t="str">
-        <v>134.091115</v>
+        <v>134.0769366</v>
       </c>
       <c r="D93" t="str">
-        <v>認定こども園やしま幼稚園</v>
+        <v>みらい学園</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市屋島西町2477-4</v>
+        <v>高松市木太町3429-3</v>
       </c>
       <c r="F93" t="str">
-        <v>087-843-2241</v>
+        <v>087-899-2305</v>
       </c>
       <c r="G93" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
+        <v/>
       </c>
       <c r="H93" t="str">
         <v/>
       </c>
       <c r="I93" t="str">
-        <v>認定こども園（幼稚園型）</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J93" t="str">
         <v/>
@@ -5574,19 +5574,19 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v>1号認定 120、2・3号認定 120</v>
+        <v>1号認定 15、2・3号認定 75</v>
       </c>
       <c r="M93" t="str">
-        <v>1号認定 満3歳～、2・3号認定 14か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 6か月～</v>
       </c>
       <c r="N93" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O93" t="str">
-        <v>07:45</v>
+        <v>07:30</v>
       </c>
       <c r="P93" t="str">
-        <v>18:45</v>
+        <v>19:00</v>
       </c>
       <c r="Q93" t="str">
         <v/>
@@ -5597,25 +5597,25 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" t="str">
-        <v>34.338923</v>
+        <v>34.353781</v>
       </c>
       <c r="C94" t="str">
-        <v>134.031483</v>
+        <v>134.091115</v>
       </c>
       <c r="D94" t="str">
-        <v>高松聖ヤコブ幼稚園</v>
+        <v>認定こども園やしま幼稚園</v>
       </c>
       <c r="E94" t="str">
-        <v>高松市西宝町二丁目3-14</v>
+        <v>高松市屋島西町2477-4</v>
       </c>
       <c r="F94" t="str">
-        <v>087-861-0425</v>
+        <v>087-843-2241</v>
       </c>
       <c r="G94" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h149</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -5630,19 +5630,19 @@
         <v/>
       </c>
       <c r="L94" t="str">
-        <v>1号認定 130、2号認定 20</v>
+        <v>1号認定 120、2・3号認定 120</v>
       </c>
       <c r="M94" t="str">
-        <v>1号認定 満3歳～、2号認定 3歳児～</v>
+        <v>1号認定 満3歳～、2・3号認定 14か月～</v>
       </c>
       <c r="N94" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O94" t="str">
-        <v>07:30</v>
+        <v>07:45</v>
       </c>
       <c r="P94" t="str">
-        <v>18:30</v>
+        <v>18:45</v>
       </c>
       <c r="Q94" t="str">
         <v/>
@@ -5653,25 +5653,25 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" t="str">
-        <v>34.338702</v>
+        <v>34.338923</v>
       </c>
       <c r="C95" t="str">
-        <v>134.038281</v>
+        <v>134.031483</v>
       </c>
       <c r="D95" t="str">
-        <v>認定こども園亀阜幼稚園</v>
+        <v>高松聖ヤコブ幼稚園</v>
       </c>
       <c r="E95" t="str">
-        <v>宮脇町一丁目2-23</v>
+        <v>高松市西宝町二丁目3-14</v>
       </c>
       <c r="F95" t="str">
-        <v>087-831-2557</v>
+        <v>087-861-0425</v>
       </c>
       <c r="G95" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h249</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -5686,10 +5686,10 @@
         <v/>
       </c>
       <c r="L95" t="str">
-        <v>1号認定 109、2・3号認定 99</v>
+        <v>1号認定 130、2号認定 20</v>
       </c>
       <c r="M95" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
+        <v>1号認定 満3歳～、2号認定 3歳児～</v>
       </c>
       <c r="N95" t="str">
         <v>月火水木金土</v>
@@ -5698,7 +5698,7 @@
         <v>07:30</v>
       </c>
       <c r="P95" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q95" t="str">
         <v/>
@@ -5709,25 +5709,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" t="str">
-        <v>34.279836</v>
+        <v>34.338702</v>
       </c>
       <c r="C96" t="str">
-        <v>134.022373</v>
+        <v>134.038281</v>
       </c>
       <c r="D96" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>認定こども園亀阜幼稚園</v>
       </c>
       <c r="E96" t="str">
-        <v>高松市寺井町1369-4</v>
+        <v>宮脇町一丁目2-23</v>
       </c>
       <c r="F96" t="str">
-        <v>087-885-2038</v>
+        <v>087-831-2557</v>
       </c>
       <c r="G96" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h252</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -5742,10 +5742,10 @@
         <v/>
       </c>
       <c r="L96" t="str">
-        <v>1号認定 112、2・3号認定 128</v>
+        <v>1号認定 109、2・3号認定 99</v>
       </c>
       <c r="M96" t="str">
-        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 1歳児～</v>
       </c>
       <c r="N96" t="str">
         <v>月火水木金土</v>
@@ -5765,25 +5765,25 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" t="str">
-        <v>34.334019</v>
+        <v>34.279836</v>
       </c>
       <c r="C97" t="str">
-        <v>134.114815</v>
+        <v>134.022373</v>
       </c>
       <c r="D97" t="str">
-        <v>幼稚園型認定こども園つくし幼稚園</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="E97" t="str">
-        <v>高松市高松町1711-7</v>
+        <v>高松市寺井町1369-4</v>
       </c>
       <c r="F97" t="str">
-        <v>087-843-4484</v>
+        <v>087-885-2038</v>
       </c>
       <c r="G97" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h264</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -5798,10 +5798,10 @@
         <v/>
       </c>
       <c r="L97" t="str">
-        <v>1号認定 150、2・3号認定 110</v>
+        <v>1号認定 112、2・3号認定 128</v>
       </c>
       <c r="M97" t="str">
-        <v>1号認定 満3歳～、2・3号認定 15か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N97" t="str">
         <v>月火水木金土</v>
@@ -5816,30 +5816,30 @@
         <v/>
       </c>
       <c r="R97" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" t="str">
-        <v>34.304505</v>
+        <v>34.334019</v>
       </c>
       <c r="C98" t="str">
-        <v>134.021922</v>
+        <v>134.114815</v>
       </c>
       <c r="D98" t="str">
-        <v>認定こども園勅使百華幼稚園</v>
+        <v>幼稚園型認定こども園つくし幼稚園</v>
       </c>
       <c r="E98" t="str">
-        <v>高松市勅使町955</v>
+        <v>高松市高松町1711-7</v>
       </c>
       <c r="F98" t="str">
-        <v>087-865-9419</v>
+        <v>087-843-4484</v>
       </c>
       <c r="G98" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h272/</v>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -5854,10 +5854,10 @@
         <v/>
       </c>
       <c r="L98" t="str">
-        <v>1号認定 217、2・3号認定 99</v>
+        <v>1号認定 150、2・3号認定 110</v>
       </c>
       <c r="M98" t="str">
-        <v>1号認定 満3歳～、2・3号認定 16か月～（4.1時点1歳児）</v>
+        <v>1号認定 満3歳～、2・3号認定 15か月～</v>
       </c>
       <c r="N98" t="str">
         <v>月火水木金土</v>
@@ -5866,42 +5866,42 @@
         <v>07:30</v>
       </c>
       <c r="P98" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q98" t="str">
         <v/>
       </c>
       <c r="R98" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" t="str">
-        <v>34.332072</v>
+        <v>34.304505</v>
       </c>
       <c r="C99" t="str">
-        <v>134.049227</v>
+        <v>134.021922</v>
       </c>
       <c r="D99" t="str">
-        <v>栗林にこにこ保育園</v>
+        <v>認定こども園勅使百華幼稚園</v>
       </c>
       <c r="E99" t="str">
-        <v>高松市栗林町二丁目3-2</v>
+        <v>高松市勅使町955</v>
       </c>
       <c r="F99" t="str">
-        <v>087-831-1319</v>
+        <v>087-865-9419</v>
       </c>
       <c r="G99" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h273/</v>
       </c>
       <c r="H99" t="str">
         <v/>
       </c>
       <c r="I99" t="str">
-        <v>地域型保育事業（小規模保育事業A型）</v>
+        <v>認定こども園（幼稚園型）</v>
       </c>
       <c r="J99" t="str">
         <v/>
@@ -5910,10 +5910,10 @@
         <v/>
       </c>
       <c r="L99" t="str">
-        <v>12</v>
+        <v>1号認定 217、2・3号認定 99</v>
       </c>
       <c r="M99" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>1号認定 満3歳～、2・3号認定 16か月～（4.1時点1歳児）</v>
       </c>
       <c r="N99" t="str">
         <v>月火水木金土</v>
@@ -5922,36 +5922,36 @@
         <v>07:30</v>
       </c>
       <c r="P99" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q99" t="str">
         <v/>
       </c>
       <c r="R99" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" t="str">
-        <v>34.332365</v>
+        <v>34.332072</v>
       </c>
       <c r="C100" t="str">
-        <v>134.097201</v>
+        <v>134.049227</v>
       </c>
       <c r="D100" t="str">
-        <v>小規模保育所もも</v>
+        <v>栗林にこにこ保育園</v>
       </c>
       <c r="E100" t="str">
-        <v>高松市春日町1176</v>
+        <v>高松市栗林町二丁目3-2</v>
       </c>
       <c r="F100" t="str">
-        <v>087-843-8255</v>
+        <v>087-831-1319</v>
       </c>
       <c r="G100" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E6%25A0%2597%25E6%259E%2597%25E3%2581%25AB%25E3%2581%2593%25E3%2581%25AB%25E3%2581%2593%25E4%25BF%259D%25E8%2582%25B2%25E5%259C%2592/</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -5966,10 +5966,10 @@
         <v/>
       </c>
       <c r="L100" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M100" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N100" t="str">
         <v>月火水木金土</v>
@@ -5978,36 +5978,36 @@
         <v>07:30</v>
       </c>
       <c r="P100" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q100" t="str">
         <v/>
       </c>
       <c r="R100" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" t="str">
-        <v>34.288288</v>
+        <v>34.332365</v>
       </c>
       <c r="C101" t="str">
-        <v>134.059379</v>
+        <v>134.097201</v>
       </c>
       <c r="D101" t="str">
-        <v>らく楽多肥保育園</v>
+        <v>小規模保育所もも</v>
       </c>
       <c r="E101" t="str">
-        <v>高松市多肥上町1713</v>
+        <v>高松市春日町1176</v>
       </c>
       <c r="F101" t="str">
-        <v>087-816-8301</v>
+        <v>087-843-8255</v>
       </c>
       <c r="G101" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%25E5%25B0%258F%25E8%25A6%258F%25E6%25A8%25A1%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2582%2582%25E3%2582%2582/</v>
       </c>
       <c r="H101" t="str">
         <v/>
@@ -6022,10 +6022,10 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M101" t="str">
-        <v>3か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N101" t="str">
         <v>月火水木金土</v>
@@ -6034,7 +6034,7 @@
         <v>07:30</v>
       </c>
       <c r="P101" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q101" t="str">
         <v/>
@@ -6045,25 +6045,25 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" t="str">
-        <v>34.316351</v>
+        <v>34.288288</v>
       </c>
       <c r="C102" t="str">
-        <v>134.073388</v>
+        <v>134.059379</v>
       </c>
       <c r="D102" t="str">
-        <v>ソラ小規模保育園たかまつ</v>
+        <v>らく楽多肥保育園</v>
       </c>
       <c r="E102" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市多肥上町1713</v>
       </c>
       <c r="F102" t="str">
-        <v>087-816-5150</v>
+        <v>087-816-8301</v>
       </c>
       <c r="G102" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/らく楽多肥保育園/</v>
       </c>
       <c r="H102" t="str">
         <v/>
@@ -6078,16 +6078,16 @@
         <v/>
       </c>
       <c r="L102" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M102" t="str">
-        <v>54日～2歳児</v>
+        <v>3か月～2歳児</v>
       </c>
       <c r="N102" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O102" t="str">
-        <v>07:00</v>
+        <v>07:30</v>
       </c>
       <c r="P102" t="str">
         <v>19:00</v>
@@ -6101,25 +6101,25 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" t="str">
-        <v>34.303424</v>
+        <v>34.316351</v>
       </c>
       <c r="C103" t="str">
-        <v>134.060713</v>
+        <v>134.073388</v>
       </c>
       <c r="D103" t="str">
-        <v>ニチイキッズたひ東保育園</v>
+        <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市多肥下町1533-3</v>
+        <v>高松市木太町786-2</v>
       </c>
       <c r="F103" t="str">
-        <v>087-864-3133</v>
+        <v>087-816-5150</v>
       </c>
       <c r="G103" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ソラ小規模保育園たかまつ/</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -6137,16 +6137,16 @@
         <v>19</v>
       </c>
       <c r="M103" t="str">
-        <v>2か月～2歳児</v>
+        <v>54日～2歳児</v>
       </c>
       <c r="N103" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O103" t="str">
-        <v>07:30</v>
+        <v>07:00</v>
       </c>
       <c r="P103" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q103" t="str">
         <v/>
@@ -6157,25 +6157,25 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" t="str">
-        <v>34.298947</v>
+        <v>34.303424</v>
       </c>
       <c r="C104" t="str">
-        <v>134.055734</v>
+        <v>134.060713</v>
       </c>
       <c r="D104" t="str">
-        <v>ニチイキッズたひ西保育園</v>
+        <v>ニチイキッズたひ東保育園</v>
       </c>
       <c r="E104" t="str">
-        <v>高松市多肥下町1581-6</v>
+        <v>高松市多肥下町1533-3</v>
       </c>
       <c r="F104" t="str">
-        <v>087-815-0224</v>
+        <v>087-864-3133</v>
       </c>
       <c r="G104" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ東/</v>
       </c>
       <c r="H104" t="str">
         <v/>
@@ -6213,25 +6213,25 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" t="str">
-        <v>34.37717</v>
+        <v>34.298947</v>
       </c>
       <c r="C105" t="str">
-        <v>134.122418</v>
+        <v>134.055734</v>
       </c>
       <c r="D105" t="str">
-        <v>おるごーる</v>
+        <v>ニチイキッズたひ西保育園</v>
       </c>
       <c r="E105" t="str">
-        <v>高松市庵治町156-36</v>
+        <v>高松市多肥下町1581-6</v>
       </c>
       <c r="F105" t="str">
-        <v>087-871-3503</v>
+        <v>087-815-0224</v>
       </c>
       <c r="G105" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズたひ西/</v>
       </c>
       <c r="H105" t="str">
         <v/>
@@ -6246,10 +6246,10 @@
         <v/>
       </c>
       <c r="L105" t="str">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M105" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N105" t="str">
         <v>月火水木金土</v>
@@ -6258,7 +6258,7 @@
         <v>07:30</v>
       </c>
       <c r="P105" t="str">
-        <v>18:30</v>
+        <v>19:30</v>
       </c>
       <c r="Q105" t="str">
         <v/>
@@ -6269,25 +6269,25 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" t="str">
-        <v>34.2899</v>
+        <v>34.37717</v>
       </c>
       <c r="C106" t="str">
-        <v>134.05856</v>
+        <v>134.122418</v>
       </c>
       <c r="D106" t="str">
-        <v>にじいろうさぎ保育園</v>
+        <v>おるごーる</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市多肥上町1622-13</v>
+        <v>高松市庵治町156-36</v>
       </c>
       <c r="F106" t="str">
-        <v>087-889-3711</v>
+        <v>087-871-3503</v>
       </c>
       <c r="G106" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/オルゴール/</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -6302,7 +6302,7 @@
         <v/>
       </c>
       <c r="L106" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M106" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6320,30 +6320,30 @@
         <v/>
       </c>
       <c r="R106" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" t="str">
-        <v>34.336075</v>
+        <v>34.2899</v>
       </c>
       <c r="C107" t="str">
-        <v>134.072522</v>
+        <v>134.05856</v>
       </c>
       <c r="D107" t="str">
-        <v>木太にこにこ保育園</v>
+        <v>にじいろうさぎ保育園</v>
       </c>
       <c r="E107" t="str">
-        <v>高松市木太町2321-1</v>
+        <v>高松市多肥上町1622-13</v>
       </c>
       <c r="F107" t="str">
-        <v>087-837-5330</v>
+        <v>087-889-3711</v>
       </c>
       <c r="G107" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/にじいろうさぎ保育園/</v>
       </c>
       <c r="H107" t="str">
         <v/>
@@ -6358,7 +6358,7 @@
         <v/>
       </c>
       <c r="L107" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M107" t="str">
         <v>おおむね2か月～2歳児</v>
@@ -6370,7 +6370,7 @@
         <v>07:30</v>
       </c>
       <c r="P107" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q107" t="str">
         <v/>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="str">
-        <v>34.311371</v>
+        <v>34.336075</v>
       </c>
       <c r="C108" t="str">
-        <v>134.055948</v>
+        <v>134.072522</v>
       </c>
       <c r="D108" t="str">
-        <v>伏石にこにこ保育園</v>
+        <v>木太にこにこ保育園</v>
       </c>
       <c r="E108" t="str">
-        <v>高松市伏石町2100-1</v>
+        <v>高松市木太町2321-1</v>
       </c>
       <c r="F108" t="str">
-        <v>087-868-3339</v>
+        <v>087-837-5330</v>
       </c>
       <c r="G108" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/木太にこにこ保育園/</v>
       </c>
       <c r="H108" t="str">
         <v/>
@@ -6437,25 +6437,25 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" t="str">
-        <v>34.316136</v>
+        <v>34.311371</v>
       </c>
       <c r="C109" t="str">
-        <v>134.061202</v>
+        <v>134.055948</v>
       </c>
       <c r="D109" t="str">
-        <v>ニチイキッズまつなわ西保育園</v>
+        <v>伏石にこにこ保育園</v>
       </c>
       <c r="E109" t="str">
-        <v>高松市松縄町1118-8</v>
+        <v>高松市伏石町2100-1</v>
       </c>
       <c r="F109" t="str">
-        <v>087-864-3155</v>
+        <v>087-868-3339</v>
       </c>
       <c r="G109" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/伏石にこにこ保育園/</v>
       </c>
       <c r="H109" t="str">
         <v/>
@@ -6470,10 +6470,10 @@
         <v/>
       </c>
       <c r="L109" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M109" t="str">
-        <v>2か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N109" t="str">
         <v>月火水木金土</v>
@@ -6482,36 +6482,36 @@
         <v>07:30</v>
       </c>
       <c r="P109" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q109" t="str">
         <v/>
       </c>
       <c r="R109" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" t="str">
-        <v>34.3049893</v>
+        <v>34.316136</v>
       </c>
       <c r="C110" t="str">
-        <v>134.0560416</v>
+        <v>134.061202</v>
       </c>
       <c r="D110" t="str">
-        <v>太田にこにこ保育園</v>
+        <v>ニチイキッズまつなわ西保育園</v>
       </c>
       <c r="E110" t="str">
-        <v>高松市太田下町3026-13</v>
+        <v>高松市松縄町1118-8</v>
       </c>
       <c r="F110" t="str">
-        <v>087-868-2355</v>
+        <v>087-864-3155</v>
       </c>
       <c r="G110" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/ニチイキッズまつなわ西保育園/</v>
       </c>
       <c r="H110" t="str">
         <v/>
@@ -6529,7 +6529,7 @@
         <v>19</v>
       </c>
       <c r="M110" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>2か月～2歳児</v>
       </c>
       <c r="N110" t="str">
         <v>月火水木金土</v>
@@ -6538,36 +6538,36 @@
         <v>07:30</v>
       </c>
       <c r="P110" t="str">
-        <v>19:00</v>
+        <v>19:30</v>
       </c>
       <c r="Q110" t="str">
         <v/>
       </c>
       <c r="R110" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" t="str">
-        <v>34.2989616</v>
+        <v>34.3049893</v>
       </c>
       <c r="C111" t="str">
-        <v>134.0640027</v>
+        <v>134.0560416</v>
       </c>
       <c r="D111" t="str">
-        <v>林にこにこ保育園</v>
+        <v>太田にこにこ保育園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市林町252-1</v>
+        <v>高松市太田下町3026-13</v>
       </c>
       <c r="F111" t="str">
-        <v>087-868-0103</v>
+        <v>087-868-2355</v>
       </c>
       <c r="G111" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E5%A4%AA%E7%94%B0%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H111" t="str">
         <v/>
@@ -6605,25 +6605,25 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" t="str">
-        <v>34.2612106</v>
+        <v>34.2989616</v>
       </c>
       <c r="C112" t="str">
-        <v>134.0367875</v>
+        <v>134.0640027</v>
       </c>
       <c r="D112" t="str">
-        <v>保育の家みいろ</v>
+        <v>林にこにこ保育園</v>
       </c>
       <c r="E112" t="str">
-        <v>高松市香川町浅野668-5</v>
+        <v>高松市林町252-1</v>
       </c>
       <c r="F112" t="str">
-        <v>087-880-3274</v>
+        <v>087-868-0103</v>
       </c>
       <c r="G112" t="str">
-        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E6%9E%97%E3%81%AB%E3%81%93%E3%81%AB%E3%81%93%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -6638,10 +6638,10 @@
         <v/>
       </c>
       <c r="L112" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M112" t="str">
-        <v>３か月～2歳児</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N112" t="str">
         <v>月火水木金土</v>
@@ -6650,7 +6650,7 @@
         <v>07:30</v>
       </c>
       <c r="P112" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q112" t="str">
         <v/>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="str">
-        <v>34.3389027</v>
+        <v>34.2612106</v>
       </c>
       <c r="C113" t="str">
-        <v>134.052851</v>
+        <v>134.0367875</v>
       </c>
       <c r="D113" t="str">
-        <v>瓦町FLAG保育園</v>
+        <v>保育の家みいろ</v>
       </c>
       <c r="E113" t="str">
-        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
+        <v>高松市香川町浅野668-5</v>
       </c>
       <c r="F113" t="str">
-        <v>087-802-6966</v>
+        <v>087-880-3274</v>
       </c>
       <c r="G113" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
+        <v>https://kagawa-colorful.com/hoikusho/%E4%BF%9D%E8%82%B2%E3%81%AE%E5%AE%B6%E3%81%BF%E3%81%84%E3%82%8D/</v>
       </c>
       <c r="H113" t="str">
         <v/>
@@ -6694,7 +6694,7 @@
         <v/>
       </c>
       <c r="L113" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M113" t="str">
         <v>３か月～2歳児</v>
@@ -6706,42 +6706,42 @@
         <v>07:30</v>
       </c>
       <c r="P113" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q113" t="str">
         <v/>
       </c>
       <c r="R113" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="str">
-        <v>34.340379</v>
+        <v>34.3389027</v>
       </c>
       <c r="C114" t="str">
-        <v>134.044986</v>
+        <v>134.052851</v>
       </c>
       <c r="D114" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>瓦町FLAG保育園</v>
       </c>
       <c r="E114" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市常磐町一丁目3-1瓦町FLAG1F</v>
       </c>
       <c r="F114" t="str">
-        <v>087-813-0218</v>
+        <v>087-802-6966</v>
       </c>
       <c r="G114" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/%E7%93%A6%E7%94%BAFLAG%E4%BF%9D%E8%82%B2%E5%9C%92/</v>
       </c>
       <c r="H114" t="str">
         <v/>
       </c>
       <c r="I114" t="str">
-        <v>地域型保育事業（事業所内保育事業）</v>
+        <v>地域型保育事業（小規模保育事業A型）</v>
       </c>
       <c r="J114" t="str">
         <v/>
@@ -6750,10 +6750,10 @@
         <v/>
       </c>
       <c r="L114" t="str">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M114" t="str">
-        <v>6か月～2歳児</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N114" t="str">
         <v>月火水木金土</v>
@@ -6762,7 +6762,7 @@
         <v>07:30</v>
       </c>
       <c r="P114" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q114" t="str">
         <v/>
@@ -6773,63 +6773,119 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
+        <v>120</v>
+      </c>
+      <c r="B115" t="str">
+        <v>34.340379</v>
+      </c>
+      <c r="C115" t="str">
+        <v>134.044986</v>
+      </c>
+      <c r="D115" t="str">
+        <v>院内保育所てふてふ</v>
+      </c>
+      <c r="E115" t="str">
+        <v>高松市天神前5-6 高松メディカルモール</v>
+      </c>
+      <c r="F115" t="str">
+        <v>087-813-0218</v>
+      </c>
+      <c r="G115" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+      </c>
+      <c r="H115" t="str">
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <v>地域型保育事業（事業所内保育事業）</v>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
+        <v>7</v>
+      </c>
+      <c r="M115" t="str">
+        <v>6か月～2歳児</v>
+      </c>
+      <c r="N115" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O115" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P115" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="Q115" t="str">
+        <v/>
+      </c>
+      <c r="R115" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
         <v>121</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B116" t="str">
         <v>34.30287</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C116" t="str">
         <v>134.016075</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D116" t="str">
         <v>メリーＧＯランド高松園</v>
       </c>
-      <c r="E115" t="str">
+      <c r="E116" t="str">
         <v>高松市成合町796-1</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F116" t="str">
         <v>087-886-6669</v>
       </c>
-      <c r="G115" t="str">
+      <c r="G116" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
-      <c r="H115" t="str">
-        <v/>
-      </c>
-      <c r="I115" t="str">
+      <c r="H116" t="str">
+        <v/>
+      </c>
+      <c r="I116" t="str">
         <v>認定こども園（地方裁量型）</v>
       </c>
-      <c r="J115" t="str">
-        <v/>
-      </c>
-      <c r="K115" t="str">
-        <v/>
-      </c>
-      <c r="L115" t="str">
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
+      <c r="L116" t="str">
         <v>1号認定 20、2・3号認定 35</v>
       </c>
-      <c r="M115" t="str">
+      <c r="M116" t="str">
         <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
-      <c r="N115" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O115" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P115" t="str">
+      <c r="N116" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O116" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P116" t="str">
         <v>18:00</v>
       </c>
-      <c r="Q115" t="str">
-        <v/>
-      </c>
-      <c r="R115" t="str">
+      <c r="Q116" t="str">
+        <v/>
+      </c>
+      <c r="R116" t="str">
         <v>有</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -1880,9 +1880,18 @@
       <c r="G27" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h329/</v>
       </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
       <c r="I27" t="str">
         <v>認定こども園（幼保連携型）</v>
       </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
       <c r="L27" t="str">
         <v>1号認定 30、2・3号認定 144</v>
       </c>
@@ -1897,6 +1906,12 @@
       </c>
       <c r="P27" t="str">
         <v>19:00</v>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -3086,7 +3101,7 @@
         <v>134.010137</v>
       </c>
       <c r="D49" t="str">
-        <v>円座百華保育園</v>
+        <v>幼保連携型　円座百華こども園</v>
       </c>
       <c r="E49" t="str">
         <v>高松市円座町1478-1</v>
@@ -3095,13 +3110,13 @@
         <v>087-885-1203</v>
       </c>
       <c r="G49" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h167/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h332/</v>
       </c>
       <c r="H49" t="str">
         <v/>
       </c>
       <c r="I49" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -3646,7 +3661,7 @@
         <v>133.952485</v>
       </c>
       <c r="D59" t="str">
-        <v>みよし保育園</v>
+        <v>らく楽国分寺保育園</v>
       </c>
       <c r="E59" t="str">
         <v>高松市国分寺町柏原80</v>
@@ -4318,7 +4333,7 @@
         <v>134.055788</v>
       </c>
       <c r="D71" t="str">
-        <v>高松くりの木保育園</v>
+        <v>認定こども園　高松くりの木学舎</v>
       </c>
       <c r="E71" t="str">
         <v>高松市花園町三丁目4-5</v>
@@ -4327,13 +4342,13 @@
         <v>087-880-7211</v>
       </c>
       <c r="G71" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h268/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h333/</v>
       </c>
       <c r="H71" t="str">
         <v/>
       </c>
       <c r="I71" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J71" t="str">
         <v/>
@@ -4654,10 +4669,10 @@
         <v>134.0565783</v>
       </c>
       <c r="D77" t="str">
-        <v>あい保育園太田</v>
+        <v>アイグラン保育園太田</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市太田下町3027-3</v>
+        <v>高松市太田下町3027-4</v>
       </c>
       <c r="F77" t="str">
         <v>087-802-9065</v>
@@ -4713,13 +4728,13 @@
         <v>さくら福々保育園</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市松福町一丁目229-55</v>
+        <v>高松市松福町一丁目12-7</v>
       </c>
       <c r="F78" t="str">
         <v>087-802-1860</v>
       </c>
       <c r="G78" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/h322/</v>
       </c>
       <c r="H78" t="str">
         <v/>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -2653,7 +2653,7 @@
         <v>134.02164</v>
       </c>
       <c r="D41" t="str">
-        <v>勅使百華保育園</v>
+        <v>幼保連携型認定こども園　勅使百華こども園</v>
       </c>
       <c r="E41" t="str">
         <v>高松市勅使町955</v>
@@ -2662,7 +2662,7 @@
         <v>087-865-2998</v>
       </c>
       <c r="G41" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h34/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h340/</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2765,7 +2765,7 @@
         <v>134.037996</v>
       </c>
       <c r="D43" t="str">
-        <v>太田西保育園</v>
+        <v>らく楽太田保育園</v>
       </c>
       <c r="E43" t="str">
         <v>高松市太田下町2025</v>
@@ -2933,7 +2933,7 @@
         <v>134.115798</v>
       </c>
       <c r="D46" t="str">
-        <v>西光寺保育所</v>
+        <v>認定こども園　西光寺保育園</v>
       </c>
       <c r="E46" t="str">
         <v>高松市前田西町167-1</v>
@@ -2942,7 +2942,7 @@
         <v>087-847-6237</v>
       </c>
       <c r="G46" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h164/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h330/</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -2989,7 +2989,7 @@
         <v>134.092378</v>
       </c>
       <c r="D47" t="str">
-        <v>川添保育園</v>
+        <v>幼保連携型認定こども園　川添こども園</v>
       </c>
       <c r="E47" t="str">
         <v>高松市下田井町52</v>
@@ -2998,7 +2998,7 @@
         <v>087-847-5078</v>
       </c>
       <c r="G47" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h165/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h331/</v>
       </c>
       <c r="H47" t="str">
         <v/>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -2901,7 +2901,7 @@
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="M45" t="str">
         <v>3か月～</v>
@@ -2913,7 +2913,7 @@
         <v>07:00</v>
       </c>
       <c r="P45" t="str">
-        <v>20:00</v>
+        <v>19:00</v>
       </c>
       <c r="Q45" t="str">
         <v/>
@@ -3125,10 +3125,10 @@
         <v/>
       </c>
       <c r="L49" t="str">
-        <v>260</v>
+        <v>1号認定 15、2・3号認定 250</v>
       </c>
       <c r="M49" t="str">
-        <v>7か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 ３か月～</v>
       </c>
       <c r="N49" t="str">
         <v>月火水木金土</v>
@@ -3408,7 +3408,7 @@
         <v>60</v>
       </c>
       <c r="M54" t="str">
-        <v>1歳児～</v>
+        <v>1歳～</v>
       </c>
       <c r="N54" t="str">
         <v>月火水木金土</v>
@@ -4445,7 +4445,7 @@
         <v>134.075471</v>
       </c>
       <c r="D73" t="str">
-        <v>あさがお保育園</v>
+        <v>認定こども園あさがおこども園</v>
       </c>
       <c r="E73" t="str">
         <v>高松市上林町69</v>
@@ -4454,13 +4454,13 @@
         <v>087-899-5660</v>
       </c>
       <c r="G73" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h276/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h358/</v>
       </c>
       <c r="H73" t="str">
         <v/>
       </c>
       <c r="I73" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J73" t="str">
         <v/>
@@ -4469,10 +4469,10 @@
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>120</v>
+        <v>1号認定 9、2・3号認定 131</v>
       </c>
       <c r="M73" t="str">
-        <v>３か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 3か月～</v>
       </c>
       <c r="N73" t="str">
         <v>月火水木金土</v>
@@ -4637,10 +4637,10 @@
         <v/>
       </c>
       <c r="L76" t="str">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M76" t="str">
-        <v>おおむね2か月～</v>
+        <v>2か月～</v>
       </c>
       <c r="N76" t="str">
         <v>月火水木金土</v>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -3184,7 +3184,7 @@
         <v>130</v>
       </c>
       <c r="M50" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N50" t="str">
         <v>月火水木金土</v>
@@ -3520,22 +3520,22 @@
         <v>30</v>
       </c>
       <c r="M56" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N56" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="O56" t="str">
-        <v>06:40</v>
+        <v>8:00</v>
       </c>
       <c r="P56" t="str">
-        <v>25:00</v>
+        <v>26:00</v>
       </c>
       <c r="Q56" t="str">
         <v/>
       </c>
       <c r="R56" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="57">
@@ -3576,7 +3576,7 @@
         <v>130</v>
       </c>
       <c r="M57" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N57" t="str">
         <v>月火水木金土</v>
@@ -4192,10 +4192,10 @@
         <v>180</v>
       </c>
       <c r="M68" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N68" t="str">
-        <v>月火水木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="O68" t="str">
         <v>07:30</v>
@@ -4357,10 +4357,10 @@
         <v/>
       </c>
       <c r="L71" t="str">
-        <v>105</v>
+        <v>1号認定 9、2・3号認定 96</v>
       </c>
       <c r="M71" t="str">
-        <v>3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 3か月～</v>
       </c>
       <c r="N71" t="str">
         <v>月火水木金土</v>
@@ -4375,7 +4375,7 @@
         <v/>
       </c>
       <c r="R71" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="72">

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -2733,7 +2733,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M42" t="str">
         <v>2か月～</v>
@@ -2948,7 +2948,7 @@
         <v/>
       </c>
       <c r="I46" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -2957,10 +2957,10 @@
         <v/>
       </c>
       <c r="L46" t="str">
-        <v>110</v>
+        <v>1号認定 15、2・3号認定 107</v>
       </c>
       <c r="M46" t="str">
-        <v>2か月～</v>
+        <v>1号認定 3歳児～、2・3号認定 2か月～</v>
       </c>
       <c r="N46" t="str">
         <v>月火水木金土</v>
@@ -2975,7 +2975,7 @@
         <v/>
       </c>
       <c r="R46" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="47">
@@ -3004,7 +3004,7 @@
         <v/>
       </c>
       <c r="I47" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J47" t="str">
         <v/>
@@ -3013,10 +3013,10 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v>120</v>
+        <v>1号認定 15、2・3号認定 105</v>
       </c>
       <c r="M47" t="str">
-        <v>3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 ３か月～</v>
       </c>
       <c r="N47" t="str">
         <v>月火水木金土</v>
@@ -3349,7 +3349,7 @@
         <v/>
       </c>
       <c r="L53" t="str">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M53" t="str">
         <v>2か月～</v>
@@ -3853,7 +3853,7 @@
         <v/>
       </c>
       <c r="L62" t="str">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M62" t="str">
         <v>2か月～</v>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -2668,7 +2668,7 @@
         <v/>
       </c>
       <c r="I41" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J41" t="str">
         <v/>
@@ -2677,10 +2677,10 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>230</v>
+        <v>1号認定 15、2・3号認定 220</v>
       </c>
       <c r="M41" t="str">
-        <v>3か月～</v>
+        <v>1号認定 満3歳～、2・3号認定 ３か月～</v>
       </c>
       <c r="N41" t="str">
         <v>月火水木金土</v>
@@ -2695,7 +2695,7 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <v>無</v>
+        <v>有</v>
       </c>
     </row>
     <row r="42">
@@ -2789,10 +2789,10 @@
         <v/>
       </c>
       <c r="L43" t="str">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M43" t="str">
-        <v>2か月～</v>
+        <v>3か月～</v>
       </c>
       <c r="N43" t="str">
         <v>月火水木金土</v>
@@ -4528,7 +4528,7 @@
         <v>80</v>
       </c>
       <c r="M74" t="str">
-        <v>6か月</v>
+        <v>満6か月</v>
       </c>
       <c r="N74" t="str">
         <v>月火水木金土</v>
@@ -4537,7 +4537,7 @@
         <v>07:30</v>
       </c>
       <c r="P74" t="str">
-        <v>19:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q74" t="str">
         <v/>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -3605,7 +3605,7 @@
         <v>134.035674</v>
       </c>
       <c r="D58" t="str">
-        <v>さんさん保育園</v>
+        <v>さんさんこども園</v>
       </c>
       <c r="E58" t="str">
         <v>高松市香川町浅野834-1</v>
@@ -3614,13 +3614,13 @@
         <v>087-888-6333</v>
       </c>
       <c r="G58" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h170/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/h357/</v>
       </c>
       <c r="H58" t="str">
         <v/>
       </c>
       <c r="I58" t="str">
-        <v>認定私立保育所</v>
+        <v>認定こども園（幼保連携型）</v>
       </c>
       <c r="J58" t="str">
         <v/>
@@ -3629,10 +3629,10 @@
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>110</v>
+        <v>1号認定 10、2・3号認定 120</v>
       </c>
       <c r="M58" t="str">
-        <v>3か月～</v>
+        <v>1号認定 3歳～、2・3号認定 ３か月～</v>
       </c>
       <c r="N58" t="str">
         <v>月火水木金土</v>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -6037,7 +6037,7 @@
         <v/>
       </c>
       <c r="L101" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M101" t="str">
         <v>2か月～2歳児</v>
@@ -6105,7 +6105,7 @@
         <v>07:30</v>
       </c>
       <c r="P102" t="str">
-        <v>19:00</v>
+        <v>18:30</v>
       </c>
       <c r="Q102" t="str">
         <v/>
@@ -6128,7 +6128,7 @@
         <v>ソラ小規模保育園たかまつ</v>
       </c>
       <c r="E103" t="str">
-        <v>高松市木太町786-2</v>
+        <v>高松市木太町9区786-2</v>
       </c>
       <c r="F103" t="str">
         <v>087-816-5150</v>
@@ -6320,7 +6320,7 @@
         <v>11</v>
       </c>
       <c r="M106" t="str">
-        <v>おおむね2か月～2歳児</v>
+        <v>おおむね3か月～2歳児</v>
       </c>
       <c r="N106" t="str">
         <v>月火水木金土</v>
@@ -6391,7 +6391,7 @@
         <v/>
       </c>
       <c r="R107" t="str">
-        <v>有</v>
+        <v>無</v>
       </c>
     </row>
     <row r="108">
@@ -6685,7 +6685,7 @@
         <v>134.0367875</v>
       </c>
       <c r="D113" t="str">
-        <v>保育の家みいろ</v>
+        <v>みいろ</v>
       </c>
       <c r="E113" t="str">
         <v>高松市香川町浅野668-5</v>
@@ -6797,16 +6797,16 @@
         <v>134.044986</v>
       </c>
       <c r="D115" t="str">
-        <v>院内保育所てふてふ</v>
+        <v>保育所てふてふ</v>
       </c>
       <c r="E115" t="str">
-        <v>高松市天神前5-6 高松メディカルモール</v>
+        <v>高松市天神前5-6 高松メディカルモール2階・4階</v>
       </c>
       <c r="F115" t="str">
         <v>087-813-0218</v>
       </c>
       <c r="G115" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/%25E9%2599%25A2%25E5%2586%2585%25E4%25BF%259D%25E8%2582%25B2%25E6%2589%2580%25E3%2580%2580%25E3%2581%25A6%25E3%2581%25B5%25E3%2581%25A6%25E3%2581%25B5/</v>
+        <v>https://kagawa-colorful.com/hoikusyo/院内保育所　てふてふ/</v>
       </c>
       <c r="H115" t="str">
         <v/>
@@ -6833,7 +6833,7 @@
         <v>07:30</v>
       </c>
       <c r="P115" t="str">
-        <v>18:30</v>
+        <v>19:00</v>
       </c>
       <c r="Q115" t="str">
         <v/>

--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6847,60 +6847,101 @@
         <v>121</v>
       </c>
       <c r="B116" t="str">
+        <v>34.31871165074609</v>
+      </c>
+      <c r="C116" t="str">
+        <v>134.04616290974917</v>
+      </c>
+      <c r="D116" t="str">
+        <v>小規模保育施設おひさま保育園</v>
+      </c>
+      <c r="E116" t="str">
+        <v xml:space="preserve">高松市三条町４９４番地１　</v>
+      </c>
+      <c r="F116" t="str">
+        <v>087-899-5565</v>
+      </c>
+      <c r="G116" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　小規模保育施設おひさま保育園/</v>
+      </c>
+      <c r="I116" t="str">
+        <v>地域型保育事業（事業所内保育事業）</v>
+      </c>
+      <c r="L116" t="str">
+        <v>18</v>
+      </c>
+      <c r="M116" t="str">
+        <v>おおむね３か月～2歳児</v>
+      </c>
+      <c r="N116" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O116" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P116" t="str">
+        <v>19:00</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>122</v>
+      </c>
+      <c r="B117" t="str">
         <v>34.30287</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C117" t="str">
         <v>134.016075</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D117" t="str">
         <v>メリーＧＯランド高松園</v>
       </c>
-      <c r="E116" t="str">
+      <c r="E117" t="str">
         <v>高松市成合町796-1</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F117" t="str">
         <v>087-886-6669</v>
       </c>
-      <c r="G116" t="str">
+      <c r="G117" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
-      <c r="H116" t="str">
-        <v/>
-      </c>
-      <c r="I116" t="str">
+      <c r="H117" t="str">
+        <v/>
+      </c>
+      <c r="I117" t="str">
         <v>認定こども園（地方裁量型）</v>
       </c>
-      <c r="J116" t="str">
-        <v/>
-      </c>
-      <c r="K116" t="str">
-        <v/>
-      </c>
-      <c r="L116" t="str">
+      <c r="J117" t="str">
+        <v/>
+      </c>
+      <c r="K117" t="str">
+        <v/>
+      </c>
+      <c r="L117" t="str">
         <v>1号認定 20、2・3号認定 35</v>
       </c>
-      <c r="M116" t="str">
+      <c r="M117" t="str">
         <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
-      <c r="N116" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O116" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P116" t="str">
+      <c r="N117" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O117" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P117" t="str">
         <v>18:00</v>
       </c>
-      <c r="Q116" t="str">
-        <v/>
-      </c>
-      <c r="R116" t="str">
+      <c r="Q117" t="str">
+        <v/>
+      </c>
+      <c r="R117" t="str">
         <v>有</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6864,9 +6864,18 @@
       <c r="G116" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　小規模保育施設おひさま保育園/</v>
       </c>
+      <c r="H116" t="str">
+        <v/>
+      </c>
       <c r="I116" t="str">
         <v>地域型保育事業（事業所内保育事業）</v>
       </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
       <c r="L116" t="str">
         <v>18</v>
       </c>
@@ -6881,6 +6890,12 @@
       </c>
       <c r="P116" t="str">
         <v>19:00</v>
+      </c>
+      <c r="Q116" t="str">
+        <v/>
+      </c>
+      <c r="R116" t="str">
+        <v>無</v>
       </c>
     </row>
     <row r="117">
@@ -6888,40 +6903,31 @@
         <v>122</v>
       </c>
       <c r="B117" t="str">
-        <v>34.30287</v>
+        <v>34.297299240412265</v>
       </c>
       <c r="C117" t="str">
-        <v>134.016075</v>
+        <v>134.0574624385844</v>
       </c>
       <c r="D117" t="str">
-        <v>メリーＧＯランド高松園</v>
+        <v>スマはぴ保育園　なないろstation</v>
       </c>
       <c r="E117" t="str">
-        <v>高松市成合町796-1</v>
+        <v xml:space="preserve">高松市多肥上町１３０1番地３　</v>
       </c>
       <c r="F117" t="str">
-        <v>087-886-6669</v>
+        <v>090-2373-7716</v>
       </c>
       <c r="G117" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H117" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　スマはぴ保育園なないろstation/</v>
       </c>
       <c r="I117" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J117" t="str">
-        <v/>
-      </c>
-      <c r="K117" t="str">
-        <v/>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="L117" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
+        <v>18</v>
       </c>
       <c r="M117" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+        <v>３か月～2歳児</v>
       </c>
       <c r="N117" t="str">
         <v>月火水木金土</v>
@@ -6930,18 +6936,71 @@
         <v>07:30</v>
       </c>
       <c r="P117" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q117" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="R117" t="str">
         <v>有</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>123</v>
+      </c>
+      <c r="B118" t="str">
+        <v>34.30287</v>
+      </c>
+      <c r="C118" t="str">
+        <v>134.016075</v>
+      </c>
+      <c r="D118" t="str">
+        <v>メリーＧＯランド高松園</v>
+      </c>
+      <c r="E118" t="str">
+        <v>高松市成合町796-1</v>
+      </c>
+      <c r="F118" t="str">
+        <v>087-886-6669</v>
+      </c>
+      <c r="G118" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
+      </c>
+      <c r="H118" t="str">
+        <v/>
+      </c>
+      <c r="I118" t="str">
+        <v>認定こども園（地方裁量型）</v>
+      </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+      <c r="K118" t="str">
+        <v/>
+      </c>
+      <c r="L118" t="str">
+        <v>1号認定 20、2・3号認定 35</v>
+      </c>
+      <c r="M118" t="str">
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+      </c>
+      <c r="N118" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O118" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P118" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="Q118" t="str">
+        <v/>
+      </c>
+      <c r="R118" t="str">
+        <v>有</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R118"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6920,9 +6920,18 @@
       <c r="G117" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　スマはぴ保育園なないろstation/</v>
       </c>
+      <c r="H117" t="str">
+        <v/>
+      </c>
       <c r="I117" t="str">
         <v>地域型保育事業（事業所内保育事業）</v>
       </c>
+      <c r="J117" t="str">
+        <v/>
+      </c>
+      <c r="K117" t="str">
+        <v/>
+      </c>
       <c r="L117" t="str">
         <v>18</v>
       </c>
@@ -6937,6 +6946,9 @@
       </c>
       <c r="P117" t="str">
         <v>19:00</v>
+      </c>
+      <c r="Q117" t="str">
+        <v/>
       </c>
       <c r="R117" t="str">
         <v>有</v>
@@ -6947,40 +6959,31 @@
         <v>123</v>
       </c>
       <c r="B118" t="str">
-        <v>34.30287</v>
+        <v>34.309844386262995</v>
       </c>
       <c r="C118" t="str">
-        <v>134.016075</v>
+        <v>134.04623465392953</v>
       </c>
       <c r="D118" t="str">
-        <v>メリーＧＯランド高松園</v>
+        <v>にこにこ保育教育研究センター　附属保育園すくすく</v>
       </c>
       <c r="E118" t="str">
-        <v>高松市成合町796-1</v>
+        <v>高松市太田下町２３５０番地１</v>
       </c>
       <c r="F118" t="str">
-        <v>087-886-6669</v>
+        <v>087-802-5361</v>
       </c>
       <c r="G118" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H118" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　にこにこ保育教育研究センター附属保育園すくすく/</v>
       </c>
       <c r="I118" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J118" t="str">
-        <v/>
-      </c>
-      <c r="K118" t="str">
-        <v/>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="L118" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
+        <v>19</v>
       </c>
       <c r="M118" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N118" t="str">
         <v>月火水木金土</v>
@@ -6989,18 +6992,71 @@
         <v>07:30</v>
       </c>
       <c r="P118" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q118" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="R118" t="str">
         <v>有</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>124</v>
+      </c>
+      <c r="B119" t="str">
+        <v>34.30287</v>
+      </c>
+      <c r="C119" t="str">
+        <v>134.016075</v>
+      </c>
+      <c r="D119" t="str">
+        <v>メリーＧＯランド高松園</v>
+      </c>
+      <c r="E119" t="str">
+        <v>高松市成合町796-1</v>
+      </c>
+      <c r="F119" t="str">
+        <v>087-886-6669</v>
+      </c>
+      <c r="G119" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
+      </c>
+      <c r="H119" t="str">
+        <v/>
+      </c>
+      <c r="I119" t="str">
+        <v>認定こども園（地方裁量型）</v>
+      </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+      <c r="K119" t="str">
+        <v/>
+      </c>
+      <c r="L119" t="str">
+        <v>1号認定 20、2・3号認定 35</v>
+      </c>
+      <c r="M119" t="str">
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+      </c>
+      <c r="N119" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O119" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P119" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="Q119" t="str">
+        <v/>
+      </c>
+      <c r="R119" t="str">
+        <v>有</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6976,9 +6976,18 @@
       <c r="G118" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　にこにこ保育教育研究センター附属保育園すくすく/</v>
       </c>
+      <c r="H118" t="str">
+        <v/>
+      </c>
       <c r="I118" t="str">
         <v>地域型保育事業（事業所内保育事業）</v>
       </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+      <c r="K118" t="str">
+        <v/>
+      </c>
       <c r="L118" t="str">
         <v>19</v>
       </c>
@@ -6993,6 +7002,9 @@
       </c>
       <c r="P118" t="str">
         <v>19:00</v>
+      </c>
+      <c r="Q118" t="str">
+        <v/>
       </c>
       <c r="R118" t="str">
         <v>有</v>
@@ -7003,40 +7015,31 @@
         <v>124</v>
       </c>
       <c r="B119" t="str">
-        <v>34.30287</v>
+        <v>34.3097729899615</v>
       </c>
       <c r="C119" t="str">
-        <v>134.016075</v>
+        <v>134.0461698809127</v>
       </c>
       <c r="D119" t="str">
-        <v>メリーＧＯランド高松園</v>
+        <v>にこにこ保育教育研究センター　附属保育園わくわく</v>
       </c>
       <c r="E119" t="str">
-        <v>高松市成合町796-1</v>
+        <v>高松市太田下町２３５０番地１</v>
       </c>
       <c r="F119" t="str">
-        <v>087-886-6669</v>
+        <v>087-802-5362</v>
       </c>
       <c r="G119" t="str">
-        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
-      </c>
-      <c r="H119" t="str">
-        <v/>
+        <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　にこにこ保育教育研究センター附属保育園わくわく/</v>
       </c>
       <c r="I119" t="str">
-        <v>認定こども園（地方裁量型）</v>
-      </c>
-      <c r="J119" t="str">
-        <v/>
-      </c>
-      <c r="K119" t="str">
-        <v/>
+        <v>地域型保育事業（事業所内保育事業）</v>
       </c>
       <c r="L119" t="str">
-        <v>1号認定 20、2・3号認定 35</v>
+        <v>19</v>
       </c>
       <c r="M119" t="str">
-        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+        <v>おおむね2か月～2歳児</v>
       </c>
       <c r="N119" t="str">
         <v>月火水木金土</v>
@@ -7045,18 +7048,71 @@
         <v>07:30</v>
       </c>
       <c r="P119" t="str">
-        <v>18:00</v>
-      </c>
-      <c r="Q119" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="R119" t="str">
         <v>有</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>125</v>
+      </c>
+      <c r="B120" t="str">
+        <v>34.30287</v>
+      </c>
+      <c r="C120" t="str">
+        <v>134.016075</v>
+      </c>
+      <c r="D120" t="str">
+        <v>メリーＧＯランド高松園</v>
+      </c>
+      <c r="E120" t="str">
+        <v>高松市成合町796-1</v>
+      </c>
+      <c r="F120" t="str">
+        <v>087-886-6669</v>
+      </c>
+      <c r="G120" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
+      </c>
+      <c r="H120" t="str">
+        <v/>
+      </c>
+      <c r="I120" t="str">
+        <v>認定こども園（地方裁量型）</v>
+      </c>
+      <c r="J120" t="str">
+        <v/>
+      </c>
+      <c r="K120" t="str">
+        <v/>
+      </c>
+      <c r="L120" t="str">
+        <v>1号認定 20、2・3号認定 35</v>
+      </c>
+      <c r="M120" t="str">
+        <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
+      </c>
+      <c r="N120" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O120" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P120" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="Q120" t="str">
+        <v/>
+      </c>
+      <c r="R120" t="str">
+        <v>有</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/nursery_school/data.xlsx
+++ b/data/nursery_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7032,9 +7032,18 @@
       <c r="G119" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　にこにこ保育教育研究センター附属保育園わくわく/</v>
       </c>
+      <c r="H119" t="str">
+        <v/>
+      </c>
       <c r="I119" t="str">
         <v>地域型保育事業（事業所内保育事業）</v>
       </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+      <c r="K119" t="str">
+        <v/>
+      </c>
       <c r="L119" t="str">
         <v>19</v>
       </c>
@@ -7049,6 +7058,9 @@
       </c>
       <c r="P119" t="str">
         <v>19:00</v>
+      </c>
+      <c r="Q119" t="str">
+        <v/>
       </c>
       <c r="R119" t="str">
         <v>有</v>
@@ -7059,60 +7071,104 @@
         <v>125</v>
       </c>
       <c r="B120" t="str">
+        <v>34.27968265221049</v>
+      </c>
+      <c r="C120" t="str">
+        <v>134.02278072883618</v>
+      </c>
+      <c r="D120" t="str">
+        <v>らく楽寺井保育園</v>
+      </c>
+      <c r="E120" t="str">
+        <v>高松市寺井町１３６４番地２５</v>
+      </c>
+      <c r="F120" t="str">
+        <v>087-885-6002</v>
+      </c>
+      <c r="G120" t="str">
+        <v>https://kagawa-colorful.com/hoikusyo/小規模保育所　らく楽寺井保育園/</v>
+      </c>
+      <c r="I120" t="str">
+        <v>地域型保育事業（事業所内保育事業）</v>
+      </c>
+      <c r="L120" t="str">
+        <v>18</v>
+      </c>
+      <c r="M120" t="str">
+        <v>３か月～2歳児</v>
+      </c>
+      <c r="N120" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O120" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P120" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="R120" t="str">
+        <v>無</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>126</v>
+      </c>
+      <c r="B121" t="str">
         <v>34.30287</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C121" t="str">
         <v>134.016075</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D121" t="str">
         <v>メリーＧＯランド高松園</v>
       </c>
-      <c r="E120" t="str">
+      <c r="E121" t="str">
         <v>高松市成合町796-1</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F121" t="str">
         <v>087-886-6669</v>
       </c>
-      <c r="G120" t="str">
+      <c r="G121" t="str">
         <v>https://kagawa-colorful.com/hoikusyo/h274/</v>
       </c>
-      <c r="H120" t="str">
-        <v/>
-      </c>
-      <c r="I120" t="str">
+      <c r="H121" t="str">
+        <v/>
+      </c>
+      <c r="I121" t="str">
         <v>認定こども園（地方裁量型）</v>
       </c>
-      <c r="J120" t="str">
-        <v/>
-      </c>
-      <c r="K120" t="str">
-        <v/>
-      </c>
-      <c r="L120" t="str">
+      <c r="J121" t="str">
+        <v/>
+      </c>
+      <c r="K121" t="str">
+        <v/>
+      </c>
+      <c r="L121" t="str">
         <v>1号認定 20、2・3号認定 35</v>
       </c>
-      <c r="M120" t="str">
+      <c r="M121" t="str">
         <v>1号認定 満3歳～、2・3号認定 1歳半～</v>
       </c>
-      <c r="N120" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="O120" t="str">
-        <v>07:30</v>
-      </c>
-      <c r="P120" t="str">
+      <c r="N121" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="O121" t="str">
+        <v>07:30</v>
+      </c>
+      <c r="P121" t="str">
         <v>18:00</v>
       </c>
-      <c r="Q120" t="str">
-        <v/>
-      </c>
-      <c r="R120" t="str">
+      <c r="Q121" t="str">
+        <v/>
+      </c>
+      <c r="R121" t="str">
         <v>有</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R121"/>
   </ignoredErrors>
 </worksheet>
 </file>